--- a/tests/C2Pro_Test_Suites_Master.xlsx
+++ b/tests/C2Pro_Test_Suites_Master.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esus_\Documents\AI\ZTWQ\c2pro\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4196A479-2A99-41DD-A857-D384F0FB0C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20574B73-32BB-4CF4-A1E6-7B37358BA636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2070" windowWidth="23280" windowHeight="12480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12480" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suite Test" sheetId="1" r:id="rId1"/>
     <sheet name="Promts" sheetId="2" r:id="rId2"/>
     <sheet name="Unit Test" sheetId="3" r:id="rId3"/>
     <sheet name="promt" sheetId="4" r:id="rId4"/>
+    <sheet name="Agentes" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Suite Test'!$A$1:$J$114</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3291" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3376" uniqueCount="832">
   <si>
     <t>Nº</t>
   </si>
@@ -2826,12 +2827,103 @@
   <si>
     <t xml:space="preserve"> apps/api/tests/modules/projects/domain/.</t>
   </si>
+  <si>
+    <t>apps/api/tests/modules/procurement/domain/.</t>
+  </si>
+  <si>
+    <t>SEMANAS 1-4 (S1-S2):</t>
+  </si>
+  <si>
+    <t>├── [Agente 1]  Security Core ────────────────►</t>
+  </si>
+  <si>
+    <t>├── [Agente 10] DTOs ─────►</t>
+  </si>
+  <si>
+    <t>└── [Agente 8]  Event Bus básico ───►</t>
+  </si>
+  <si>
+    <t>SEMANAS 5-8 (S3-S4):</t>
+  </si>
+  <si>
+    <t>└── [Agente 2]  Documents ────────────────────►</t>
+  </si>
+  <si>
+    <t>SEMANAS 9-12 (S5-S6):</t>
+  </si>
+  <si>
+    <t>└── [Agente 6]  Coherence (CRÍTICO) ──────────►</t>
+  </si>
+  <si>
+    <t>SEMANAS 13-16 (S7-S8):</t>
+  </si>
+  <si>
+    <t>├── [Agente 3]  Projects ────────►</t>
+  </si>
+  <si>
+    <t>└── [Agente 4]  Procurement ─────► (después de Projects)</t>
+  </si>
+  <si>
+    <t>SEMANAS 17-20 (S9-S10):</t>
+  </si>
+  <si>
+    <t>├── [Agente 7]  Stakeholders ────►</t>
+  </si>
+  <si>
+    <t>└── [Agente 5]  Analysis ────────►</t>
+  </si>
+  <si>
+    <t>SEMANAS 21-24 (S11-S12):</t>
+  </si>
+  <si>
+    <t>├── [Agente 9]  Observability ───►</t>
+  </si>
+  <si>
+    <t>├── [Agente 10] HTTP Adapters ───►</t>
+  </si>
+  <si>
+    <t>├── [Agente 8]  Celery/DLQ ──────►</t>
+  </si>
+  <si>
+    <t>└── [Agente 11] Integration ─────────────────►</t>
+  </si>
+  <si>
+    <t>**SYSTEM ROLE:** AGENT 1 - SECURITY CORE &amp; GATEKEEPER
+**1. INITIALIZATION &amp; CONTEXT**
+You are the **Security Lead** for C2Pro v2.1.
+* **CRITICAL:** Read and internalize `agents.md` immediately. It contains your architectural constraints, directory structure, and TDD protocols.
+* **LATENCY:** Do not explain TDD concepts. Output code directly.
+**2. YOUR ASSIGNED SCOPE**
+You own the "Shield" of the application.
+* **Components:**
+    * MCP Gateway (Allowlist, Rate Limiting, Audit).
+    * Anonymizer Service (PII Detection, Strategies).
+    * Tenant Isolation (ContextVars, RLS enforcement).
+    * JWT Validation (Auth Middleware).
+    * Anti-Gaming Detection (Logic &amp; Rules).
+* **Test Suites (Target 100%):**
+    * `TS-UC-SEC-MCP-001` to `004`
+    * `TS-UC-SEC-ANO-001` to `003`
+    * `TS-UC-SEC-TNT-001`
+    * `TS-UC-SEC-JWT-001`
+    * `TS-UC-SEC-AUD-001`
+    * `TS-UC-SEC-GAM-001`
+    * `TS-INT-*` (Security specific integrations only)
+    * `TS-E2E-SEC-*` (Security specific E2E)
+**3. EXECUTION PROTOCOL**
+When I provide a Suite ID (e.g., `TS-UC-SEC-MCP-001`):
+1.  **Lookup:** Check `C2PRO_TEST_SUITES_INDEX_v1.1.md` for scope.
+2.  **RED:** Generate `tests/core/security/test_*.py`. Assert failure.
+3.  **GREEN:** Generate `src/core/security/*.py`. Use "Fake It" pattern.
+4.  **UPDATE:** Remind me to update `C2PRO_TDD_BACKLOG_v1.0.md`.
+**AWAITING INPUT:** Please provide a TS-UC-SEC ID.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2880,6 +2972,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -2983,7 +3081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3028,6 +3126,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6970,9 +7074,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I278" sqref="I278"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G318" sqref="G318:G331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14309,6 +14413,9 @@
       <c r="G277" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="H277" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="I277" t="s">
         <v>810</v>
       </c>
@@ -14335,6 +14442,9 @@
       <c r="G278" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="H278" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J278" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-PRJ-WBS-001test_002_wbs_item_creation_minimum_fields</v>
@@ -14358,6 +14468,9 @@
       <c r="G279" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="H279" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J279" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-PRJ-WBS-001test_003_wbs_item_fails_without_code</v>
@@ -14381,6 +14494,9 @@
       <c r="G280" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="H280" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J280" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-PRJ-WBS-001test_004_wbs_item_fails_without_name</v>
@@ -14404,6 +14520,9 @@
       <c r="G281" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="H281" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J281" t="str">
         <f t="shared" ref="J281:J331" si="4">CONCATENATE(A281,C281)</f>
         <v>TS-UD-PRJ-WBS-001test_005_wbs_item_fails_invalid_level</v>
@@ -14427,6 +14546,9 @@
       <c r="G282" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="H282" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J282" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_006_wbs_item_immutability</v>
@@ -14450,6 +14572,9 @@
       <c r="G283" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="H283" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J283" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_007_wbs_code_format_1</v>
@@ -14473,6 +14598,9 @@
       <c r="G284" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="H284" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J284" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_008_wbs_code_format_1_1</v>
@@ -14496,6 +14624,9 @@
       <c r="G285" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="H285" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J285" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_009_wbs_code_format_1_1_1</v>
@@ -14519,6 +14650,9 @@
       <c r="G286" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="H286" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J286" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_010_wbs_code_format_1_1_1_1</v>
@@ -14542,6 +14676,9 @@
       <c r="G287" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="H287" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J287" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_011_wbs_code_invalid_format_rejected</v>
@@ -14565,6 +14702,9 @@
       <c r="G288" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="H288" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J288" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_012_wbs_code_uniqueness_per_project</v>
@@ -14588,6 +14728,9 @@
       <c r="G289" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="H289" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J289" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_013_wbs_level_1_valid</v>
@@ -14611,6 +14754,9 @@
       <c r="G290" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="H290" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J290" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_014_wbs_level_4_valid</v>
@@ -14634,6 +14780,9 @@
       <c r="G291" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="H291" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J291" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_015_wbs_level_0_invalid</v>
@@ -14657,6 +14806,9 @@
       <c r="G292" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="H292" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J292" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_016_wbs_level_5_invalid</v>
@@ -14680,6 +14832,9 @@
       <c r="G293" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="H293" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J293" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_017_wbs_level_matches_code_depth</v>
@@ -14702,6 +14857,9 @@
       </c>
       <c r="G294" s="12" t="s">
         <v>771</v>
+      </c>
+      <c r="H294" s="12" t="s">
+        <v>407</v>
       </c>
       <c r="J294" t="str">
         <f t="shared" si="4"/>
@@ -14849,6 +15007,15 @@
       <c r="F302" s="9" t="s">
         <v>720</v>
       </c>
+      <c r="G302" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="H302" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="I302" t="s">
+        <v>811</v>
+      </c>
       <c r="J302" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_001_optimal_date_production_only</v>
@@ -14869,6 +15036,12 @@
       <c r="F303" s="9" t="s">
         <v>720</v>
       </c>
+      <c r="G303" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="H303" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J303" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_002_optimal_date_production_transit</v>
@@ -14889,6 +15062,12 @@
       <c r="F304" s="9" t="s">
         <v>720</v>
       </c>
+      <c r="G304" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="H304" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J304" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_003_optimal_date_production_transit_buffer</v>
@@ -14909,6 +15088,12 @@
       <c r="F305" s="9" t="s">
         <v>720</v>
       </c>
+      <c r="G305" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="H305" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J305" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_004_optimal_date_all_components</v>
@@ -14929,6 +15114,12 @@
       <c r="F306" s="9" t="s">
         <v>720</v>
       </c>
+      <c r="G306" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="H306" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J306" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_005_lead_time_breakdown_returned</v>
@@ -14949,6 +15140,12 @@
       <c r="F307" s="9" t="s">
         <v>720</v>
       </c>
+      <c r="G307" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="H307" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J307" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_006_required_on_site_calculation</v>
@@ -14969,6 +15166,12 @@
       <c r="F308" s="9" t="s">
         <v>720</v>
       </c>
+      <c r="G308" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="H308" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J308" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_007_business_days_calculation</v>
@@ -14989,6 +15192,12 @@
       <c r="F309" s="9" t="s">
         <v>720</v>
       </c>
+      <c r="G309" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="H309" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J309" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_008_weekend_exclusion</v>
@@ -15009,6 +15218,12 @@
       <c r="F310" s="9" t="s">
         <v>720</v>
       </c>
+      <c r="G310" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="H310" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J310" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_009_holiday_exclusion</v>
@@ -15029,6 +15244,12 @@
       <c r="F311" s="9" t="s">
         <v>720</v>
       </c>
+      <c r="G311" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="H311" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J311" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_010_delivery_on_weekend_adjusted</v>
@@ -15049,6 +15270,12 @@
       <c r="F312" s="9" t="s">
         <v>720</v>
       </c>
+      <c r="G312" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="H312" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J312" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_011_mixed_calendar_business_days</v>
@@ -15069,6 +15296,12 @@
       <c r="F313" s="9" t="s">
         <v>720</v>
       </c>
+      <c r="G313" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="H313" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J313" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_012_alert_r14_date_passed</v>
@@ -15089,6 +15322,12 @@
       <c r="F314" s="9" t="s">
         <v>720</v>
       </c>
+      <c r="G314" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="H314" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J314" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_013_alert_r14_tight_margin_3_days</v>
@@ -15109,6 +15348,12 @@
       <c r="F315" s="9" t="s">
         <v>720</v>
       </c>
+      <c r="G315" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="H315" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J315" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_014_alert_severity_critical_passed</v>
@@ -15129,6 +15374,12 @@
       <c r="F316" s="9" t="s">
         <v>720</v>
       </c>
+      <c r="G316" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="H316" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J316" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_015_alert_severity_warning_tight</v>
@@ -15149,6 +15400,12 @@
       <c r="F317" s="9" t="s">
         <v>720</v>
       </c>
+      <c r="G317" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="H317" s="12" t="s">
+        <v>407</v>
+      </c>
       <c r="J317" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_016_no_alert_sufficient_margin</v>
@@ -15169,6 +15426,9 @@
       <c r="F318" s="9" t="s">
         <v>737</v>
       </c>
+      <c r="G318" s="12" t="s">
+        <v>771</v>
+      </c>
       <c r="J318" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_001_exw_buyer_full_responsibility</v>
@@ -15189,6 +15449,9 @@
       <c r="F319" s="9" t="s">
         <v>737</v>
       </c>
+      <c r="G319" s="12" t="s">
+        <v>771</v>
+      </c>
       <c r="J319" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_002_exw_transit_time_included</v>
@@ -15209,6 +15472,9 @@
       <c r="F320" s="9" t="s">
         <v>737</v>
       </c>
+      <c r="G320" s="12" t="s">
+        <v>771</v>
+      </c>
       <c r="J320" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_003_exw_customs_included</v>
@@ -15229,6 +15495,9 @@
       <c r="F321" s="9" t="s">
         <v>737</v>
       </c>
+      <c r="G321" s="12" t="s">
+        <v>771</v>
+      </c>
       <c r="J321" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_004_fob_shared_responsibility</v>
@@ -15249,6 +15518,9 @@
       <c r="F322" s="9" t="s">
         <v>737</v>
       </c>
+      <c r="G322" s="12" t="s">
+        <v>771</v>
+      </c>
       <c r="J322" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_005_fob_port_handover</v>
@@ -15269,6 +15541,9 @@
       <c r="F323" s="9" t="s">
         <v>737</v>
       </c>
+      <c r="G323" s="12" t="s">
+        <v>771</v>
+      </c>
       <c r="J323" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_006_fob_insurance_buyer</v>
@@ -15289,6 +15564,9 @@
       <c r="F324" s="9" t="s">
         <v>737</v>
       </c>
+      <c r="G324" s="12" t="s">
+        <v>771</v>
+      </c>
       <c r="J324" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_007_cif_seller_insurance</v>
@@ -15309,6 +15587,9 @@
       <c r="F325" s="9" t="s">
         <v>737</v>
       </c>
+      <c r="G325" s="12" t="s">
+        <v>771</v>
+      </c>
       <c r="J325" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_008_cif_port_to_port</v>
@@ -15329,6 +15610,9 @@
       <c r="F326" s="9" t="s">
         <v>737</v>
       </c>
+      <c r="G326" s="12" t="s">
+        <v>771</v>
+      </c>
       <c r="J326" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_009_cif_customs_buyer</v>
@@ -15349,6 +15633,9 @@
       <c r="F327" s="9" t="s">
         <v>737</v>
       </c>
+      <c r="G327" s="12" t="s">
+        <v>771</v>
+      </c>
       <c r="J327" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_010_ddp_seller_full_responsibility</v>
@@ -15369,6 +15656,9 @@
       <c r="F328" s="9" t="s">
         <v>737</v>
       </c>
+      <c r="G328" s="12" t="s">
+        <v>771</v>
+      </c>
       <c r="J328" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_011_ddp_no_customs_buyer</v>
@@ -15389,6 +15679,9 @@
       <c r="F329" s="9" t="s">
         <v>737</v>
       </c>
+      <c r="G329" s="12" t="s">
+        <v>771</v>
+      </c>
       <c r="J329" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_012_ddp_door_to_door</v>
@@ -15409,6 +15702,9 @@
       <c r="F330" s="9" t="s">
         <v>737</v>
       </c>
+      <c r="G330" s="12" t="s">
+        <v>771</v>
+      </c>
       <c r="J330" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_013_incoterm_comparison_same_route</v>
@@ -15428,6 +15724,9 @@
       <c r="E331" s="7"/>
       <c r="F331" s="9" t="s">
         <v>737</v>
+      </c>
+      <c r="G331" s="12" t="s">
+        <v>771</v>
       </c>
       <c r="J331" t="str">
         <f t="shared" si="4"/>
@@ -16478,4 +16777,136 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAF9D8E-5017-468F-8689-A64B44F82814}">
+  <dimension ref="E5:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="85.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="5:6">
+      <c r="E5" s="16" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6" ht="201" customHeight="1">
+      <c r="E6" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6">
+      <c r="E7" s="16" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6">
+      <c r="E8" s="16" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6">
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="5:6">
+      <c r="E10" s="16" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6">
+      <c r="E11" s="16" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6">
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="5:6">
+      <c r="E13" s="16" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6">
+      <c r="E14" s="16" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6">
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="5:6">
+      <c r="E16" s="16" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="16" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="16" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="16" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="16" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="16" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="16" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="16" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="16" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="16" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="16" t="s">
+        <v>830</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/C2Pro_Test_Suites_Master.xlsx
+++ b/tests/C2Pro_Test_Suites_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esus_\Documents\AI\ZTWQ\c2pro\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20574B73-32BB-4CF4-A1E6-7B37358BA636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA186636-5833-4748-8EC2-640B38F3A73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12480" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suite Test" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3376" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="862">
   <si>
     <t>Nº</t>
   </si>
@@ -2917,6 +2917,293 @@
 3.  **GREEN:** Generate `src/core/security/*.py`. Use "Fake It" pattern.
 4.  **UPDATE:** Remind me to update `C2PRO_TDD_BACKLOG_v1.0.md`.
 **AWAITING INPUT:** Please provide a TS-UC-SEC ID.</t>
+  </si>
+  <si>
+    <t> Orden | Agente | Tests | Sprint | Bloquea | Crítico |</t>
+  </si>
+  <si>
+    <t>|-------|--------|-------|--------|---------|---------|</t>
+  </si>
+  <si>
+    <t>| 1 | Agente 10 (DTOs) | 40 | S1 | Todos | ✅ |</t>
+  </si>
+  <si>
+    <t>| 2 | Agente 1 (Security) | 156 | S1-S2 | Todos | ✅ |</t>
+  </si>
+  <si>
+    <t>| 3 | Agente 8 (Event Bus básico) | 34 | S2 | Async flows | ✅ |</t>
+  </si>
+  <si>
+    <t>| 4 | Agente 2 (Documents) | 162 | S3-S4 | Analysis, Coherence | ✅ |</t>
+  </si>
+  <si>
+    <t>| 5 | Agente 6 (Coherence) | 206 | S5-S6 | Dashboard, E2E | 🔴 CRÍTICO |</t>
+  </si>
+  <si>
+    <t>| 6 | Agente 3 (Projects) | 116 | S7 | Procurement | ⚠️ |</t>
+  </si>
+  <si>
+    <t>| 7 | Agente 4 (Procurement) | 116 | S8 | Coherence rules | ⚠️ |</t>
+  </si>
+  <si>
+    <t>| 8 | Agente 7 (Stakeholders) | 112 | S9 | RACI | ⚠️ |</t>
+  </si>
+  <si>
+    <t>| 9 | Agente 5 (Analysis) | 78 | S10 | Graph RAG | ⚠️ |</t>
+  </si>
+  <si>
+    <t>| 10 | Agente 9 (Observability) | 68 | S11 | Monitoring | ⚠️ |</t>
+  </si>
+  <si>
+    <t>| 11 | Agente 11 (Integration) | 184 | S11-S12 | E2E | ✅ |</t>
+  </si>
+  <si>
+    <t>| 12 | Agente 10 (HTTP) | 62 | S12 | API | ⚠️ |</t>
+  </si>
+  <si>
+    <t>| 13 | Agente 8 (Celery/DLQ) | 44 | S12 | Workers | ⚠️ |</t>
+  </si>
+  <si>
+    <t>| 14 | Agente 12 (E2E) | 78 | S13-S14 | Release | ✅ |</t>
+  </si>
+  <si>
+    <t>**SYSTEM ROLE:** AGENT 1 - SECURITY CORE SPECIALIST
+**1. INITIALIZATION &amp; CONTEXT**
+You are the **Security Lead**.
+* **CRITICAL:** Read `agents.md`. Enforce "4-Layer Security" model.
+* **LATENCY:** Output code directly.
+**2. ASSIGNED SCOPE (100% Match with Index)**
+You are responsible for the following components and Suite IDs:
+* **MCP Gateway:** `TS-UC-SEC-MCP-001` to `004` (Allowlist, Rate Limit, Query Limits, Audit).
+* **Anonymizer:** `TS-UC-SEC-ANO-001` to `003` (PII Detection, Strategies, Config).
+* **Isolation:** `TS-UC-SEC-TNT-001` (Tenant Context).
+* **Auth:** `TS-UC-SEC-JWT-001` (JWT Validation).
+* **Audit:** `TS-UC-SEC-AUD-001` (Core Trail).
+* **Gaming:** `TS-UC-SEC-GAM-001` (Detection Logic).
+**3. EXECUTION PROTOCOL (SMART TDD)**
+1.  **ANALYZE:** Check if the test exists. If yes, validate strict security assertions. If no, generate the test (RED).
+2.  **RED:** Confirm failure (e.g., "Unauthorized Access" or "PII Leak").
+3.  **GREEN:** Implement minimal logic in `src/core/security` or `src/core/auth`. Use "Fake It" pattern initially.
+4.  **UPDATE:** Request update for `C2PRO_TDD_BACKLOG_v1.0.md`.
+**AWAITING INPUT:** Provide a TS-UC-SEC ID.</t>
+  </si>
+  <si>
+    <t>**SYSTEM ROLE:** AGENT 2 - DOCUMENTS DOMAIN SPECIALIST
+**1. INITIALIZATION &amp; CONTEXT**
+You are the **Documents Module Lead**.
+* **CRITICAL:** Read `agents.md`. `Clause` entity is the Single Source of Truth.
+* **LATENCY:** Output code directly.
+**2. ASSIGNED SCOPE (100% Match with Index)**
+You are responsible for the following components and Suite IDs:
+* **Clauses:** `TS-UD-DOC-CLS-001` to `003` (Entity, Types, Hierarchy).
+* **Entities:** `TS-UD-DOC-ENT-001` to `004` (Dates, Money, Durations, Stakeholders).
+* **Document:** `TS-UD-DOC-DOC-001` (Entity) &amp; `TS-UD-DOC-CNF-001` (Confidence).
+* **Use Cases:** `TS-UA-DOC-UC-*` (Upload, Extract).
+* **Services:** `TS-UA-SVC-EXT-*` (Extraction Services).
+**3. EXECUTION PROTOCOL (SMART TDD)**
+1.  **ANALYZE:** Check if test exists. Ensure Domain Entities are pure Pydantic.
+2.  **RED:** Generate test in `tests/modules/documents/domain`. Assert validation failure.
+3.  **GREEN:** Implement logic in `src/modules/documents/domain`. No DB imports allowed.
+4.  **UPDATE:** Request update for `C2PRO_TDD_BACKLOG_v1.0.md`.
+**AWAITING INPUT:** Provide a TS-UD-DOC ID.</t>
+  </si>
+  <si>
+    <t>**SYSTEM ROLE:** AGENT 3 - PROJECTS &amp; WBS SPECIALIST
+**1. INITIALIZATION &amp; CONTEXT**
+You are the **Projects Module Lead**.
+* **CRITICAL:** Read `agents.md`. Focus on Recursive Hierarchies.
+* **LATENCY:** Output code directly.
+**2. ASSIGNED SCOPE (100% Match with Index)**
+You are responsible for the following components and Suite IDs:
+* **WBS Logic:** `TS-UD-PRJ-WBS-001` to `004` (Entity, Hierarchy, Validation, CRUD).
+* **Project:** `TS-UD-PRJ-PRJ-001` (Entity).
+* **Contracts:** `TS-UD-PRJ-DTO-001` (DTOs &amp; Ports for Integration).
+* **Use Cases:** `TS-UA-PRJ-UC-*` (Generate WBS).
+**3. EXECUTION PROTOCOL (SMART TDD)**
+1.  **ANALYZE:** Check if test exists. Verify recursive parent/child logic tests.
+2.  **RED:** Generate test in `tests/modules/projects`. Assert hierarchy constraint failure.
+3.  **GREEN:** Implement logic in `src/modules/projects`. Ensure strictly typed relationships.
+4.  **UPDATE:** Request update for `C2PRO_TDD_BACKLOG_v1.0.md`.
+**AWAITING INPUT:** Provide a TS-UD-PRJ ID.</t>
+  </si>
+  <si>
+    <t>**SYSTEM ROLE:** AGENT 4 - PROCUREMENT LOGIC SPECIALIST
+**1. INITIALIZATION &amp; CONTEXT**
+You are the **Procurement Module Lead**.
+* **CRITICAL:** Read `agents.md`. Focus on Lead Time Logic.
+* **LATENCY:** Output code directly.
+**2. ASSIGNED SCOPE (100% Match with Index)**
+You are responsible for the following components and Suite IDs:
+* **BOM:** `TS-UD-PROC-BOM-001` &amp; `002` (Entity, Validation).
+* **Lead Time:** `TS-UD-PROC-LTM-001` to `004` (Calc, Incoterms, Customs, Alerts).
+* **Planning:** `TS-UD-PROC-PLN-001` (Plan Generation).
+* **Use Cases:** `TS-UA-PROC-UC-*` (Generate BOM, Calc LTM).
+**3. EXECUTION PROTOCOL (SMART TDD)**
+1.  **ANALYZE:** Check if test exists. Verify math/date calculation assertions.
+2.  **RED:** Generate test in `tests/modules/procurement`. Assert wrong date calculation.
+3.  **GREEN:** Implement logic in `src/modules/procurement`. Use standard `datetime` libs.
+4.  **UPDATE:** Request update for `C2PRO_TDD_BACKLOG_v1.0.md`.
+**AWAITING INPUT:** Provide a TS-UD-PROC ID.</t>
+  </si>
+  <si>
+    <t>**SYSTEM ROLE:** AGENT 5 - ANALYSIS &amp; GRAPH SPECIALIST
+**1. INITIALIZATION &amp; CONTEXT**
+You are the **Analysis Module Lead**.
+* **CRITICAL:** Read `agents.md`. Focus on Graph Consistency.
+* **LATENCY:** Output code directly.
+**2. ASSIGNED SCOPE (100% Match with Index)**
+You are responsible for the following components and Suite IDs:
+* **Alerts:** `TS-UD-ANA-ALR-001` (Entity).
+* **Graph:** `TS-UD-ANA-GRP-001` &amp; `002` (Node, Relationship).
+* **Search:** `TS-UD-ANA-SRC-001` &amp; `HYB-001` (Semantic, Hybrid).
+* **Use Cases:** `TS-UA-ANA-UC-*`.
+* **Neo4j:** `TS-INT-GRP-NEO-001` (Integration Adapter).
+**3. EXECUTION PROTOCOL (SMART TDD)**
+1.  **ANALYZE:** Check if test exists. Ensure Node/Edge properties are validated.
+2.  **RED:** Generate test in `tests/modules/analysis`. Assert missing graph label/property.
+3.  **GREEN:** Implement logic in `src/modules/analysis`. Mock Neo4j driver in unit tests.
+4.  **UPDATE:** Request update for `C2PRO_TDD_BACKLOG_v1.0.md`.
+**AWAITING INPUT:** Provide a TS-UD-ANA ID.</t>
+  </si>
+  <si>
+    <t>**SYSTEM ROLE:** AGENT 6 - COHERENCE ENGINE SPECIALIST (CRITICAL)
+**1. INITIALIZATION &amp; CONTEXT**
+You are the **Coherence Module Lead**.
+* **CRITICAL:** Read `agents.md`. Adhere to the 6-Category Model (SCOPE, BUDGET, TIME, TECH, LEGAL, QUALITY).
+* **LATENCY:** Output code directly.
+**2. ASSIGNED SCOPE (100% Match with Index)**
+You are responsible for the following components and Suite IDs:
+* **Setup:** `TS-UD-COH-CAT-001` (Enums/Weights).
+* **Rules:** `TS-UD-COH-RUL-001` to `006` (All Categories).
+* **Scoring:** `TS-UD-COH-SCR-001` to `003` (Calculator).
+* **Gaming:** `TS-UD-COH-GAM-001` (Anti-Gaming Policy).
+* **Mapping:** `TS-UD-COH-ALR-001` (Alert Mapping).
+* **Use Cases:** `TS-UA-COH-UC-*`.
+**3. EXECUTION PROTOCOL (SMART TDD)**
+1.  **ANALYZE:** Check if test exists. Verify logic for specific Rules (e.g., R11, R6).
+2.  **RED:** Generate test in `tests/modules/coherence`. Assert score calculation error.
+3.  **GREEN:** Implement logic in `src/modules/coherence`. Use pure functions for rules.
+4.  **UPDATE:** Request update for `C2PRO_TDD_BACKLOG_v1.0.md`.
+**AWAITING INPUT:** Provide a TS-UD-COH ID.</t>
+  </si>
+  <si>
+    <t>**SYSTEM ROLE:** AGENT 7 - STAKEHOLDERS SPECIALIST
+**1. INITIALIZATION &amp; CONTEXT**
+You are the **Stakeholders Module Lead**.
+* **CRITICAL:** Read `agents.md`.
+* **LATENCY:** Output code directly.
+**2. ASSIGNED SCOPE (100% Match with Index)**
+You are responsible for the following components and Suite IDs:
+* **Entities:** `TS-UD-STK-ENT-001` &amp; `MAP-001`.
+* **Classification:** `TS-UD-STK-CLS-001` &amp; `002` (Power/Interest).
+* **RACI:** `TS-UD-STK-RAC-001` to `003` (Matrix Generation).
+* **Use Cases:** `TS-UA-STK-UC-*`.
+**3. EXECUTION PROTOCOL (SMART TDD)**
+1.  **ANALYZE:** Check if test exists. Verify RACI matrix dimensions/roles.
+2.  **RED:** Generate test in `tests/modules/stakeholders`. Assert invalid RACI assignment.
+3.  **GREEN:** Implement logic in `src/modules/stakeholders`.
+4.  **UPDATE:** Request update for `C2PRO_TDD_BACKLOG_v1.0.md`.
+**AWAITING INPUT:** Provide a TS-UD-STK ID.</t>
+  </si>
+  <si>
+    <t>**SYSTEM ROLE:** AGENT 8 - ASYNC ARCHITECTURE SPECIALIST
+**1. INITIALIZATION &amp; CONTEXT**
+You are the **Async Infrastructure Lead**.
+* **CRITICAL:** Read `agents.md`.
+* **LATENCY:** Output code directly.
+**2. ASSIGNED SCOPE (100% Match with Index)**
+You are responsible for the following components and Suite IDs:
+* **Event Bus:** `TS-INT-EVT-BUS-001` (Redis Pub/Sub).
+* **Celery:** `TS-INT-EVT-CEL-001` (Jobs).
+* **Resilience:** `TS-INT-EVT-DLQ-001` (Dead Letter Queue).
+* **E2E Async:** `TS-E2E-*` (Specific async flows).
+**3. EXECUTION PROTOCOL (SMART TDD)**
+1.  **ANALYZE:** Check if test exists. Use `pytest-asyncio` and `testcontainers`.
+2.  **RED:** Generate test in `tests/infrastructure/events`. Assert message not received.
+3.  **GREEN:** Implement adapters in `src/core/events` or `src/adapters`.
+4.  **UPDATE:** Request update for `C2PRO_TDD_BACKLOG_v1.0.md`.
+**AWAITING INPUT:** Provide a TS-INT-EVT ID.</t>
+  </si>
+  <si>
+    <t>**SYSTEM ROLE:** AGENT 9 - OBSERVABILITY SPECIALIST
+**1. INITIALIZATION &amp; CONTEXT**
+You are the **Observability Lead**.
+* **CRITICAL:** Read `agents.md`.
+* **LATENCY:** Output code directly.
+**2. ASSIGNED SCOPE (100% Match with Index)**
+You are responsible for the following components and Suite IDs:
+* **Budget:** `TS-UA-SVC-BDG-001` (Tracking &amp; Circuit Breaker).
+* **Logging/Tracing:** Tests related to `core/observability` (mapped to generic infra suites or implicitly required).
+* **Monitoring:** Dashboard Data Logic.
+**3. EXECUTION PROTOCOL (SMART TDD)**
+1.  **ANALYZE:** Check if test exists. Verify Structlog/OpenTelemetry mocks.
+2.  **RED:** Generate test asserting missing trace_id or budget overflow.
+3.  **GREEN:** Implement interceptors/services in `src/core/observability`.
+4.  **UPDATE:** Request update for `C2PRO_TDD_BACKLOG_v1.0.md`.
+**AWAITING INPUT:** Provide a ID (e.g., TS-UA-SVC-BDG-001).</t>
+  </si>
+  <si>
+    <t>**SYSTEM ROLE:** AGENT 10 - API CONTRACTS SPECIALIST
+**1. INITIALIZATION &amp; CONTEXT**
+You are the **API Layer Lead**.
+* **CRITICAL:** Read `agents.md`. Routers must be THIN.
+* **LATENCY:** Output code directly.
+**2. ASSIGNED SCOPE (100% Match with Index)**
+You are responsible for the following components and Suite IDs:
+* **DTOs:** `TS-UA-DTO-ALL-001` &amp; `SER-001` (Validation).
+* **HTTP:** `TS-UAD-HTTP-RTR-001` (Routers).
+* **Middleware:** `TS-UAD-HTTP-MDW-001` (Auth/Tenant).
+* **Errors:** `TS-UAD-HTTP-ERR-001` (Handlers).
+**3. EXECUTION PROTOCOL (SMART TDD)**
+1.  **ANALYZE:** Check if test exists. Verify serialization and HTTP codes.
+2.  **RED:** Generate test using `TestClient`. Assert 400/404/422 responses.
+3.  **GREEN:** Implement Routers/DTOs in `src/.../adapters/http` or `application/dtos`.
+4.  **UPDATE:** Request update for `C2PRO_TDD_BACKLOG_v1.0.md`.
+**AWAITING INPUT:** Provide a TS-UA-DTO or TS-UAD-HTTP ID.</t>
+  </si>
+  <si>
+    <t>**SYSTEM ROLE:** AGENT 11 - INTEGRATION SPECIALIST
+**1. INITIALIZATION &amp; CONTEXT**
+You are the **Integration Architect**.
+* **CRITICAL:** Read `agents.md`. Verify Boundaries.
+* **LATENCY:** Output code directly.
+**2. ASSIGNED SCOPE (100% Match with Index)**
+You are responsible for the following components and Suite IDs:
+* **Cross-Module:** `TS-INT-MOD-WBS-001`, `DOC-001`, `ANA-001`, `STK-001`.
+* **External:** `TS-INT-EXT-LLM-001/002` (LLM Clients).
+* **Database:** `TS-INT-DB-*` (Repositories) &amp; `TS-INT-GRP-NEO-001`.
+* **Adapters:** `TS-UAD-PER-*` (Persistence Generic).
+**3. EXECUTION PROTOCOL (SMART TDD)**
+1.  **ANALYZE:** Check if test exists. Use `Testcontainers` for DB tests.
+2.  **RED:** Generate integration test ensuring data persistence or event flow.
+3.  **GREEN:** Implement Repositories or Integration Adapters.
+4.  **UPDATE:** Request update for `C2PRO_TDD_BACKLOG_v1.0.md`.
+**AWAITING INPUT:** Provide a TS-INT ID.</t>
+  </si>
+  <si>
+    <t>**SYSTEM ROLE:** AGENT 12 - QA &amp; E2E SPECIALIST
+**1. INITIALIZATION &amp; CONTEXT**
+You are the **QA Lead**.
+* **CRITICAL:** Read `agents.md`. Test the full system.
+* **LATENCY:** Output code directly.
+**2. ASSIGNED SCOPE (100% Match with Index)**
+You are responsible for the following components and Suite IDs:
+* **Flows:** `TS-E2E-FLW-DOC`, `ALR`, `BLK` (Business Flows).
+* **Security E2E:** `TS-E2E-SEC-TNT`, `MCP`.
+* **Errors:** `TS-E2E-ERR-TIM`, `CON`, `REC` (Resilience).
+* **Perf:** `TS-E2E-PER-LRG` (Performance).
+**3. EXECUTION PROTOCOL (SMART TDD)**
+1.  **ANALYZE:** Check if test exists. Simulate real user journeys.
+2.  **RED:** Generate E2E script (Pytest/Playwright). Assert flow completion.
+3.  **GREEN:** Fix underlying system issues or adjust logic to pass E2E.
+4.  **UPDATE:** Request update for `C2PRO_TDD_BACKLOG_v1.0.md`.
+**AWAITING INPUT:** Provide a TS-E2E ID.</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>claude</t>
   </si>
 </sst>
 </file>
@@ -2982,7 +3269,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3004,6 +3291,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3081,7 +3374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3129,8 +3422,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3438,12 +3738,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="19.149999999999999" customHeight="1"/>
@@ -3455,7 +3754,7 @@
     <col min="11" max="11" width="62.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.149999999999999" customHeight="1">
+    <row r="1" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3489,8 +3788,11 @@
       <c r="K1" s="3" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+      <c r="L1" s="20" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3525,7 +3827,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="3" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3560,7 +3862,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="4" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3595,7 +3897,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="5" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3630,7 +3932,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="6" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3665,7 +3967,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="7" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3700,7 +4002,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="8" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3735,7 +4037,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="9" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3770,7 +4072,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="10" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3805,7 +4107,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="11" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3840,7 +4142,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="12" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3875,7 +4177,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="13" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3910,7 +4212,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="14" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -3942,7 +4244,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="15" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3974,7 +4276,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="16" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -4009,7 +4311,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="17" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -4041,7 +4343,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="18" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -4070,7 +4372,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="19" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -4099,7 +4401,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="20" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -4128,7 +4430,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="21" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -4157,7 +4459,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="22" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -4186,7 +4488,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="23" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -4221,7 +4523,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="24" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -4253,7 +4555,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="25" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -4282,7 +4584,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="26" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -4311,7 +4613,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="27" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -4340,7 +4642,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="28" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -4375,7 +4677,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="29" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -4404,7 +4706,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="30" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -4433,7 +4735,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="31" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -4462,7 +4764,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="32" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -4491,7 +4793,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="33" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -4520,7 +4822,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="34" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -4552,7 +4854,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="35" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -4584,7 +4886,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="36" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -4616,7 +4918,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="37" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -4648,7 +4950,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="38" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -4680,7 +4982,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="39" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -4715,7 +5017,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="40" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -4744,7 +5046,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="41" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -4773,7 +5075,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="42" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -4802,7 +5104,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="43" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -4831,7 +5133,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="44" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -4860,7 +5162,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="45" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -4889,7 +5191,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="46" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -4918,7 +5220,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="47" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -4953,7 +5255,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="48" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -4982,7 +5284,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="49" spans="1:9" ht="19.149999999999999" customHeight="1">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -5011,7 +5313,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="50" spans="1:9" ht="19.149999999999999" customHeight="1">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -5040,7 +5342,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="51" spans="1:9" ht="19.149999999999999" customHeight="1">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -5069,7 +5371,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="52" spans="1:9" ht="19.149999999999999" customHeight="1">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -5098,7 +5400,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="53" spans="1:9" ht="19.149999999999999" customHeight="1">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -5127,7 +5429,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="54" spans="1:9" ht="19.149999999999999" customHeight="1">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -5156,7 +5458,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="55" spans="1:9" ht="19.149999999999999" customHeight="1">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -5185,7 +5487,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="56" spans="1:9" ht="19.149999999999999" customHeight="1">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -5214,7 +5516,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="57" spans="1:9" ht="19.149999999999999" customHeight="1">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -5243,7 +5545,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="58" spans="1:9" ht="19.149999999999999" customHeight="1">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -5272,7 +5574,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="59" spans="1:9" ht="19.149999999999999" customHeight="1">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -5301,7 +5603,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="60" spans="1:9" ht="19.149999999999999" customHeight="1">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -5330,7 +5632,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="61" spans="1:9" ht="19.149999999999999" customHeight="1">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -5359,7 +5661,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="62" spans="1:9" ht="19.149999999999999" customHeight="1">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -5388,7 +5690,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="63" spans="1:9" ht="19.149999999999999" customHeight="1">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -5417,7 +5719,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="64" spans="1:9" ht="19.149999999999999" customHeight="1">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -5446,7 +5748,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="65" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -5475,7 +5777,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="66" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -5504,7 +5806,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="67" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -5533,7 +5835,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="68" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -5562,7 +5864,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="69" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -5591,7 +5893,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="70" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -5620,7 +5922,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="71" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -5649,7 +5951,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="72" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -5684,7 +5986,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="73" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -5719,7 +6021,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="74" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -5754,7 +6056,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="75" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -5786,7 +6088,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="76" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -5815,7 +6117,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="77" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -5850,7 +6152,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="78" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -5952,24 +6254,24 @@
         <v>802</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="81" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B81" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C81" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="D81" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E81" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F81" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G81" t="s">
         <v>407</v>
@@ -5980,28 +6282,25 @@
       <c r="I81" t="s">
         <v>381</v>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="K81" s="2" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="82" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B82" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C82" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="D82" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E82" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F82" t="s">
         <v>353</v>
@@ -6016,7 +6315,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="83" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -6050,25 +6349,28 @@
       <c r="K83" s="2" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+      <c r="L83" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="C84" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="D84" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E84" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F84" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G84" t="s">
         <v>407</v>
@@ -6080,7 +6382,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="85" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -6112,24 +6414,24 @@
         <v>794</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="86" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C86" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D86" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E86" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F86" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G86" t="s">
         <v>407</v>
@@ -6144,7 +6446,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="87" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -6173,24 +6475,24 @@
         <v>381</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="88" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C88" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E88" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F88" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G88" t="s">
         <v>407</v>
@@ -6202,24 +6504,24 @@
         <v>381</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="89" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C89" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E89" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F89" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G89" t="s">
         <v>407</v>
@@ -6231,7 +6533,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="90" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -6266,7 +6568,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="91" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -6298,7 +6600,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="92" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -6330,7 +6632,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="93" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -6359,7 +6661,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="94" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -6391,7 +6693,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="95" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -6426,21 +6728,21 @@
         <v>408</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="96" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B96" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C96" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E96" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F96" t="s">
         <v>353</v>
@@ -6455,24 +6757,24 @@
         <v>381</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="97" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B97" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C97" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E97" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F97" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G97" t="s">
         <v>407</v>
@@ -6483,22 +6785,28 @@
       <c r="I97" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" ht="19.149999999999999" hidden="1" customHeight="1">
+      <c r="J97" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="L97" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B98" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C98" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="D98" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E98" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F98" t="s">
         <v>353</v>
@@ -6512,8 +6820,11 @@
       <c r="I98" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" ht="19.149999999999999" hidden="1" customHeight="1">
+      <c r="L98" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -6545,7 +6856,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="100" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -6577,7 +6888,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="101" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -6606,7 +6917,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="102" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -6638,7 +6949,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="103" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -6673,7 +6984,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="104" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -6702,7 +7013,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="105" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -6830,7 +7141,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="109" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -6865,7 +7176,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="110" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -6900,7 +7211,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="111" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -6935,7 +7246,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="112" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -6964,7 +7275,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="19.149999999999999" hidden="1" customHeight="1">
+    <row r="113" spans="1:11" ht="19.149999999999999" customHeight="1">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -7027,9 +7338,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J114" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters blank="1"/>
-    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A81:J98">
+      <sortCondition ref="B1:B114"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7071,12 +7382,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FEA767-FEF3-4D23-9143-13AEAC680DA5}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G318" sqref="G318:G331"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7117,7 +7427,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="31.5" hidden="1" thickBot="1">
+    <row r="2" spans="1:9" ht="31.5" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>119</v>
       </c>
@@ -7142,7 +7452,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="31.5" hidden="1" thickBot="1">
+    <row r="3" spans="1:9" ht="31.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>119</v>
       </c>
@@ -7167,7 +7477,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="31.5" hidden="1" thickBot="1">
+    <row r="4" spans="1:9" ht="31.5" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>119</v>
       </c>
@@ -7192,7 +7502,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="46.5" hidden="1" thickBot="1">
+    <row r="5" spans="1:9" ht="46.5" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>119</v>
       </c>
@@ -7217,7 +7527,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="31.5" hidden="1" thickBot="1">
+    <row r="6" spans="1:9" ht="31.5" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>119</v>
       </c>
@@ -7242,7 +7552,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="31.5" hidden="1" thickBot="1">
+    <row r="7" spans="1:9" ht="31.5" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>119</v>
       </c>
@@ -7267,7 +7577,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="31.5" hidden="1" thickBot="1">
+    <row r="8" spans="1:9" ht="31.5" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>119</v>
       </c>
@@ -7292,7 +7602,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="31.5" hidden="1" thickBot="1">
+    <row r="9" spans="1:9" ht="31.5" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>119</v>
       </c>
@@ -7317,7 +7627,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="31.5" hidden="1" thickBot="1">
+    <row r="10" spans="1:9" ht="31.5" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>119</v>
       </c>
@@ -7342,7 +7652,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5" hidden="1" thickBot="1">
+    <row r="11" spans="1:9" ht="31.5" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>119</v>
       </c>
@@ -7367,7 +7677,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="31.5" hidden="1" thickBot="1">
+    <row r="12" spans="1:9" ht="31.5" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>119</v>
       </c>
@@ -7392,7 +7702,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="31.5" hidden="1" thickBot="1">
+    <row r="13" spans="1:9" ht="31.5" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>119</v>
       </c>
@@ -7417,7 +7727,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="31.5" hidden="1" thickBot="1">
+    <row r="14" spans="1:9" ht="31.5" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>119</v>
       </c>
@@ -7442,7 +7752,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="31.5" hidden="1" thickBot="1">
+    <row r="15" spans="1:9" ht="31.5" thickBot="1">
       <c r="A15" s="6" t="s">
         <v>119</v>
       </c>
@@ -7467,7 +7777,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="31.5" hidden="1" thickBot="1">
+    <row r="16" spans="1:9" ht="31.5" thickBot="1">
       <c r="A16" s="6" t="s">
         <v>119</v>
       </c>
@@ -7492,7 +7802,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="31.5" hidden="1" thickBot="1">
+    <row r="17" spans="1:16" ht="31.5" thickBot="1">
       <c r="A17" s="6" t="s">
         <v>119</v>
       </c>
@@ -7517,7 +7827,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="46.5" hidden="1" thickBot="1">
+    <row r="18" spans="1:16" ht="46.5" thickBot="1">
       <c r="A18" s="6" t="s">
         <v>119</v>
       </c>
@@ -7542,7 +7852,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="31.5" hidden="1" thickBot="1">
+    <row r="19" spans="1:16" ht="31.5" thickBot="1">
       <c r="A19" s="6" t="s">
         <v>119</v>
       </c>
@@ -7567,7 +7877,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="31.5" hidden="1" thickBot="1">
+    <row r="20" spans="1:16" ht="31.5" thickBot="1">
       <c r="A20" s="6" t="s">
         <v>119</v>
       </c>
@@ -7592,7 +7902,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="31.5" hidden="1" thickBot="1">
+    <row r="21" spans="1:16" ht="31.5" thickBot="1">
       <c r="A21" s="6" t="s">
         <v>119</v>
       </c>
@@ -7617,7 +7927,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="31.5" hidden="1" thickBot="1">
+    <row r="22" spans="1:16" ht="31.5" thickBot="1">
       <c r="A22" s="6" t="s">
         <v>119</v>
       </c>
@@ -7642,7 +7952,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="31.5" hidden="1" thickBot="1">
+    <row r="23" spans="1:16" ht="31.5" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>119</v>
       </c>
@@ -7667,7 +7977,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="31.5" hidden="1" thickBot="1">
+    <row r="24" spans="1:16" ht="31.5" thickBot="1">
       <c r="A24" s="6" t="s">
         <v>120</v>
       </c>
@@ -7699,7 +8009,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="31.5" hidden="1" thickBot="1">
+    <row r="25" spans="1:16" ht="31.5" thickBot="1">
       <c r="A25" s="6" t="s">
         <v>120</v>
       </c>
@@ -7731,7 +8041,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="31.5" hidden="1" thickBot="1">
+    <row r="26" spans="1:16" ht="31.5" thickBot="1">
       <c r="A26" s="6" t="s">
         <v>120</v>
       </c>
@@ -7763,7 +8073,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="31.5" hidden="1" thickBot="1">
+    <row r="27" spans="1:16" ht="31.5" thickBot="1">
       <c r="A27" s="6" t="s">
         <v>120</v>
       </c>
@@ -7795,7 +8105,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="31.5" hidden="1" thickBot="1">
+    <row r="28" spans="1:16" ht="31.5" thickBot="1">
       <c r="A28" s="6" t="s">
         <v>120</v>
       </c>
@@ -7827,7 +8137,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="31.5" hidden="1" thickBot="1">
+    <row r="29" spans="1:16" ht="31.5" thickBot="1">
       <c r="A29" s="6" t="s">
         <v>120</v>
       </c>
@@ -7859,7 +8169,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="31.5" hidden="1" thickBot="1">
+    <row r="30" spans="1:16" ht="31.5" thickBot="1">
       <c r="A30" s="6" t="s">
         <v>120</v>
       </c>
@@ -7891,7 +8201,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="31.5" hidden="1" thickBot="1">
+    <row r="31" spans="1:16" ht="31.5" thickBot="1">
       <c r="A31" s="6" t="s">
         <v>120</v>
       </c>
@@ -7923,7 +8233,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="31.5" hidden="1" thickBot="1">
+    <row r="32" spans="1:16" ht="31.5" thickBot="1">
       <c r="A32" s="6" t="s">
         <v>120</v>
       </c>
@@ -7955,7 +8265,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="31.5" hidden="1" thickBot="1">
+    <row r="33" spans="1:16" ht="31.5" thickBot="1">
       <c r="A33" s="6" t="s">
         <v>120</v>
       </c>
@@ -7987,7 +8297,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="31.5" hidden="1" thickBot="1">
+    <row r="34" spans="1:16" ht="31.5" thickBot="1">
       <c r="A34" s="6" t="s">
         <v>120</v>
       </c>
@@ -8019,7 +8329,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="31.5" hidden="1" thickBot="1">
+    <row r="35" spans="1:16" ht="31.5" thickBot="1">
       <c r="A35" s="6" t="s">
         <v>120</v>
       </c>
@@ -8051,7 +8361,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="31.5" hidden="1" thickBot="1">
+    <row r="36" spans="1:16" ht="31.5" thickBot="1">
       <c r="A36" s="6" t="s">
         <v>120</v>
       </c>
@@ -8083,7 +8393,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="31.5" hidden="1" thickBot="1">
+    <row r="37" spans="1:16" ht="31.5" thickBot="1">
       <c r="A37" s="6" t="s">
         <v>120</v>
       </c>
@@ -8115,7 +8425,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="31.5" hidden="1" thickBot="1">
+    <row r="38" spans="1:16" ht="31.5" thickBot="1">
       <c r="A38" s="6" t="s">
         <v>120</v>
       </c>
@@ -8147,7 +8457,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="31.5" hidden="1" thickBot="1">
+    <row r="39" spans="1:16" ht="31.5" thickBot="1">
       <c r="A39" s="6" t="s">
         <v>120</v>
       </c>
@@ -8179,7 +8489,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="31.5" hidden="1" thickBot="1">
+    <row r="40" spans="1:16" ht="31.5" thickBot="1">
       <c r="A40" s="6" t="s">
         <v>120</v>
       </c>
@@ -16744,11 +17054,7 @@
       <c r="F404" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I404" xr:uid="{23FEA767-FEF3-4D23-9143-13AEAC680DA5}">
-    <filterColumn colId="7">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I404" xr:uid="{23FEA767-FEF3-4D23-9143-13AEAC680DA5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16757,7 +17063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7DD0CD-6695-4D3C-9518-BDB565BCCF21}">
   <dimension ref="B3:B5"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -16781,129 +17087,268 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAF9D8E-5017-468F-8689-A64B44F82814}">
-  <dimension ref="E5:F28"/>
+  <dimension ref="B2:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="66.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="85.140625" customWidth="1"/>
+    <col min="2" max="2" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="178.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:6">
-      <c r="E5" s="16" t="s">
+    <row r="2" spans="2:3">
+      <c r="B2" s="16" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="6" spans="5:6" ht="201" customHeight="1">
-      <c r="E6" s="16" t="s">
+    <row r="3" spans="2:3" ht="201" customHeight="1">
+      <c r="B3" s="16" t="s">
         <v>813</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="7" spans="5:6">
-      <c r="E7" s="16" t="s">
+    <row r="4" spans="2:3">
+      <c r="B4" s="16" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="8" spans="5:6">
-      <c r="E8" s="16" t="s">
+    <row r="5" spans="2:3">
+      <c r="B5" s="16" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="9" spans="5:6">
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="5:6">
-      <c r="E10" s="16" t="s">
+    <row r="6" spans="2:3">
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="16" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="11" spans="5:6">
-      <c r="E11" s="16" t="s">
+    <row r="8" spans="2:3">
+      <c r="B8" s="16" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="12" spans="5:6">
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="5:6">
-      <c r="E13" s="16" t="s">
+    <row r="9" spans="2:3">
+      <c r="B9" s="17"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="16" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="14" spans="5:6">
-      <c r="E14" s="16" t="s">
+    <row r="11" spans="2:3">
+      <c r="B11" s="16" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="15" spans="5:6">
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="5:6">
-      <c r="E16" s="16" t="s">
+    <row r="12" spans="2:3">
+      <c r="B12" s="17"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="16" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="17" spans="5:5">
-      <c r="E17" s="16" t="s">
+    <row r="14" spans="2:3">
+      <c r="B14" s="16" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="18" spans="5:5">
-      <c r="E18" s="16" t="s">
+    <row r="15" spans="2:3">
+      <c r="B15" s="16" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="19" spans="5:5">
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20" s="16" t="s">
+    <row r="16" spans="2:3">
+      <c r="B16" s="17"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="16" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="21" spans="5:5">
-      <c r="E21" s="16" t="s">
+    <row r="18" spans="2:4">
+      <c r="B18" s="16" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="22" spans="5:5">
-      <c r="E22" s="16" t="s">
+    <row r="19" spans="2:4">
+      <c r="B19" s="16" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="23" spans="5:5">
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="5:5">
-      <c r="E24" s="16" t="s">
+    <row r="20" spans="2:4">
+      <c r="B20" s="17"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="16" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="25" spans="5:5">
-      <c r="E25" s="16" t="s">
+    <row r="22" spans="2:4">
+      <c r="B22" s="16" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="26" spans="5:5">
-      <c r="E26" s="16" t="s">
+    <row r="23" spans="2:4">
+      <c r="B23" s="16" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="27" spans="5:5">
-      <c r="E27" s="16" t="s">
+    <row r="24" spans="2:4">
+      <c r="B24" s="16" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="28" spans="5:5">
-      <c r="E28" s="16" t="s">
+    <row r="25" spans="2:4">
+      <c r="B25" s="16" t="s">
         <v>830</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B28" s="18" t="s">
+        <v>832</v>
+      </c>
+      <c r="C28" s="19"/>
+    </row>
+    <row r="29" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B29" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B30" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B31" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B32" s="18" t="s">
+        <v>836</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B33" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B34" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B35" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B36" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B37" s="18" t="s">
+        <v>841</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B38" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B39" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B40" s="18" t="s">
+        <v>844</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B41" s="18" t="s">
+        <v>845</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B42" s="18" t="s">
+        <v>846</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B43" s="18" t="s">
+        <v>847</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="2" t="s">
+        <v>859</v>
       </c>
     </row>
   </sheetData>

--- a/tests/C2Pro_Test_Suites_Master.xlsx
+++ b/tests/C2Pro_Test_Suites_Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esus_\Documents\AI\ZTWQ\c2pro\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA186636-5833-4748-8EC2-640B38F3A73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E2ED11-DD88-49A3-AD97-0E4F17FD7B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3608" uniqueCount="863">
   <si>
     <t>Nº</t>
   </si>
@@ -3204,6 +3204,9 @@
   </si>
   <si>
     <t>claude</t>
+  </si>
+  <si>
+    <t>Claude</t>
   </si>
 </sst>
 </file>
@@ -3269,7 +3272,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3297,6 +3300,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3374,7 +3383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3432,6 +3441,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3740,9 +3753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L83" sqref="L83"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="19.149999999999999" customHeight="1"/>
@@ -6445,6 +6458,9 @@
       <c r="K86" t="s">
         <v>795</v>
       </c>
+      <c r="L86" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="87" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A87" t="s">
@@ -6953,7 +6969,7 @@
       <c r="A103" t="s">
         <v>107</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="22" t="s">
         <v>220</v>
       </c>
       <c r="C103" t="s">
@@ -6982,6 +6998,9 @@
       </c>
       <c r="K103" s="10" t="s">
         <v>767</v>
+      </c>
+      <c r="L103" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="19.149999999999999" customHeight="1">
@@ -7382,11 +7401,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FEA767-FEF3-4D23-9143-13AEAC680DA5}">
-  <dimension ref="A1:P404"/>
+  <dimension ref="A1:Q404"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J198" sqref="J198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7398,11 +7417,12 @@
     <col min="5" max="5" width="17.7109375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="50.5703125" customWidth="1"/>
     <col min="9" max="9" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>760</v>
       </c>
@@ -7426,8 +7446,14 @@
       <c r="I1" s="11" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="31.5" thickBot="1">
+      <c r="J1" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="31.5" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>119</v>
       </c>
@@ -7451,8 +7477,14 @@
       <c r="I2" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="31.5" thickBot="1">
+      <c r="J2" t="s">
+        <v>404</v>
+      </c>
+      <c r="K2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="31.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>119</v>
       </c>
@@ -7476,8 +7508,11 @@
       <c r="I3" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="31.5" thickBot="1">
+      <c r="J3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="31.5" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>119</v>
       </c>
@@ -7501,8 +7536,11 @@
       <c r="I4" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="46.5" thickBot="1">
+      <c r="J4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="46.5" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>119</v>
       </c>
@@ -7526,8 +7564,11 @@
       <c r="I5" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="31.5" thickBot="1">
+      <c r="J5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="31.5" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>119</v>
       </c>
@@ -7551,8 +7592,11 @@
       <c r="I6" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="31.5" thickBot="1">
+      <c r="J6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>119</v>
       </c>
@@ -7576,8 +7620,11 @@
       <c r="I7" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="31.5" thickBot="1">
+      <c r="J7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="31.5" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>119</v>
       </c>
@@ -7601,8 +7648,11 @@
       <c r="I8" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="31.5" thickBot="1">
+      <c r="J8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="31.5" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>119</v>
       </c>
@@ -7626,8 +7676,11 @@
       <c r="I9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="31.5" thickBot="1">
+      <c r="J9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="31.5" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>119</v>
       </c>
@@ -7651,8 +7704,11 @@
       <c r="I10" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="31.5" thickBot="1">
+      <c r="J10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="31.5" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>119</v>
       </c>
@@ -7676,8 +7732,11 @@
       <c r="I11" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="31.5" thickBot="1">
+      <c r="J11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="31.5" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>119</v>
       </c>
@@ -7701,8 +7760,11 @@
       <c r="I12" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="31.5" thickBot="1">
+      <c r="J12" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="31.5" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>119</v>
       </c>
@@ -7726,8 +7788,11 @@
       <c r="I13" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="31.5" thickBot="1">
+      <c r="J13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="31.5" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>119</v>
       </c>
@@ -7751,8 +7816,11 @@
       <c r="I14" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="31.5" thickBot="1">
+      <c r="J14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="31.5" thickBot="1">
       <c r="A15" s="6" t="s">
         <v>119</v>
       </c>
@@ -7776,8 +7844,11 @@
       <c r="I15" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="31.5" thickBot="1">
+      <c r="J15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="31.5" thickBot="1">
       <c r="A16" s="6" t="s">
         <v>119</v>
       </c>
@@ -7801,8 +7872,11 @@
       <c r="I16" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="31.5" thickBot="1">
+      <c r="J16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="31.5" thickBot="1">
       <c r="A17" s="6" t="s">
         <v>119</v>
       </c>
@@ -7826,8 +7900,11 @@
       <c r="I17" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="46.5" thickBot="1">
+      <c r="J17" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="46.5" thickBot="1">
       <c r="A18" s="6" t="s">
         <v>119</v>
       </c>
@@ -7851,8 +7928,11 @@
       <c r="I18" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="31.5" thickBot="1">
+      <c r="J18" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="31.5" thickBot="1">
       <c r="A19" s="6" t="s">
         <v>119</v>
       </c>
@@ -7876,8 +7956,11 @@
       <c r="I19" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="31.5" thickBot="1">
+      <c r="J19" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="31.5" thickBot="1">
       <c r="A20" s="6" t="s">
         <v>119</v>
       </c>
@@ -7901,8 +7984,11 @@
       <c r="I20" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="31.5" thickBot="1">
+      <c r="J20" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="31.5" thickBot="1">
       <c r="A21" s="6" t="s">
         <v>119</v>
       </c>
@@ -7926,8 +8012,11 @@
       <c r="I21" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="31.5" thickBot="1">
+      <c r="J21" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="31.5" thickBot="1">
       <c r="A22" s="6" t="s">
         <v>119</v>
       </c>
@@ -7951,8 +8040,11 @@
       <c r="I22" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="31.5" thickBot="1">
+      <c r="J22" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="31.5" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>119</v>
       </c>
@@ -7976,8 +8068,11 @@
       <c r="I23" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="31.5" thickBot="1">
+      <c r="J23" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="31.5" thickBot="1">
       <c r="A24" s="6" t="s">
         <v>120</v>
       </c>
@@ -8001,15 +8096,18 @@
       <c r="I24" t="s">
         <v>774</v>
       </c>
-      <c r="J24" t="str">
+      <c r="J24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K24" t="str">
         <f>CONCATENATE(A24,C24)</f>
         <v>TS-UC-SEC-MCP-002test_001_request_under_limit_allowed</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="31.5" thickBot="1">
+    <row r="25" spans="1:17" ht="31.5" thickBot="1">
       <c r="A25" s="6" t="s">
         <v>120</v>
       </c>
@@ -8033,15 +8131,18 @@
       <c r="I25" t="s">
         <v>774</v>
       </c>
-      <c r="J25" t="str">
-        <f t="shared" ref="J25:J88" si="0">CONCATENATE(A25,C25)</f>
+      <c r="J25" t="s">
+        <v>404</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" ref="K25:K88" si="0">CONCATENATE(A25,C25)</f>
         <v>TS-UC-SEC-MCP-002test_002_request_at_limit_59_allowed</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="31.5" thickBot="1">
+    <row r="26" spans="1:17" ht="31.5" thickBot="1">
       <c r="A26" s="6" t="s">
         <v>120</v>
       </c>
@@ -8065,15 +8166,18 @@
       <c r="I26" t="s">
         <v>774</v>
       </c>
-      <c r="J26" t="str">
+      <c r="J26" t="s">
+        <v>404</v>
+      </c>
+      <c r="K26" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-002test_003_request_at_limit_60_allowed</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="31.5" thickBot="1">
+    <row r="27" spans="1:17" ht="31.5" thickBot="1">
       <c r="A27" s="6" t="s">
         <v>120</v>
       </c>
@@ -8097,15 +8201,18 @@
       <c r="I27" t="s">
         <v>774</v>
       </c>
-      <c r="J27" t="str">
+      <c r="J27" t="s">
+        <v>404</v>
+      </c>
+      <c r="K27" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-002test_004_request_over_limit_61_blocked</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="31.5" thickBot="1">
+    <row r="28" spans="1:17" ht="31.5" thickBot="1">
       <c r="A28" s="6" t="s">
         <v>120</v>
       </c>
@@ -8129,15 +8236,18 @@
       <c r="I28" t="s">
         <v>774</v>
       </c>
-      <c r="J28" t="str">
+      <c r="J28" t="s">
+        <v>404</v>
+      </c>
+      <c r="K28" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-002test_005_request_over_limit_100_blocked</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="31.5" thickBot="1">
+    <row r="29" spans="1:17" ht="31.5" thickBot="1">
       <c r="A29" s="6" t="s">
         <v>120</v>
       </c>
@@ -8161,15 +8271,18 @@
       <c r="I29" t="s">
         <v>774</v>
       </c>
-      <c r="J29" t="str">
+      <c r="J29" t="s">
+        <v>404</v>
+      </c>
+      <c r="K29" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-002test_006_window_reset_after_60_seconds</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="31.5" thickBot="1">
+    <row r="30" spans="1:17" ht="31.5" thickBot="1">
       <c r="A30" s="6" t="s">
         <v>120</v>
       </c>
@@ -8193,15 +8306,18 @@
       <c r="I30" t="s">
         <v>774</v>
       </c>
-      <c r="J30" t="str">
+      <c r="J30" t="s">
+        <v>404</v>
+      </c>
+      <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-002test_007_tenant_isolation_separate_counters</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="31.5" thickBot="1">
+    <row r="31" spans="1:17" ht="31.5" thickBot="1">
       <c r="A31" s="6" t="s">
         <v>120</v>
       </c>
@@ -8225,15 +8341,18 @@
       <c r="I31" t="s">
         <v>774</v>
       </c>
-      <c r="J31" t="str">
+      <c r="J31" t="s">
+        <v>404</v>
+      </c>
+      <c r="K31" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-002test_008_tenant_a_full_tenant_b_available</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="31.5" thickBot="1">
+    <row r="32" spans="1:17" ht="31.5" thickBot="1">
       <c r="A32" s="6" t="s">
         <v>120</v>
       </c>
@@ -8257,15 +8376,18 @@
       <c r="I32" t="s">
         <v>774</v>
       </c>
-      <c r="J32" t="str">
+      <c r="J32" t="s">
+        <v>404</v>
+      </c>
+      <c r="K32" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-002test_009_sliding_window_calculation</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="31.5" thickBot="1">
+    <row r="33" spans="1:17" ht="31.5" thickBot="1">
       <c r="A33" s="6" t="s">
         <v>120</v>
       </c>
@@ -8289,15 +8411,18 @@
       <c r="I33" t="s">
         <v>774</v>
       </c>
-      <c r="J33" t="str">
+      <c r="J33" t="s">
+        <v>404</v>
+      </c>
+      <c r="K33" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-002test_010_rate_limit_result_retry_after_header</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="31.5" thickBot="1">
+    <row r="34" spans="1:17" ht="31.5" thickBot="1">
       <c r="A34" s="6" t="s">
         <v>120</v>
       </c>
@@ -8321,15 +8446,18 @@
       <c r="I34" t="s">
         <v>774</v>
       </c>
-      <c r="J34" t="str">
+      <c r="J34" t="s">
+        <v>404</v>
+      </c>
+      <c r="K34" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-002test_011_rate_limit_audit_log_on_block</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="31.5" thickBot="1">
+    <row r="35" spans="1:17" ht="31.5" thickBot="1">
       <c r="A35" s="6" t="s">
         <v>120</v>
       </c>
@@ -8353,15 +8481,18 @@
       <c r="I35" t="s">
         <v>774</v>
       </c>
-      <c r="J35" t="str">
+      <c r="J35" t="s">
+        <v>404</v>
+      </c>
+      <c r="K35" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-002test_012_rate_limit_warning_at_80_percent</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="31.5" thickBot="1">
+    <row r="36" spans="1:17" ht="31.5" thickBot="1">
       <c r="A36" s="6" t="s">
         <v>120</v>
       </c>
@@ -8385,15 +8516,18 @@
       <c r="I36" t="s">
         <v>774</v>
       </c>
-      <c r="J36" t="str">
+      <c r="J36" t="s">
+        <v>404</v>
+      </c>
+      <c r="K36" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-002test_013_concurrent_requests_race_condition</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="31.5" thickBot="1">
+    <row r="37" spans="1:17" ht="31.5" thickBot="1">
       <c r="A37" s="6" t="s">
         <v>120</v>
       </c>
@@ -8417,15 +8551,18 @@
       <c r="I37" t="s">
         <v>774</v>
       </c>
-      <c r="J37" t="str">
+      <c r="J37" t="s">
+        <v>404</v>
+      </c>
+      <c r="K37" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-002test_014_rate_limit_reset_at_midnight</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="31.5" thickBot="1">
+    <row r="38" spans="1:17" ht="31.5" thickBot="1">
       <c r="A38" s="6" t="s">
         <v>120</v>
       </c>
@@ -8449,15 +8586,18 @@
       <c r="I38" t="s">
         <v>774</v>
       </c>
-      <c r="J38" t="str">
+      <c r="J38" t="s">
+        <v>404</v>
+      </c>
+      <c r="K38" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-002test_edge_001_burst_59_requests_simultaneous</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="31.5" thickBot="1">
+    <row r="39" spans="1:17" ht="31.5" thickBot="1">
       <c r="A39" s="6" t="s">
         <v>120</v>
       </c>
@@ -8481,15 +8621,18 @@
       <c r="I39" t="s">
         <v>774</v>
       </c>
-      <c r="J39" t="str">
+      <c r="J39" t="s">
+        <v>404</v>
+      </c>
+      <c r="K39" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-002test_edge_002_exactly_60_second_boundary</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="31.5" thickBot="1">
+    <row r="40" spans="1:17" ht="31.5" thickBot="1">
       <c r="A40" s="6" t="s">
         <v>120</v>
       </c>
@@ -8513,15 +8656,18 @@
       <c r="I40" t="s">
         <v>774</v>
       </c>
-      <c r="J40" t="str">
+      <c r="J40" t="s">
+        <v>404</v>
+      </c>
+      <c r="K40" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-002test_edge_003_clock_skew_handling</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="31.5" thickBot="1">
+    <row r="41" spans="1:17" ht="31.5" thickBot="1">
       <c r="A41" s="6" t="s">
         <v>121</v>
       </c>
@@ -8545,12 +8691,15 @@
       <c r="I41" t="s">
         <v>796</v>
       </c>
-      <c r="J41" t="str">
+      <c r="J41" t="s">
+        <v>404</v>
+      </c>
+      <c r="K41" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-003test_001_query_under_5s_allowed</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="31.5" thickBot="1">
+    <row r="42" spans="1:17" ht="31.5" thickBot="1">
       <c r="A42" s="6" t="s">
         <v>121</v>
       </c>
@@ -8574,12 +8723,15 @@
       <c r="I42" t="s">
         <v>796</v>
       </c>
-      <c r="J42" t="str">
+      <c r="J42" t="s">
+        <v>404</v>
+      </c>
+      <c r="K42" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-003test_002_query_at_5s_allowed</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="31.5" thickBot="1">
+    <row r="43" spans="1:17" ht="31.5" thickBot="1">
       <c r="A43" s="6" t="s">
         <v>121</v>
       </c>
@@ -8603,12 +8755,15 @@
       <c r="I43" t="s">
         <v>796</v>
       </c>
-      <c r="J43" t="str">
+      <c r="J43" t="s">
+        <v>404</v>
+      </c>
+      <c r="K43" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-003test_003_query_over_5s_timeout_cancelled</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="31.5" thickBot="1">
+    <row r="44" spans="1:17" ht="31.5" thickBot="1">
       <c r="A44" s="6" t="s">
         <v>121</v>
       </c>
@@ -8632,12 +8787,15 @@
       <c r="I44" t="s">
         <v>796</v>
       </c>
-      <c r="J44" t="str">
+      <c r="J44" t="s">
+        <v>404</v>
+      </c>
+      <c r="K44" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-003test_004_query_result_under_1000_rows_allowed</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="31.5" thickBot="1">
+    <row r="45" spans="1:17" ht="31.5" thickBot="1">
       <c r="A45" s="6" t="s">
         <v>121</v>
       </c>
@@ -8661,12 +8819,15 @@
       <c r="I45" t="s">
         <v>796</v>
       </c>
-      <c r="J45" t="str">
+      <c r="J45" t="s">
+        <v>404</v>
+      </c>
+      <c r="K45" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-003test_005_query_result_at_1000_rows_allowed</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="31.5" thickBot="1">
+    <row r="46" spans="1:17" ht="31.5" thickBot="1">
       <c r="A46" s="6" t="s">
         <v>121</v>
       </c>
@@ -8690,12 +8851,15 @@
       <c r="I46" t="s">
         <v>796</v>
       </c>
-      <c r="J46" t="str">
+      <c r="J46" t="s">
+        <v>404</v>
+      </c>
+      <c r="K46" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-003test_006_query_result_over_1000_rows_truncated</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="31.5" thickBot="1">
+    <row r="47" spans="1:17" ht="31.5" thickBot="1">
       <c r="A47" s="6" t="s">
         <v>121</v>
       </c>
@@ -8719,12 +8883,15 @@
       <c r="I47" t="s">
         <v>796</v>
       </c>
-      <c r="J47" t="str">
+      <c r="J47" t="s">
+        <v>404</v>
+      </c>
+      <c r="K47" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-003test_007_query_result_truncated_flag_set</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="31.5" thickBot="1">
+    <row r="48" spans="1:17" ht="31.5" thickBot="1">
       <c r="A48" s="6" t="s">
         <v>121</v>
       </c>
@@ -8748,12 +8915,15 @@
       <c r="I48" t="s">
         <v>796</v>
       </c>
-      <c r="J48" t="str">
+      <c r="J48" t="s">
+        <v>404</v>
+      </c>
+      <c r="K48" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-003test_008_timeout_returns_partial_results</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="31.5" thickBot="1">
+    <row r="49" spans="1:11" ht="31.5" thickBot="1">
       <c r="A49" s="6" t="s">
         <v>121</v>
       </c>
@@ -8777,12 +8947,15 @@
       <c r="I49" t="s">
         <v>796</v>
       </c>
-      <c r="J49" t="str">
+      <c r="J49" t="s">
+        <v>404</v>
+      </c>
+      <c r="K49" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-003test_009_timeout_audit_log_created</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="31.5" thickBot="1">
+    <row r="50" spans="1:11" ht="31.5" thickBot="1">
       <c r="A50" s="6" t="s">
         <v>121</v>
       </c>
@@ -8806,12 +8979,15 @@
       <c r="I50" t="s">
         <v>796</v>
       </c>
-      <c r="J50" t="str">
+      <c r="J50" t="s">
+        <v>404</v>
+      </c>
+      <c r="K50" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-003test_010_row_limit_audit_log_created</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="31.5" thickBot="1">
+    <row r="51" spans="1:11" ht="31.5" thickBot="1">
       <c r="A51" s="6" t="s">
         <v>121</v>
       </c>
@@ -8835,12 +9011,15 @@
       <c r="I51" t="s">
         <v>796</v>
       </c>
-      <c r="J51" t="str">
+      <c r="J51" t="s">
+        <v>404</v>
+      </c>
+      <c r="K51" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-003test_011_combined_timeout_and_row_limit</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="31.5" thickBot="1">
+    <row r="52" spans="1:11" ht="31.5" thickBot="1">
       <c r="A52" s="6" t="s">
         <v>121</v>
       </c>
@@ -8864,12 +9043,15 @@
       <c r="I52" t="s">
         <v>796</v>
       </c>
-      <c r="J52" t="str">
+      <c r="J52" t="s">
+        <v>404</v>
+      </c>
+      <c r="K52" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-003test_012_query_limit_config_per_tenant</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="31.5" thickBot="1">
+    <row r="53" spans="1:11" ht="31.5" thickBot="1">
       <c r="A53" s="6" t="s">
         <v>121</v>
       </c>
@@ -8893,12 +9075,15 @@
       <c r="I53" t="s">
         <v>796</v>
       </c>
-      <c r="J53" t="str">
+      <c r="J53" t="s">
+        <v>404</v>
+      </c>
+      <c r="K53" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-003test_edge_001_exactly_1000_rows</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="31.5" thickBot="1">
+    <row r="54" spans="1:11" ht="31.5" thickBot="1">
       <c r="A54" s="6" t="s">
         <v>121</v>
       </c>
@@ -8922,12 +9107,15 @@
       <c r="I54" t="s">
         <v>796</v>
       </c>
-      <c r="J54" t="str">
+      <c r="J54" t="s">
+        <v>404</v>
+      </c>
+      <c r="K54" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-003test_edge_002_empty_result_set</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="31.5" thickBot="1">
+    <row r="55" spans="1:11" ht="31.5" thickBot="1">
       <c r="A55" s="6" t="s">
         <v>121</v>
       </c>
@@ -8951,12 +9139,15 @@
       <c r="I55" t="s">
         <v>796</v>
       </c>
-      <c r="J55" t="str">
+      <c r="J55" t="s">
+        <v>404</v>
+      </c>
+      <c r="K55" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-MCP-003test_edge_003_streaming_query_timeout</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="31.5" thickBot="1">
+    <row r="56" spans="1:11" ht="31.5" thickBot="1">
       <c r="A56" s="6" t="s">
         <v>123</v>
       </c>
@@ -8980,12 +9171,15 @@
       <c r="I56" t="s">
         <v>774</v>
       </c>
-      <c r="J56" t="str">
+      <c r="J56" t="s">
+        <v>404</v>
+      </c>
+      <c r="K56" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_001_detect_dni_valid_12345678Z</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="31.5" thickBot="1">
+    <row r="57" spans="1:11" ht="31.5" thickBot="1">
       <c r="A57" s="6" t="s">
         <v>123</v>
       </c>
@@ -9009,12 +9203,15 @@
       <c r="I57" t="s">
         <v>774</v>
       </c>
-      <c r="J57" t="str">
+      <c r="J57" t="s">
+        <v>404</v>
+      </c>
+      <c r="K57" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_002_detect_dni_valid_87654321X</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="31.5" thickBot="1">
+    <row r="58" spans="1:11" ht="31.5" thickBot="1">
       <c r="A58" s="6" t="s">
         <v>123</v>
       </c>
@@ -9038,12 +9235,15 @@
       <c r="I58" t="s">
         <v>774</v>
       </c>
-      <c r="J58" t="str">
+      <c r="J58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K58" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_003_detect_dni_invalid_length_9_digits</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="31.5" thickBot="1">
+    <row r="59" spans="1:11" ht="31.5" thickBot="1">
       <c r="A59" s="6" t="s">
         <v>123</v>
       </c>
@@ -9067,12 +9267,15 @@
       <c r="I59" t="s">
         <v>774</v>
       </c>
-      <c r="J59" t="str">
+      <c r="J59" t="s">
+        <v>404</v>
+      </c>
+      <c r="K59" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_004_detect_dni_invalid_length_7_digits</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="31.5" thickBot="1">
+    <row r="60" spans="1:11" ht="31.5" thickBot="1">
       <c r="A60" s="6" t="s">
         <v>123</v>
       </c>
@@ -9096,12 +9299,15 @@
       <c r="I60" t="s">
         <v>774</v>
       </c>
-      <c r="J60" t="str">
+      <c r="J60" t="s">
+        <v>404</v>
+      </c>
+      <c r="K60" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_005_detect_dni_invalid_letter_checksum</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="31.5" thickBot="1">
+    <row r="61" spans="1:11" ht="31.5" thickBot="1">
       <c r="A61" s="6" t="s">
         <v>123</v>
       </c>
@@ -9125,12 +9331,15 @@
       <c r="I61" t="s">
         <v>774</v>
       </c>
-      <c r="J61" t="str">
+      <c r="J61" t="s">
+        <v>404</v>
+      </c>
+      <c r="K61" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_006_detect_multiple_dnis_in_text</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="31.5" thickBot="1">
+    <row r="62" spans="1:11" ht="31.5" thickBot="1">
       <c r="A62" s="6" t="s">
         <v>123</v>
       </c>
@@ -9154,12 +9363,15 @@
       <c r="I62" t="s">
         <v>774</v>
       </c>
-      <c r="J62" t="str">
+      <c r="J62" t="s">
+        <v>404</v>
+      </c>
+      <c r="K62" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_007_detect_email_simple</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="31.5" thickBot="1">
+    <row r="63" spans="1:11" ht="31.5" thickBot="1">
       <c r="A63" s="6" t="s">
         <v>123</v>
       </c>
@@ -9183,12 +9395,15 @@
       <c r="I63" t="s">
         <v>774</v>
       </c>
-      <c r="J63" t="str">
+      <c r="J63" t="s">
+        <v>404</v>
+      </c>
+      <c r="K63" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_008_detect_email_with_subdomain</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="31.5" thickBot="1">
+    <row r="64" spans="1:11" ht="31.5" thickBot="1">
       <c r="A64" s="6" t="s">
         <v>123</v>
       </c>
@@ -9212,12 +9427,15 @@
       <c r="I64" t="s">
         <v>774</v>
       </c>
-      <c r="J64" t="str">
+      <c r="J64" t="s">
+        <v>404</v>
+      </c>
+      <c r="K64" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_009_detect_email_with_plus_sign</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="31.5" thickBot="1">
+    <row r="65" spans="1:11" ht="31.5" thickBot="1">
       <c r="A65" s="6" t="s">
         <v>123</v>
       </c>
@@ -9241,12 +9459,15 @@
       <c r="I65" t="s">
         <v>774</v>
       </c>
-      <c r="J65" t="str">
+      <c r="J65" t="s">
+        <v>404</v>
+      </c>
+      <c r="K65" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_010_detect_email_invalid_no_at</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="31.5" thickBot="1">
+    <row r="66" spans="1:11" ht="31.5" thickBot="1">
       <c r="A66" s="6" t="s">
         <v>123</v>
       </c>
@@ -9270,12 +9491,15 @@
       <c r="I66" t="s">
         <v>774</v>
       </c>
-      <c r="J66" t="str">
+      <c r="J66" t="s">
+        <v>404</v>
+      </c>
+      <c r="K66" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_011_detect_multiple_emails_in_text</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="31.5" thickBot="1">
+    <row r="67" spans="1:11" ht="31.5" thickBot="1">
       <c r="A67" s="6" t="s">
         <v>123</v>
       </c>
@@ -9299,12 +9523,15 @@
       <c r="I67" t="s">
         <v>774</v>
       </c>
-      <c r="J67" t="str">
+      <c r="J67" t="s">
+        <v>404</v>
+      </c>
+      <c r="K67" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_012_detect_phone_mobile_612345678</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="31.5" thickBot="1">
+    <row r="68" spans="1:11" ht="31.5" thickBot="1">
       <c r="A68" s="6" t="s">
         <v>123</v>
       </c>
@@ -9328,12 +9555,15 @@
       <c r="I68" t="s">
         <v>774</v>
       </c>
-      <c r="J68" t="str">
+      <c r="J68" t="s">
+        <v>404</v>
+      </c>
+      <c r="K68" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_013_detect_phone_mobile_with_prefix_34</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="31.5" thickBot="1">
+    <row r="69" spans="1:11" ht="31.5" thickBot="1">
       <c r="A69" s="6" t="s">
         <v>123</v>
       </c>
@@ -9357,12 +9587,15 @@
       <c r="I69" t="s">
         <v>774</v>
       </c>
-      <c r="J69" t="str">
+      <c r="J69" t="s">
+        <v>404</v>
+      </c>
+      <c r="K69" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_014_detect_phone_landline_912345678</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="31.5" thickBot="1">
+    <row r="70" spans="1:11" ht="31.5" thickBot="1">
       <c r="A70" s="6" t="s">
         <v>123</v>
       </c>
@@ -9386,12 +9619,15 @@
       <c r="I70" t="s">
         <v>774</v>
       </c>
-      <c r="J70" t="str">
+      <c r="J70" t="s">
+        <v>404</v>
+      </c>
+      <c r="K70" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_015_detect_phone_invalid_short</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="31.5" thickBot="1">
+    <row r="71" spans="1:11" ht="31.5" thickBot="1">
       <c r="A71" s="6" t="s">
         <v>123</v>
       </c>
@@ -9415,12 +9651,15 @@
       <c r="I71" t="s">
         <v>774</v>
       </c>
-      <c r="J71" t="str">
+      <c r="J71" t="s">
+        <v>404</v>
+      </c>
+      <c r="K71" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_016_detect_multiple_phones_in_text</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="31.5" thickBot="1">
+    <row r="72" spans="1:11" ht="31.5" thickBot="1">
       <c r="A72" s="6" t="s">
         <v>123</v>
       </c>
@@ -9444,12 +9683,15 @@
       <c r="I72" t="s">
         <v>774</v>
       </c>
-      <c r="J72" t="str">
+      <c r="J72" t="s">
+        <v>404</v>
+      </c>
+      <c r="K72" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_017_detect_iban_spain_valid</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="31.5" thickBot="1">
+    <row r="73" spans="1:11" ht="31.5" thickBot="1">
       <c r="A73" s="6" t="s">
         <v>123</v>
       </c>
@@ -9473,12 +9715,15 @@
       <c r="I73" t="s">
         <v>774</v>
       </c>
-      <c r="J73" t="str">
+      <c r="J73" t="s">
+        <v>404</v>
+      </c>
+      <c r="K73" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_018_detect_iban_germany_valid</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="31.5" thickBot="1">
+    <row r="74" spans="1:11" ht="31.5" thickBot="1">
       <c r="A74" s="6" t="s">
         <v>123</v>
       </c>
@@ -9502,12 +9747,15 @@
       <c r="I74" t="s">
         <v>774</v>
       </c>
-      <c r="J74" t="str">
+      <c r="J74" t="s">
+        <v>404</v>
+      </c>
+      <c r="K74" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_019_detect_iban_invalid_checksum</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="31.5" thickBot="1">
+    <row r="75" spans="1:11" ht="31.5" thickBot="1">
       <c r="A75" s="6" t="s">
         <v>123</v>
       </c>
@@ -9531,12 +9779,15 @@
       <c r="I75" t="s">
         <v>774</v>
       </c>
-      <c r="J75" t="str">
+      <c r="J75" t="s">
+        <v>404</v>
+      </c>
+      <c r="K75" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_020_detect_iban_invalid_length</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="31.5" thickBot="1">
+    <row r="76" spans="1:11" ht="31.5" thickBot="1">
       <c r="A76" s="6" t="s">
         <v>123</v>
       </c>
@@ -9560,12 +9811,15 @@
       <c r="I76" t="s">
         <v>774</v>
       </c>
-      <c r="J76" t="str">
+      <c r="J76" t="s">
+        <v>404</v>
+      </c>
+      <c r="K76" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_021_detect_all_pii_types_in_document</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="31.5" thickBot="1">
+    <row r="77" spans="1:11" ht="31.5" thickBot="1">
       <c r="A77" s="6" t="s">
         <v>123</v>
       </c>
@@ -9589,12 +9843,15 @@
       <c r="I77" t="s">
         <v>774</v>
       </c>
-      <c r="J77" t="str">
+      <c r="J77" t="s">
+        <v>404</v>
+      </c>
+      <c r="K77" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_022_detect_no_pii_clean_document</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="31.5" thickBot="1">
+    <row r="78" spans="1:11" ht="31.5" thickBot="1">
       <c r="A78" s="6" t="s">
         <v>123</v>
       </c>
@@ -9618,12 +9875,15 @@
       <c r="I78" t="s">
         <v>774</v>
       </c>
-      <c r="J78" t="str">
+      <c r="J78" t="s">
+        <v>404</v>
+      </c>
+      <c r="K78" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_023_detect_pii_positions_returned</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="31.5" thickBot="1">
+    <row r="79" spans="1:11" ht="31.5" thickBot="1">
       <c r="A79" s="6" t="s">
         <v>123</v>
       </c>
@@ -9647,12 +9907,15 @@
       <c r="I79" t="s">
         <v>774</v>
       </c>
-      <c r="J79" t="str">
+      <c r="J79" t="s">
+        <v>404</v>
+      </c>
+      <c r="K79" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_024_detect_pii_counts_by_type</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="31.5" thickBot="1">
+    <row r="80" spans="1:11" ht="31.5" thickBot="1">
       <c r="A80" s="6" t="s">
         <v>123</v>
       </c>
@@ -9676,12 +9939,15 @@
       <c r="I80" t="s">
         <v>774</v>
       </c>
-      <c r="J80" t="str">
+      <c r="J80" t="s">
+        <v>404</v>
+      </c>
+      <c r="K80" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_edge_001_pii_in_different_languages</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="31.5" thickBot="1">
+    <row r="81" spans="1:11" ht="31.5" thickBot="1">
       <c r="A81" s="6" t="s">
         <v>123</v>
       </c>
@@ -9705,12 +9971,15 @@
       <c r="I81" t="s">
         <v>774</v>
       </c>
-      <c r="J81" t="str">
+      <c r="J81" t="s">
+        <v>404</v>
+      </c>
+      <c r="K81" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_edge_002_pii_with_unicode_characters</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="31.5" thickBot="1">
+    <row r="82" spans="1:11" ht="31.5" thickBot="1">
       <c r="A82" s="6" t="s">
         <v>123</v>
       </c>
@@ -9725,12 +9994,15 @@
       <c r="F82" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="J82" t="str">
+      <c r="J82" t="s">
+        <v>404</v>
+      </c>
+      <c r="K82" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-001test_edge_003_pii_in_html_escaped_text</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="31.5" thickBot="1">
+    <row r="83" spans="1:11" ht="31.5" thickBot="1">
       <c r="A83" s="6" t="s">
         <v>124</v>
       </c>
@@ -9751,12 +10023,15 @@
       <c r="H83" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J83" t="str">
+      <c r="J83" t="s">
+        <v>404</v>
+      </c>
+      <c r="K83" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-002test_001_redact_dni_to_redacted</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="31.5" thickBot="1">
+    <row r="84" spans="1:11" ht="31.5" thickBot="1">
       <c r="A84" s="6" t="s">
         <v>124</v>
       </c>
@@ -9777,12 +10052,15 @@
       <c r="H84" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J84" t="str">
+      <c r="J84" t="s">
+        <v>404</v>
+      </c>
+      <c r="K84" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-002test_002_redact_email_to_redacted</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="31.5" thickBot="1">
+    <row r="85" spans="1:11" ht="31.5" thickBot="1">
       <c r="A85" s="6" t="s">
         <v>124</v>
       </c>
@@ -9803,12 +10081,15 @@
       <c r="H85" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J85" t="str">
+      <c r="J85" t="s">
+        <v>404</v>
+      </c>
+      <c r="K85" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-002test_003_redact_phone_to_redacted</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="31.5" thickBot="1">
+    <row r="86" spans="1:11" ht="31.5" thickBot="1">
       <c r="A86" s="6" t="s">
         <v>124</v>
       </c>
@@ -9829,12 +10110,15 @@
       <c r="H86" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J86" t="str">
+      <c r="J86" t="s">
+        <v>404</v>
+      </c>
+      <c r="K86" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-002test_004_redact_multiple_pii_all_redacted</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="31.5" thickBot="1">
+    <row r="87" spans="1:11" ht="31.5" thickBot="1">
       <c r="A87" s="6" t="s">
         <v>124</v>
       </c>
@@ -9855,12 +10139,15 @@
       <c r="H87" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J87" t="str">
+      <c r="J87" t="s">
+        <v>404</v>
+      </c>
+      <c r="K87" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-002test_005_hash_dni_deterministic</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="31.5" thickBot="1">
+    <row r="88" spans="1:11" ht="31.5" thickBot="1">
       <c r="A88" s="6" t="s">
         <v>124</v>
       </c>
@@ -9881,12 +10168,15 @@
       <c r="H88" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J88" t="str">
+      <c r="J88" t="s">
+        <v>404</v>
+      </c>
+      <c r="K88" t="str">
         <f t="shared" si="0"/>
         <v>TS-UC-SEC-ANO-002test_006_hash_same_value_same_hash</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="31.5" thickBot="1">
+    <row r="89" spans="1:11" ht="31.5" thickBot="1">
       <c r="A89" s="6" t="s">
         <v>124</v>
       </c>
@@ -9907,12 +10197,15 @@
       <c r="H89" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J89" t="str">
-        <f t="shared" ref="J89:J152" si="1">CONCATENATE(A89,C89)</f>
+      <c r="J89" t="s">
+        <v>404</v>
+      </c>
+      <c r="K89" t="str">
+        <f t="shared" ref="K89:K152" si="1">CONCATENATE(A89,C89)</f>
         <v>TS-UC-SEC-ANO-002test_007_hash_different_values_different_hash</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="31.5" thickBot="1">
+    <row r="90" spans="1:11" ht="31.5" thickBot="1">
       <c r="A90" s="6" t="s">
         <v>124</v>
       </c>
@@ -9933,12 +10226,15 @@
       <c r="H90" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J90" t="str">
+      <c r="J90" t="s">
+        <v>404</v>
+      </c>
+      <c r="K90" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-ANO-002test_008_hash_irreversible_validation</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="31.5" thickBot="1">
+    <row r="91" spans="1:11" ht="31.5" thickBot="1">
       <c r="A91" s="6" t="s">
         <v>124</v>
       </c>
@@ -9959,12 +10255,15 @@
       <c r="H91" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J91" t="str">
+      <c r="J91" t="s">
+        <v>404</v>
+      </c>
+      <c r="K91" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-ANO-002test_009_pseudonymize_name_to_persona_001</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="31.5" thickBot="1">
+    <row r="92" spans="1:11" ht="31.5" thickBot="1">
       <c r="A92" s="6" t="s">
         <v>124</v>
       </c>
@@ -9985,12 +10284,15 @@
       <c r="H92" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J92" t="str">
+      <c r="J92" t="s">
+        <v>404</v>
+      </c>
+      <c r="K92" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-ANO-002test_010_pseudonymize_consistent_same_name</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="46.5" thickBot="1">
+    <row r="93" spans="1:11" ht="46.5" thickBot="1">
       <c r="A93" s="6" t="s">
         <v>124</v>
       </c>
@@ -10011,12 +10313,15 @@
       <c r="H93" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J93" t="str">
+      <c r="J93" t="s">
+        <v>404</v>
+      </c>
+      <c r="K93" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-ANO-002test_011_pseudonymize_different_names_different_ids</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="31.5" thickBot="1">
+    <row r="94" spans="1:11" ht="31.5" thickBot="1">
       <c r="A94" s="6" t="s">
         <v>124</v>
       </c>
@@ -10037,12 +10342,15 @@
       <c r="H94" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J94" t="str">
+      <c r="J94" t="s">
+        <v>404</v>
+      </c>
+      <c r="K94" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-ANO-002test_012_pseudonymize_in_context_preserved</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="31.5" thickBot="1">
+    <row r="95" spans="1:11" ht="31.5" thickBot="1">
       <c r="A95" s="6" t="s">
         <v>124</v>
       </c>
@@ -10063,12 +10371,15 @@
       <c r="H95" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J95" t="str">
+      <c r="J95" t="s">
+        <v>404</v>
+      </c>
+      <c r="K95" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-ANO-002test_013_strategy_by_pii_type_default</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="31.5" thickBot="1">
+    <row r="96" spans="1:11" ht="31.5" thickBot="1">
       <c r="A96" s="6" t="s">
         <v>124</v>
       </c>
@@ -10089,12 +10400,15 @@
       <c r="H96" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J96" t="str">
+      <c r="J96" t="s">
+        <v>404</v>
+      </c>
+      <c r="K96" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-ANO-002test_014_strategy_by_tenant_config</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="31.5" thickBot="1">
+    <row r="97" spans="1:11" ht="31.5" thickBot="1">
       <c r="A97" s="6" t="s">
         <v>124</v>
       </c>
@@ -10115,12 +10429,15 @@
       <c r="H97" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J97" t="str">
+      <c r="J97" t="s">
+        <v>404</v>
+      </c>
+      <c r="K97" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-ANO-002test_015_strategy_mixed_per_type</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="31.5" thickBot="1">
+    <row r="98" spans="1:11" ht="31.5" thickBot="1">
       <c r="A98" s="6" t="s">
         <v>124</v>
       </c>
@@ -10141,12 +10458,15 @@
       <c r="H98" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J98" t="str">
+      <c r="J98" t="s">
+        <v>404</v>
+      </c>
+      <c r="K98" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-ANO-002test_016_strategy_none_keeps_original</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="31.5" thickBot="1">
+    <row r="99" spans="1:11" ht="31.5" thickBot="1">
       <c r="A99" s="6" t="s">
         <v>124</v>
       </c>
@@ -10167,12 +10487,15 @@
       <c r="H99" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J99" t="str">
+      <c r="J99" t="s">
+        <v>404</v>
+      </c>
+      <c r="K99" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-ANO-002test_edge_001_nested_pii_in_pii</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="31.5" thickBot="1">
+    <row r="100" spans="1:11" ht="31.5" thickBot="1">
       <c r="A100" s="6" t="s">
         <v>124</v>
       </c>
@@ -10193,12 +10516,15 @@
       <c r="H100" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J100" t="str">
+      <c r="J100" t="s">
+        <v>404</v>
+      </c>
+      <c r="K100" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-ANO-002test_edge_002_overlapping_pii_positions</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="31.5" thickBot="1">
+    <row r="101" spans="1:11" ht="31.5" thickBot="1">
       <c r="A101" s="6" t="s">
         <v>124</v>
       </c>
@@ -10219,12 +10545,15 @@
       <c r="H101" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J101" t="str">
+      <c r="J101" t="s">
+        <v>404</v>
+      </c>
+      <c r="K101" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-ANO-002test_edge_003_empty_text_no_error</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="16.5" thickBot="1">
+    <row r="102" spans="1:11" ht="16.5" thickBot="1">
       <c r="A102" s="6" t="s">
         <v>125</v>
       </c>
@@ -10245,12 +10574,15 @@
       <c r="H102" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J102" t="str">
+      <c r="J102" t="s">
+        <v>404</v>
+      </c>
+      <c r="K102" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-ANO-003Tests not individually listed</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="16.5" thickBot="1">
+    <row r="103" spans="1:11" ht="16.5" thickBot="1">
       <c r="A103" s="6" t="s">
         <v>126</v>
       </c>
@@ -10271,12 +10603,15 @@
       <c r="H103" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J103" t="str">
+      <c r="J103" t="s">
+        <v>404</v>
+      </c>
+      <c r="K103" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-TNT-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="16.5" thickBot="1">
+    <row r="104" spans="1:11" ht="16.5" thickBot="1">
       <c r="A104" s="6" t="s">
         <v>127</v>
       </c>
@@ -10297,12 +10632,12 @@
       <c r="H104" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J104" t="str">
+      <c r="K104" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-JWT-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="16.5" thickBot="1">
+    <row r="105" spans="1:11" ht="16.5" thickBot="1">
       <c r="A105" s="6" t="s">
         <v>128</v>
       </c>
@@ -10323,12 +10658,12 @@
       <c r="H105" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J105" t="str">
+      <c r="K105" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-AUD-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="31.5" thickBot="1">
+    <row r="106" spans="1:11" ht="31.5" thickBot="1">
       <c r="A106" s="6" t="s">
         <v>129</v>
       </c>
@@ -10349,12 +10684,15 @@
       <c r="H106" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J106" t="str">
+      <c r="J106" t="s">
+        <v>404</v>
+      </c>
+      <c r="K106" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-GAM-001test_001_mass_changes_11_in_hour_detected</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="31.5" thickBot="1">
+    <row r="107" spans="1:11" ht="31.5" thickBot="1">
       <c r="A107" s="6" t="s">
         <v>129</v>
       </c>
@@ -10375,12 +10713,15 @@
       <c r="H107" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J107" t="str">
+      <c r="J107" t="s">
+        <v>404</v>
+      </c>
+      <c r="K107" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-GAM-001test_002_mass_changes_10_in_hour_allowed</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="31.5" thickBot="1">
+    <row r="108" spans="1:11" ht="31.5" thickBot="1">
       <c r="A108" s="6" t="s">
         <v>129</v>
       </c>
@@ -10401,12 +10742,15 @@
       <c r="H108" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J108" t="str">
+      <c r="J108" t="s">
+        <v>404</v>
+      </c>
+      <c r="K108" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-GAM-001test_003_mass_changes_window_reset</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="31.5" thickBot="1">
+    <row r="109" spans="1:11" ht="31.5" thickBot="1">
       <c r="A109" s="6" t="s">
         <v>129</v>
       </c>
@@ -10427,12 +10771,15 @@
       <c r="H109" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J109" t="str">
+      <c r="J109" t="s">
+        <v>404</v>
+      </c>
+      <c r="K109" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-GAM-001test_004_resolve_reintroduce_3_times_detected</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="31.5" thickBot="1">
+    <row r="110" spans="1:11" ht="31.5" thickBot="1">
       <c r="A110" s="6" t="s">
         <v>129</v>
       </c>
@@ -10453,12 +10800,15 @@
       <c r="H110" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J110" t="str">
+      <c r="J110" t="s">
+        <v>404</v>
+      </c>
+      <c r="K110" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-GAM-001test_005_resolve_reintroduce_2_times_allowed</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="31.5" thickBot="1">
+    <row r="111" spans="1:11" ht="31.5" thickBot="1">
       <c r="A111" s="6" t="s">
         <v>129</v>
       </c>
@@ -10479,12 +10829,15 @@
       <c r="H111" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J111" t="str">
+      <c r="J111" t="s">
+        <v>404</v>
+      </c>
+      <c r="K111" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-GAM-001test_006_resolve_reintroduce_different_hash_allowed</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="31.5" thickBot="1">
+    <row r="112" spans="1:11" ht="31.5" thickBot="1">
       <c r="A112" s="6" t="s">
         <v>129</v>
       </c>
@@ -10505,12 +10858,15 @@
       <c r="H112" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J112" t="str">
+      <c r="J112" t="s">
+        <v>404</v>
+      </c>
+      <c r="K112" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-GAM-001test_007_high_score_few_docs_detected</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="31.5" thickBot="1">
+    <row r="113" spans="1:11" ht="31.5" thickBot="1">
       <c r="A113" s="6" t="s">
         <v>129</v>
       </c>
@@ -10531,12 +10887,15 @@
       <c r="H113" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J113" t="str">
+      <c r="J113" t="s">
+        <v>404</v>
+      </c>
+      <c r="K113" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-GAM-001test_008_high_score_many_docs_allowed</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="31.5" thickBot="1">
+    <row r="114" spans="1:11" ht="31.5" thickBot="1">
       <c r="A114" s="6" t="s">
         <v>129</v>
       </c>
@@ -10557,12 +10916,15 @@
       <c r="H114" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J114" t="str">
+      <c r="J114" t="s">
+        <v>404</v>
+      </c>
+      <c r="K114" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-GAM-001test_009_high_score_threshold_boundary</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="31.5" thickBot="1">
+    <row r="115" spans="1:11" ht="31.5" thickBot="1">
       <c r="A115" s="6" t="s">
         <v>129</v>
       </c>
@@ -10583,12 +10945,15 @@
       <c r="H115" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J115" t="str">
+      <c r="J115" t="s">
+        <v>404</v>
+      </c>
+      <c r="K115" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-GAM-001test_010_weight_change_25_percent_detected</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="31.5" thickBot="1">
+    <row r="116" spans="1:11" ht="31.5" thickBot="1">
       <c r="A116" s="6" t="s">
         <v>129</v>
       </c>
@@ -10609,12 +10974,15 @@
       <c r="H116" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J116" t="str">
+      <c r="J116" t="s">
+        <v>404</v>
+      </c>
+      <c r="K116" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-GAM-001test_011_weight_change_15_percent_allowed</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="31.5" thickBot="1">
+    <row r="117" spans="1:11" ht="31.5" thickBot="1">
       <c r="A117" s="6" t="s">
         <v>129</v>
       </c>
@@ -10635,12 +11003,15 @@
       <c r="H117" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J117" t="str">
+      <c r="J117" t="s">
+        <v>404</v>
+      </c>
+      <c r="K117" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-GAM-001test_012_weight_change_tracking_24h_window</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="31.5" thickBot="1">
+    <row r="118" spans="1:11" ht="31.5" thickBot="1">
       <c r="A118" s="6" t="s">
         <v>129</v>
       </c>
@@ -10661,12 +11032,15 @@
       <c r="H118" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J118" t="str">
+      <c r="J118" t="s">
+        <v>404</v>
+      </c>
+      <c r="K118" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-GAM-001test_edge_001_multiple_violations_combined</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="31.5" thickBot="1">
+    <row r="119" spans="1:11" ht="31.5" thickBot="1">
       <c r="A119" s="6" t="s">
         <v>129</v>
       </c>
@@ -10687,12 +11061,15 @@
       <c r="H119" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J119" t="str">
+      <c r="J119" t="s">
+        <v>404</v>
+      </c>
+      <c r="K119" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-GAM-001test_edge_002_violation_penalty_application</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="31.5" thickBot="1">
+    <row r="120" spans="1:11" ht="31.5" thickBot="1">
       <c r="A120" s="6" t="s">
         <v>129</v>
       </c>
@@ -10713,12 +11090,15 @@
       <c r="H120" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J120" t="str">
+      <c r="J120" t="s">
+        <v>404</v>
+      </c>
+      <c r="K120" t="str">
         <f t="shared" si="1"/>
         <v>TS-UC-SEC-GAM-001test_edge_003_violation_audit_logging</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="31.5" thickBot="1">
+    <row r="121" spans="1:11" ht="31.5" thickBot="1">
       <c r="A121" s="6" t="s">
         <v>130</v>
       </c>
@@ -10742,12 +11122,15 @@
       <c r="I121" t="s">
         <v>803</v>
       </c>
-      <c r="J121" t="str">
+      <c r="J121" t="s">
+        <v>404</v>
+      </c>
+      <c r="K121" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-CLS-001test_001_clause_creation_with_all_fields</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="31.5" thickBot="1">
+    <row r="122" spans="1:11" ht="31.5" thickBot="1">
       <c r="A122" s="6" t="s">
         <v>130</v>
       </c>
@@ -10768,12 +11151,15 @@
       <c r="H122" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J122" t="str">
+      <c r="J122" t="s">
+        <v>404</v>
+      </c>
+      <c r="K122" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-CLS-001test_002_clause_creation_minimum_fields</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="31.5" thickBot="1">
+    <row r="123" spans="1:11" ht="31.5" thickBot="1">
       <c r="A123" s="6" t="s">
         <v>130</v>
       </c>
@@ -10794,12 +11180,15 @@
       <c r="H123" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J123" t="str">
+      <c r="J123" t="s">
+        <v>404</v>
+      </c>
+      <c r="K123" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-CLS-001test_003_clause_creation_fails_without_content</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="31.5" thickBot="1">
+    <row r="124" spans="1:11" ht="31.5" thickBot="1">
       <c r="A124" s="6" t="s">
         <v>130</v>
       </c>
@@ -10820,12 +11209,15 @@
       <c r="H124" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J124" t="str">
+      <c r="J124" t="s">
+        <v>404</v>
+      </c>
+      <c r="K124" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-CLS-001test_004_clause_creation_fails_without_document_id</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="31.5" thickBot="1">
+    <row r="125" spans="1:11" ht="31.5" thickBot="1">
       <c r="A125" s="6" t="s">
         <v>130</v>
       </c>
@@ -10846,12 +11238,15 @@
       <c r="H125" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J125" t="str">
+      <c r="J125" t="s">
+        <v>404</v>
+      </c>
+      <c r="K125" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-CLS-001test_005_clause_creation_fails_without_tenant_id</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="31.5" thickBot="1">
+    <row r="126" spans="1:11" ht="31.5" thickBot="1">
       <c r="A126" s="6" t="s">
         <v>130</v>
       </c>
@@ -10872,12 +11267,15 @@
       <c r="H126" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J126" t="str">
+      <c r="J126" t="s">
+        <v>404</v>
+      </c>
+      <c r="K126" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-CLS-001test_006_clause_immutability_after_creation</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="31.5" thickBot="1">
+    <row r="127" spans="1:11" ht="31.5" thickBot="1">
       <c r="A127" s="6" t="s">
         <v>130</v>
       </c>
@@ -10898,12 +11296,15 @@
       <c r="H127" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J127" t="str">
+      <c r="J127" t="s">
+        <v>404</v>
+      </c>
+      <c r="K127" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-CLS-001test_007_clause_number_format_primera</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="31.5" thickBot="1">
+    <row r="128" spans="1:11" ht="31.5" thickBot="1">
       <c r="A128" s="6" t="s">
         <v>130</v>
       </c>
@@ -10924,12 +11325,15 @@
       <c r="H128" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J128" t="str">
+      <c r="J128" t="s">
+        <v>404</v>
+      </c>
+      <c r="K128" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-CLS-001test_008_clause_number_format_numeric</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="31.5" thickBot="1">
+    <row r="129" spans="1:11" ht="31.5" thickBot="1">
       <c r="A129" s="6" t="s">
         <v>130</v>
       </c>
@@ -10950,12 +11354,15 @@
       <c r="H129" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J129" t="str">
+      <c r="J129" t="s">
+        <v>404</v>
+      </c>
+      <c r="K129" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-CLS-001test_009_clause_number_format_decimal</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="31.5" thickBot="1">
+    <row r="130" spans="1:11" ht="31.5" thickBot="1">
       <c r="A130" s="6" t="s">
         <v>130</v>
       </c>
@@ -10976,12 +11383,15 @@
       <c r="H130" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J130" t="str">
+      <c r="J130" t="s">
+        <v>404</v>
+      </c>
+      <c r="K130" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-CLS-001test_010_clause_number_normalization</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="31.5" thickBot="1">
+    <row r="131" spans="1:11" ht="31.5" thickBot="1">
       <c r="A131" s="6" t="s">
         <v>130</v>
       </c>
@@ -11002,12 +11412,15 @@
       <c r="H131" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J131" t="str">
+      <c r="J131" t="s">
+        <v>404</v>
+      </c>
+      <c r="K131" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-CLS-001test_011_clause_content_max_length</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="31.5" thickBot="1">
+    <row r="132" spans="1:11" ht="31.5" thickBot="1">
       <c r="A132" s="6" t="s">
         <v>130</v>
       </c>
@@ -11028,12 +11441,15 @@
       <c r="H132" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J132" t="str">
+      <c r="J132" t="s">
+        <v>404</v>
+      </c>
+      <c r="K132" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-CLS-001test_012_clause_content_empty_rejected</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="31.5" thickBot="1">
+    <row r="133" spans="1:11" ht="31.5" thickBot="1">
       <c r="A133" s="6" t="s">
         <v>130</v>
       </c>
@@ -11054,12 +11470,15 @@
       <c r="H133" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J133" t="str">
+      <c r="J133" t="s">
+        <v>404</v>
+      </c>
+      <c r="K133" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-CLS-001test_013_clause_document_fk_valid</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="31.5" thickBot="1">
+    <row r="134" spans="1:11" ht="31.5" thickBot="1">
       <c r="A134" s="6" t="s">
         <v>130</v>
       </c>
@@ -11080,12 +11499,15 @@
       <c r="H134" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J134" t="str">
+      <c r="J134" t="s">
+        <v>404</v>
+      </c>
+      <c r="K134" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-CLS-001test_014_clause_document_fk_invalid_rejected</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="31.5" thickBot="1">
+    <row r="135" spans="1:11" ht="31.5" thickBot="1">
       <c r="A135" s="6" t="s">
         <v>130</v>
       </c>
@@ -11106,12 +11528,15 @@
       <c r="H135" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J135" t="str">
+      <c r="J135" t="s">
+        <v>404</v>
+      </c>
+      <c r="K135" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-CLS-001test_015_clause_tenant_fk_valid</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="31.5" thickBot="1">
+    <row r="136" spans="1:11" ht="31.5" thickBot="1">
       <c r="A136" s="6" t="s">
         <v>130</v>
       </c>
@@ -11132,12 +11557,15 @@
       <c r="H136" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J136" t="str">
+      <c r="J136" t="s">
+        <v>404</v>
+      </c>
+      <c r="K136" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-CLS-001test_016_clause_tenant_fk_invalid_rejected</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="31.5" thickBot="1">
+    <row r="137" spans="1:11" ht="31.5" thickBot="1">
       <c r="A137" s="6" t="s">
         <v>130</v>
       </c>
@@ -11158,12 +11586,15 @@
       <c r="H137" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J137" t="str">
+      <c r="J137" t="s">
+        <v>404</v>
+      </c>
+      <c r="K137" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-CLS-001test_017_clause_on_delete_restrict_document</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="31.5" thickBot="1">
+    <row r="138" spans="1:11" ht="31.5" thickBot="1">
       <c r="A138" s="6" t="s">
         <v>130</v>
       </c>
@@ -11184,12 +11615,15 @@
       <c r="H138" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J138" t="str">
+      <c r="J138" t="s">
+        <v>404</v>
+      </c>
+      <c r="K138" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-CLS-001test_018_clause_on_delete_restrict_tenant</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="31.5" thickBot="1">
+    <row r="139" spans="1:11" ht="31.5" thickBot="1">
       <c r="A139" s="6" t="s">
         <v>130</v>
       </c>
@@ -11210,12 +11644,15 @@
       <c r="H139" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J139" t="str">
+      <c r="J139" t="s">
+        <v>404</v>
+      </c>
+      <c r="K139" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-CLS-001test_019_clause_embedding_vector_size</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="31.5" thickBot="1">
+    <row r="140" spans="1:11" ht="31.5" thickBot="1">
       <c r="A140" s="6" t="s">
         <v>130</v>
       </c>
@@ -11236,12 +11673,15 @@
       <c r="H140" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J140" t="str">
+      <c r="J140" t="s">
+        <v>404</v>
+      </c>
+      <c r="K140" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-CLS-001test_020_clause_embedding_generation</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="31.5" thickBot="1">
+    <row r="141" spans="1:11" ht="31.5" thickBot="1">
       <c r="A141" s="6" t="s">
         <v>130</v>
       </c>
@@ -11262,12 +11702,15 @@
       <c r="H141" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J141" t="str">
+      <c r="J141" t="s">
+        <v>404</v>
+      </c>
+      <c r="K141" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-CLS-001test_021_clause_embedding_null_allowed</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="31.5" thickBot="1">
+    <row r="142" spans="1:11" ht="31.5" thickBot="1">
       <c r="A142" s="6" t="s">
         <v>130</v>
       </c>
@@ -11288,12 +11731,15 @@
       <c r="H142" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J142" t="str">
+      <c r="J142" t="s">
+        <v>404</v>
+      </c>
+      <c r="K142" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-CLS-001test_022_clause_embedding_update</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="16.5" thickBot="1">
+    <row r="143" spans="1:11" ht="16.5" thickBot="1">
       <c r="A143" s="6" t="s">
         <v>131</v>
       </c>
@@ -11317,12 +11763,12 @@
       <c r="I143" t="s">
         <v>803</v>
       </c>
-      <c r="J143" t="str">
+      <c r="K143" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-CLS-002Tests not individually listed</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="16.5" thickBot="1">
+    <row r="144" spans="1:11" ht="16.5" thickBot="1">
       <c r="A144" s="6" t="s">
         <v>132</v>
       </c>
@@ -11343,12 +11789,12 @@
       <c r="H144" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J144" t="str">
+      <c r="K144" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-CLS-003Tests not individually listed</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="31.5" thickBot="1">
+    <row r="145" spans="1:11" ht="31.5" thickBot="1">
       <c r="A145" s="6" t="s">
         <v>133</v>
       </c>
@@ -11369,12 +11815,15 @@
       <c r="H145" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J145" t="str">
+      <c r="J145" t="s">
+        <v>404</v>
+      </c>
+      <c r="K145" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-ENT-001test_001_date_dd_mm_yyyy_slash</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="31.5" thickBot="1">
+    <row r="146" spans="1:11" ht="31.5" thickBot="1">
       <c r="A146" s="6" t="s">
         <v>133</v>
       </c>
@@ -11395,12 +11844,15 @@
       <c r="H146" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J146" t="str">
+      <c r="J146" t="s">
+        <v>404</v>
+      </c>
+      <c r="K146" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-ENT-001test_002_date_yyyy_mm_dd_dash</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="31.5" thickBot="1">
+    <row r="147" spans="1:11" ht="31.5" thickBot="1">
       <c r="A147" s="6" t="s">
         <v>133</v>
       </c>
@@ -11421,12 +11873,15 @@
       <c r="H147" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J147" t="str">
+      <c r="J147" t="s">
+        <v>404</v>
+      </c>
+      <c r="K147" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-ENT-001test_003_date_dd_month_yyyy_spanish</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="31.5" thickBot="1">
+    <row r="148" spans="1:11" ht="31.5" thickBot="1">
       <c r="A148" s="6" t="s">
         <v>133</v>
       </c>
@@ -11447,12 +11902,15 @@
       <c r="H148" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J148" t="str">
+      <c r="J148" t="s">
+        <v>404</v>
+      </c>
+      <c r="K148" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-ENT-001test_004_date_month_dd_yyyy_english</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="31.5" thickBot="1">
+    <row r="149" spans="1:11" ht="31.5" thickBot="1">
       <c r="A149" s="6" t="s">
         <v>133</v>
       </c>
@@ -11473,12 +11931,15 @@
       <c r="H149" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J149" t="str">
+      <c r="J149" t="s">
+        <v>404</v>
+      </c>
+      <c r="K149" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-ENT-001test_005_date_relative_30_days</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="31.5" thickBot="1">
+    <row r="150" spans="1:11" ht="31.5" thickBot="1">
       <c r="A150" s="6" t="s">
         <v>133</v>
       </c>
@@ -11499,12 +11960,15 @@
       <c r="H150" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J150" t="str">
+      <c r="J150" t="s">
+        <v>404</v>
+      </c>
+      <c r="K150" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-ENT-001test_006_date_relative_3_months</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="31.5" thickBot="1">
+    <row r="151" spans="1:11" ht="31.5" thickBot="1">
       <c r="A151" s="6" t="s">
         <v>133</v>
       </c>
@@ -11525,12 +11989,15 @@
       <c r="H151" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J151" t="str">
+      <c r="J151" t="s">
+        <v>404</v>
+      </c>
+      <c r="K151" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-ENT-001test_007_date_relative_1_year</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="31.5" thickBot="1">
+    <row r="152" spans="1:11" ht="31.5" thickBot="1">
       <c r="A152" s="6" t="s">
         <v>133</v>
       </c>
@@ -11551,12 +12018,15 @@
       <c r="H152" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J152" t="str">
+      <c r="J152" t="s">
+        <v>404</v>
+      </c>
+      <c r="K152" t="str">
         <f t="shared" si="1"/>
         <v>TS-UD-DOC-ENT-001test_008_date_relative_from_date</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="31.5" thickBot="1">
+    <row r="153" spans="1:11" ht="31.5" thickBot="1">
       <c r="A153" s="6" t="s">
         <v>133</v>
       </c>
@@ -11577,12 +12047,15 @@
       <c r="H153" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J153" t="str">
-        <f t="shared" ref="J153:J216" si="2">CONCATENATE(A153,C153)</f>
+      <c r="J153" t="s">
+        <v>404</v>
+      </c>
+      <c r="K153" t="str">
+        <f t="shared" ref="K153:K216" si="2">CONCATENATE(A153,C153)</f>
         <v>TS-UD-DOC-ENT-001test_009_date_context_entrega</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="31.5" thickBot="1">
+    <row r="154" spans="1:11" ht="31.5" thickBot="1">
       <c r="A154" s="6" t="s">
         <v>133</v>
       </c>
@@ -11603,12 +12076,15 @@
       <c r="H154" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J154" t="str">
+      <c r="J154" t="s">
+        <v>404</v>
+      </c>
+      <c r="K154" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-DOC-ENT-001test_010_date_context_firma</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="31.5" thickBot="1">
+    <row r="155" spans="1:11" ht="31.5" thickBot="1">
       <c r="A155" s="6" t="s">
         <v>133</v>
       </c>
@@ -11629,12 +12105,15 @@
       <c r="H155" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J155" t="str">
+      <c r="J155" t="s">
+        <v>404</v>
+      </c>
+      <c r="K155" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-DOC-ENT-001test_011_date_context_inicio</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="16.5" thickBot="1">
+    <row r="156" spans="1:11" ht="16.5" thickBot="1">
       <c r="A156" s="6" t="s">
         <v>133</v>
       </c>
@@ -11655,12 +12134,15 @@
       <c r="H156" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J156" t="str">
+      <c r="J156" t="s">
+        <v>404</v>
+      </c>
+      <c r="K156" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-DOC-ENT-001test_012_date_context_fin</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="31.5" thickBot="1">
+    <row r="157" spans="1:11" ht="31.5" thickBot="1">
       <c r="A157" s="6" t="s">
         <v>133</v>
       </c>
@@ -11681,12 +12163,15 @@
       <c r="H157" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J157" t="str">
+      <c r="J157" t="s">
+        <v>404</v>
+      </c>
+      <c r="K157" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-DOC-ENT-001test_013_multiple_dates_extraction</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="31.5" thickBot="1">
+    <row r="158" spans="1:11" ht="31.5" thickBot="1">
       <c r="A158" s="6" t="s">
         <v>133</v>
       </c>
@@ -11707,12 +12192,15 @@
       <c r="H158" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J158" t="str">
+      <c r="J158" t="s">
+        <v>404</v>
+      </c>
+      <c r="K158" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-DOC-ENT-001test_014_multiple_dates_ordering</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="31.5" thickBot="1">
+    <row r="159" spans="1:11" ht="31.5" thickBot="1">
       <c r="A159" s="6" t="s">
         <v>133</v>
       </c>
@@ -11733,12 +12221,15 @@
       <c r="H159" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J159" t="str">
+      <c r="J159" t="s">
+        <v>404</v>
+      </c>
+      <c r="K159" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-DOC-ENT-001test_015_date_range_extraction</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="31.5" thickBot="1">
+    <row r="160" spans="1:11" ht="31.5" thickBot="1">
       <c r="A160" s="6" t="s">
         <v>133</v>
       </c>
@@ -11759,12 +12250,15 @@
       <c r="H160" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J160" t="str">
+      <c r="J160" t="s">
+        <v>404</v>
+      </c>
+      <c r="K160" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-DOC-ENT-001test_016_date_invalid_format_ignored</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="31.5" thickBot="1">
+    <row r="161" spans="1:11" ht="31.5" thickBot="1">
       <c r="A161" s="6" t="s">
         <v>134</v>
       </c>
@@ -11785,12 +12279,15 @@
       <c r="H161" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J161" t="str">
+      <c r="J161" t="s">
+        <v>404</v>
+      </c>
+      <c r="K161" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-DOC-ENT-002test_001_money_eur_symbol_suffix</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="31.5" thickBot="1">
+    <row r="162" spans="1:11" ht="31.5" thickBot="1">
       <c r="A162" s="6" t="s">
         <v>134</v>
       </c>
@@ -11811,12 +12308,15 @@
       <c r="H162" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J162" t="str">
+      <c r="J162" t="s">
+        <v>404</v>
+      </c>
+      <c r="K162" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-DOC-ENT-002test_002_money_eur_symbol_prefix</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="31.5" thickBot="1">
+    <row r="163" spans="1:11" ht="31.5" thickBot="1">
       <c r="A163" s="6" t="s">
         <v>134</v>
       </c>
@@ -11837,12 +12337,15 @@
       <c r="H163" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J163" t="str">
+      <c r="J163" t="s">
+        <v>404</v>
+      </c>
+      <c r="K163" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-DOC-ENT-002test_003_money_eur_word_euros</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="31.5" thickBot="1">
+    <row r="164" spans="1:11" ht="31.5" thickBot="1">
       <c r="A164" s="6" t="s">
         <v>134</v>
       </c>
@@ -11863,12 +12366,15 @@
       <c r="H164" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J164" t="str">
+      <c r="J164" t="s">
+        <v>404</v>
+      </c>
+      <c r="K164" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-DOC-ENT-002test_004_money_eur_thousands_separator</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="31.5" thickBot="1">
+    <row r="165" spans="1:11" ht="31.5" thickBot="1">
       <c r="A165" s="6" t="s">
         <v>134</v>
       </c>
@@ -11889,12 +12395,15 @@
       <c r="H165" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J165" t="str">
+      <c r="J165" t="s">
+        <v>404</v>
+      </c>
+      <c r="K165" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-DOC-ENT-002test_005_money_usd_symbol</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="31.5" thickBot="1">
+    <row r="166" spans="1:11" ht="31.5" thickBot="1">
       <c r="A166" s="6" t="s">
         <v>134</v>
       </c>
@@ -11915,12 +12424,15 @@
       <c r="H166" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J166" t="str">
+      <c r="J166" t="s">
+        <v>404</v>
+      </c>
+      <c r="K166" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-DOC-ENT-002test_006_money_usd_word</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="31.5" thickBot="1">
+    <row r="167" spans="1:11" ht="31.5" thickBot="1">
       <c r="A167" s="6" t="s">
         <v>134</v>
       </c>
@@ -11941,12 +12453,15 @@
       <c r="H167" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J167" t="str">
+      <c r="J167" t="s">
+        <v>404</v>
+      </c>
+      <c r="K167" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-DOC-ENT-002test_007_money_usd_thousands_separator</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="31.5" thickBot="1">
+    <row r="168" spans="1:11" ht="31.5" thickBot="1">
       <c r="A168" s="6" t="s">
         <v>134</v>
       </c>
@@ -11967,12 +12482,15 @@
       <c r="H168" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J168" t="str">
+      <c r="J168" t="s">
+        <v>404</v>
+      </c>
+      <c r="K168" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-DOC-ENT-002test_008_money_context_anticipo</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="31.5" thickBot="1">
+    <row r="169" spans="1:11" ht="31.5" thickBot="1">
       <c r="A169" s="6" t="s">
         <v>134</v>
       </c>
@@ -11993,12 +12511,15 @@
       <c r="H169" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J169" t="str">
+      <c r="J169" t="s">
+        <v>404</v>
+      </c>
+      <c r="K169" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-DOC-ENT-002test_009_money_context_pago_final</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="31.5" thickBot="1">
+    <row r="170" spans="1:11" ht="31.5" thickBot="1">
       <c r="A170" s="6" t="s">
         <v>134</v>
       </c>
@@ -12019,12 +12540,15 @@
       <c r="H170" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J170" t="str">
+      <c r="J170" t="s">
+        <v>404</v>
+      </c>
+      <c r="K170" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-DOC-ENT-002test_010_money_context_penalizacion</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="31.5" thickBot="1">
+    <row r="171" spans="1:11" ht="31.5" thickBot="1">
       <c r="A171" s="6" t="s">
         <v>134</v>
       </c>
@@ -12045,12 +12569,15 @@
       <c r="H171" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J171" t="str">
+      <c r="J171" t="s">
+        <v>404</v>
+      </c>
+      <c r="K171" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-DOC-ENT-002test_011_money_context_total</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="31.5" thickBot="1">
+    <row r="172" spans="1:11" ht="31.5" thickBot="1">
       <c r="A172" s="6" t="s">
         <v>134</v>
       </c>
@@ -12071,12 +12598,15 @@
       <c r="H172" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J172" t="str">
+      <c r="J172" t="s">
+        <v>404</v>
+      </c>
+      <c r="K172" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-DOC-ENT-002test_012_multiple_amounts_extraction</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="31.5" thickBot="1">
+    <row r="173" spans="1:11" ht="31.5" thickBot="1">
       <c r="A173" s="6" t="s">
         <v>134</v>
       </c>
@@ -12097,12 +12627,15 @@
       <c r="H173" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J173" t="str">
+      <c r="J173" t="s">
+        <v>404</v>
+      </c>
+      <c r="K173" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-DOC-ENT-002test_013_money_percentage_extraction</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="31.5" thickBot="1">
+    <row r="174" spans="1:11" ht="31.5" thickBot="1">
       <c r="A174" s="6" t="s">
         <v>134</v>
       </c>
@@ -12123,12 +12656,15 @@
       <c r="H174" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J174" t="str">
+      <c r="J174" t="s">
+        <v>404</v>
+      </c>
+      <c r="K174" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-DOC-ENT-002test_014_money_negative_amount</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="16.5" thickBot="1">
+    <row r="175" spans="1:11" ht="16.5" thickBot="1">
       <c r="A175" s="6" t="s">
         <v>135</v>
       </c>
@@ -12141,12 +12677,15 @@
       <c r="D175" s="6"/>
       <c r="E175" s="7"/>
       <c r="F175" s="5"/>
-      <c r="J175" t="str">
+      <c r="J175" t="s">
+        <v>404</v>
+      </c>
+      <c r="K175" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-DOC-ENT-003Tests not individually listed</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="16.5" thickBot="1">
+    <row r="176" spans="1:11" ht="16.5" thickBot="1">
       <c r="A176" s="6" t="s">
         <v>136</v>
       </c>
@@ -12159,12 +12698,15 @@
       <c r="D176" s="6"/>
       <c r="E176" s="7"/>
       <c r="F176" s="5"/>
-      <c r="J176" t="str">
+      <c r="J176" t="s">
+        <v>404</v>
+      </c>
+      <c r="K176" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-DOC-ENT-004Tests not individually listed</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="16.5" thickBot="1">
+    <row r="177" spans="1:11" ht="16.5" thickBot="1">
       <c r="A177" s="6" t="s">
         <v>137</v>
       </c>
@@ -12177,12 +12719,15 @@
       <c r="D177" s="6"/>
       <c r="E177" s="7"/>
       <c r="F177" s="5"/>
-      <c r="J177" t="str">
+      <c r="J177" t="s">
+        <v>404</v>
+      </c>
+      <c r="K177" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-DOC-DOC-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="16.5" thickBot="1">
+    <row r="178" spans="1:11" ht="16.5" thickBot="1">
       <c r="A178" s="6" t="s">
         <v>138</v>
       </c>
@@ -12195,12 +12740,15 @@
       <c r="D178" s="6"/>
       <c r="E178" s="7"/>
       <c r="F178" s="5"/>
-      <c r="J178" t="str">
+      <c r="J178" t="s">
+        <v>404</v>
+      </c>
+      <c r="K178" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-DOC-CNF-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="16.5" thickBot="1">
+    <row r="179" spans="1:11" ht="16.5" thickBot="1">
       <c r="A179" s="6" t="s">
         <v>139</v>
       </c>
@@ -12213,12 +12761,15 @@
       <c r="D179" s="6"/>
       <c r="E179" s="7"/>
       <c r="F179" s="5"/>
-      <c r="J179" t="str">
+      <c r="J179" t="s">
+        <v>404</v>
+      </c>
+      <c r="K179" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-CAT-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="31.5" thickBot="1">
+    <row r="180" spans="1:11" ht="31.5" thickBot="1">
       <c r="A180" s="6" t="s">
         <v>140</v>
       </c>
@@ -12242,12 +12793,15 @@
       <c r="I180" t="s">
         <v>809</v>
       </c>
-      <c r="J180" t="str">
+      <c r="J180" t="s">
+        <v>404</v>
+      </c>
+      <c r="K180" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-001test_001_r11_wbs_level4_no_activities_alert</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="31.5" thickBot="1">
+    <row r="181" spans="1:11" ht="31.5" thickBot="1">
       <c r="A181" s="6" t="s">
         <v>140</v>
       </c>
@@ -12268,12 +12822,15 @@
       <c r="H181" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J181" t="str">
+      <c r="J181" t="s">
+        <v>404</v>
+      </c>
+      <c r="K181" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-001test_002_r11_wbs_level4_with_activities_pass</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="31.5" thickBot="1">
+    <row r="182" spans="1:11" ht="31.5" thickBot="1">
       <c r="A182" s="6" t="s">
         <v>140</v>
       </c>
@@ -12294,12 +12851,15 @@
       <c r="H182" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J182" t="str">
+      <c r="J182" t="s">
+        <v>404</v>
+      </c>
+      <c r="K182" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-001test_003_r11_wbs_level3_no_activities_ignored</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="31.5" thickBot="1">
+    <row r="183" spans="1:11" ht="31.5" thickBot="1">
       <c r="A183" s="6" t="s">
         <v>140</v>
       </c>
@@ -12320,12 +12880,15 @@
       <c r="H183" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J183" t="str">
+      <c r="J183" t="s">
+        <v>404</v>
+      </c>
+      <c r="K183" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-001test_004_r11_wbs_level2_no_activities_ignored</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="31.5" thickBot="1">
+    <row r="184" spans="1:11" ht="31.5" thickBot="1">
       <c r="A184" s="6" t="s">
         <v>140</v>
       </c>
@@ -12346,12 +12909,15 @@
       <c r="H184" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J184" t="str">
+      <c r="J184" t="s">
+        <v>404</v>
+      </c>
+      <c r="K184" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-001test_005_r11_multiple_wbs_level4_violations</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="31.5" thickBot="1">
+    <row r="185" spans="1:11" ht="31.5" thickBot="1">
       <c r="A185" s="6" t="s">
         <v>140</v>
       </c>
@@ -12372,12 +12938,15 @@
       <c r="H185" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J185" t="str">
+      <c r="J185" t="s">
+        <v>404</v>
+      </c>
+      <c r="K185" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-001test_006_r11_alert_severity_medium</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="31.5" thickBot="1">
+    <row r="186" spans="1:11" ht="31.5" thickBot="1">
       <c r="A186" s="6" t="s">
         <v>140</v>
       </c>
@@ -12398,12 +12967,15 @@
       <c r="H186" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J186" t="str">
+      <c r="J186" t="s">
+        <v>404</v>
+      </c>
+      <c r="K186" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-001test_007_r12_wbs_no_budget_line_alert</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="31.5" thickBot="1">
+    <row r="187" spans="1:11" ht="31.5" thickBot="1">
       <c r="A187" s="6" t="s">
         <v>140</v>
       </c>
@@ -12424,12 +12996,15 @@
       <c r="H187" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J187" t="str">
+      <c r="J187" t="s">
+        <v>404</v>
+      </c>
+      <c r="K187" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-001test_008_r12_wbs_with_budget_line_pass</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="31.5" thickBot="1">
+    <row r="188" spans="1:11" ht="31.5" thickBot="1">
       <c r="A188" s="6" t="s">
         <v>140</v>
       </c>
@@ -12450,12 +13025,15 @@
       <c r="H188" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J188" t="str">
+      <c r="J188" t="s">
+        <v>404</v>
+      </c>
+      <c r="K188" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-001test_009_r12_wbs_budget_zero_warning</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="31.5" thickBot="1">
+    <row r="189" spans="1:11" ht="31.5" thickBot="1">
       <c r="A189" s="6" t="s">
         <v>140</v>
       </c>
@@ -12476,12 +13054,15 @@
       <c r="H189" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J189" t="str">
+      <c r="J189" t="s">
+        <v>404</v>
+      </c>
+      <c r="K189" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-001test_010_r12_multiple_wbs_violations</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="31.5" thickBot="1">
+    <row r="190" spans="1:11" ht="31.5" thickBot="1">
       <c r="A190" s="6" t="s">
         <v>140</v>
       </c>
@@ -12502,12 +13083,15 @@
       <c r="H190" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J190" t="str">
+      <c r="J190" t="s">
+        <v>404</v>
+      </c>
+      <c r="K190" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-001test_011_r12_alert_severity_high</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="31.5" thickBot="1">
+    <row r="191" spans="1:11" ht="31.5" thickBot="1">
       <c r="A191" s="6" t="s">
         <v>140</v>
       </c>
@@ -12528,12 +13112,15 @@
       <c r="H191" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J191" t="str">
+      <c r="J191" t="s">
+        <v>404</v>
+      </c>
+      <c r="K191" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-001test_012_r12_affected_entities_list</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="31.5" thickBot="1">
+    <row r="192" spans="1:11" ht="31.5" thickBot="1">
       <c r="A192" s="6" t="s">
         <v>140</v>
       </c>
@@ -12554,12 +13141,15 @@
       <c r="H192" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J192" t="str">
+      <c r="J192" t="s">
+        <v>404</v>
+      </c>
+      <c r="K192" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-001test_013_r13_scope_clause_no_wbs_alert</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="31.5" thickBot="1">
+    <row r="193" spans="1:11" ht="31.5" thickBot="1">
       <c r="A193" s="6" t="s">
         <v>140</v>
       </c>
@@ -12580,12 +13170,15 @@
       <c r="H193" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J193" t="str">
+      <c r="J193" t="s">
+        <v>404</v>
+      </c>
+      <c r="K193" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-001test_014_r13_scope_clause_with_wbs_pass</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="31.5" thickBot="1">
+    <row r="194" spans="1:11" ht="31.5" thickBot="1">
       <c r="A194" s="6" t="s">
         <v>140</v>
       </c>
@@ -12606,12 +13199,15 @@
       <c r="H194" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J194" t="str">
+      <c r="J194" t="s">
+        <v>404</v>
+      </c>
+      <c r="K194" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-001test_015_r13_partial_coverage_calculation</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="31.5" thickBot="1">
+    <row r="195" spans="1:11" ht="31.5" thickBot="1">
       <c r="A195" s="6" t="s">
         <v>140</v>
       </c>
@@ -12632,12 +13228,15 @@
       <c r="H195" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J195" t="str">
+      <c r="J195" t="s">
+        <v>404</v>
+      </c>
+      <c r="K195" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-001test_016_r13_coverage_percentage_80</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="31.5" thickBot="1">
+    <row r="196" spans="1:11" ht="31.5" thickBot="1">
       <c r="A196" s="6" t="s">
         <v>140</v>
       </c>
@@ -12658,12 +13257,15 @@
       <c r="H196" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J196" t="str">
+      <c r="J196" t="s">
+        <v>404</v>
+      </c>
+      <c r="K196" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-001test_017_r13_uncovered_clauses_list</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="31.5" thickBot="1">
+    <row r="197" spans="1:11" ht="31.5" thickBot="1">
       <c r="A197" s="6" t="s">
         <v>140</v>
       </c>
@@ -12684,12 +13286,15 @@
       <c r="H197" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J197" t="str">
+      <c r="J197" t="s">
+        <v>404</v>
+      </c>
+      <c r="K197" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-001test_018_r13_alert_severity_high</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="31.5" thickBot="1">
+    <row r="198" spans="1:11" ht="31.5" thickBot="1">
       <c r="A198" s="6" t="s">
         <v>141</v>
       </c>
@@ -12710,12 +13315,15 @@
       <c r="H198" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J198" t="str">
+      <c r="J198" t="s">
+        <v>404</v>
+      </c>
+      <c r="K198" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_001_r6_deviation_10_percent_alert</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="31.5" thickBot="1">
+    <row r="199" spans="1:11" ht="31.5" thickBot="1">
       <c r="A199" s="6" t="s">
         <v>141</v>
       </c>
@@ -12736,12 +13344,12 @@
       <c r="H199" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J199" t="str">
+      <c r="K199" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_002_r6_deviation_5_percent_pass</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="31.5" thickBot="1">
+    <row r="200" spans="1:11" ht="31.5" thickBot="1">
       <c r="A200" s="6" t="s">
         <v>141</v>
       </c>
@@ -12762,12 +13370,12 @@
       <c r="H200" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J200" t="str">
+      <c r="K200" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_003_r6_deviation_4_9_percent_pass</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="31.5" thickBot="1">
+    <row r="201" spans="1:11" ht="31.5" thickBot="1">
       <c r="A201" s="6" t="s">
         <v>141</v>
       </c>
@@ -12788,12 +13396,12 @@
       <c r="H201" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J201" t="str">
+      <c r="K201" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_004_r6_over_budget_critical</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="31.5" thickBot="1">
+    <row r="202" spans="1:11" ht="31.5" thickBot="1">
       <c r="A202" s="6" t="s">
         <v>141</v>
       </c>
@@ -12814,12 +13422,12 @@
       <c r="H202" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J202" t="str">
+      <c r="K202" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_005_r6_under_budget_warning</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="31.5" thickBot="1">
+    <row r="203" spans="1:11" ht="31.5" thickBot="1">
       <c r="A203" s="6" t="s">
         <v>141</v>
       </c>
@@ -12840,12 +13448,12 @@
       <c r="H203" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J203" t="str">
+      <c r="K203" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_006_r6_exact_match_pass</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="31.5" thickBot="1">
+    <row r="204" spans="1:11" ht="31.5" thickBot="1">
       <c r="A204" s="6" t="s">
         <v>141</v>
       </c>
@@ -12866,12 +13474,12 @@
       <c r="H204" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J204" t="str">
+      <c r="K204" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_007_r15_bom_no_budget_alert</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="31.5" thickBot="1">
+    <row r="205" spans="1:11" ht="31.5" thickBot="1">
       <c r="A205" s="6" t="s">
         <v>141</v>
       </c>
@@ -12892,12 +13500,12 @@
       <c r="H205" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J205" t="str">
+      <c r="K205" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_008_r15_bom_with_budget_pass</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="31.5" thickBot="1">
+    <row r="206" spans="1:11" ht="31.5" thickBot="1">
       <c r="A206" s="6" t="s">
         <v>141</v>
       </c>
@@ -12918,12 +13526,12 @@
       <c r="H206" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J206" t="str">
+      <c r="K206" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_009_r15_bom_client_provided_exception</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="31.5" thickBot="1">
+    <row r="207" spans="1:11" ht="31.5" thickBot="1">
       <c r="A207" s="6" t="s">
         <v>141</v>
       </c>
@@ -12944,12 +13552,12 @@
       <c r="H207" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J207" t="str">
+      <c r="K207" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_010_r15_multiple_bom_violations</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="31.5" thickBot="1">
+    <row r="208" spans="1:11" ht="31.5" thickBot="1">
       <c r="A208" s="6" t="s">
         <v>141</v>
       </c>
@@ -12970,12 +13578,12 @@
       <c r="H208" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J208" t="str">
+      <c r="K208" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_011_r15_affected_items_list</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="31.5" thickBot="1">
+    <row r="209" spans="1:11" ht="31.5" thickBot="1">
       <c r="A209" s="6" t="s">
         <v>141</v>
       </c>
@@ -12996,12 +13604,12 @@
       <c r="H209" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J209" t="str">
+      <c r="K209" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_012_r16_deviation_11_percent_alert</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="31.5" thickBot="1">
+    <row r="210" spans="1:11" ht="31.5" thickBot="1">
       <c r="A210" s="6" t="s">
         <v>141</v>
       </c>
@@ -13022,12 +13630,12 @@
       <c r="H210" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J210" t="str">
+      <c r="K210" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_013_r16_deviation_10_percent_pass</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="31.5" thickBot="1">
+    <row r="211" spans="1:11" ht="31.5" thickBot="1">
       <c r="A211" s="6" t="s">
         <v>141</v>
       </c>
@@ -13048,12 +13656,12 @@
       <c r="H211" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J211" t="str">
+      <c r="K211" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_014_r16_over_budget_critical</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="31.5" thickBot="1">
+    <row r="212" spans="1:11" ht="31.5" thickBot="1">
       <c r="A212" s="6" t="s">
         <v>141</v>
       </c>
@@ -13074,12 +13682,12 @@
       <c r="H212" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J212" t="str">
+      <c r="K212" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_015_r16_under_budget_different_severity</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="31.5" thickBot="1">
+    <row r="213" spans="1:11" ht="31.5" thickBot="1">
       <c r="A213" s="6" t="s">
         <v>141</v>
       </c>
@@ -13100,12 +13708,12 @@
       <c r="H213" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J213" t="str">
+      <c r="K213" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_016_r16_trend_calculation</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="31.5" thickBot="1">
+    <row r="214" spans="1:11" ht="31.5" thickBot="1">
       <c r="A214" s="6" t="s">
         <v>142</v>
       </c>
@@ -13129,12 +13737,12 @@
       <c r="I214" t="s">
         <v>809</v>
       </c>
-      <c r="J214" t="str">
+      <c r="K214" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-003test_001_r1_dates_mismatch_alert</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="31.5" thickBot="1">
+    <row r="215" spans="1:11" ht="31.5" thickBot="1">
       <c r="A215" s="6" t="s">
         <v>142</v>
       </c>
@@ -13155,12 +13763,12 @@
       <c r="H215" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J215" t="str">
+      <c r="K215" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-003test_002_r1_dates_match_pass</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="31.5" thickBot="1">
+    <row r="216" spans="1:11" ht="31.5" thickBot="1">
       <c r="A216" s="6" t="s">
         <v>142</v>
       </c>
@@ -13181,12 +13789,12 @@
       <c r="H216" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J216" t="str">
+      <c r="K216" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-003test_003_r1_schedule_late_critical</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="31.5" thickBot="1">
+    <row r="217" spans="1:11" ht="31.5" thickBot="1">
       <c r="A217" s="6" t="s">
         <v>142</v>
       </c>
@@ -13207,12 +13815,12 @@
       <c r="H217" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J217" t="str">
-        <f t="shared" ref="J217:J280" si="3">CONCATENATE(A217,C217)</f>
+      <c r="K217" t="str">
+        <f t="shared" ref="K217:K280" si="3">CONCATENATE(A217,C217)</f>
         <v>TS-UD-COH-RUL-003test_004_r1_schedule_early_warning</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="31.5" thickBot="1">
+    <row r="218" spans="1:11" ht="31.5" thickBot="1">
       <c r="A218" s="6" t="s">
         <v>142</v>
       </c>
@@ -13233,12 +13841,12 @@
       <c r="H218" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J218" t="str">
+      <c r="K218" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-003test_005_r1_delta_days_calculation</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="31.5" thickBot="1">
+    <row r="219" spans="1:11" ht="31.5" thickBot="1">
       <c r="A219" s="6" t="s">
         <v>142</v>
       </c>
@@ -13259,12 +13867,12 @@
       <c r="H219" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J219" t="str">
+      <c r="K219" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-003test_006_r2_milestone_no_activity_alert</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="31.5" thickBot="1">
+    <row r="220" spans="1:11" ht="31.5" thickBot="1">
       <c r="A220" s="6" t="s">
         <v>142</v>
       </c>
@@ -13285,12 +13893,12 @@
       <c r="H220" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J220" t="str">
+      <c r="K220" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-003test_007_r2_milestone_with_activity_pass</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="31.5" thickBot="1">
+    <row r="221" spans="1:11" ht="31.5" thickBot="1">
       <c r="A221" s="6" t="s">
         <v>142</v>
       </c>
@@ -13311,12 +13919,12 @@
       <c r="H221" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J221" t="str">
+      <c r="K221" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-003test_008_r2_milestone_date_mismatch_alert</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="31.5" thickBot="1">
+    <row r="222" spans="1:11" ht="31.5" thickBot="1">
       <c r="A222" s="6" t="s">
         <v>142</v>
       </c>
@@ -13337,12 +13945,12 @@
       <c r="H222" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J222" t="str">
+      <c r="K222" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-003test_009_r2_multiple_milestones_violations</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="31.5" thickBot="1">
+    <row r="223" spans="1:11" ht="31.5" thickBot="1">
       <c r="A223" s="6" t="s">
         <v>142</v>
       </c>
@@ -13363,12 +13971,12 @@
       <c r="H223" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J223" t="str">
+      <c r="K223" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-003test_010_r2_unlinked_milestones_list</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="31.5" thickBot="1">
+    <row r="224" spans="1:11" ht="31.5" thickBot="1">
       <c r="A224" s="6" t="s">
         <v>142</v>
       </c>
@@ -13389,12 +13997,12 @@
       <c r="H224" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J224" t="str">
+      <c r="K224" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-003test_011_r5_activity_exceeds_contract_alert</v>
       </c>
     </row>
-    <row r="225" spans="1:10" ht="31.5" thickBot="1">
+    <row r="225" spans="1:11" ht="31.5" thickBot="1">
       <c r="A225" s="6" t="s">
         <v>142</v>
       </c>
@@ -13415,12 +14023,12 @@
       <c r="H225" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J225" t="str">
+      <c r="K225" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-003test_012_r5_activity_within_contract_pass</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="31.5" thickBot="1">
+    <row r="226" spans="1:11" ht="31.5" thickBot="1">
       <c r="A226" s="6" t="s">
         <v>142</v>
       </c>
@@ -13441,12 +14049,12 @@
       <c r="H226" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J226" t="str">
+      <c r="K226" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-003test_013_r5_exceeding_activities_list</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="31.5" thickBot="1">
+    <row r="227" spans="1:11" ht="31.5" thickBot="1">
       <c r="A227" s="6" t="s">
         <v>142</v>
       </c>
@@ -13467,12 +14075,12 @@
       <c r="H227" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J227" t="str">
+      <c r="K227" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-003test_014_r5_alert_severity_critical</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="31.5" thickBot="1">
+    <row r="228" spans="1:11" ht="31.5" thickBot="1">
       <c r="A228" s="6" t="s">
         <v>142</v>
       </c>
@@ -13493,12 +14101,12 @@
       <c r="H228" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J228" t="str">
+      <c r="K228" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-003test_015_r14_order_date_passed_critical</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="31.5" thickBot="1">
+    <row r="229" spans="1:11" ht="31.5" thickBot="1">
       <c r="A229" s="6" t="s">
         <v>142</v>
       </c>
@@ -13519,12 +14127,12 @@
       <c r="H229" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J229" t="str">
+      <c r="K229" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-003test_016_r14_order_date_tight_warning</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="16.5" thickBot="1">
+    <row r="230" spans="1:11" ht="16.5" thickBot="1">
       <c r="A230" s="6" t="s">
         <v>143</v>
       </c>
@@ -13537,12 +14145,12 @@
       <c r="D230" s="6"/>
       <c r="E230" s="7"/>
       <c r="F230" s="5"/>
-      <c r="J230" t="str">
+      <c r="K230" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-004Tests not individually listed</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="16.5" thickBot="1">
+    <row r="231" spans="1:11" ht="16.5" thickBot="1">
       <c r="A231" s="6" t="s">
         <v>144</v>
       </c>
@@ -13555,12 +14163,12 @@
       <c r="D231" s="6"/>
       <c r="E231" s="7"/>
       <c r="F231" s="5"/>
-      <c r="J231" t="str">
+      <c r="K231" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-005Tests not individually listed</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="16.5" thickBot="1">
+    <row r="232" spans="1:11" ht="16.5" thickBot="1">
       <c r="A232" s="6" t="s">
         <v>145</v>
       </c>
@@ -13573,12 +14181,12 @@
       <c r="D232" s="6"/>
       <c r="E232" s="7"/>
       <c r="F232" s="5"/>
-      <c r="J232" t="str">
+      <c r="K232" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-006Tests not individually listed</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="31.5" thickBot="1">
+    <row r="233" spans="1:11" ht="31.5" thickBot="1">
       <c r="A233" s="6" t="s">
         <v>146</v>
       </c>
@@ -13602,12 +14210,13 @@
       <c r="I233" s="12" t="s">
         <v>809</v>
       </c>
-      <c r="J233" t="str">
+      <c r="J233" s="21"/>
+      <c r="K233" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_001_subscore_no_alerts_100_percent</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="31.5" thickBot="1">
+    <row r="234" spans="1:11" ht="31.5" thickBot="1">
       <c r="A234" s="6" t="s">
         <v>146</v>
       </c>
@@ -13628,12 +14237,12 @@
       <c r="H234" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J234" t="str">
+      <c r="K234" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_002_subscore_one_alert_penalized</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="31.5" thickBot="1">
+    <row r="235" spans="1:11" ht="31.5" thickBot="1">
       <c r="A235" s="6" t="s">
         <v>146</v>
       </c>
@@ -13654,12 +14263,12 @@
       <c r="H235" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J235" t="str">
+      <c r="K235" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_003_subscore_multiple_alerts_cumulative</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="31.5" thickBot="1">
+    <row r="236" spans="1:11" ht="31.5" thickBot="1">
       <c r="A236" s="6" t="s">
         <v>146</v>
       </c>
@@ -13680,12 +14289,12 @@
       <c r="H236" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J236" t="str">
+      <c r="K236" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_004_subscore_severity_low_penalty_5</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="31.5" thickBot="1">
+    <row r="237" spans="1:11" ht="31.5" thickBot="1">
       <c r="A237" s="6" t="s">
         <v>146</v>
       </c>
@@ -13706,12 +14315,12 @@
       <c r="H237" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J237" t="str">
+      <c r="K237" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_005_subscore_severity_medium_penalty_10</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="31.5" thickBot="1">
+    <row r="238" spans="1:11" ht="31.5" thickBot="1">
       <c r="A238" s="6" t="s">
         <v>146</v>
       </c>
@@ -13732,12 +14341,12 @@
       <c r="H238" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J238" t="str">
+      <c r="K238" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_006_subscore_severity_high_penalty_20</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="31.5" thickBot="1">
+    <row r="239" spans="1:11" ht="31.5" thickBot="1">
       <c r="A239" s="6" t="s">
         <v>146</v>
       </c>
@@ -13758,12 +14367,12 @@
       <c r="H239" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J239" t="str">
+      <c r="K239" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_007_subscore_severity_critical_penalty_30</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="31.5" thickBot="1">
+    <row r="240" spans="1:11" ht="31.5" thickBot="1">
       <c r="A240" s="6" t="s">
         <v>146</v>
       </c>
@@ -13784,12 +14393,12 @@
       <c r="H240" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J240" t="str">
+      <c r="K240" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_008_subscore_scope_calculation</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="31.5" thickBot="1">
+    <row r="241" spans="1:11" ht="31.5" thickBot="1">
       <c r="A241" s="6" t="s">
         <v>146</v>
       </c>
@@ -13810,12 +14419,12 @@
       <c r="H241" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J241" t="str">
+      <c r="K241" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_009_subscore_budget_calculation</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="31.5" thickBot="1">
+    <row r="242" spans="1:11" ht="31.5" thickBot="1">
       <c r="A242" s="6" t="s">
         <v>146</v>
       </c>
@@ -13836,12 +14445,12 @@
       <c r="H242" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J242" t="str">
+      <c r="K242" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_010_subscore_quality_calculation</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="31.5" thickBot="1">
+    <row r="243" spans="1:11" ht="31.5" thickBot="1">
       <c r="A243" s="6" t="s">
         <v>146</v>
       </c>
@@ -13862,12 +14471,12 @@
       <c r="H243" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J243" t="str">
+      <c r="K243" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_011_subscore_technical_calculation</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="31.5" thickBot="1">
+    <row r="244" spans="1:11" ht="31.5" thickBot="1">
       <c r="A244" s="6" t="s">
         <v>146</v>
       </c>
@@ -13888,12 +14497,12 @@
       <c r="H244" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J244" t="str">
+      <c r="K244" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_012_subscore_legal_calculation</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="31.5" thickBot="1">
+    <row r="245" spans="1:11" ht="31.5" thickBot="1">
       <c r="A245" s="6" t="s">
         <v>146</v>
       </c>
@@ -13914,12 +14523,12 @@
       <c r="H245" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J245" t="str">
+      <c r="K245" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_013_subscore_time_calculation</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="31.5" thickBot="1">
+    <row r="246" spans="1:11" ht="31.5" thickBot="1">
       <c r="A246" s="6" t="s">
         <v>146</v>
       </c>
@@ -13940,12 +14549,12 @@
       <c r="H246" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J246" t="str">
+      <c r="K246" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_014_subscore_floor_at_zero</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="31.5" thickBot="1">
+    <row r="247" spans="1:11" ht="31.5" thickBot="1">
       <c r="A247" s="6" t="s">
         <v>147</v>
       </c>
@@ -13966,12 +14575,12 @@
       <c r="H247" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J247" t="str">
+      <c r="K247" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-002test_001_global_score_formula_verification</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="31.5" thickBot="1">
+    <row r="248" spans="1:11" ht="31.5" thickBot="1">
       <c r="A248" s="6" t="s">
         <v>147</v>
       </c>
@@ -13992,12 +14601,12 @@
       <c r="H248" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J248" t="str">
+      <c r="K248" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-002test_002_global_score_default_weights</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="31.5" thickBot="1">
+    <row r="249" spans="1:11" ht="31.5" thickBot="1">
       <c r="A249" s="6" t="s">
         <v>147</v>
       </c>
@@ -14018,12 +14627,12 @@
       <c r="H249" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J249" t="str">
+      <c r="K249" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-002test_003_global_score_all_100_equals_100</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="31.5" thickBot="1">
+    <row r="250" spans="1:11" ht="31.5" thickBot="1">
       <c r="A250" s="6" t="s">
         <v>147</v>
       </c>
@@ -14044,12 +14653,12 @@
       <c r="H250" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J250" t="str">
+      <c r="K250" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-002test_004_global_score_all_0_equals_0</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="31.5" thickBot="1">
+    <row r="251" spans="1:11" ht="31.5" thickBot="1">
       <c r="A251" s="6" t="s">
         <v>147</v>
       </c>
@@ -14070,12 +14679,12 @@
       <c r="H251" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J251" t="str">
+      <c r="K251" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-002test_005_global_score_mixed_subscores</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="31.5" thickBot="1">
+    <row r="252" spans="1:11" ht="31.5" thickBot="1">
       <c r="A252" s="6" t="s">
         <v>147</v>
       </c>
@@ -14096,12 +14705,12 @@
       <c r="H252" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J252" t="str">
+      <c r="K252" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-002test_006_global_score_range_0_to_100</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="31.5" thickBot="1">
+    <row r="253" spans="1:11" ht="31.5" thickBot="1">
       <c r="A253" s="6" t="s">
         <v>147</v>
       </c>
@@ -14122,12 +14731,12 @@
       <c r="H253" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J253" t="str">
+      <c r="K253" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-002test_007_weights_sum_validation</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="31.5" thickBot="1">
+    <row r="254" spans="1:11" ht="31.5" thickBot="1">
       <c r="A254" s="6" t="s">
         <v>147</v>
       </c>
@@ -14148,12 +14757,12 @@
       <c r="H254" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J254" t="str">
+      <c r="K254" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-002test_008_weights_normalization_auto</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="31.5" thickBot="1">
+    <row r="255" spans="1:11" ht="31.5" thickBot="1">
       <c r="A255" s="6" t="s">
         <v>147</v>
       </c>
@@ -14174,12 +14783,12 @@
       <c r="H255" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J255" t="str">
+      <c r="K255" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-002test_009_weights_custom_budget_30</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="31.5" thickBot="1">
+    <row r="256" spans="1:11" ht="31.5" thickBot="1">
       <c r="A256" s="6" t="s">
         <v>147</v>
       </c>
@@ -14200,12 +14809,12 @@
       <c r="H256" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J256" t="str">
+      <c r="K256" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-002test_010_weights_custom_time_25</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="31.5" thickBot="1">
+    <row r="257" spans="1:11" ht="31.5" thickBot="1">
       <c r="A257" s="6" t="s">
         <v>147</v>
       </c>
@@ -14226,12 +14835,12 @@
       <c r="H257" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J257" t="str">
+      <c r="K257" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-002test_011_weights_per_project_type</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="31.5" thickBot="1">
+    <row r="258" spans="1:11" ht="31.5" thickBot="1">
       <c r="A258" s="6" t="s">
         <v>147</v>
       </c>
@@ -14252,12 +14861,12 @@
       <c r="H258" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J258" t="str">
+      <c r="K258" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-002test_012_weights_history_tracking</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="16.5" thickBot="1">
+    <row r="259" spans="1:11" ht="16.5" thickBot="1">
       <c r="A259" s="6" t="s">
         <v>148</v>
       </c>
@@ -14271,7 +14880,7 @@
       <c r="E259" s="7"/>
       <c r="F259" s="5"/>
     </row>
-    <row r="260" spans="1:10" ht="31.5" thickBot="1">
+    <row r="260" spans="1:11" ht="31.5" thickBot="1">
       <c r="A260" s="6" t="s">
         <v>149</v>
       </c>
@@ -14292,12 +14901,12 @@
       <c r="H260" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J260" t="str">
+      <c r="K260" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_001_detect_mass_changes_15_in_30min</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="31.5" thickBot="1">
+    <row r="261" spans="1:11" ht="31.5" thickBot="1">
       <c r="A261" s="6" t="s">
         <v>149</v>
       </c>
@@ -14318,12 +14927,12 @@
       <c r="H261" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J261" t="str">
+      <c r="K261" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_002_no_violation_10_in_60min</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="31.5" thickBot="1">
+    <row r="262" spans="1:11" ht="31.5" thickBot="1">
       <c r="A262" s="6" t="s">
         <v>149</v>
       </c>
@@ -14344,12 +14953,12 @@
       <c r="H262" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J262" t="str">
+      <c r="K262" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_003_mass_changes_window_sliding</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="31.5" thickBot="1">
+    <row r="263" spans="1:11" ht="31.5" thickBot="1">
       <c r="A263" s="6" t="s">
         <v>149</v>
       </c>
@@ -14370,12 +14979,12 @@
       <c r="H263" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J263" t="str">
+      <c r="K263" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_004_mass_changes_flag_for_review</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="31.5" thickBot="1">
+    <row r="264" spans="1:11" ht="31.5" thickBot="1">
       <c r="A264" s="6" t="s">
         <v>149</v>
       </c>
@@ -14396,12 +15005,12 @@
       <c r="H264" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J264" t="str">
+      <c r="K264" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_005_detect_resolve_reintroduce_4_times</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="31.5" thickBot="1">
+    <row r="265" spans="1:11" ht="31.5" thickBot="1">
       <c r="A265" s="6" t="s">
         <v>149</v>
       </c>
@@ -14422,12 +15031,12 @@
       <c r="H265" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J265" t="str">
+      <c r="K265" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_006_no_violation_2_times</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="31.5" thickBot="1">
+    <row r="266" spans="1:11" ht="31.5" thickBot="1">
       <c r="A266" s="6" t="s">
         <v>149</v>
       </c>
@@ -14448,12 +15057,12 @@
       <c r="H266" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J266" t="str">
+      <c r="K266" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_007_hash_comparison_same_content</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="31.5" thickBot="1">
+    <row r="267" spans="1:11" ht="31.5" thickBot="1">
       <c r="A267" s="6" t="s">
         <v>149</v>
       </c>
@@ -14474,12 +15083,12 @@
       <c r="H267" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J267" t="str">
+      <c r="K267" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_008_penalty_minus_5_points</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="31.5" thickBot="1">
+    <row r="268" spans="1:11" ht="31.5" thickBot="1">
       <c r="A268" s="6" t="s">
         <v>149</v>
       </c>
@@ -14500,12 +15109,12 @@
       <c r="H268" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J268" t="str">
+      <c r="K268" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_009_detect_95_percent_3_docs</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="31.5" thickBot="1">
+    <row r="269" spans="1:11" ht="31.5" thickBot="1">
       <c r="A269" s="6" t="s">
         <v>149</v>
       </c>
@@ -14526,12 +15135,12 @@
       <c r="H269" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J269" t="str">
+      <c r="K269" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_010_no_violation_95_percent_50_docs</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="31.5" thickBot="1">
+    <row r="270" spans="1:11" ht="31.5" thickBot="1">
       <c r="A270" s="6" t="s">
         <v>149</v>
       </c>
@@ -14552,12 +15161,12 @@
       <c r="H270" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J270" t="str">
+      <c r="K270" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_011_threshold_90_percent_5_docs</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="31.5" thickBot="1">
+    <row r="271" spans="1:11" ht="31.5" thickBot="1">
       <c r="A271" s="6" t="s">
         <v>149</v>
       </c>
@@ -14578,12 +15187,12 @@
       <c r="H271" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J271" t="str">
+      <c r="K271" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_012_require_audit_action</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="31.5" thickBot="1">
+    <row r="272" spans="1:11" ht="31.5" thickBot="1">
       <c r="A272" s="6" t="s">
         <v>149</v>
       </c>
@@ -14604,12 +15213,12 @@
       <c r="H272" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J272" t="str">
+      <c r="K272" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_013_detect_weight_change_25_percent</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="31.5" thickBot="1">
+    <row r="273" spans="1:11" ht="31.5" thickBot="1">
       <c r="A273" s="6" t="s">
         <v>149</v>
       </c>
@@ -14630,12 +15239,12 @@
       <c r="H273" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J273" t="str">
+      <c r="K273" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_014_no_violation_change_15_percent</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="31.5" thickBot="1">
+    <row r="274" spans="1:11" ht="31.5" thickBot="1">
       <c r="A274" s="6" t="s">
         <v>149</v>
       </c>
@@ -14656,12 +15265,12 @@
       <c r="H274" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J274" t="str">
+      <c r="K274" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_015_24h_window_tracking</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="31.5" thickBot="1">
+    <row r="275" spans="1:11" ht="31.5" thickBot="1">
       <c r="A275" s="6" t="s">
         <v>149</v>
       </c>
@@ -14682,12 +15291,12 @@
       <c r="H275" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J275" t="str">
+      <c r="K275" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_016_notify_admin_action</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="16.5" thickBot="1">
+    <row r="276" spans="1:11" ht="16.5" thickBot="1">
       <c r="A276" s="6" t="s">
         <v>150</v>
       </c>
@@ -14700,12 +15309,12 @@
       <c r="D276" s="6"/>
       <c r="E276" s="7"/>
       <c r="F276" s="5"/>
-      <c r="J276" t="str">
+      <c r="K276" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-ALR-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="31.5" thickBot="1">
+    <row r="277" spans="1:11" ht="31.5" thickBot="1">
       <c r="A277" s="6" t="s">
         <v>151</v>
       </c>
@@ -14729,12 +15338,12 @@
       <c r="I277" t="s">
         <v>810</v>
       </c>
-      <c r="J277" t="str">
+      <c r="K277" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-PRJ-WBS-001test_001_wbs_item_creation_all_fields</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="31.5" thickBot="1">
+    <row r="278" spans="1:11" ht="31.5" thickBot="1">
       <c r="A278" s="6" t="s">
         <v>151</v>
       </c>
@@ -14755,12 +15364,12 @@
       <c r="H278" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J278" t="str">
+      <c r="K278" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-PRJ-WBS-001test_002_wbs_item_creation_minimum_fields</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="31.5" thickBot="1">
+    <row r="279" spans="1:11" ht="31.5" thickBot="1">
       <c r="A279" s="6" t="s">
         <v>151</v>
       </c>
@@ -14781,12 +15390,12 @@
       <c r="H279" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J279" t="str">
+      <c r="K279" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-PRJ-WBS-001test_003_wbs_item_fails_without_code</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="31.5" thickBot="1">
+    <row r="280" spans="1:11" ht="31.5" thickBot="1">
       <c r="A280" s="6" t="s">
         <v>151</v>
       </c>
@@ -14807,12 +15416,12 @@
       <c r="H280" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J280" t="str">
+      <c r="K280" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-PRJ-WBS-001test_004_wbs_item_fails_without_name</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="31.5" thickBot="1">
+    <row r="281" spans="1:11" ht="31.5" thickBot="1">
       <c r="A281" s="6" t="s">
         <v>151</v>
       </c>
@@ -14833,12 +15442,12 @@
       <c r="H281" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J281" t="str">
-        <f t="shared" ref="J281:J331" si="4">CONCATENATE(A281,C281)</f>
+      <c r="K281" t="str">
+        <f t="shared" ref="K281:K331" si="4">CONCATENATE(A281,C281)</f>
         <v>TS-UD-PRJ-WBS-001test_005_wbs_item_fails_invalid_level</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="31.5" thickBot="1">
+    <row r="282" spans="1:11" ht="31.5" thickBot="1">
       <c r="A282" s="6" t="s">
         <v>151</v>
       </c>
@@ -14859,12 +15468,12 @@
       <c r="H282" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J282" t="str">
+      <c r="K282" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_006_wbs_item_immutability</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="31.5" thickBot="1">
+    <row r="283" spans="1:11" ht="31.5" thickBot="1">
       <c r="A283" s="6" t="s">
         <v>151</v>
       </c>
@@ -14885,12 +15494,12 @@
       <c r="H283" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J283" t="str">
+      <c r="K283" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_007_wbs_code_format_1</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="31.5" thickBot="1">
+    <row r="284" spans="1:11" ht="31.5" thickBot="1">
       <c r="A284" s="6" t="s">
         <v>151</v>
       </c>
@@ -14911,12 +15520,12 @@
       <c r="H284" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J284" t="str">
+      <c r="K284" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_008_wbs_code_format_1_1</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="31.5" thickBot="1">
+    <row r="285" spans="1:11" ht="31.5" thickBot="1">
       <c r="A285" s="6" t="s">
         <v>151</v>
       </c>
@@ -14937,12 +15546,12 @@
       <c r="H285" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J285" t="str">
+      <c r="K285" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_009_wbs_code_format_1_1_1</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="31.5" thickBot="1">
+    <row r="286" spans="1:11" ht="31.5" thickBot="1">
       <c r="A286" s="6" t="s">
         <v>151</v>
       </c>
@@ -14963,12 +15572,12 @@
       <c r="H286" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J286" t="str">
+      <c r="K286" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_010_wbs_code_format_1_1_1_1</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="31.5" thickBot="1">
+    <row r="287" spans="1:11" ht="31.5" thickBot="1">
       <c r="A287" s="6" t="s">
         <v>151</v>
       </c>
@@ -14989,12 +15598,12 @@
       <c r="H287" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J287" t="str">
+      <c r="K287" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_011_wbs_code_invalid_format_rejected</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="31.5" thickBot="1">
+    <row r="288" spans="1:11" ht="31.5" thickBot="1">
       <c r="A288" s="6" t="s">
         <v>151</v>
       </c>
@@ -15015,12 +15624,12 @@
       <c r="H288" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J288" t="str">
+      <c r="K288" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_012_wbs_code_uniqueness_per_project</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="31.5" thickBot="1">
+    <row r="289" spans="1:11" ht="31.5" thickBot="1">
       <c r="A289" s="6" t="s">
         <v>151</v>
       </c>
@@ -15041,12 +15650,12 @@
       <c r="H289" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J289" t="str">
+      <c r="K289" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_013_wbs_level_1_valid</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="31.5" thickBot="1">
+    <row r="290" spans="1:11" ht="31.5" thickBot="1">
       <c r="A290" s="6" t="s">
         <v>151</v>
       </c>
@@ -15067,12 +15676,12 @@
       <c r="H290" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J290" t="str">
+      <c r="K290" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_014_wbs_level_4_valid</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="31.5" thickBot="1">
+    <row r="291" spans="1:11" ht="31.5" thickBot="1">
       <c r="A291" s="6" t="s">
         <v>151</v>
       </c>
@@ -15093,12 +15702,12 @@
       <c r="H291" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J291" t="str">
+      <c r="K291" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_015_wbs_level_0_invalid</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="31.5" thickBot="1">
+    <row r="292" spans="1:11" ht="31.5" thickBot="1">
       <c r="A292" s="6" t="s">
         <v>151</v>
       </c>
@@ -15119,12 +15728,12 @@
       <c r="H292" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J292" t="str">
+      <c r="K292" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_016_wbs_level_5_invalid</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="31.5" thickBot="1">
+    <row r="293" spans="1:11" ht="31.5" thickBot="1">
       <c r="A293" s="6" t="s">
         <v>151</v>
       </c>
@@ -15145,12 +15754,12 @@
       <c r="H293" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J293" t="str">
+      <c r="K293" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_017_wbs_level_matches_code_depth</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="31.5" thickBot="1">
+    <row r="294" spans="1:11" ht="31.5" thickBot="1">
       <c r="A294" s="6" t="s">
         <v>151</v>
       </c>
@@ -15171,12 +15780,12 @@
       <c r="H294" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J294" t="str">
+      <c r="K294" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_018_wbs_level_parent_child_validation</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="16.5" thickBot="1">
+    <row r="295" spans="1:11" ht="16.5" thickBot="1">
       <c r="A295" s="6" t="s">
         <v>152</v>
       </c>
@@ -15189,12 +15798,12 @@
       <c r="D295" s="6"/>
       <c r="E295" s="7"/>
       <c r="F295" s="5"/>
-      <c r="J295" t="str">
+      <c r="K295" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-002Tests not individually listed</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="16.5" thickBot="1">
+    <row r="296" spans="1:11" ht="16.5" thickBot="1">
       <c r="A296" s="6" t="s">
         <v>153</v>
       </c>
@@ -15207,12 +15816,12 @@
       <c r="D296" s="6"/>
       <c r="E296" s="7"/>
       <c r="F296" s="5"/>
-      <c r="J296" t="str">
+      <c r="K296" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-003Tests not individually listed</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="16.5" thickBot="1">
+    <row r="297" spans="1:11" ht="16.5" thickBot="1">
       <c r="A297" s="6" t="s">
         <v>154</v>
       </c>
@@ -15225,12 +15834,12 @@
       <c r="D297" s="6"/>
       <c r="E297" s="7"/>
       <c r="F297" s="5"/>
-      <c r="J297" t="str">
+      <c r="K297" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-004Tests not individually listed</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="16.5" thickBot="1">
+    <row r="298" spans="1:11" ht="16.5" thickBot="1">
       <c r="A298" s="6" t="s">
         <v>155</v>
       </c>
@@ -15243,12 +15852,12 @@
       <c r="D298" s="6"/>
       <c r="E298" s="7"/>
       <c r="F298" s="5"/>
-      <c r="J298" t="str">
+      <c r="K298" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-PRJ-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="16.5" thickBot="1">
+    <row r="299" spans="1:11" ht="16.5" thickBot="1">
       <c r="A299" s="6" t="s">
         <v>156</v>
       </c>
@@ -15261,12 +15870,12 @@
       <c r="D299" s="6"/>
       <c r="E299" s="7"/>
       <c r="F299" s="5"/>
-      <c r="J299" t="str">
+      <c r="K299" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-DTO-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="16.5" thickBot="1">
+    <row r="300" spans="1:11" ht="16.5" thickBot="1">
       <c r="A300" s="6" t="s">
         <v>157</v>
       </c>
@@ -15279,12 +15888,12 @@
       <c r="D300" s="6"/>
       <c r="E300" s="7"/>
       <c r="F300" s="5"/>
-      <c r="J300" t="str">
+      <c r="K300" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-BOM-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="16.5" thickBot="1">
+    <row r="301" spans="1:11" ht="16.5" thickBot="1">
       <c r="A301" s="6" t="s">
         <v>158</v>
       </c>
@@ -15297,12 +15906,12 @@
       <c r="D301" s="6"/>
       <c r="E301" s="7"/>
       <c r="F301" s="5"/>
-      <c r="J301" t="str">
+      <c r="K301" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-BOM-002Tests not individually listed</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="31.5" thickBot="1">
+    <row r="302" spans="1:11" ht="31.5" thickBot="1">
       <c r="A302" s="6" t="s">
         <v>159</v>
       </c>
@@ -15326,12 +15935,12 @@
       <c r="I302" t="s">
         <v>811</v>
       </c>
-      <c r="J302" t="str">
+      <c r="K302" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_001_optimal_date_production_only</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="31.5" thickBot="1">
+    <row r="303" spans="1:11" ht="31.5" thickBot="1">
       <c r="A303" s="6" t="s">
         <v>159</v>
       </c>
@@ -15352,12 +15961,12 @@
       <c r="H303" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J303" t="str">
+      <c r="K303" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_002_optimal_date_production_transit</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="31.5" thickBot="1">
+    <row r="304" spans="1:11" ht="31.5" thickBot="1">
       <c r="A304" s="6" t="s">
         <v>159</v>
       </c>
@@ -15378,12 +15987,12 @@
       <c r="H304" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J304" t="str">
+      <c r="K304" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_003_optimal_date_production_transit_buffer</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="31.5" thickBot="1">
+    <row r="305" spans="1:11" ht="31.5" thickBot="1">
       <c r="A305" s="6" t="s">
         <v>159</v>
       </c>
@@ -15404,12 +16013,12 @@
       <c r="H305" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J305" t="str">
+      <c r="K305" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_004_optimal_date_all_components</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="31.5" thickBot="1">
+    <row r="306" spans="1:11" ht="31.5" thickBot="1">
       <c r="A306" s="6" t="s">
         <v>159</v>
       </c>
@@ -15430,12 +16039,12 @@
       <c r="H306" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J306" t="str">
+      <c r="K306" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_005_lead_time_breakdown_returned</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="31.5" thickBot="1">
+    <row r="307" spans="1:11" ht="31.5" thickBot="1">
       <c r="A307" s="6" t="s">
         <v>159</v>
       </c>
@@ -15456,12 +16065,12 @@
       <c r="H307" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J307" t="str">
+      <c r="K307" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_006_required_on_site_calculation</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="31.5" thickBot="1">
+    <row r="308" spans="1:11" ht="31.5" thickBot="1">
       <c r="A308" s="6" t="s">
         <v>159</v>
       </c>
@@ -15482,12 +16091,12 @@
       <c r="H308" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J308" t="str">
+      <c r="K308" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_007_business_days_calculation</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="31.5" thickBot="1">
+    <row r="309" spans="1:11" ht="31.5" thickBot="1">
       <c r="A309" s="6" t="s">
         <v>159</v>
       </c>
@@ -15508,12 +16117,12 @@
       <c r="H309" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J309" t="str">
+      <c r="K309" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_008_weekend_exclusion</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="31.5" thickBot="1">
+    <row r="310" spans="1:11" ht="31.5" thickBot="1">
       <c r="A310" s="6" t="s">
         <v>159</v>
       </c>
@@ -15534,12 +16143,12 @@
       <c r="H310" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J310" t="str">
+      <c r="K310" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_009_holiday_exclusion</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="31.5" thickBot="1">
+    <row r="311" spans="1:11" ht="31.5" thickBot="1">
       <c r="A311" s="6" t="s">
         <v>159</v>
       </c>
@@ -15560,12 +16169,12 @@
       <c r="H311" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J311" t="str">
+      <c r="K311" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_010_delivery_on_weekend_adjusted</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="31.5" thickBot="1">
+    <row r="312" spans="1:11" ht="31.5" thickBot="1">
       <c r="A312" s="6" t="s">
         <v>159</v>
       </c>
@@ -15586,12 +16195,12 @@
       <c r="H312" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J312" t="str">
+      <c r="K312" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_011_mixed_calendar_business_days</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="31.5" thickBot="1">
+    <row r="313" spans="1:11" ht="31.5" thickBot="1">
       <c r="A313" s="6" t="s">
         <v>159</v>
       </c>
@@ -15612,12 +16221,12 @@
       <c r="H313" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J313" t="str">
+      <c r="K313" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_012_alert_r14_date_passed</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="31.5" thickBot="1">
+    <row r="314" spans="1:11" ht="31.5" thickBot="1">
       <c r="A314" s="6" t="s">
         <v>159</v>
       </c>
@@ -15638,12 +16247,12 @@
       <c r="H314" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J314" t="str">
+      <c r="K314" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_013_alert_r14_tight_margin_3_days</v>
       </c>
     </row>
-    <row r="315" spans="1:10" ht="31.5" thickBot="1">
+    <row r="315" spans="1:11" ht="31.5" thickBot="1">
       <c r="A315" s="6" t="s">
         <v>159</v>
       </c>
@@ -15664,12 +16273,12 @@
       <c r="H315" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J315" t="str">
+      <c r="K315" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_014_alert_severity_critical_passed</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="31.5" thickBot="1">
+    <row r="316" spans="1:11" ht="31.5" thickBot="1">
       <c r="A316" s="6" t="s">
         <v>159</v>
       </c>
@@ -15690,12 +16299,12 @@
       <c r="H316" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J316" t="str">
+      <c r="K316" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_015_alert_severity_warning_tight</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="31.5" thickBot="1">
+    <row r="317" spans="1:11" ht="31.5" thickBot="1">
       <c r="A317" s="6" t="s">
         <v>159</v>
       </c>
@@ -15716,12 +16325,12 @@
       <c r="H317" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J317" t="str">
+      <c r="K317" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_016_no_alert_sufficient_margin</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="31.5" thickBot="1">
+    <row r="318" spans="1:11" ht="31.5" thickBot="1">
       <c r="A318" s="6" t="s">
         <v>160</v>
       </c>
@@ -15739,12 +16348,12 @@
       <c r="G318" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="J318" t="str">
+      <c r="K318" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_001_exw_buyer_full_responsibility</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="31.5" thickBot="1">
+    <row r="319" spans="1:11" ht="31.5" thickBot="1">
       <c r="A319" s="6" t="s">
         <v>160</v>
       </c>
@@ -15762,12 +16371,12 @@
       <c r="G319" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="J319" t="str">
+      <c r="K319" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_002_exw_transit_time_included</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="31.5" thickBot="1">
+    <row r="320" spans="1:11" ht="31.5" thickBot="1">
       <c r="A320" s="6" t="s">
         <v>160</v>
       </c>
@@ -15785,12 +16394,12 @@
       <c r="G320" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="J320" t="str">
+      <c r="K320" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_003_exw_customs_included</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="31.5" thickBot="1">
+    <row r="321" spans="1:11" ht="31.5" thickBot="1">
       <c r="A321" s="6" t="s">
         <v>160</v>
       </c>
@@ -15808,12 +16417,12 @@
       <c r="G321" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="J321" t="str">
+      <c r="K321" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_004_fob_shared_responsibility</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="31.5" thickBot="1">
+    <row r="322" spans="1:11" ht="31.5" thickBot="1">
       <c r="A322" s="6" t="s">
         <v>160</v>
       </c>
@@ -15831,12 +16440,12 @@
       <c r="G322" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="J322" t="str">
+      <c r="K322" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_005_fob_port_handover</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="31.5" thickBot="1">
+    <row r="323" spans="1:11" ht="31.5" thickBot="1">
       <c r="A323" s="6" t="s">
         <v>160</v>
       </c>
@@ -15854,12 +16463,12 @@
       <c r="G323" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="J323" t="str">
+      <c r="K323" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_006_fob_insurance_buyer</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="31.5" thickBot="1">
+    <row r="324" spans="1:11" ht="31.5" thickBot="1">
       <c r="A324" s="6" t="s">
         <v>160</v>
       </c>
@@ -15877,12 +16486,12 @@
       <c r="G324" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="J324" t="str">
+      <c r="K324" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_007_cif_seller_insurance</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="16.5" thickBot="1">
+    <row r="325" spans="1:11" ht="16.5" thickBot="1">
       <c r="A325" s="6" t="s">
         <v>160</v>
       </c>
@@ -15900,12 +16509,12 @@
       <c r="G325" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="J325" t="str">
+      <c r="K325" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_008_cif_port_to_port</v>
       </c>
     </row>
-    <row r="326" spans="1:10" ht="31.5" thickBot="1">
+    <row r="326" spans="1:11" ht="31.5" thickBot="1">
       <c r="A326" s="6" t="s">
         <v>160</v>
       </c>
@@ -15923,12 +16532,12 @@
       <c r="G326" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="J326" t="str">
+      <c r="K326" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_009_cif_customs_buyer</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="31.5" thickBot="1">
+    <row r="327" spans="1:11" ht="31.5" thickBot="1">
       <c r="A327" s="6" t="s">
         <v>160</v>
       </c>
@@ -15946,12 +16555,12 @@
       <c r="G327" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="J327" t="str">
+      <c r="K327" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_010_ddp_seller_full_responsibility</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="31.5" thickBot="1">
+    <row r="328" spans="1:11" ht="31.5" thickBot="1">
       <c r="A328" s="6" t="s">
         <v>160</v>
       </c>
@@ -15969,12 +16578,12 @@
       <c r="G328" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="J328" t="str">
+      <c r="K328" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_011_ddp_no_customs_buyer</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="31.5" thickBot="1">
+    <row r="329" spans="1:11" ht="31.5" thickBot="1">
       <c r="A329" s="6" t="s">
         <v>160</v>
       </c>
@@ -15992,12 +16601,12 @@
       <c r="G329" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="J329" t="str">
+      <c r="K329" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_012_ddp_door_to_door</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="31.5" thickBot="1">
+    <row r="330" spans="1:11" ht="31.5" thickBot="1">
       <c r="A330" s="6" t="s">
         <v>160</v>
       </c>
@@ -16015,12 +16624,12 @@
       <c r="G330" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="J330" t="str">
+      <c r="K330" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_013_incoterm_comparison_same_route</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="31.5" thickBot="1">
+    <row r="331" spans="1:11" ht="31.5" thickBot="1">
       <c r="A331" s="6" t="s">
         <v>160</v>
       </c>
@@ -16038,12 +16647,12 @@
       <c r="G331" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="J331" t="str">
+      <c r="K331" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_014_incoterm_impact_on_lead_time</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="16.5" thickBot="1">
+    <row r="332" spans="1:11" ht="16.5" thickBot="1">
       <c r="A332" s="6" t="s">
         <v>161</v>
       </c>
@@ -16057,7 +16666,7 @@
       <c r="E332" s="7"/>
       <c r="F332" s="5"/>
     </row>
-    <row r="333" spans="1:10" ht="16.5" thickBot="1">
+    <row r="333" spans="1:11" ht="16.5" thickBot="1">
       <c r="A333" s="6" t="s">
         <v>162</v>
       </c>
@@ -16071,7 +16680,7 @@
       <c r="E333" s="7"/>
       <c r="F333" s="5"/>
     </row>
-    <row r="334" spans="1:10" ht="16.5" thickBot="1">
+    <row r="334" spans="1:11" ht="16.5" thickBot="1">
       <c r="A334" s="6" t="s">
         <v>163</v>
       </c>
@@ -16085,7 +16694,7 @@
       <c r="E334" s="7"/>
       <c r="F334" s="5"/>
     </row>
-    <row r="335" spans="1:10" ht="31.5" thickBot="1">
+    <row r="335" spans="1:11" ht="31.5" thickBot="1">
       <c r="A335" s="6" t="s">
         <v>164</v>
       </c>
@@ -16099,7 +16708,7 @@
       <c r="E335" s="7"/>
       <c r="F335" s="5"/>
     </row>
-    <row r="336" spans="1:10" ht="31.5" thickBot="1">
+    <row r="336" spans="1:11" ht="31.5" thickBot="1">
       <c r="A336" s="6" t="s">
         <v>165</v>
       </c>
@@ -17090,7 +17699,7 @@
   <dimension ref="B2:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/tests/C2Pro_Test_Suites_Master.xlsx
+++ b/tests/C2Pro_Test_Suites_Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esus_\Documents\AI\ZTWQ\c2pro\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E2ED11-DD88-49A3-AD97-0E4F17FD7B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638CA2D0-AAC5-4415-BD7E-DD67DB7B7266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3608" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3742" uniqueCount="863">
   <si>
     <t>Nº</t>
   </si>
@@ -3383,7 +3383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3440,9 +3440,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -3754,7 +3751,7 @@
   <dimension ref="A1:L114"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
@@ -6969,7 +6966,7 @@
       <c r="A103" t="s">
         <v>107</v>
       </c>
-      <c r="B103" s="22" t="s">
+      <c r="B103" s="21" t="s">
         <v>220</v>
       </c>
       <c r="C103" t="s">
@@ -7404,8 +7401,8 @@
   <dimension ref="A1:Q404"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J198" sqref="J198"/>
+      <pane ySplit="1" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A332" sqref="A332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13344,6 +13341,9 @@
       <c r="H199" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J199" t="s">
+        <v>404</v>
+      </c>
       <c r="K199" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_002_r6_deviation_5_percent_pass</v>
@@ -13370,6 +13370,9 @@
       <c r="H200" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J200" t="s">
+        <v>404</v>
+      </c>
       <c r="K200" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_003_r6_deviation_4_9_percent_pass</v>
@@ -13396,6 +13399,9 @@
       <c r="H201" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J201" t="s">
+        <v>404</v>
+      </c>
       <c r="K201" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_004_r6_over_budget_critical</v>
@@ -13422,6 +13428,9 @@
       <c r="H202" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J202" t="s">
+        <v>404</v>
+      </c>
       <c r="K202" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_005_r6_under_budget_warning</v>
@@ -13448,6 +13457,9 @@
       <c r="H203" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J203" t="s">
+        <v>404</v>
+      </c>
       <c r="K203" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_006_r6_exact_match_pass</v>
@@ -13474,6 +13486,9 @@
       <c r="H204" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J204" t="s">
+        <v>404</v>
+      </c>
       <c r="K204" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_007_r15_bom_no_budget_alert</v>
@@ -13500,6 +13515,9 @@
       <c r="H205" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J205" t="s">
+        <v>404</v>
+      </c>
       <c r="K205" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_008_r15_bom_with_budget_pass</v>
@@ -13526,6 +13544,9 @@
       <c r="H206" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J206" t="s">
+        <v>404</v>
+      </c>
       <c r="K206" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_009_r15_bom_client_provided_exception</v>
@@ -13552,6 +13573,9 @@
       <c r="H207" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J207" t="s">
+        <v>404</v>
+      </c>
       <c r="K207" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_010_r15_multiple_bom_violations</v>
@@ -13578,6 +13602,9 @@
       <c r="H208" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J208" t="s">
+        <v>404</v>
+      </c>
       <c r="K208" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_011_r15_affected_items_list</v>
@@ -13604,6 +13631,9 @@
       <c r="H209" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J209" t="s">
+        <v>404</v>
+      </c>
       <c r="K209" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_012_r16_deviation_11_percent_alert</v>
@@ -13630,6 +13660,9 @@
       <c r="H210" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J210" t="s">
+        <v>404</v>
+      </c>
       <c r="K210" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_013_r16_deviation_10_percent_pass</v>
@@ -13656,6 +13689,9 @@
       <c r="H211" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J211" t="s">
+        <v>404</v>
+      </c>
       <c r="K211" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_014_r16_over_budget_critical</v>
@@ -13682,6 +13718,9 @@
       <c r="H212" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J212" t="s">
+        <v>404</v>
+      </c>
       <c r="K212" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_015_r16_under_budget_different_severity</v>
@@ -13708,6 +13747,9 @@
       <c r="H213" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J213" t="s">
+        <v>404</v>
+      </c>
       <c r="K213" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-002test_016_r16_trend_calculation</v>
@@ -13737,6 +13779,9 @@
       <c r="I214" t="s">
         <v>809</v>
       </c>
+      <c r="J214" t="s">
+        <v>404</v>
+      </c>
       <c r="K214" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-003test_001_r1_dates_mismatch_alert</v>
@@ -13763,6 +13808,9 @@
       <c r="H215" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J215" t="s">
+        <v>404</v>
+      </c>
       <c r="K215" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-003test_002_r1_dates_match_pass</v>
@@ -13789,6 +13837,9 @@
       <c r="H216" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J216" t="s">
+        <v>404</v>
+      </c>
       <c r="K216" t="str">
         <f t="shared" si="2"/>
         <v>TS-UD-COH-RUL-003test_003_r1_schedule_late_critical</v>
@@ -13815,6 +13866,9 @@
       <c r="H217" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J217" t="s">
+        <v>404</v>
+      </c>
       <c r="K217" t="str">
         <f t="shared" ref="K217:K280" si="3">CONCATENATE(A217,C217)</f>
         <v>TS-UD-COH-RUL-003test_004_r1_schedule_early_warning</v>
@@ -13841,6 +13895,9 @@
       <c r="H218" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J218" t="s">
+        <v>404</v>
+      </c>
       <c r="K218" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-003test_005_r1_delta_days_calculation</v>
@@ -13867,6 +13924,9 @@
       <c r="H219" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J219" t="s">
+        <v>404</v>
+      </c>
       <c r="K219" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-003test_006_r2_milestone_no_activity_alert</v>
@@ -13893,6 +13953,9 @@
       <c r="H220" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J220" t="s">
+        <v>404</v>
+      </c>
       <c r="K220" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-003test_007_r2_milestone_with_activity_pass</v>
@@ -13919,6 +13982,9 @@
       <c r="H221" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J221" t="s">
+        <v>404</v>
+      </c>
       <c r="K221" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-003test_008_r2_milestone_date_mismatch_alert</v>
@@ -13945,6 +14011,9 @@
       <c r="H222" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J222" t="s">
+        <v>404</v>
+      </c>
       <c r="K222" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-003test_009_r2_multiple_milestones_violations</v>
@@ -13971,6 +14040,9 @@
       <c r="H223" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J223" t="s">
+        <v>404</v>
+      </c>
       <c r="K223" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-003test_010_r2_unlinked_milestones_list</v>
@@ -13997,6 +14069,9 @@
       <c r="H224" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J224" t="s">
+        <v>404</v>
+      </c>
       <c r="K224" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-003test_011_r5_activity_exceeds_contract_alert</v>
@@ -14023,6 +14098,9 @@
       <c r="H225" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J225" t="s">
+        <v>404</v>
+      </c>
       <c r="K225" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-003test_012_r5_activity_within_contract_pass</v>
@@ -14049,6 +14127,9 @@
       <c r="H226" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J226" t="s">
+        <v>404</v>
+      </c>
       <c r="K226" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-003test_013_r5_exceeding_activities_list</v>
@@ -14075,6 +14156,9 @@
       <c r="H227" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J227" t="s">
+        <v>404</v>
+      </c>
       <c r="K227" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-003test_014_r5_alert_severity_critical</v>
@@ -14101,6 +14185,9 @@
       <c r="H228" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J228" t="s">
+        <v>404</v>
+      </c>
       <c r="K228" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-003test_015_r14_order_date_passed_critical</v>
@@ -14127,6 +14214,9 @@
       <c r="H229" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J229" t="s">
+        <v>404</v>
+      </c>
       <c r="K229" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-003test_016_r14_order_date_tight_warning</v>
@@ -14145,6 +14235,9 @@
       <c r="D230" s="6"/>
       <c r="E230" s="7"/>
       <c r="F230" s="5"/>
+      <c r="J230" t="s">
+        <v>404</v>
+      </c>
       <c r="K230" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-004Tests not individually listed</v>
@@ -14163,6 +14256,9 @@
       <c r="D231" s="6"/>
       <c r="E231" s="7"/>
       <c r="F231" s="5"/>
+      <c r="J231" t="s">
+        <v>404</v>
+      </c>
       <c r="K231" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-005Tests not individually listed</v>
@@ -14181,6 +14277,9 @@
       <c r="D232" s="6"/>
       <c r="E232" s="7"/>
       <c r="F232" s="5"/>
+      <c r="J232" t="s">
+        <v>404</v>
+      </c>
       <c r="K232" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-RUL-006Tests not individually listed</v>
@@ -14210,7 +14309,9 @@
       <c r="I233" s="12" t="s">
         <v>809</v>
       </c>
-      <c r="J233" s="21"/>
+      <c r="J233" t="s">
+        <v>404</v>
+      </c>
       <c r="K233" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_001_subscore_no_alerts_100_percent</v>
@@ -14237,6 +14338,9 @@
       <c r="H234" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J234" t="s">
+        <v>404</v>
+      </c>
       <c r="K234" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_002_subscore_one_alert_penalized</v>
@@ -14263,6 +14367,9 @@
       <c r="H235" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J235" t="s">
+        <v>404</v>
+      </c>
       <c r="K235" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_003_subscore_multiple_alerts_cumulative</v>
@@ -14289,6 +14396,9 @@
       <c r="H236" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J236" t="s">
+        <v>404</v>
+      </c>
       <c r="K236" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_004_subscore_severity_low_penalty_5</v>
@@ -14315,6 +14425,9 @@
       <c r="H237" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J237" t="s">
+        <v>404</v>
+      </c>
       <c r="K237" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_005_subscore_severity_medium_penalty_10</v>
@@ -14341,6 +14454,9 @@
       <c r="H238" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J238" t="s">
+        <v>404</v>
+      </c>
       <c r="K238" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_006_subscore_severity_high_penalty_20</v>
@@ -14367,6 +14483,9 @@
       <c r="H239" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J239" t="s">
+        <v>404</v>
+      </c>
       <c r="K239" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_007_subscore_severity_critical_penalty_30</v>
@@ -14393,6 +14512,9 @@
       <c r="H240" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J240" t="s">
+        <v>404</v>
+      </c>
       <c r="K240" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_008_subscore_scope_calculation</v>
@@ -14419,6 +14541,9 @@
       <c r="H241" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J241" t="s">
+        <v>404</v>
+      </c>
       <c r="K241" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_009_subscore_budget_calculation</v>
@@ -14445,6 +14570,9 @@
       <c r="H242" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J242" t="s">
+        <v>404</v>
+      </c>
       <c r="K242" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_010_subscore_quality_calculation</v>
@@ -14471,6 +14599,9 @@
       <c r="H243" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J243" t="s">
+        <v>404</v>
+      </c>
       <c r="K243" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_011_subscore_technical_calculation</v>
@@ -14497,6 +14628,9 @@
       <c r="H244" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J244" t="s">
+        <v>404</v>
+      </c>
       <c r="K244" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_012_subscore_legal_calculation</v>
@@ -14523,6 +14657,9 @@
       <c r="H245" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J245" t="s">
+        <v>404</v>
+      </c>
       <c r="K245" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_013_subscore_time_calculation</v>
@@ -14549,6 +14686,9 @@
       <c r="H246" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J246" t="s">
+        <v>404</v>
+      </c>
       <c r="K246" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-001test_014_subscore_floor_at_zero</v>
@@ -14575,6 +14715,9 @@
       <c r="H247" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J247" t="s">
+        <v>404</v>
+      </c>
       <c r="K247" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-002test_001_global_score_formula_verification</v>
@@ -14601,6 +14744,9 @@
       <c r="H248" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J248" t="s">
+        <v>404</v>
+      </c>
       <c r="K248" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-002test_002_global_score_default_weights</v>
@@ -14627,6 +14773,9 @@
       <c r="H249" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J249" t="s">
+        <v>404</v>
+      </c>
       <c r="K249" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-002test_003_global_score_all_100_equals_100</v>
@@ -14653,6 +14802,9 @@
       <c r="H250" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J250" t="s">
+        <v>404</v>
+      </c>
       <c r="K250" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-002test_004_global_score_all_0_equals_0</v>
@@ -14679,6 +14831,9 @@
       <c r="H251" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J251" t="s">
+        <v>404</v>
+      </c>
       <c r="K251" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-002test_005_global_score_mixed_subscores</v>
@@ -14705,6 +14860,9 @@
       <c r="H252" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J252" t="s">
+        <v>404</v>
+      </c>
       <c r="K252" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-002test_006_global_score_range_0_to_100</v>
@@ -14731,6 +14889,9 @@
       <c r="H253" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J253" t="s">
+        <v>404</v>
+      </c>
       <c r="K253" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-002test_007_weights_sum_validation</v>
@@ -14757,6 +14918,9 @@
       <c r="H254" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J254" t="s">
+        <v>404</v>
+      </c>
       <c r="K254" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-002test_008_weights_normalization_auto</v>
@@ -14783,6 +14947,9 @@
       <c r="H255" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J255" t="s">
+        <v>404</v>
+      </c>
       <c r="K255" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-002test_009_weights_custom_budget_30</v>
@@ -14809,6 +14976,9 @@
       <c r="H256" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J256" t="s">
+        <v>404</v>
+      </c>
       <c r="K256" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-002test_010_weights_custom_time_25</v>
@@ -14835,6 +15005,9 @@
       <c r="H257" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J257" t="s">
+        <v>404</v>
+      </c>
       <c r="K257" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-002test_011_weights_per_project_type</v>
@@ -14861,6 +15034,9 @@
       <c r="H258" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J258" t="s">
+        <v>404</v>
+      </c>
       <c r="K258" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-SCR-002test_012_weights_history_tracking</v>
@@ -14879,6 +15055,9 @@
       <c r="D259" s="6"/>
       <c r="E259" s="7"/>
       <c r="F259" s="5"/>
+      <c r="J259" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="260" spans="1:11" ht="31.5" thickBot="1">
       <c r="A260" s="6" t="s">
@@ -14901,6 +15080,9 @@
       <c r="H260" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J260" t="s">
+        <v>404</v>
+      </c>
       <c r="K260" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_001_detect_mass_changes_15_in_30min</v>
@@ -14927,6 +15109,9 @@
       <c r="H261" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J261" t="s">
+        <v>404</v>
+      </c>
       <c r="K261" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_002_no_violation_10_in_60min</v>
@@ -14953,6 +15138,9 @@
       <c r="H262" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J262" t="s">
+        <v>404</v>
+      </c>
       <c r="K262" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_003_mass_changes_window_sliding</v>
@@ -14979,6 +15167,9 @@
       <c r="H263" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J263" t="s">
+        <v>404</v>
+      </c>
       <c r="K263" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_004_mass_changes_flag_for_review</v>
@@ -15005,6 +15196,9 @@
       <c r="H264" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J264" t="s">
+        <v>404</v>
+      </c>
       <c r="K264" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_005_detect_resolve_reintroduce_4_times</v>
@@ -15031,6 +15225,9 @@
       <c r="H265" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J265" t="s">
+        <v>404</v>
+      </c>
       <c r="K265" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_006_no_violation_2_times</v>
@@ -15057,6 +15254,9 @@
       <c r="H266" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J266" t="s">
+        <v>404</v>
+      </c>
       <c r="K266" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_007_hash_comparison_same_content</v>
@@ -15083,6 +15283,9 @@
       <c r="H267" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J267" t="s">
+        <v>404</v>
+      </c>
       <c r="K267" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_008_penalty_minus_5_points</v>
@@ -15109,6 +15312,9 @@
       <c r="H268" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J268" t="s">
+        <v>404</v>
+      </c>
       <c r="K268" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_009_detect_95_percent_3_docs</v>
@@ -15135,6 +15341,9 @@
       <c r="H269" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J269" t="s">
+        <v>404</v>
+      </c>
       <c r="K269" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_010_no_violation_95_percent_50_docs</v>
@@ -15161,6 +15370,9 @@
       <c r="H270" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J270" t="s">
+        <v>404</v>
+      </c>
       <c r="K270" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_011_threshold_90_percent_5_docs</v>
@@ -15187,6 +15399,9 @@
       <c r="H271" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J271" t="s">
+        <v>404</v>
+      </c>
       <c r="K271" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_012_require_audit_action</v>
@@ -15213,6 +15428,9 @@
       <c r="H272" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J272" t="s">
+        <v>404</v>
+      </c>
       <c r="K272" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_013_detect_weight_change_25_percent</v>
@@ -15239,6 +15457,9 @@
       <c r="H273" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J273" t="s">
+        <v>404</v>
+      </c>
       <c r="K273" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_014_no_violation_change_15_percent</v>
@@ -15265,6 +15486,9 @@
       <c r="H274" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J274" t="s">
+        <v>404</v>
+      </c>
       <c r="K274" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_015_24h_window_tracking</v>
@@ -15291,6 +15515,9 @@
       <c r="H275" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J275" t="s">
+        <v>404</v>
+      </c>
       <c r="K275" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-GAM-001test_016_notify_admin_action</v>
@@ -15309,6 +15536,9 @@
       <c r="D276" s="6"/>
       <c r="E276" s="7"/>
       <c r="F276" s="5"/>
+      <c r="J276" t="s">
+        <v>404</v>
+      </c>
       <c r="K276" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-COH-ALR-001Tests not individually listed</v>
@@ -15338,6 +15568,9 @@
       <c r="I277" t="s">
         <v>810</v>
       </c>
+      <c r="J277" t="s">
+        <v>404</v>
+      </c>
       <c r="K277" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-PRJ-WBS-001test_001_wbs_item_creation_all_fields</v>
@@ -15364,6 +15597,9 @@
       <c r="H278" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J278" t="s">
+        <v>404</v>
+      </c>
       <c r="K278" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-PRJ-WBS-001test_002_wbs_item_creation_minimum_fields</v>
@@ -15390,6 +15626,9 @@
       <c r="H279" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J279" t="s">
+        <v>404</v>
+      </c>
       <c r="K279" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-PRJ-WBS-001test_003_wbs_item_fails_without_code</v>
@@ -15416,6 +15655,9 @@
       <c r="H280" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J280" t="s">
+        <v>404</v>
+      </c>
       <c r="K280" t="str">
         <f t="shared" si="3"/>
         <v>TS-UD-PRJ-WBS-001test_004_wbs_item_fails_without_name</v>
@@ -15442,6 +15684,9 @@
       <c r="H281" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J281" t="s">
+        <v>404</v>
+      </c>
       <c r="K281" t="str">
         <f t="shared" ref="K281:K331" si="4">CONCATENATE(A281,C281)</f>
         <v>TS-UD-PRJ-WBS-001test_005_wbs_item_fails_invalid_level</v>
@@ -15468,6 +15713,9 @@
       <c r="H282" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J282" t="s">
+        <v>404</v>
+      </c>
       <c r="K282" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_006_wbs_item_immutability</v>
@@ -15494,6 +15742,9 @@
       <c r="H283" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J283" t="s">
+        <v>404</v>
+      </c>
       <c r="K283" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_007_wbs_code_format_1</v>
@@ -15520,6 +15771,9 @@
       <c r="H284" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J284" t="s">
+        <v>404</v>
+      </c>
       <c r="K284" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_008_wbs_code_format_1_1</v>
@@ -15546,6 +15800,9 @@
       <c r="H285" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J285" t="s">
+        <v>404</v>
+      </c>
       <c r="K285" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_009_wbs_code_format_1_1_1</v>
@@ -15572,6 +15829,9 @@
       <c r="H286" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J286" t="s">
+        <v>404</v>
+      </c>
       <c r="K286" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_010_wbs_code_format_1_1_1_1</v>
@@ -15598,6 +15858,9 @@
       <c r="H287" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J287" t="s">
+        <v>404</v>
+      </c>
       <c r="K287" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_011_wbs_code_invalid_format_rejected</v>
@@ -15624,6 +15887,9 @@
       <c r="H288" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J288" t="s">
+        <v>404</v>
+      </c>
       <c r="K288" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_012_wbs_code_uniqueness_per_project</v>
@@ -15650,6 +15916,9 @@
       <c r="H289" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J289" t="s">
+        <v>404</v>
+      </c>
       <c r="K289" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_013_wbs_level_1_valid</v>
@@ -15676,6 +15945,9 @@
       <c r="H290" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J290" t="s">
+        <v>404</v>
+      </c>
       <c r="K290" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_014_wbs_level_4_valid</v>
@@ -15702,6 +15974,9 @@
       <c r="H291" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J291" t="s">
+        <v>404</v>
+      </c>
       <c r="K291" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_015_wbs_level_0_invalid</v>
@@ -15728,6 +16003,9 @@
       <c r="H292" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J292" t="s">
+        <v>404</v>
+      </c>
       <c r="K292" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_016_wbs_level_5_invalid</v>
@@ -15754,6 +16032,9 @@
       <c r="H293" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J293" t="s">
+        <v>404</v>
+      </c>
       <c r="K293" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_017_wbs_level_matches_code_depth</v>
@@ -15780,6 +16061,9 @@
       <c r="H294" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J294" t="s">
+        <v>404</v>
+      </c>
       <c r="K294" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-001test_018_wbs_level_parent_child_validation</v>
@@ -15798,6 +16082,9 @@
       <c r="D295" s="6"/>
       <c r="E295" s="7"/>
       <c r="F295" s="5"/>
+      <c r="J295" t="s">
+        <v>404</v>
+      </c>
       <c r="K295" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-002Tests not individually listed</v>
@@ -15816,6 +16103,9 @@
       <c r="D296" s="6"/>
       <c r="E296" s="7"/>
       <c r="F296" s="5"/>
+      <c r="J296" t="s">
+        <v>404</v>
+      </c>
       <c r="K296" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-003Tests not individually listed</v>
@@ -15834,6 +16124,9 @@
       <c r="D297" s="6"/>
       <c r="E297" s="7"/>
       <c r="F297" s="5"/>
+      <c r="J297" t="s">
+        <v>404</v>
+      </c>
       <c r="K297" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-WBS-004Tests not individually listed</v>
@@ -15852,6 +16145,9 @@
       <c r="D298" s="6"/>
       <c r="E298" s="7"/>
       <c r="F298" s="5"/>
+      <c r="J298" t="s">
+        <v>404</v>
+      </c>
       <c r="K298" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-PRJ-001Tests not individually listed</v>
@@ -15870,6 +16166,9 @@
       <c r="D299" s="6"/>
       <c r="E299" s="7"/>
       <c r="F299" s="5"/>
+      <c r="J299" t="s">
+        <v>404</v>
+      </c>
       <c r="K299" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PRJ-DTO-001Tests not individually listed</v>
@@ -15888,6 +16187,9 @@
       <c r="D300" s="6"/>
       <c r="E300" s="7"/>
       <c r="F300" s="5"/>
+      <c r="J300" t="s">
+        <v>404</v>
+      </c>
       <c r="K300" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-BOM-001Tests not individually listed</v>
@@ -15906,6 +16208,9 @@
       <c r="D301" s="6"/>
       <c r="E301" s="7"/>
       <c r="F301" s="5"/>
+      <c r="J301" t="s">
+        <v>404</v>
+      </c>
       <c r="K301" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-BOM-002Tests not individually listed</v>
@@ -15935,6 +16240,9 @@
       <c r="I302" t="s">
         <v>811</v>
       </c>
+      <c r="J302" t="s">
+        <v>404</v>
+      </c>
       <c r="K302" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_001_optimal_date_production_only</v>
@@ -15961,6 +16269,9 @@
       <c r="H303" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J303" t="s">
+        <v>404</v>
+      </c>
       <c r="K303" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_002_optimal_date_production_transit</v>
@@ -15987,6 +16298,9 @@
       <c r="H304" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J304" t="s">
+        <v>404</v>
+      </c>
       <c r="K304" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_003_optimal_date_production_transit_buffer</v>
@@ -16013,6 +16327,9 @@
       <c r="H305" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J305" t="s">
+        <v>404</v>
+      </c>
       <c r="K305" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_004_optimal_date_all_components</v>
@@ -16039,6 +16356,9 @@
       <c r="H306" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J306" t="s">
+        <v>404</v>
+      </c>
       <c r="K306" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_005_lead_time_breakdown_returned</v>
@@ -16065,6 +16385,9 @@
       <c r="H307" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J307" t="s">
+        <v>404</v>
+      </c>
       <c r="K307" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_006_required_on_site_calculation</v>
@@ -16091,6 +16414,9 @@
       <c r="H308" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J308" t="s">
+        <v>404</v>
+      </c>
       <c r="K308" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_007_business_days_calculation</v>
@@ -16117,6 +16443,9 @@
       <c r="H309" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J309" t="s">
+        <v>404</v>
+      </c>
       <c r="K309" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_008_weekend_exclusion</v>
@@ -16143,6 +16472,9 @@
       <c r="H310" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J310" t="s">
+        <v>404</v>
+      </c>
       <c r="K310" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_009_holiday_exclusion</v>
@@ -16169,6 +16501,9 @@
       <c r="H311" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J311" t="s">
+        <v>404</v>
+      </c>
       <c r="K311" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_010_delivery_on_weekend_adjusted</v>
@@ -16195,6 +16530,9 @@
       <c r="H312" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J312" t="s">
+        <v>404</v>
+      </c>
       <c r="K312" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_011_mixed_calendar_business_days</v>
@@ -16221,6 +16559,9 @@
       <c r="H313" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J313" t="s">
+        <v>404</v>
+      </c>
       <c r="K313" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_012_alert_r14_date_passed</v>
@@ -16247,6 +16588,9 @@
       <c r="H314" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J314" t="s">
+        <v>404</v>
+      </c>
       <c r="K314" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_013_alert_r14_tight_margin_3_days</v>
@@ -16273,6 +16617,9 @@
       <c r="H315" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J315" t="s">
+        <v>404</v>
+      </c>
       <c r="K315" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_014_alert_severity_critical_passed</v>
@@ -16299,6 +16646,9 @@
       <c r="H316" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J316" t="s">
+        <v>404</v>
+      </c>
       <c r="K316" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_015_alert_severity_warning_tight</v>
@@ -16325,6 +16675,9 @@
       <c r="H317" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="J317" t="s">
+        <v>404</v>
+      </c>
       <c r="K317" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-001test_016_no_alert_sufficient_margin</v>
@@ -16348,6 +16701,9 @@
       <c r="G318" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="J318" t="s">
+        <v>404</v>
+      </c>
       <c r="K318" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_001_exw_buyer_full_responsibility</v>
@@ -16371,6 +16727,9 @@
       <c r="G319" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="J319" t="s">
+        <v>404</v>
+      </c>
       <c r="K319" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_002_exw_transit_time_included</v>
@@ -16394,6 +16753,9 @@
       <c r="G320" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="J320" t="s">
+        <v>404</v>
+      </c>
       <c r="K320" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_003_exw_customs_included</v>
@@ -16417,6 +16779,9 @@
       <c r="G321" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="J321" t="s">
+        <v>404</v>
+      </c>
       <c r="K321" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_004_fob_shared_responsibility</v>
@@ -16440,6 +16805,9 @@
       <c r="G322" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="J322" t="s">
+        <v>404</v>
+      </c>
       <c r="K322" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_005_fob_port_handover</v>
@@ -16463,6 +16831,9 @@
       <c r="G323" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="J323" t="s">
+        <v>404</v>
+      </c>
       <c r="K323" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_006_fob_insurance_buyer</v>
@@ -16486,6 +16857,9 @@
       <c r="G324" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="J324" t="s">
+        <v>404</v>
+      </c>
       <c r="K324" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_007_cif_seller_insurance</v>
@@ -16509,6 +16883,9 @@
       <c r="G325" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="J325" t="s">
+        <v>404</v>
+      </c>
       <c r="K325" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_008_cif_port_to_port</v>
@@ -16532,6 +16909,9 @@
       <c r="G326" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="J326" t="s">
+        <v>404</v>
+      </c>
       <c r="K326" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_009_cif_customs_buyer</v>
@@ -16555,6 +16935,9 @@
       <c r="G327" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="J327" t="s">
+        <v>404</v>
+      </c>
       <c r="K327" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_010_ddp_seller_full_responsibility</v>
@@ -16578,6 +16961,9 @@
       <c r="G328" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="J328" t="s">
+        <v>404</v>
+      </c>
       <c r="K328" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_011_ddp_no_customs_buyer</v>
@@ -16601,6 +16987,9 @@
       <c r="G329" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="J329" t="s">
+        <v>404</v>
+      </c>
       <c r="K329" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_012_ddp_door_to_door</v>
@@ -16624,6 +17013,9 @@
       <c r="G330" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="J330" t="s">
+        <v>404</v>
+      </c>
       <c r="K330" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_013_incoterm_comparison_same_route</v>
@@ -16647,6 +17039,9 @@
       <c r="G331" s="12" t="s">
         <v>771</v>
       </c>
+      <c r="J331" t="s">
+        <v>404</v>
+      </c>
       <c r="K331" t="str">
         <f t="shared" si="4"/>
         <v>TS-UD-PROC-LTM-002test_014_incoterm_impact_on_lead_time</v>
@@ -16665,6 +17060,9 @@
       <c r="D332" s="6"/>
       <c r="E332" s="7"/>
       <c r="F332" s="5"/>
+      <c r="J332" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="333" spans="1:11" ht="16.5" thickBot="1">
       <c r="A333" s="6" t="s">
@@ -17672,7 +18070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7DD0CD-6695-4D3C-9518-BDB565BCCF21}">
   <dimension ref="B3:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/tests/C2Pro_Test_Suites_Master.xlsx
+++ b/tests/C2Pro_Test_Suites_Master.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esus_\Documents\AI\ZTWQ\c2pro\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638CA2D0-AAC5-4415-BD7E-DD67DB7B7266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1F8783-740C-46A0-B68E-D247051A3E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suite Test" sheetId="1" r:id="rId1"/>
     <sheet name="Promts" sheetId="2" r:id="rId2"/>
     <sheet name="Unit Test" sheetId="3" r:id="rId3"/>
-    <sheet name="promt" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja4" sheetId="9" r:id="rId4"/>
     <sheet name="Agentes" sheetId="5" r:id="rId5"/>
+    <sheet name="promt" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Suite Test'!$A$1:$J$114</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3742" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4280" uniqueCount="1179">
   <si>
     <t>Nº</t>
   </si>
@@ -3208,12 +3209,962 @@
   <si>
     <t>Claude</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Event-driven workflow tests .................... 20 tests               ║
+║  ├── Worker scaling tests ........................... 14 tests               ║
+║  └── TS-E2E-*: E2E ................................... 10 tests   </t>
+  </si>
+  <si>
+    <t>CODEX</t>
+  </si>
+  <si>
+    <t> AGENTE 1: SECURITY CORE                              ║</t>
+  </si>
+  <si>
+    <t>║                          Target Coverage: 100%                                ║</t>
+  </si>
+  <si>
+    <t>╠═══════════════════════════════════════════════════════════════════════════════╣</t>
+  </si>
+  <si>
+    <t>║                                                                               ║</t>
+  </si>
+  <si>
+    <t>║  COMPONENTES ASIGNADOS:                                                       ║</t>
+  </si>
+  <si>
+    <t>║  ├── MCP Gateway (Allowlist, Rate Limit, Query Limits, Audit)                ║</t>
+  </si>
+  <si>
+    <t>║  ├── Anonymizer Service (PII Detection, Strategies, Config)                  ║</t>
+  </si>
+  <si>
+    <t>║  ├── Tenant Isolation                                                        ║</t>
+  </si>
+  <si>
+    <t>║  ├── JWT Validation                                                          ║</t>
+  </si>
+  <si>
+    <t>║  └── Anti-Gaming Detection (compartido con Agente 6)                         ║</t>
+  </si>
+  <si>
+    <t>║  TEST SUITES ASIGNADOS:                                                       ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UC-SEC-MCP-001: MCP Allowlist ............... 18 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UC-SEC-MCP-002: Rate Limiting ............... 14 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UC-SEC-MCP-003: Query Limits ................ 12 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UC-SEC-MCP-004: MCP Audit ................... 10 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UC-SEC-ANO-001: PII Detection ............... 24 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UC-SEC-ANO-002: Anonymizer Strategies ....... 16 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UC-SEC-ANO-003: Tenant Config ............... 8 tests                ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UC-SEC-TNT-001: Tenant Isolation ............ 14 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UC-SEC-JWT-001: JWT Validation .............. 12 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UC-SEC-AUD-001: Audit Trail Core ............ 16 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UC-SEC-GAM-001: Anti-Gaming Detection ....... 12 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-INT-* Integration tests ..................... 30 tests               ║</t>
+  </si>
+  <si>
+    <t>║  └── TS-E2E-SEC-* E2E tests ......................... 26 tests               ║</t>
+  </si>
+  <si>
+    <t>║      ─────────────────────────────────────────────────────────               ║</t>
+  </si>
+  <si>
+    <t>║      TOTAL AGENTE 1: 188 tests                                               ║</t>
+  </si>
+  <si>
+    <t>║  SPRINTS ASIGNADOS: S1-S2 (Semanas 1-4)                                      ║</t>
+  </si>
+  <si>
+    <t>║  DEPENDENCIAS: Ninguna (puede empezar inmediatamente)                        ║</t>
+  </si>
+  <si>
+    <t>║  DESBLOQUEA: Todos los demás módulos                                         ║</t>
+  </si>
+  <si>
+    <t>╚═══════════════════════════════════════════════════════════════════════════════╝</t>
+  </si>
+  <si>
+    <t>```</t>
+  </si>
+  <si>
+    <t>### 9.2 AGENTE 2: Documents Domain (162 tests)</t>
+  </si>
+  <si>
+    <t>╔═══════════════════════════════════════════════════════════════════════════════╗</t>
+  </si>
+  <si>
+    <t>║                          AGENTE 2: DOCUMENTS DOMAIN                           ║</t>
+  </si>
+  <si>
+    <t>║                          Target Coverage: 95%                                 ║</t>
+  </si>
+  <si>
+    <t>║  ├── Clause Entity (creación, validación, FK integrity)                      ║</t>
+  </si>
+  <si>
+    <t>║  ├── Clause Types &amp; Classification                                           ║</t>
+  </si>
+  <si>
+    <t>║  ├── SubClause Hierarchy                                                     ║</t>
+  </si>
+  <si>
+    <t>║  ├── Entity Extraction (Dates, Money, Durations, Stakeholders)               ║</t>
+  </si>
+  <si>
+    <t>║  ├── Document Entity                                                         ║</t>
+  </si>
+  <si>
+    <t>║  └── Confidence Scoring                                                      ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-DOC-CLS-001: Clause Entity ............... 22 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-DOC-CLS-002: Clause Types ................ 14 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-DOC-CLS-003: SubClause Hierarchy ......... 10 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-DOC-ENT-001: Entity Dates ................ 16 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-DOC-ENT-002: Entity Money ................ 14 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-DOC-ENT-003: Entity Durations ............ 12 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-DOC-ENT-004: Entity Stakeholders ......... 10 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-DOC-DOC-001: Document Entity ............. 14 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-DOC-CNF-001: Confidence Scoring .......... 8 tests                ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UA-DOC-UC-*: Use Cases ...................... 26 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UA-SVC-EXT-*: Services ...................... 26 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-INT-DB-DOC-*: Integration ................... 26 tests               ║</t>
+  </si>
+  <si>
+    <t>║  └── TS-E2E-FLW-DOC-*: E2E .......................... 14 tests               ║</t>
+  </si>
+  <si>
+    <t>║      TOTAL AGENTE 2: 162 tests                                               ║</t>
+  </si>
+  <si>
+    <t>║  SPRINTS ASIGNADOS: S3-S4 (Semanas 5-8)                                      ║</t>
+  </si>
+  <si>
+    <t>║  DEPENDENCIAS: Agente 1 (Anonymizer para PII en documentos)                  ║</t>
+  </si>
+  <si>
+    <t>║  DESBLOQUEA: Agentes 5, 6, 7 (Analysis, Coherence, Stakeholders)             ║</t>
+  </si>
+  <si>
+    <t>### 9.3 AGENTE 3: Projects &amp; WBS (116 tests)</t>
+  </si>
+  <si>
+    <t>║                          AGENTE 3: PROJECTS &amp; WBS                             ║</t>
+  </si>
+  <si>
+    <t>║                          Target Coverage: 93%                                 ║</t>
+  </si>
+  <si>
+    <t>║  ├── WBS Item Entity                                                         ║</t>
+  </si>
+  <si>
+    <t>║  ├── WBS Hierarchy &amp; Codes                                                   ║</t>
+  </si>
+  <si>
+    <t>║  ├── WBS Validation Rules                                                    ║</t>
+  </si>
+  <si>
+    <t>║  ├── WBS CRUD Operations                                                     ║</t>
+  </si>
+  <si>
+    <t>║  ├── Project Entity                                                          ║</t>
+  </si>
+  <si>
+    <t>║  └── IWBSQueryPort (interface para otros módulos)                            ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-PRJ-WBS-001: WBS Item Entity ............. 18 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-PRJ-WBS-002: WBS Hierarchy ............... 14 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-PRJ-WBS-003: WBS Validation .............. 12 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-PRJ-WBS-004: WBS CRUD .................... 10 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-PRJ-PRJ-001: Project Entity .............. 12 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-PRJ-DTO-001: WBSItemDTO &amp; Port ........... 10 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UA-PRJ-UC-*: Use Cases ...................... 26 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-INT-DB-WBS-*: Integration ................... 18 tests               ║</t>
+  </si>
+  <si>
+    <t>║  └── TS-E2E-*: E2E ................................... 10 tests               ║</t>
+  </si>
+  <si>
+    <t>║      TOTAL AGENTE 3: 116 tests (ajustado de 130 anterior)                    ║</t>
+  </si>
+  <si>
+    <t>║  SPRINTS ASIGNADOS: S7 (Semanas 13-14)                                       ║</t>
+  </si>
+  <si>
+    <t>║  DEPENDENCIAS: Agente 2 (Clauses para WBS)                                   ║</t>
+  </si>
+  <si>
+    <t>║  DESBLOQUEA: Agente 4 (Procurement), Agente 6 (Reglas SCOPE)                 ║</t>
+  </si>
+  <si>
+    <t>### 9.4 AGENTE 4: Procurement Logic (116 tests)</t>
+  </si>
+  <si>
+    <t>║                          AGENTE 4: PROCUREMENT LOGIC                          ║</t>
+  </si>
+  <si>
+    <t>║  ├── BOM Item Entity                                                         ║</t>
+  </si>
+  <si>
+    <t>║  ├── BOM Validation Rules                                                    ║</t>
+  </si>
+  <si>
+    <t>║  ├── Lead Time Calculator (Basic, Incoterms, Customs, Alerts)                ║</t>
+  </si>
+  <si>
+    <t>║  └── Procurement Plan Generation                                             ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-PROC-BOM-001: BOM Item Entity ............ 14 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-PROC-BOM-002: BOM Validation ............. 10 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-PROC-LTM-001: Lead Time Basic ............ 16 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-PROC-LTM-002: Lead Time Incoterms ........ 14 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-PROC-LTM-003: Lead Time Customs .......... 10 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-PROC-LTM-004: Lead Time Alerts ........... 8 tests                ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-PROC-PLN-001: Procurement Plan ........... 10 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UA-PROC-UC-*: Use Cases ..................... 22 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-INT-DB-BOM-*: Integration ................... 16 tests               ║</t>
+  </si>
+  <si>
+    <t>║  └── TS-E2E-*: E2E ................................... 8 tests                ║</t>
+  </si>
+  <si>
+    <t>║      TOTAL AGENTE 4: 116 tests (ajustado)                                    ║</t>
+  </si>
+  <si>
+    <t>║  SPRINTS ASIGNADOS: S8 (Semanas 15-16)                                       ║</t>
+  </si>
+  <si>
+    <t>║  DEPENDENCIAS: Agente 3 (WBS para BOM)                                       ║</t>
+  </si>
+  <si>
+    <t>║  DESBLOQUEA: Agente 6 (Reglas BUDGET, R14)                                   ║</t>
+  </si>
+  <si>
+    <t>### 9.5 AGENTE 5: Analysis &amp; Graph (78 tests)</t>
+  </si>
+  <si>
+    <t>║                          AGENTE 5: ANALYSIS &amp; GRAPH                           ║</t>
+  </si>
+  <si>
+    <t>║                          Target Coverage: 89%                                 ║</t>
+  </si>
+  <si>
+    <t>║  ├── Alert Entity                                                            ║</t>
+  </si>
+  <si>
+    <t>║  ├── Graph Node Entity                                                       ║</t>
+  </si>
+  <si>
+    <t>║  ├── Graph Relationship Entity                                               ║</t>
+  </si>
+  <si>
+    <t>║  ├── Semantic Search                                                         ║</t>
+  </si>
+  <si>
+    <t>║  ├── Hybrid Search                                                           ║</t>
+  </si>
+  <si>
+    <t>║  └── Neo4j Integration                                                       ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-ANA-ALR-001: Alert Entity ................ 12 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-ANA-GRP-001: Graph Node .................. 10 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-ANA-GRP-002: Graph Relationship .......... 10 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-ANA-SRC-001: Semantic Search ............. 8 tests                ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-ANA-HYB-001: Hybrid Search ............... 8 tests                ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UA-ANA-UC-*: Use Cases ...................... 22 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-INT-GRP-NEO-001: Neo4j Integration .......... 14 tests               ║</t>
+  </si>
+  <si>
+    <t>║  └── TS-E2E-*: E2E ................................... 6 tests                ║</t>
+  </si>
+  <si>
+    <t>║      TOTAL AGENTE 5: 78 tests (ajustado)                                     ║</t>
+  </si>
+  <si>
+    <t>║  SPRINTS ASIGNADOS: S10 (Semanas 19-20)                                      ║</t>
+  </si>
+  <si>
+    <t>║  DEPENDENCIAS: Agente 2 (Clauses para Graph)                                 ║</t>
+  </si>
+  <si>
+    <t>║  DESBLOQUEA: Agente 6 (Coherence necesita Alerts)                            ║</t>
+  </si>
+  <si>
+    <t>### 9.6 AGENTE 6: Coherence Engine - CRÍTICO (206 tests)</t>
+  </si>
+  <si>
+    <t>║                     AGENTE 6: COHERENCE ENGINE (CRÍTICO)                      ║</t>
+  </si>
+  <si>
+    <t>║                          Target Coverage: 99%                                 ║</t>
+  </si>
+  <si>
+    <t>║  ├── Category Enum &amp; Default Weights                                         ║</t>
+  </si>
+  <si>
+    <t>║  ├── Rules Engine (17 reglas en 6 categorías)                                ║</t>
+  </si>
+  <si>
+    <t>║  │   ├── SCOPE: R11, R12, R13                                                ║</t>
+  </si>
+  <si>
+    <t>║  │   ├── BUDGET: R6, R15, R16                                                ║</t>
+  </si>
+  <si>
+    <t>║  │   ├── TIME: R1, R2, R5, R14                                               ║</t>
+  </si>
+  <si>
+    <t>║  │   ├── TECHNICAL: R3, R4, R7                                               ║</t>
+  </si>
+  <si>
+    <t>║  │   ├── LEGAL: R8, R20                                                      ║</t>
+  </si>
+  <si>
+    <t>║  │   └── QUALITY: R17, R18                                                   ║</t>
+  </si>
+  <si>
+    <t>║  ├── Score Calculator (SubScores, Global, Custom Weights)                    ║</t>
+  </si>
+  <si>
+    <t>║  ├── Anti-Gaming Policy                                                      ║</t>
+  </si>
+  <si>
+    <t>║  └── Alert Entity &amp; Category Mapping                                         ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-COH-CAT-001: Categories .................. 12 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-COH-RUL-001: Rules SCOPE ................. 18 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-COH-RUL-002: Rules BUDGET ................ 16 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-COH-RUL-003: Rules TIME .................. 16 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-COH-RUL-004: Rules TECHNICAL ............. 12 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-COH-RUL-005: Rules LEGAL ................. 10 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-COH-RUL-006: Rules QUALITY ............... 8 tests                ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-COH-SCR-001: SubScores ................... 14 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-COH-SCR-002: Global Score ................ 12 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-COH-SCR-003: Custom Weights .............. 10 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-COH-GAM-001: Anti-Gaming ................. 16 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-COH-ALR-001: Alert Mapping ............... 12 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UA-COH-UC-*: Use Cases ...................... 26 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UA-SVC-COH-*: Services ...................... 14 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-INT-DB-COH-*: Integration ................... 12 tests               ║</t>
+  </si>
+  <si>
+    <t>║  └── TS-E2E-*: E2E ................................... 18 tests               ║</t>
+  </si>
+  <si>
+    <t>║      TOTAL AGENTE 6: 206 tests                                               ║</t>
+  </si>
+  <si>
+    <t>║  SPRINTS ASIGNADOS: S5-S6 (Semanas 9-12) - PRIORIDAD MÁXIMA                  ║</t>
+  </si>
+  <si>
+    <t>║  DEPENDENCIAS: Agentes 2, 3, 4, 5 (para datos de reglas)                     ║</t>
+  </si>
+  <si>
+    <t>║  DESBLOQUEA: E2E completo, Dashboard, Release                                ║</t>
+  </si>
+  <si>
+    <t>### 9.7 AGENTE 7: Stakeholders (112 tests)</t>
+  </si>
+  <si>
+    <t>║                          AGENTE 7: STAKEHOLDERS                               ║</t>
+  </si>
+  <si>
+    <t>║                          Target Coverage: 91%                                 ║</t>
+  </si>
+  <si>
+    <t>║  ├── Stakeholder Entity                                                      ║</t>
+  </si>
+  <si>
+    <t>║  ├── Power/Interest Classification                                           ║</t>
+  </si>
+  <si>
+    <t>║  ├── Quadrant Assignment                                                     ║</t>
+  </si>
+  <si>
+    <t>║  ├── RACI Entry Validation                                                   ║</t>
+  </si>
+  <si>
+    <t>║  ├── RACI Matrix Generation                                                  ║</t>
+  </si>
+  <si>
+    <t>║  ├── RACI from Clauses                                                       ║</t>
+  </si>
+  <si>
+    <t>║  └── Stakeholder Map Data                                                    ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-STK-ENT-001: Stakeholder Entity .......... 12 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-STK-CLS-001: Power/Interest .............. 14 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-STK-CLS-002: Quadrant Assignment ......... 10 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-STK-RAC-001: RACI Entry .................. 10 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-STK-RAC-002: RACI Matrix ................. 14 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-STK-RAC-003: RACI from Clauses ........... 10 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UD-STK-MAP-001: Stakeholder Map ............. 8 tests                ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UA-STK-UC-*: Use Cases ...................... 20 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-INT-*: Integration .......................... 14 tests               ║</t>
+  </si>
+  <si>
+    <t>║      TOTAL AGENTE 7: 112 tests                                               ║</t>
+  </si>
+  <si>
+    <t>║  SPRINTS ASIGNADOS: S9 (Semanas 17-18)                                       ║</t>
+  </si>
+  <si>
+    <t>║  DEPENDENCIAS: Agente 2 (Clauses para extraction)                            ║</t>
+  </si>
+  <si>
+    <t>║  DESBLOQUEA: Agente 6 (Regla R20)                                            ║</t>
+  </si>
+  <si>
+    <t>### 9.8 AGENTE 8: Async Architecture (78 tests)</t>
+  </si>
+  <si>
+    <t>║                          AGENTE 8: ASYNC ARCHITECTURE                         ║</t>
+  </si>
+  <si>
+    <t>║                          Target Coverage: 90%                                 ║</t>
+  </si>
+  <si>
+    <t>║  ├── Event Bus (Redis Pub/Sub)                                               ║</t>
+  </si>
+  <si>
+    <t>║  ├── Celery Job Queue                                                        ║</t>
+  </si>
+  <si>
+    <t>║  ├── Dead Letter Queue                                                       ║</t>
+  </si>
+  <si>
+    <t>║  └── Worker Pool Management                                                  ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-INT-EVT-BUS-001: Event Bus .................. 14 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-INT-EVT-CEL-001: Celery Jobs ................ 12 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-INT-EVT-DLQ-001: Dead Letter Queue .......... 8 tests                ║</t>
+  </si>
+  <si>
+    <t>║  ├── Event-driven workflow tests .................... 20 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── Worker scaling tests ........................... 14 tests               ║</t>
+  </si>
+  <si>
+    <t>║      TOTAL AGENTE 8: 78 tests                                                ║</t>
+  </si>
+  <si>
+    <t>║  SPRINTS ASIGNADOS: S11-S12 (Semanas 21-24)                                  ║</t>
+  </si>
+  <si>
+    <t>║  DEPENDENCIAS: Agente 1 (Redis adapters)                                     ║</t>
+  </si>
+  <si>
+    <t>║  DESBLOQUEA: Integration flows, E2E                                          ║</t>
+  </si>
+  <si>
+    <t>### 9.9 AGENTE 9: Observability (68 tests)</t>
+  </si>
+  <si>
+    <t>║                          AGENTE 9: OBSERVABILITY                              ║</t>
+  </si>
+  <si>
+    <t>║  ├── Logging (Structlog JSON)                                                ║</t>
+  </si>
+  <si>
+    <t>║  ├── Tracing (OpenTelemetry)                                                 ║</t>
+  </si>
+  <si>
+    <t>║  ├── Budget Circuit Breaker                                                  ║</t>
+  </si>
+  <si>
+    <t>║  └── AI Usage Dashboard                                                      ║</t>
+  </si>
+  <si>
+    <t>║  ├── Logging tests .................................. 16 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── Tracing tests .................................. 16 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── Budget Circuit Breaker ......................... 22 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── AI Usage Dashboard ............................. 14 tests               ║</t>
+  </si>
+  <si>
+    <t>║      TOTAL AGENTE 9: 68 tests                                                ║</t>
+  </si>
+  <si>
+    <t>║  SPRINTS ASIGNADOS: S11-S12 (paralelo con Agente 8)                          ║</t>
+  </si>
+  <si>
+    <t>║  DEPENDENCIAS: Agente 1 (LLM integration para cost tracking)                 ║</t>
+  </si>
+  <si>
+    <t>║  DESBLOQUEA: Monitoring, Alerting                                            ║</t>
+  </si>
+  <si>
+    <t>### 9.10 AGENTE 10: API Contracts (62 tests)</t>
+  </si>
+  <si>
+    <t>║                          AGENTE 10: API CONTRACTS                             ║</t>
+  </si>
+  <si>
+    <t>║                          Target Coverage: 96%                                 ║</t>
+  </si>
+  <si>
+    <t>║  ├── DTOs Validation (Pydantic)                                              ║</t>
+  </si>
+  <si>
+    <t>║  ├── Serialization/Deserialization                                           ║</t>
+  </si>
+  <si>
+    <t>║  ├── HTTP Routers                                                            ║</t>
+  </si>
+  <si>
+    <t>║  ├── Middleware (Auth, Tenant, CORS)                                         ║</t>
+  </si>
+  <si>
+    <t>║  └── Error Handlers                                                          ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UA-DTO-ALL-001: DTOs Validation ............. 24 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UA-DTO-SER-001: Serialization ............... 16 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UAD-HTTP-RTR-0: Routers ................... 32 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-UAD-HTTP-MDW--001: Middleware ................ 18 tests               ║</t>
+  </si>
+  <si>
+    <t>║  └── TS-UAD-HTTP-ERR-001: Error Handlers ............ 12 tests               ║</t>
+  </si>
+  <si>
+    <t>║      TOTAL AGENTE 10: 102 tests (ajustado)                                   ║</t>
+  </si>
+  <si>
+    <t>║  SPRINTS ASIGNADOS: S1-S2 (DTOs), S11-S12 (HTTP)                             ║</t>
+  </si>
+  <si>
+    <t>║  DEPENDENCIAS: Ninguna para DTOs                                             ║</t>
+  </si>
+  <si>
+    <t>### 9.11 AGENTE 11: Integration (184 tests)</t>
+  </si>
+  <si>
+    <t>║                          AGENTE 11: INTEGRATION                               ║</t>
+  </si>
+  <si>
+    <t>╠═══════════01════════════════════════════════════════════════════════════════════╣</t>
+  </si>
+  <si>
+    <t>║  ├── WBS → Procurement Integration                                           ║</t>
+  </si>
+  <si>
+    <t>║  ├── Documents → Analysis Integration                                        ║</t>
+  </si>
+  <si>
+    <t>║  ├── Analysis → Coherence Integration                                        ║</t>
+  </si>
+  <si>
+    <t>║  ├── Stakeholders → RACI Integration                                         ║</t>
+  </si>
+  <si>
+    <t>║  ├── LLM Client Integration (Primary + Fallback)                             ║</t>
+  </si>
+  <si>
+    <t>║  └── All Database Integration                                                ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-INT-MOD-WBS-001: WBS → Procurement .......... 12 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-INT-MOD-DOC-001: Documents → Analysis ....... 10 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-INT-MOD-ANA-001: Analysis → Coherence ....... 12 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-INT-MOD-STK-001: Stakeholders → RACI ........ 8 tests                ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-INT-EXT-LLM-*: LLM Integration .............. 24 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-INT-DB-*: All DB Integration ................ 70 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-INT-GRP-NEO-001: Neo4j ...................... 14 tests               ║</t>
+  </si>
+  <si>
+    <t>║  └── Remaining integration .......................... 34 tests               ║</t>
+  </si>
+  <si>
+    <t>║      TOTAL AGENTE 11: 184 tests                                              ║</t>
+  </si>
+  <si>
+    <t>║  DEPENDENCIAS: Todos los módulos de dominio                                  ║</t>
+  </si>
+  <si>
+    <t>║  DESBLOQUEA: E2E                                                             ║</t>
+  </si>
+  <si>
+    <t>### 9.12 AGENTE 12: QA/E2E (78 tests)</t>
+  </si>
+  <si>
+    <t>║                          AGENTE 12: QA/E2E                                    ║</t>
+  </si>
+  <si>
+    <t>║                          Target Coverage: 83%                                 ║</t>
+  </si>
+  <si>
+    <t>║  ├── Document Upload to Coherence E2E                                        ║</t>
+  </si>
+  <si>
+    <t>║  ├── Alert Review Workflow E2E                                               ║</t>
+  </si>
+  <si>
+    <t>║  ├── Bulk Operations E2E                                                     ║</t>
+  </si>
+  <si>
+    <t>║  ├── Multi-tenant Isolation E2E                                              ║</t>
+  </si>
+  <si>
+    <t>║  ├── MCP Gateway E2E                                                         ║</t>
+  </si>
+  <si>
+    <t>║  ├── Error Scenarios (Timeout, Concurrent, Recovery)                         ║</t>
+  </si>
+  <si>
+    <t>║  └── Performance Tests                                                       ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-E2E-FLW-DOC-001: Document Flow .............. 12 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-E2E-FLW-ALR-001: Alert Flow ................. 10 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-E2E-FLW-BLK-001: Bulk Operations ............ 8 tests                ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-E2E-SEC-TNT-001: Tenant Isolation ........... 10 tests               ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-E2E-SEC-MCP-001: MCP Gateway ................ 8 tests                ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-E2E-ERR-TIM-001: Timeouts ................... 8 tests                ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-E2E-ERR-CON-001: Concurrent ................. 8 tests                ║</t>
+  </si>
+  <si>
+    <t>║  ├── TS-E2E-ERR-REC-001: Recovery ................... 8 tests                ║</t>
+  </si>
+  <si>
+    <t>║  └── TS-E2E-PER-LRG-001: Performance ................ 6 tests                ║</t>
+  </si>
+  <si>
+    <t>║      TOTAL AGENTE 12: 78 tests                                               ║</t>
+  </si>
+  <si>
+    <t>║  SPRINTS ASIGNADOS: S13-S14 (Semanas 25-28)                                  ║</t>
+  </si>
+  <si>
+    <t>║  DEPENDENCIAS: Todos los módulos + Integration                               ║</t>
+  </si>
+  <si>
+    <t>║  DESBLOQUEA: Release                                                         ║</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>## 10. Dependencias y Orden de Implementación</t>
+  </si>
+  <si>
+    <t>### 10.1 Grafo de Dependencias Completo</t>
+  </si>
+  <si>
+    <t>                              ┌─────────────────┐</t>
+  </si>
+  <si>
+    <t>                              │   NIVEL 0       │</t>
+  </si>
+  <si>
+    <t>                              │  (Sin deps)     │</t>
+  </si>
+  <si>
+    <t>                              └────────┬────────┘</t>
+  </si>
+  <si>
+    <t>                                       │</t>
+  </si>
+  <si>
+    <t>              ┌────────────────────────┼────────────────────────┐</t>
+  </si>
+  <si>
+    <t>              │                        │                        │</t>
+  </si>
+  <si>
+    <t>              ▼                        ▼                        ▼</t>
+  </si>
+  <si>
+    <t>     ┌─────────────────┐     ┌─────────────────┐     ┌─────────────────┐</t>
+  </si>
+  <si>
+    <t>     │   AGENTE 1      │     │   AGENTE 10     │     │   AGENTE 8      │</t>
+  </si>
+  <si>
+    <t>     │ Security Core   │     │ DTOs (parte 1)  │     │ Event Bus       │</t>
+  </si>
+  <si>
+    <t>     │   156 tests     │     │   40 tests      │     │   34 tests      │</t>
+  </si>
+  <si>
+    <t>     └────────┬────────┘     └────────┬────────┘     └────────┬────────┘</t>
+  </si>
+  <si>
+    <t>              └────────────────────────┼────────────────────────┘</t>
+  </si>
+  <si>
+    <t>                              ┌────────┴────────┐</t>
+  </si>
+  <si>
+    <t>                              │    NIVEL 1      │</t>
+  </si>
+  <si>
+    <t>                              │    AGENTE 2     │</t>
+  </si>
+  <si>
+    <t>                              │   Documents     │</t>
+  </si>
+  <si>
+    <t>                              │   162 tests     │</t>
+  </si>
+  <si>
+    <t>     │   AGENTE 3      │     │   AGENTE 5      │     │   AGENTE 7      │</t>
+  </si>
+  <si>
+    <t>     │   Projects      │     │   Analysis      │     │  Stakeholders   │</t>
+  </si>
+  <si>
+    <t>     │   116 tests     │     │   78 tests      │     │   112 tests     │</t>
+  </si>
+  <si>
+    <t>              ▼                        │                        │</t>
+  </si>
+  <si>
+    <t>     ┌─────────────────┐               │                        │</t>
+  </si>
+  <si>
+    <t>     │   AGENTE 4      │               │                        │</t>
+  </si>
+  <si>
+    <t>     │  Procurement    │               │                        │</t>
+  </si>
+  <si>
+    <t>     │   116 tests     │               │                        │</t>
+  </si>
+  <si>
+    <t>     └────────┬────────┘               │                        │</t>
+  </si>
+  <si>
+    <t>                              │    NIVEL 3      │</t>
+  </si>
+  <si>
+    <t>                              │   AGENTE 6      │</t>
+  </si>
+  <si>
+    <t>                              │   Coherence     │</t>
+  </si>
+  <si>
+    <t>                              │   206 tests     │</t>
+  </si>
+  <si>
+    <t>                              │   (CRÍTICO)     │</t>
+  </si>
+  <si>
+    <t>     │   AGENTE 9      │     │   AGENTE 10     │     │   AGENTE 11     │</t>
+  </si>
+  <si>
+    <t>     │ Observability   │     │ HTTP Adapters   │     │  Integration    │</t>
+  </si>
+  <si>
+    <t>     │   68 tests      │     │   62 tests      │     │   184 tests     │</t>
+  </si>
+  <si>
+    <t>                              │    NIVEL 5      │</t>
+  </si>
+  <si>
+    <t>                              │   AGENTE 12     │</t>
+  </si>
+  <si>
+    <t>                              │     E2E         │</t>
+  </si>
+  <si>
+    <t>                              │   78 tests      │</t>
+  </si>
+  <si>
+    <t>                              └─────────────────┘</t>
+  </si>
+  <si>
+    <t>### 10.2 Orden Crítico de Ejecución</t>
+  </si>
+  <si>
+    <t>| Orden | Agente | Tests | Sprint | Bloquea | Crítico |</t>
+  </si>
+  <si>
+    <t>| 14 | Agente 12 (E2E) | 78 | S13-S14 | Release | ✅</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3271,8 +4222,19 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3306,6 +4268,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3383,7 +4363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3442,6 +4422,47 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3748,23 +4769,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L114"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="19.149999999999999" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="62.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.149999999999999" customHeight="1">
+    <row r="1" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3802,7 +4823,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.149999999999999" customHeight="1">
+    <row r="2" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3836,8 +4857,12 @@
       <c r="K2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M2" t="str">
+        <f>VLOOKUP(B2,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3871,8 +4896,12 @@
       <c r="K3" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M3" t="str">
+        <f>VLOOKUP(B3,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3906,8 +4935,12 @@
       <c r="K4" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M4" t="str">
+        <f>VLOOKUP(B4,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3941,8 +4974,15 @@
       <c r="K5" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="L5" t="s">
+        <v>404</v>
+      </c>
+      <c r="M5" t="e">
+        <f>VLOOKUP(B5,'Unit Test'!A:J,10,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3976,8 +5016,12 @@
       <c r="K6" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M6" t="str">
+        <f>VLOOKUP(B6,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -4011,8 +5055,12 @@
       <c r="K7" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M7" t="str">
+        <f>VLOOKUP(B7,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -4046,8 +5094,12 @@
       <c r="K8" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M8" t="str">
+        <f>VLOOKUP(B8,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -4081,8 +5133,12 @@
       <c r="K9" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M9" t="str">
+        <f>VLOOKUP(B9,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -4116,8 +5172,15 @@
       <c r="K10" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="L10" t="s">
+        <v>404</v>
+      </c>
+      <c r="M10">
+        <f>VLOOKUP(B10,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -4151,8 +5214,15 @@
       <c r="K11" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="L11" t="s">
+        <v>404</v>
+      </c>
+      <c r="M11">
+        <f>VLOOKUP(B11,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -4186,8 +5256,12 @@
       <c r="K12" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M12" t="str">
+        <f>VLOOKUP(B12,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -4221,12 +5295,16 @@
       <c r="K13" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M13" t="str">
+        <f>VLOOKUP(B13,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="21" t="s">
         <v>131</v>
       </c>
       <c r="C14" t="s">
@@ -4253,8 +5331,12 @@
       <c r="K14" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M14">
+        <f>VLOOKUP(B14,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -4285,8 +5367,12 @@
       <c r="K15" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M15">
+        <f>VLOOKUP(B15,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -4320,8 +5406,12 @@
       <c r="K16" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M16" t="str">
+        <f>VLOOKUP(B16,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -4352,8 +5442,12 @@
       <c r="K17" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M17" t="str">
+        <f>VLOOKUP(B17,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -4381,8 +5475,12 @@
       <c r="I18" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M18" t="str">
+        <f>VLOOKUP(B18,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -4410,8 +5508,12 @@
       <c r="I19" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M19" t="str">
+        <f>VLOOKUP(B19,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -4439,8 +5541,12 @@
       <c r="I20" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M20" t="str">
+        <f>VLOOKUP(B20,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -4468,8 +5574,12 @@
       <c r="I21" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M21" t="str">
+        <f>VLOOKUP(B21,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -4497,8 +5607,12 @@
       <c r="I22" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M22" t="str">
+        <f>VLOOKUP(B22,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -4532,8 +5646,12 @@
       <c r="K23" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M23" t="str">
+        <f>VLOOKUP(B23,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -4564,8 +5682,12 @@
       <c r="K24" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M24" t="str">
+        <f>VLOOKUP(B24,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -4593,8 +5715,12 @@
       <c r="I25" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M25" t="str">
+        <f>VLOOKUP(B25,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -4622,8 +5748,12 @@
       <c r="I26" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M26" t="str">
+        <f>VLOOKUP(B26,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -4651,8 +5781,12 @@
       <c r="I27" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M27" t="str">
+        <f>VLOOKUP(B27,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -4686,8 +5820,12 @@
       <c r="K28" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M28" t="str">
+        <f>VLOOKUP(B28,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -4715,8 +5853,12 @@
       <c r="I29" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M29" t="str">
+        <f>VLOOKUP(B29,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -4744,8 +5886,12 @@
       <c r="I30" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M30" t="str">
+        <f>VLOOKUP(B30,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -4773,8 +5919,12 @@
       <c r="I31" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M31" t="str">
+        <f>VLOOKUP(B31,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -4802,8 +5952,12 @@
       <c r="I32" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M32" t="str">
+        <f>VLOOKUP(B32,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -4831,8 +5985,12 @@
       <c r="I33" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M33" t="str">
+        <f>VLOOKUP(B33,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -4863,8 +6021,12 @@
       <c r="J34" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M34" t="str">
+        <f>VLOOKUP(B34,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -4895,8 +6057,12 @@
       <c r="K35" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M35" t="str">
+        <f>VLOOKUP(B35,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -4927,8 +6093,12 @@
       <c r="K36" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M36" t="str">
+        <f>VLOOKUP(B36,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -4959,8 +6129,12 @@
       <c r="K37" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M37" t="str">
+        <f>VLOOKUP(B37,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -4991,8 +6165,12 @@
       <c r="K38" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M38" t="str">
+        <f>VLOOKUP(B38,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -5026,8 +6204,12 @@
       <c r="K39" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M39" t="str">
+        <f>VLOOKUP(B39,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -5055,8 +6237,12 @@
       <c r="I40" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M40" t="str">
+        <f>VLOOKUP(B40,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -5084,8 +6270,12 @@
       <c r="I41" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M41" t="str">
+        <f>VLOOKUP(B41,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -5113,8 +6303,12 @@
       <c r="I42" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M42" t="str">
+        <f>VLOOKUP(B42,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -5142,8 +6336,12 @@
       <c r="I43" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M43" t="str">
+        <f>VLOOKUP(B43,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -5171,8 +6369,12 @@
       <c r="I44" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M44" t="str">
+        <f>VLOOKUP(B44,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -5200,8 +6402,12 @@
       <c r="I45" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M45" t="str">
+        <f>VLOOKUP(B45,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -5229,8 +6435,12 @@
       <c r="I46" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M46" t="str">
+        <f>VLOOKUP(B46,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -5264,8 +6474,12 @@
       <c r="K47" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M47" t="str">
+        <f>VLOOKUP(B47,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -5293,8 +6507,12 @@
       <c r="I48" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="19.149999999999999" customHeight="1">
+      <c r="M48" t="str">
+        <f>VLOOKUP(B48,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -5322,8 +6540,12 @@
       <c r="I49" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="19.149999999999999" customHeight="1">
+      <c r="M49" t="str">
+        <f>VLOOKUP(B49,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -5351,8 +6573,12 @@
       <c r="I50" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="19.149999999999999" customHeight="1">
+      <c r="M50">
+        <f>VLOOKUP(B50,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -5380,8 +6606,12 @@
       <c r="I51" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="19.149999999999999" customHeight="1">
+      <c r="M51">
+        <f>VLOOKUP(B51,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -5409,8 +6639,12 @@
       <c r="I52" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="19.149999999999999" customHeight="1">
+      <c r="M52">
+        <f>VLOOKUP(B52,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -5438,8 +6672,12 @@
       <c r="I53" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="19.149999999999999" customHeight="1">
+      <c r="M53">
+        <f>VLOOKUP(B53,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -5467,8 +6705,12 @@
       <c r="I54" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="19.149999999999999" customHeight="1">
+      <c r="M54">
+        <f>VLOOKUP(B54,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -5496,8 +6738,12 @@
       <c r="I55" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="19.149999999999999" customHeight="1">
+      <c r="M55">
+        <f>VLOOKUP(B55,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -5525,8 +6771,12 @@
       <c r="I56" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="19.149999999999999" customHeight="1">
+      <c r="M56">
+        <f>VLOOKUP(B56,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -5554,8 +6804,12 @@
       <c r="I57" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="19.149999999999999" customHeight="1">
+      <c r="M57">
+        <f>VLOOKUP(B57,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -5583,8 +6837,12 @@
       <c r="I58" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="19.149999999999999" customHeight="1">
+      <c r="M58">
+        <f>VLOOKUP(B58,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -5612,8 +6870,12 @@
       <c r="I59" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="19.149999999999999" customHeight="1">
+      <c r="M59">
+        <f>VLOOKUP(B59,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -5641,8 +6903,12 @@
       <c r="I60" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="19.149999999999999" customHeight="1">
+      <c r="M60">
+        <f>VLOOKUP(B60,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -5670,8 +6936,12 @@
       <c r="I61" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="19.149999999999999" customHeight="1">
+      <c r="M61">
+        <f>VLOOKUP(B61,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -5699,8 +6969,12 @@
       <c r="I62" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="19.149999999999999" customHeight="1">
+      <c r="M62">
+        <f>VLOOKUP(B62,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -5728,8 +7002,12 @@
       <c r="I63" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="19.149999999999999" customHeight="1">
+      <c r="M63">
+        <f>VLOOKUP(B63,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -5757,8 +7035,12 @@
       <c r="I64" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M64" t="str">
+        <f>VLOOKUP(B64,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -5786,8 +7068,12 @@
       <c r="I65" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M65" t="str">
+        <f>VLOOKUP(B65,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -5815,8 +7101,12 @@
       <c r="I66" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M66">
+        <f>VLOOKUP(B66,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -5844,8 +7134,12 @@
       <c r="I67" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M67">
+        <f>VLOOKUP(B67,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -5873,8 +7167,12 @@
       <c r="I68" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M68">
+        <f>VLOOKUP(B68,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -5902,8 +7200,12 @@
       <c r="I69" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M69">
+        <f>VLOOKUP(B69,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -5931,8 +7233,12 @@
       <c r="I70" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M70">
+        <f>VLOOKUP(B70,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -5960,8 +7266,12 @@
       <c r="I71" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M71">
+        <f>VLOOKUP(B71,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -5995,8 +7305,15 @@
       <c r="K72" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="L72" t="s">
+        <v>404</v>
+      </c>
+      <c r="M72">
+        <f>VLOOKUP(B72,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -6030,8 +7347,12 @@
       <c r="K73" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M73">
+        <f>VLOOKUP(B73,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -6065,8 +7386,12 @@
       <c r="K74" s="2" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M74">
+        <f>VLOOKUP(B74,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -6097,8 +7422,12 @@
       <c r="J75" s="2" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M75">
+        <f>VLOOKUP(B75,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -6126,8 +7455,12 @@
       <c r="I76" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M76">
+        <f>VLOOKUP(B76,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -6161,8 +7494,12 @@
       <c r="K77" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M77">
+        <f>VLOOKUP(B77,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -6196,8 +7533,12 @@
       <c r="K78" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M78">
+        <f>VLOOKUP(B78,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -6231,8 +7572,12 @@
       <c r="K79" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M79">
+        <f>VLOOKUP(B79,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -6263,8 +7608,12 @@
       <c r="K80" s="2" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M80">
+        <f>VLOOKUP(B80,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -6295,8 +7644,12 @@
       <c r="K81" s="2" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M81">
+        <f>VLOOKUP(B81,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -6324,8 +7677,12 @@
       <c r="I82" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M82">
+        <f>VLOOKUP(B82,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -6362,8 +7719,12 @@
       <c r="L83" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M83">
+        <f>VLOOKUP(B83,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A84" t="s">
         <v>102</v>
       </c>
@@ -6391,8 +7752,12 @@
       <c r="I84" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M84">
+        <f>VLOOKUP(B84,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -6423,8 +7788,12 @@
       <c r="K85" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M85" t="str">
+        <f>VLOOKUP(B85,'Unit Test'!A:J,10,FALSE)</f>
+        <v>CODEX</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -6458,8 +7827,12 @@
       <c r="L86" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M86">
+        <f>VLOOKUP(B86,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -6487,8 +7860,12 @@
       <c r="I87" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M87">
+        <f>VLOOKUP(B87,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -6516,8 +7893,12 @@
       <c r="I88" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M88">
+        <f>VLOOKUP(B88,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -6545,8 +7926,12 @@
       <c r="I89" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M89">
+        <f>VLOOKUP(B89,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -6580,8 +7965,12 @@
       <c r="K90" s="2" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M90" t="str">
+        <f>VLOOKUP(B90,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -6612,8 +8001,12 @@
       <c r="K91" s="2" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M91" t="str">
+        <f>VLOOKUP(B91,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -6644,8 +8037,12 @@
       <c r="K92" s="2" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M92" t="str">
+        <f>VLOOKUP(B92,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -6673,8 +8070,12 @@
       <c r="I93" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M93">
+        <f>VLOOKUP(B93,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -6705,8 +8106,12 @@
       <c r="K94" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M94">
+        <f>VLOOKUP(B94,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -6740,8 +8145,12 @@
       <c r="K95" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M95">
+        <f>VLOOKUP(B95,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A96" t="s">
         <v>90</v>
       </c>
@@ -6769,8 +8178,12 @@
       <c r="I96" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M96">
+        <f>VLOOKUP(B96,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A97" t="s">
         <v>85</v>
       </c>
@@ -6804,8 +8217,12 @@
       <c r="L97" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M97" t="str">
+        <f>VLOOKUP(B97,'Unit Test'!A:J,10,FALSE)</f>
+        <v>CODEX</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A98" t="s">
         <v>86</v>
       </c>
@@ -6836,8 +8253,12 @@
       <c r="L98" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M98" t="str">
+        <f>VLOOKUP(B98,'Unit Test'!A:J,10,FALSE)</f>
+        <v>CODEX</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -6868,8 +8289,12 @@
       <c r="K99" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M99">
+        <f>VLOOKUP(B99,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -6900,8 +8325,12 @@
       <c r="J100" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M100">
+        <f>VLOOKUP(B100,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -6929,8 +8358,12 @@
       <c r="I101" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M101">
+        <f>VLOOKUP(B101,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -6961,8 +8394,12 @@
       <c r="J102" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M102">
+        <f>VLOOKUP(B102,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -6999,8 +8436,12 @@
       <c r="L103" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M103" t="str">
+        <f>VLOOKUP(B103,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -7028,8 +8469,15 @@
       <c r="I104" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="L104" t="s">
+        <v>404</v>
+      </c>
+      <c r="M104" t="str">
+        <f>VLOOKUP(B104,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -7057,8 +8505,15 @@
       <c r="I105" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="L105" t="s">
+        <v>404</v>
+      </c>
+      <c r="M105" t="str">
+        <f>VLOOKUP(B105,'Unit Test'!A:J,10,FALSE)</f>
+        <v>codex</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A106" t="s">
         <v>110</v>
       </c>
@@ -7089,8 +8544,12 @@
       <c r="K106" s="2" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M106">
+        <f>VLOOKUP(B106,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A107" t="s">
         <v>111</v>
       </c>
@@ -7124,8 +8583,12 @@
       <c r="L107" s="14" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M107">
+        <f>VLOOKUP(B107,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -7156,8 +8619,12 @@
       <c r="K108" s="2" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M108">
+        <f>VLOOKUP(B108,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -7191,8 +8658,12 @@
       <c r="K109" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M109" t="str">
+        <f>VLOOKUP(B109,'Unit Test'!A:J,10,FALSE)</f>
+        <v>claude</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -7226,8 +8697,12 @@
       <c r="K110" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M110">
+        <f>VLOOKUP(B110,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -7261,8 +8736,12 @@
       <c r="K111" s="2" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" ht="19.149999999999999" customHeight="1">
+      <c r="M111">
+        <f>VLOOKUP(B111,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -7290,8 +8769,12 @@
       <c r="I112" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M112">
+        <f>VLOOKUP(B112,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -7319,8 +8802,12 @@
       <c r="I113" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="M113">
+        <f>VLOOKUP(B113,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -7350,6 +8837,10 @@
       </c>
       <c r="K114" s="2" t="s">
         <v>808</v>
+      </c>
+      <c r="M114">
+        <f>VLOOKUP(B114,'Unit Test'!A:J,10,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7400,9 +8891,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FEA767-FEF3-4D23-9143-13AEAC680DA5}">
   <dimension ref="A1:Q404"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A332" sqref="A332"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A380" sqref="A380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7412,8 +8903,9 @@
     <col min="3" max="3" width="29.140625" customWidth="1"/>
     <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" customWidth="1"/>
-    <col min="9" max="9" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="39.5703125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="39.5703125" customWidth="1"/>
     <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -17077,6 +18569,9 @@
       <c r="D333" s="6"/>
       <c r="E333" s="7"/>
       <c r="F333" s="5"/>
+      <c r="J333" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="334" spans="1:11" ht="16.5" thickBot="1">
       <c r="A334" s="6" t="s">
@@ -17091,6 +18586,9 @@
       <c r="D334" s="6"/>
       <c r="E334" s="7"/>
       <c r="F334" s="5"/>
+      <c r="J334" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="335" spans="1:11" ht="31.5" thickBot="1">
       <c r="A335" s="6" t="s">
@@ -17105,6 +18603,9 @@
       <c r="D335" s="6"/>
       <c r="E335" s="7"/>
       <c r="F335" s="5"/>
+      <c r="J335" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="336" spans="1:11" ht="31.5" thickBot="1">
       <c r="A336" s="6" t="s">
@@ -17119,8 +18620,11 @@
       <c r="D336" s="6"/>
       <c r="E336" s="7"/>
       <c r="F336" s="5"/>
-    </row>
-    <row r="337" spans="1:6" ht="31.5" thickBot="1">
+      <c r="J336" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" ht="31.5" thickBot="1">
       <c r="A337" s="6" t="s">
         <v>166</v>
       </c>
@@ -17133,8 +18637,11 @@
       <c r="D337" s="6"/>
       <c r="E337" s="7"/>
       <c r="F337" s="5"/>
-    </row>
-    <row r="338" spans="1:6" ht="31.5" thickBot="1">
+      <c r="J337" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" ht="31.5" thickBot="1">
       <c r="A338" s="6" t="s">
         <v>167</v>
       </c>
@@ -17148,7 +18655,7 @@
       <c r="E338" s="7"/>
       <c r="F338" s="5"/>
     </row>
-    <row r="339" spans="1:6" ht="31.5" thickBot="1">
+    <row r="339" spans="1:10" ht="31.5" thickBot="1">
       <c r="A339" s="6" t="s">
         <v>168</v>
       </c>
@@ -17162,7 +18669,7 @@
       <c r="E339" s="7"/>
       <c r="F339" s="5"/>
     </row>
-    <row r="340" spans="1:6" ht="31.5" thickBot="1">
+    <row r="340" spans="1:10" ht="31.5" thickBot="1">
       <c r="A340" s="6" t="s">
         <v>169</v>
       </c>
@@ -17176,7 +18683,7 @@
       <c r="E340" s="7"/>
       <c r="F340" s="5"/>
     </row>
-    <row r="341" spans="1:6" ht="31.5" thickBot="1">
+    <row r="341" spans="1:10" ht="31.5" thickBot="1">
       <c r="A341" s="6" t="s">
         <v>170</v>
       </c>
@@ -17190,7 +18697,7 @@
       <c r="E341" s="7"/>
       <c r="F341" s="5"/>
     </row>
-    <row r="342" spans="1:6" ht="16.5" thickBot="1">
+    <row r="342" spans="1:10" ht="16.5" thickBot="1">
       <c r="A342" s="6" t="s">
         <v>171</v>
       </c>
@@ -17204,7 +18711,7 @@
       <c r="E342" s="7"/>
       <c r="F342" s="5"/>
     </row>
-    <row r="343" spans="1:6" ht="16.5" thickBot="1">
+    <row r="343" spans="1:10" ht="16.5" thickBot="1">
       <c r="A343" s="6" t="s">
         <v>172</v>
       </c>
@@ -17218,7 +18725,7 @@
       <c r="E343" s="7"/>
       <c r="F343" s="5"/>
     </row>
-    <row r="344" spans="1:6" ht="16.5" thickBot="1">
+    <row r="344" spans="1:10" ht="16.5" thickBot="1">
       <c r="A344" s="6" t="s">
         <v>173</v>
       </c>
@@ -17232,7 +18739,7 @@
       <c r="E344" s="7"/>
       <c r="F344" s="5"/>
     </row>
-    <row r="345" spans="1:6" ht="16.5" thickBot="1">
+    <row r="345" spans="1:10" ht="16.5" thickBot="1">
       <c r="A345" s="6" t="s">
         <v>174</v>
       </c>
@@ -17246,7 +18753,7 @@
       <c r="E345" s="7"/>
       <c r="F345" s="5"/>
     </row>
-    <row r="346" spans="1:6" ht="16.5" thickBot="1">
+    <row r="346" spans="1:10" ht="16.5" thickBot="1">
       <c r="A346" s="6" t="s">
         <v>175</v>
       </c>
@@ -17260,7 +18767,7 @@
       <c r="E346" s="7"/>
       <c r="F346" s="5"/>
     </row>
-    <row r="347" spans="1:6" ht="31.5" thickBot="1">
+    <row r="347" spans="1:10" ht="31.5" thickBot="1">
       <c r="A347" s="6" t="s">
         <v>176</v>
       </c>
@@ -17274,7 +18781,7 @@
       <c r="E347" s="7"/>
       <c r="F347" s="5"/>
     </row>
-    <row r="348" spans="1:6" ht="31.5" thickBot="1">
+    <row r="348" spans="1:10" ht="31.5" thickBot="1">
       <c r="A348" s="6" t="s">
         <v>177</v>
       </c>
@@ -17288,7 +18795,7 @@
       <c r="E348" s="7"/>
       <c r="F348" s="5"/>
     </row>
-    <row r="349" spans="1:6" ht="31.5" thickBot="1">
+    <row r="349" spans="1:10" ht="31.5" thickBot="1">
       <c r="A349" s="6" t="s">
         <v>178</v>
       </c>
@@ -17302,7 +18809,7 @@
       <c r="E349" s="7"/>
       <c r="F349" s="5"/>
     </row>
-    <row r="350" spans="1:6" ht="31.5" thickBot="1">
+    <row r="350" spans="1:10" ht="31.5" thickBot="1">
       <c r="A350" s="6" t="s">
         <v>179</v>
       </c>
@@ -17316,7 +18823,7 @@
       <c r="E350" s="7"/>
       <c r="F350" s="5"/>
     </row>
-    <row r="351" spans="1:6" ht="31.5" thickBot="1">
+    <row r="351" spans="1:10" ht="31.5" thickBot="1">
       <c r="A351" s="6" t="s">
         <v>180</v>
       </c>
@@ -17330,35 +18837,47 @@
       <c r="E351" s="7"/>
       <c r="F351" s="5"/>
     </row>
-    <row r="352" spans="1:6" ht="31.5" thickBot="1">
-      <c r="A352" s="6" t="s">
+    <row r="352" spans="1:10" ht="31.5" thickBot="1">
+      <c r="A352" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B352" s="6" t="s">
+      <c r="B352" s="33" t="s">
         <v>753</v>
       </c>
-      <c r="C352" s="6" t="s">
+      <c r="C352" s="33" t="s">
         <v>526</v>
       </c>
-      <c r="D352" s="6"/>
-      <c r="E352" s="7"/>
-      <c r="F352" s="5"/>
-    </row>
-    <row r="353" spans="1:6" ht="31.5" thickBot="1">
-      <c r="A353" s="6" t="s">
+      <c r="D352" s="33"/>
+      <c r="E352" s="34"/>
+      <c r="F352" s="35"/>
+      <c r="G352" s="36"/>
+      <c r="H352" s="36"/>
+      <c r="I352" s="36"/>
+      <c r="J352" s="36" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" ht="31.5" thickBot="1">
+      <c r="A353" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="B353" s="6" t="s">
+      <c r="B353" s="33" t="s">
         <v>753</v>
       </c>
-      <c r="C353" s="6" t="s">
+      <c r="C353" s="33" t="s">
         <v>526</v>
       </c>
-      <c r="D353" s="6"/>
-      <c r="E353" s="7"/>
-      <c r="F353" s="5"/>
-    </row>
-    <row r="354" spans="1:6" ht="31.5" thickBot="1">
+      <c r="D353" s="33"/>
+      <c r="E353" s="34"/>
+      <c r="F353" s="35"/>
+      <c r="G353" s="36"/>
+      <c r="H353" s="36"/>
+      <c r="I353" s="36"/>
+      <c r="J353" s="36" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" ht="31.5" thickBot="1">
       <c r="A354" s="6" t="s">
         <v>183</v>
       </c>
@@ -17372,7 +18891,7 @@
       <c r="E354" s="7"/>
       <c r="F354" s="5"/>
     </row>
-    <row r="355" spans="1:6" ht="31.5" thickBot="1">
+    <row r="355" spans="1:10" ht="31.5" thickBot="1">
       <c r="A355" s="6" t="s">
         <v>184</v>
       </c>
@@ -17386,7 +18905,7 @@
       <c r="E355" s="7"/>
       <c r="F355" s="5"/>
     </row>
-    <row r="356" spans="1:6" ht="31.5" thickBot="1">
+    <row r="356" spans="1:10" ht="31.5" thickBot="1">
       <c r="A356" s="6" t="s">
         <v>185</v>
       </c>
@@ -17400,7 +18919,7 @@
       <c r="E356" s="7"/>
       <c r="F356" s="5"/>
     </row>
-    <row r="357" spans="1:6" ht="31.5" thickBot="1">
+    <row r="357" spans="1:10" ht="31.5" thickBot="1">
       <c r="A357" s="6" t="s">
         <v>186</v>
       </c>
@@ -17414,7 +18933,7 @@
       <c r="E357" s="7"/>
       <c r="F357" s="5"/>
     </row>
-    <row r="358" spans="1:6" ht="31.5" thickBot="1">
+    <row r="358" spans="1:10" ht="31.5" thickBot="1">
       <c r="A358" s="6" t="s">
         <v>187</v>
       </c>
@@ -17428,7 +18947,7 @@
       <c r="E358" s="7"/>
       <c r="F358" s="5"/>
     </row>
-    <row r="359" spans="1:6" ht="31.5" thickBot="1">
+    <row r="359" spans="1:10" ht="31.5" thickBot="1">
       <c r="A359" s="6" t="s">
         <v>188</v>
       </c>
@@ -17442,7 +18961,7 @@
       <c r="E359" s="7"/>
       <c r="F359" s="5"/>
     </row>
-    <row r="360" spans="1:6" ht="31.5" thickBot="1">
+    <row r="360" spans="1:10" ht="31.5" thickBot="1">
       <c r="A360" s="6" t="s">
         <v>189</v>
       </c>
@@ -17456,7 +18975,7 @@
       <c r="E360" s="7"/>
       <c r="F360" s="5"/>
     </row>
-    <row r="361" spans="1:6" ht="31.5" thickBot="1">
+    <row r="361" spans="1:10" ht="31.5" thickBot="1">
       <c r="A361" s="6" t="s">
         <v>190</v>
       </c>
@@ -17470,7 +18989,7 @@
       <c r="E361" s="7"/>
       <c r="F361" s="5"/>
     </row>
-    <row r="362" spans="1:6" ht="16.5" thickBot="1">
+    <row r="362" spans="1:10" ht="16.5" thickBot="1">
       <c r="A362" s="6" t="s">
         <v>191</v>
       </c>
@@ -17484,7 +19003,7 @@
       <c r="E362" s="7"/>
       <c r="F362" s="5"/>
     </row>
-    <row r="363" spans="1:6" ht="16.5" thickBot="1">
+    <row r="363" spans="1:10" ht="16.5" thickBot="1">
       <c r="A363" s="6" t="s">
         <v>192</v>
       </c>
@@ -17498,7 +19017,7 @@
       <c r="E363" s="7"/>
       <c r="F363" s="5"/>
     </row>
-    <row r="364" spans="1:6" ht="16.5" thickBot="1">
+    <row r="364" spans="1:10" ht="16.5" thickBot="1">
       <c r="A364" s="6" t="s">
         <v>193</v>
       </c>
@@ -17512,7 +19031,7 @@
       <c r="E364" s="7"/>
       <c r="F364" s="5"/>
     </row>
-    <row r="365" spans="1:6" ht="16.5" thickBot="1">
+    <row r="365" spans="1:10" ht="16.5" thickBot="1">
       <c r="A365" s="6" t="s">
         <v>194</v>
       </c>
@@ -17526,7 +19045,7 @@
       <c r="E365" s="7"/>
       <c r="F365" s="5"/>
     </row>
-    <row r="366" spans="1:6" ht="16.5" thickBot="1">
+    <row r="366" spans="1:10" ht="16.5" thickBot="1">
       <c r="A366" s="6" t="s">
         <v>195</v>
       </c>
@@ -17540,7 +19059,7 @@
       <c r="E366" s="7"/>
       <c r="F366" s="5"/>
     </row>
-    <row r="367" spans="1:6" ht="16.5" thickBot="1">
+    <row r="367" spans="1:10" ht="16.5" thickBot="1">
       <c r="A367" s="6" t="s">
         <v>196</v>
       </c>
@@ -17554,7 +19073,7 @@
       <c r="E367" s="7"/>
       <c r="F367" s="5"/>
     </row>
-    <row r="368" spans="1:6" ht="16.5" thickBot="1">
+    <row r="368" spans="1:10" ht="16.5" thickBot="1">
       <c r="A368" s="6" t="s">
         <v>197</v>
       </c>
@@ -17568,7 +19087,7 @@
       <c r="E368" s="7"/>
       <c r="F368" s="5"/>
     </row>
-    <row r="369" spans="1:6" ht="16.5" thickBot="1">
+    <row r="369" spans="1:10" ht="16.5" thickBot="1">
       <c r="A369" s="6" t="s">
         <v>198</v>
       </c>
@@ -17581,8 +19100,11 @@
       <c r="D369" s="6"/>
       <c r="E369" s="7"/>
       <c r="F369" s="5"/>
-    </row>
-    <row r="370" spans="1:6" ht="16.5" thickBot="1">
+      <c r="J369" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" ht="16.5" thickBot="1">
       <c r="A370" s="6" t="s">
         <v>199</v>
       </c>
@@ -17595,8 +19117,11 @@
       <c r="D370" s="6"/>
       <c r="E370" s="7"/>
       <c r="F370" s="5"/>
-    </row>
-    <row r="371" spans="1:6" ht="16.5" thickBot="1">
+      <c r="J370" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" ht="16.5" thickBot="1">
       <c r="A371" s="6" t="s">
         <v>200</v>
       </c>
@@ -17610,7 +19135,7 @@
       <c r="E371" s="7"/>
       <c r="F371" s="5"/>
     </row>
-    <row r="372" spans="1:6" ht="16.5" thickBot="1">
+    <row r="372" spans="1:10" ht="16.5" thickBot="1">
       <c r="A372" s="6" t="s">
         <v>201</v>
       </c>
@@ -17624,7 +19149,7 @@
       <c r="E372" s="7"/>
       <c r="F372" s="5"/>
     </row>
-    <row r="373" spans="1:6" ht="16.5" thickBot="1">
+    <row r="373" spans="1:10" ht="16.5" thickBot="1">
       <c r="A373" s="6" t="s">
         <v>202</v>
       </c>
@@ -17637,8 +19162,11 @@
       <c r="D373" s="6"/>
       <c r="E373" s="7"/>
       <c r="F373" s="5"/>
-    </row>
-    <row r="374" spans="1:6" ht="31.5" thickBot="1">
+      <c r="J373" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" ht="31.5" thickBot="1">
       <c r="A374" s="6" t="s">
         <v>203</v>
       </c>
@@ -17652,7 +19180,7 @@
       <c r="E374" s="7"/>
       <c r="F374" s="5"/>
     </row>
-    <row r="375" spans="1:6" ht="31.5" thickBot="1">
+    <row r="375" spans="1:10" ht="31.5" thickBot="1">
       <c r="A375" s="6" t="s">
         <v>204</v>
       </c>
@@ -17666,7 +19194,7 @@
       <c r="E375" s="7"/>
       <c r="F375" s="5"/>
     </row>
-    <row r="376" spans="1:6" ht="31.5" thickBot="1">
+    <row r="376" spans="1:10" ht="31.5" thickBot="1">
       <c r="A376" s="6" t="s">
         <v>205</v>
       </c>
@@ -17680,7 +19208,7 @@
       <c r="E376" s="7"/>
       <c r="F376" s="5"/>
     </row>
-    <row r="377" spans="1:6" ht="31.5" thickBot="1">
+    <row r="377" spans="1:10" ht="31.5" thickBot="1">
       <c r="A377" s="6" t="s">
         <v>206</v>
       </c>
@@ -17694,8 +19222,8 @@
       <c r="E377" s="7"/>
       <c r="F377" s="5"/>
     </row>
-    <row r="378" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A378" s="6" t="s">
+    <row r="378" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A378" s="26" t="s">
         <v>207</v>
       </c>
       <c r="B378" s="6" t="s">
@@ -17707,8 +19235,11 @@
       <c r="D378" s="6"/>
       <c r="E378" s="7"/>
       <c r="F378" s="5"/>
-    </row>
-    <row r="379" spans="1:6" ht="16.5" thickBot="1">
+      <c r="J378" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" ht="16.5" thickBot="1">
       <c r="A379" s="6" t="s">
         <v>208</v>
       </c>
@@ -17721,8 +19252,11 @@
       <c r="D379" s="6"/>
       <c r="E379" s="7"/>
       <c r="F379" s="5"/>
-    </row>
-    <row r="380" spans="1:6" ht="16.5" thickBot="1">
+      <c r="J379" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" ht="16.5" thickBot="1">
       <c r="A380" s="6" t="s">
         <v>209</v>
       </c>
@@ -17735,8 +19269,11 @@
       <c r="D380" s="6"/>
       <c r="E380" s="7"/>
       <c r="F380" s="5"/>
-    </row>
-    <row r="381" spans="1:6" ht="16.5" thickBot="1">
+      <c r="J380" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" ht="16.5" thickBot="1">
       <c r="A381" s="6" t="s">
         <v>210</v>
       </c>
@@ -17750,7 +19287,7 @@
       <c r="E381" s="7"/>
       <c r="F381" s="5"/>
     </row>
-    <row r="382" spans="1:6" ht="16.5" thickBot="1">
+    <row r="382" spans="1:10" ht="16.5" thickBot="1">
       <c r="A382" s="6" t="s">
         <v>211</v>
       </c>
@@ -17764,7 +19301,7 @@
       <c r="E382" s="7"/>
       <c r="F382" s="5"/>
     </row>
-    <row r="383" spans="1:6" ht="16.5" thickBot="1">
+    <row r="383" spans="1:10" ht="16.5" thickBot="1">
       <c r="A383" s="6" t="s">
         <v>212</v>
       </c>
@@ -17778,7 +19315,7 @@
       <c r="E383" s="7"/>
       <c r="F383" s="5"/>
     </row>
-    <row r="384" spans="1:6" ht="16.5" thickBot="1">
+    <row r="384" spans="1:10" ht="16.5" thickBot="1">
       <c r="A384" s="6" t="s">
         <v>213</v>
       </c>
@@ -17792,7 +19329,7 @@
       <c r="E384" s="7"/>
       <c r="F384" s="5"/>
     </row>
-    <row r="385" spans="1:6" ht="16.5" thickBot="1">
+    <row r="385" spans="1:10" ht="16.5" thickBot="1">
       <c r="A385" s="6" t="s">
         <v>214</v>
       </c>
@@ -17806,7 +19343,7 @@
       <c r="E385" s="7"/>
       <c r="F385" s="5"/>
     </row>
-    <row r="386" spans="1:6" ht="16.5" thickBot="1">
+    <row r="386" spans="1:10" ht="16.5" thickBot="1">
       <c r="A386" s="6" t="s">
         <v>215</v>
       </c>
@@ -17820,7 +19357,7 @@
       <c r="E386" s="7"/>
       <c r="F386" s="5"/>
     </row>
-    <row r="387" spans="1:6" ht="16.5" thickBot="1">
+    <row r="387" spans="1:10" ht="16.5" thickBot="1">
       <c r="A387" s="6" t="s">
         <v>216</v>
       </c>
@@ -17834,7 +19371,7 @@
       <c r="E387" s="7"/>
       <c r="F387" s="5"/>
     </row>
-    <row r="388" spans="1:6" ht="16.5" thickBot="1">
+    <row r="388" spans="1:10" ht="16.5" thickBot="1">
       <c r="A388" s="6" t="s">
         <v>217</v>
       </c>
@@ -17848,7 +19385,7 @@
       <c r="E388" s="7"/>
       <c r="F388" s="5"/>
     </row>
-    <row r="389" spans="1:6" ht="16.5" thickBot="1">
+    <row r="389" spans="1:10" ht="16.5" thickBot="1">
       <c r="A389" s="6" t="s">
         <v>218</v>
       </c>
@@ -17862,7 +19399,7 @@
       <c r="E389" s="7"/>
       <c r="F389" s="5"/>
     </row>
-    <row r="390" spans="1:6" ht="16.5" thickBot="1">
+    <row r="390" spans="1:10" ht="16.5" thickBot="1">
       <c r="A390" s="6" t="s">
         <v>219</v>
       </c>
@@ -17876,7 +19413,7 @@
       <c r="E390" s="7"/>
       <c r="F390" s="5"/>
     </row>
-    <row r="391" spans="1:6" ht="16.5" thickBot="1">
+    <row r="391" spans="1:10" ht="16.5" thickBot="1">
       <c r="A391" s="6" t="s">
         <v>220</v>
       </c>
@@ -17889,8 +19426,11 @@
       <c r="D391" s="6"/>
       <c r="E391" s="7"/>
       <c r="F391" s="5"/>
-    </row>
-    <row r="392" spans="1:6" ht="16.5" thickBot="1">
+      <c r="J391" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" ht="16.5" thickBot="1">
       <c r="A392" s="6" t="s">
         <v>221</v>
       </c>
@@ -17903,8 +19443,11 @@
       <c r="D392" s="6"/>
       <c r="E392" s="7"/>
       <c r="F392" s="5"/>
-    </row>
-    <row r="393" spans="1:6" ht="16.5" thickBot="1">
+      <c r="J392" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" ht="16.5" thickBot="1">
       <c r="A393" s="6" t="s">
         <v>222</v>
       </c>
@@ -17917,8 +19460,11 @@
       <c r="D393" s="6"/>
       <c r="E393" s="7"/>
       <c r="F393" s="5"/>
-    </row>
-    <row r="394" spans="1:6" ht="16.5" thickBot="1">
+      <c r="J393" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" ht="16.5" thickBot="1">
       <c r="A394" s="6" t="s">
         <v>223</v>
       </c>
@@ -17932,7 +19478,7 @@
       <c r="E394" s="7"/>
       <c r="F394" s="5"/>
     </row>
-    <row r="395" spans="1:6" ht="16.5" thickBot="1">
+    <row r="395" spans="1:10" ht="16.5" thickBot="1">
       <c r="A395" s="6" t="s">
         <v>224</v>
       </c>
@@ -17946,7 +19492,7 @@
       <c r="E395" s="7"/>
       <c r="F395" s="5"/>
     </row>
-    <row r="396" spans="1:6" ht="16.5" thickBot="1">
+    <row r="396" spans="1:10" ht="16.5" thickBot="1">
       <c r="A396" s="6" t="s">
         <v>225</v>
       </c>
@@ -17960,21 +19506,27 @@
       <c r="E396" s="7"/>
       <c r="F396" s="5"/>
     </row>
-    <row r="397" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A397" s="6" t="s">
+    <row r="397" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A397" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="B397" s="6" t="s">
+      <c r="B397" s="22" t="s">
         <v>759</v>
       </c>
-      <c r="C397" s="6" t="s">
+      <c r="C397" s="22" t="s">
         <v>526</v>
       </c>
-      <c r="D397" s="6"/>
-      <c r="E397" s="7"/>
-      <c r="F397" s="5"/>
-    </row>
-    <row r="398" spans="1:6" ht="16.5" thickBot="1">
+      <c r="D397" s="22"/>
+      <c r="E397" s="31"/>
+      <c r="F397" s="32"/>
+      <c r="G397" s="21"/>
+      <c r="H397" s="21"/>
+      <c r="I397" s="21"/>
+      <c r="J397" s="21" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" ht="16.5" thickBot="1">
       <c r="A398" s="6" t="s">
         <v>227</v>
       </c>
@@ -17988,7 +19540,7 @@
       <c r="E398" s="7"/>
       <c r="F398" s="5"/>
     </row>
-    <row r="399" spans="1:6" ht="16.5" thickBot="1">
+    <row r="399" spans="1:10" ht="16.5" thickBot="1">
       <c r="A399" s="6" t="s">
         <v>228</v>
       </c>
@@ -18002,7 +19554,7 @@
       <c r="E399" s="7"/>
       <c r="F399" s="5"/>
     </row>
-    <row r="400" spans="1:6" ht="16.5" thickBot="1">
+    <row r="400" spans="1:10" ht="16.5" thickBot="1">
       <c r="A400" s="6" t="s">
         <v>229</v>
       </c>
@@ -18067,6 +19619,3281 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9447E658-0406-4337-92E7-EF22271613D0}">
+  <dimension ref="A1:I526"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="9" width="11.42578125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="23" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="23" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="23" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="23" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="23" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="23" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="23" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="23" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="23" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="23" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="23" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="23" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="23" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="23" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="23" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="23" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="23" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="23" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="23" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="23" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="23" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="23" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="23" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="23" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="23" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="23" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="23" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="23" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="23" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="25"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="23" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="25"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="23" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="23" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="23" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="23" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="23" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="23" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="23" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="23" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="23" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="23" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="23" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="23" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="23" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="23" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="23" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="23" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="23" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="23" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="23" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="23" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="23" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="23" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="23" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="23" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="23" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="23" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="23" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="23" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="23" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="23" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="23" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="25"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="23" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="25"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="23" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="23" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="23" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="23" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="23" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="23" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="23" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="23" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="23" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="23" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="23" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="23" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="27" t="s">
+        <v>932</v>
+      </c>
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="38"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="27" t="s">
+        <v>933</v>
+      </c>
+      <c r="B94" s="38"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="38"/>
+      <c r="H94" s="38"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="27" t="s">
+        <v>934</v>
+      </c>
+      <c r="B95" s="38"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="38"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="38"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="27" t="s">
+        <v>935</v>
+      </c>
+      <c r="B96" s="38"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="38"/>
+      <c r="G96" s="38"/>
+      <c r="H96" s="38"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="27" t="s">
+        <v>936</v>
+      </c>
+      <c r="B97" s="38"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="38"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="27" t="s">
+        <v>937</v>
+      </c>
+      <c r="B98" s="38"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="38"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="38"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="27" t="s">
+        <v>938</v>
+      </c>
+      <c r="B99" s="38"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="38"/>
+      <c r="G99" s="38"/>
+      <c r="H99" s="38"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="27" t="s">
+        <v>939</v>
+      </c>
+      <c r="B100" s="38"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="38"/>
+      <c r="F100" s="38"/>
+      <c r="G100" s="38"/>
+      <c r="H100" s="38"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="23" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="23" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="23" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="23" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="23" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="23" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="23" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="25"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="23" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="25"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="23" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="23" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="23" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="23" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="23" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="23" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="23" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="23" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="23" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="23" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="23" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="23" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="23" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="23" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="23" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="23" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="23" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="23" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="23" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="23" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="23" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="23" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="23" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="23" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="23" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="23" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="25"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="23" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="25"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="23" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="23" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="23" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="23" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="23" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="23" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="23" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="23" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="23" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="23" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="23" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="23" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="23" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="23" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="23" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="23" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="23" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="23" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="23" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="23" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="23" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="23" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="23" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="23" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="23" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="23" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="25"/>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="23" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="25"/>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="23" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="23" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="23" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="23" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="23" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="23" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="23" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="23" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="23" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="23" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="23" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="23" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="23" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="23" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="23" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="23" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="23" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="23" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="23" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="23" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="23" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="23" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="23" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="23" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="23" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="23" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="23" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="23" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="23" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="23" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="23" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="23" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="23" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="23" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="23" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="23" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="23" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="23" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="23" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="25"/>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="23" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="25"/>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="23" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="23" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="23" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="23" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="23" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="23" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="23" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="23" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="23" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="23" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="23" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="23" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="23" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="23" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="23" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="23" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="23" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="23" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="23" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="23" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="23" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="23" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="23" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="23" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="23" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="23" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="23" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="23" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="23" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="25"/>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="23" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="25"/>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="23" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="23" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="23" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="23" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="23" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="23" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="23" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="23" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="23" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="23" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="23" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="23" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="23" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="23" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="23" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="23" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="23" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="23" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="23" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="23" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="23" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="23" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="25"/>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="23" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="25"/>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="23" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="23" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="23" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="23" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="23" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="23" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="23" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="23" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="23" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="23" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="23" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="23" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="23" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="23" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="23" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="23" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="A321" s="23" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
+      <c r="A322" s="23" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323" s="23" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="A324" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
+      <c r="A325" s="23" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="A326" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="A327" s="25"/>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="A328" s="23" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329" s="25"/>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="A331" s="23" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="A332" s="29" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B332" s="30"/>
+      <c r="C332" s="30"/>
+      <c r="D332" s="30"/>
+      <c r="E332" s="30"/>
+      <c r="F332" s="30"/>
+      <c r="G332" s="30"/>
+      <c r="H332" s="30"/>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="A333" s="29" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B333" s="30"/>
+      <c r="C333" s="30"/>
+      <c r="D333" s="30"/>
+      <c r="E333" s="30"/>
+      <c r="F333" s="30"/>
+      <c r="G333" s="30"/>
+      <c r="H333" s="30"/>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="A334" s="29" t="s">
+        <v>867</v>
+      </c>
+      <c r="B334" s="30"/>
+      <c r="C334" s="30"/>
+      <c r="D334" s="30"/>
+      <c r="E334" s="30"/>
+      <c r="F334" s="30"/>
+      <c r="G334" s="30"/>
+      <c r="H334" s="30"/>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="A335" s="29" t="s">
+        <v>868</v>
+      </c>
+      <c r="B335" s="30"/>
+      <c r="C335" s="30"/>
+      <c r="D335" s="30"/>
+      <c r="E335" s="30"/>
+      <c r="F335" s="30"/>
+      <c r="G335" s="30"/>
+      <c r="H335" s="30"/>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336" s="29" t="s">
+        <v>869</v>
+      </c>
+      <c r="B336" s="30"/>
+      <c r="C336" s="30"/>
+      <c r="D336" s="30"/>
+      <c r="E336" s="30"/>
+      <c r="F336" s="30"/>
+      <c r="G336" s="30"/>
+      <c r="H336" s="30"/>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="A337" s="29" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B337" s="30"/>
+      <c r="C337" s="30"/>
+      <c r="D337" s="30"/>
+      <c r="E337" s="30"/>
+      <c r="F337" s="30"/>
+      <c r="G337" s="30"/>
+      <c r="H337" s="30"/>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="A338" s="29" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B338" s="30"/>
+      <c r="C338" s="30"/>
+      <c r="D338" s="30"/>
+      <c r="E338" s="30"/>
+      <c r="F338" s="30"/>
+      <c r="G338" s="30"/>
+      <c r="H338" s="30"/>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="A339" s="29" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B339" s="30"/>
+      <c r="C339" s="30"/>
+      <c r="D339" s="30"/>
+      <c r="E339" s="30"/>
+      <c r="F339" s="30"/>
+      <c r="G339" s="30"/>
+      <c r="H339" s="30"/>
+    </row>
+    <row r="340" spans="1:8">
+      <c r="A340" s="29" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B340" s="30"/>
+      <c r="C340" s="30"/>
+      <c r="D340" s="30"/>
+      <c r="E340" s="30"/>
+      <c r="F340" s="30"/>
+      <c r="G340" s="30"/>
+      <c r="H340" s="30"/>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="A341" s="29" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B341" s="30"/>
+      <c r="C341" s="30"/>
+      <c r="D341" s="30"/>
+      <c r="E341" s="30"/>
+      <c r="F341" s="30"/>
+      <c r="G341" s="30"/>
+      <c r="H341" s="30"/>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="A342" s="29" t="s">
+        <v>868</v>
+      </c>
+      <c r="B342" s="30"/>
+      <c r="C342" s="30"/>
+      <c r="D342" s="30"/>
+      <c r="E342" s="30"/>
+      <c r="F342" s="30"/>
+      <c r="G342" s="30"/>
+      <c r="H342" s="30"/>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="A343" s="29" t="s">
+        <v>875</v>
+      </c>
+      <c r="B343" s="30"/>
+      <c r="C343" s="30"/>
+      <c r="D343" s="30"/>
+      <c r="E343" s="30"/>
+      <c r="F343" s="30"/>
+      <c r="G343" s="30"/>
+      <c r="H343" s="30"/>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="A344" s="29" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B344" s="30"/>
+      <c r="C344" s="30"/>
+      <c r="D344" s="30"/>
+      <c r="E344" s="30"/>
+      <c r="F344" s="30"/>
+      <c r="G344" s="30"/>
+      <c r="H344" s="30"/>
+    </row>
+    <row r="345" spans="1:8">
+      <c r="A345" s="29" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B345" s="30"/>
+      <c r="C345" s="30"/>
+      <c r="D345" s="30"/>
+      <c r="E345" s="30"/>
+      <c r="F345" s="30"/>
+      <c r="G345" s="30"/>
+      <c r="H345" s="30"/>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="A346" s="29" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B346" s="30"/>
+      <c r="C346" s="30"/>
+      <c r="D346" s="30"/>
+      <c r="E346" s="30"/>
+      <c r="F346" s="30"/>
+      <c r="G346" s="30"/>
+      <c r="H346" s="30"/>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="A347" s="29" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B347" s="30"/>
+      <c r="C347" s="30"/>
+      <c r="D347" s="30"/>
+      <c r="E347" s="30"/>
+      <c r="F347" s="30"/>
+      <c r="G347" s="30"/>
+      <c r="H347" s="30"/>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="A348" s="29" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B348" s="30"/>
+      <c r="C348" s="30"/>
+      <c r="D348" s="30"/>
+      <c r="E348" s="30"/>
+      <c r="F348" s="30"/>
+      <c r="G348" s="30"/>
+      <c r="H348" s="30"/>
+    </row>
+    <row r="349" spans="1:8">
+      <c r="A349" s="29" t="s">
+        <v>889</v>
+      </c>
+      <c r="B349" s="30"/>
+      <c r="C349" s="30"/>
+      <c r="D349" s="30"/>
+      <c r="E349" s="30"/>
+      <c r="F349" s="30"/>
+      <c r="G349" s="30"/>
+      <c r="H349" s="30"/>
+    </row>
+    <row r="350" spans="1:8">
+      <c r="A350" s="29" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B350" s="30"/>
+      <c r="C350" s="30"/>
+      <c r="D350" s="30"/>
+      <c r="E350" s="30"/>
+      <c r="F350" s="30"/>
+      <c r="G350" s="30"/>
+      <c r="H350" s="30"/>
+    </row>
+    <row r="351" spans="1:8">
+      <c r="A351" s="29" t="s">
+        <v>868</v>
+      </c>
+      <c r="B351" s="30"/>
+      <c r="C351" s="30"/>
+      <c r="D351" s="30"/>
+      <c r="E351" s="30"/>
+      <c r="F351" s="30"/>
+      <c r="G351" s="30"/>
+      <c r="H351" s="30"/>
+    </row>
+    <row r="352" spans="1:8">
+      <c r="A352" s="29" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B352" s="30"/>
+      <c r="C352" s="30"/>
+      <c r="D352" s="30"/>
+      <c r="E352" s="30"/>
+      <c r="F352" s="30"/>
+      <c r="G352" s="30"/>
+      <c r="H352" s="30"/>
+    </row>
+    <row r="353" spans="1:8">
+      <c r="A353" s="29" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B353" s="30"/>
+      <c r="C353" s="30"/>
+      <c r="D353" s="30"/>
+      <c r="E353" s="30"/>
+      <c r="F353" s="30"/>
+      <c r="G353" s="30"/>
+      <c r="H353" s="30"/>
+    </row>
+    <row r="354" spans="1:8">
+      <c r="A354" s="29" t="s">
+        <v>893</v>
+      </c>
+      <c r="B354" s="30"/>
+      <c r="C354" s="30"/>
+      <c r="D354" s="30"/>
+      <c r="E354" s="30"/>
+      <c r="F354" s="30"/>
+      <c r="G354" s="30"/>
+      <c r="H354" s="30"/>
+    </row>
+    <row r="355" spans="1:8">
+      <c r="A355" s="29" t="s">
+        <v>868</v>
+      </c>
+      <c r="B355" s="30"/>
+      <c r="C355" s="30"/>
+      <c r="D355" s="30"/>
+      <c r="E355" s="30"/>
+      <c r="F355" s="30"/>
+      <c r="G355" s="30"/>
+      <c r="H355" s="30"/>
+    </row>
+    <row r="356" spans="1:8">
+      <c r="A356" s="29" t="s">
+        <v>894</v>
+      </c>
+      <c r="B356" s="30"/>
+      <c r="C356" s="30"/>
+      <c r="D356" s="30"/>
+      <c r="E356" s="30"/>
+      <c r="F356" s="30"/>
+      <c r="G356" s="30"/>
+      <c r="H356" s="30"/>
+    </row>
+    <row r="357" spans="1:8">
+      <c r="A357" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
+      <c r="A358" s="25"/>
+    </row>
+    <row r="359" spans="1:8">
+      <c r="A359" s="23" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
+      <c r="A360" s="25"/>
+    </row>
+    <row r="361" spans="1:8">
+      <c r="A361" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
+      <c r="A362" s="23" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
+      <c r="A363" s="23" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
+      <c r="A364" s="23" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
+      <c r="A365" s="23" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
+      <c r="A366" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
+      <c r="A367" s="23" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
+      <c r="A368" s="23" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="23" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="23" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="23" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" s="23" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" s="23" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="23" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="23" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="23" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" s="23" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="23" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="23" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="23" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="23" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="23" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="23" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="23" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" s="23" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" s="23" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="23" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" s="23" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="25"/>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="23" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" s="25"/>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" s="23" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" s="23" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" s="23" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" s="23" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="23" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="23" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="23" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="23" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" s="23" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" s="23" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" s="23" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" s="23" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="23" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" s="23" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" s="23" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" s="23" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" s="23" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" s="23" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" s="23" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" s="23" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" s="23" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" s="23" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="23" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="23" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="23" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="23" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" s="23" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" s="23" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" s="25"/>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="23" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="25"/>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" s="23" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" s="25"/>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" s="23" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" s="25"/>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" s="23" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" s="23" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" s="23" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" s="23" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" s="23" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" s="23" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" s="23" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" s="23" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" s="23" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" s="23" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" s="23" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" s="23" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" s="23" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" s="23" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" s="23" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" s="23" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" s="23" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" s="23" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" s="23" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" s="23" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" s="23" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" s="23" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="23" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" s="23" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" s="23" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="23" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" s="23" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" s="23" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" s="23" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" s="23" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" s="23" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" s="23" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" s="23" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" s="23" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" s="23" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" s="23" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" s="23" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" s="23" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" s="23" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" s="23" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" s="23" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" s="23" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" s="23" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" s="23" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" s="23" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" s="23" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" s="23" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" s="23" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" s="23" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="23" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" s="23" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" s="23" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" s="23" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" s="23" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" s="23" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" s="23" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" s="23" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" s="23" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="23" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" s="23" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" s="23" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" s="23" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" s="23" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" s="23" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" s="23" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" s="23" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" s="23" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" s="23" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" s="23" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" s="25"/>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" s="23" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" s="25"/>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" s="23" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" s="23" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" s="23" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" s="23" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" s="23" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" s="23" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" s="23" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" s="23" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" s="23" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" s="23" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" s="23" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" s="23" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523" s="23" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524" s="23" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" s="23" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" s="23" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAF9D8E-5017-468F-8689-A64B44F82814}">
+  <dimension ref="A1:G59"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="178.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="23" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="23" t="s">
+        <v>833</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="28" t="s">
+        <v>835</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="23" t="s">
+        <v>836</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="23" t="s">
+        <v>838</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="28" t="s">
+        <v>839</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="23" t="s">
+        <v>840</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="23" t="s">
+        <v>842</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="23" t="s">
+        <v>843</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="23" t="s">
+        <v>844</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="23" t="s">
+        <v>845</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="23" t="s">
+        <v>846</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="23" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="16" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="409.5">
+      <c r="B19" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="16" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="45">
+      <c r="B21" s="16" t="s">
+        <v>815</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="17"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="16" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="16" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="17"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="16" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="16" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B28" s="17"/>
+    </row>
+    <row r="29" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B29" s="16" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B30" s="16" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B31" s="16" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B32" s="17"/>
+    </row>
+    <row r="33" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B33" s="16" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B34" s="16" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B35" s="16" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B36" s="17"/>
+    </row>
+    <row r="37" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B37" s="16" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B38" s="16" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B39" s="16" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B40" s="16" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="44.25" customHeight="1">
+      <c r="B41" s="16" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="44.25" customHeight="1"/>
+    <row r="43" spans="2:4" ht="44.25" customHeight="1"/>
+    <row r="44" spans="2:4">
+      <c r="B44" s="18" t="s">
+        <v>832</v>
+      </c>
+      <c r="C44" s="19"/>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="C45" s="19"/>
+    </row>
+    <row r="46" spans="2:4" ht="315">
+      <c r="B46" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="345">
+      <c r="B47" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="315">
+      <c r="B48" s="18" t="s">
+        <v>836</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="330">
+      <c r="B49" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="345">
+      <c r="B50" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="315">
+      <c r="B51" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="315">
+      <c r="B52" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="315">
+      <c r="B53" s="18" t="s">
+        <v>841</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="330">
+      <c r="B54" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="300">
+      <c r="B55" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="315">
+      <c r="B56" s="18" t="s">
+        <v>844</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="315">
+      <c r="B57" s="18" t="s">
+        <v>845</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="315">
+      <c r="B58" s="18" t="s">
+        <v>846</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="315">
+      <c r="B59" s="18" t="s">
+        <v>847</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7DD0CD-6695-4D3C-9518-BDB565BCCF21}">
   <dimension ref="B3:B5"/>
   <sheetViews>
@@ -18090,275 +22917,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAF9D8E-5017-468F-8689-A64B44F82814}">
-  <dimension ref="B2:D43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="66.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="178.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" s="16" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="201" customHeight="1">
-      <c r="B3" s="16" t="s">
-        <v>813</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="16" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="16" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="17"/>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="16" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="16" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="17"/>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="16" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="16" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="17"/>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="16" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="16" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="16" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="17"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="16" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="16" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="16" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="17"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="16" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="16" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="16" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="16" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="16" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="44.25" customHeight="1">
-      <c r="B28" s="18" t="s">
-        <v>832</v>
-      </c>
-      <c r="C28" s="19"/>
-    </row>
-    <row r="29" spans="2:4" ht="44.25" customHeight="1">
-      <c r="B29" s="18" t="s">
-        <v>833</v>
-      </c>
-      <c r="C29" s="19"/>
-    </row>
-    <row r="30" spans="2:4" ht="44.25" customHeight="1">
-      <c r="B30" s="18" t="s">
-        <v>834</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="2" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="44.25" customHeight="1">
-      <c r="B31" s="18" t="s">
-        <v>835</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="2" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="44.25" customHeight="1">
-      <c r="B32" s="18" t="s">
-        <v>836</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="2" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="44.25" customHeight="1">
-      <c r="B33" s="18" t="s">
-        <v>837</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="2" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="44.25" customHeight="1">
-      <c r="B34" s="18" t="s">
-        <v>838</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="2" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="44.25" customHeight="1">
-      <c r="B35" s="18" t="s">
-        <v>839</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="2" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="44.25" customHeight="1">
-      <c r="B36" s="18" t="s">
-        <v>840</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="2" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="44.25" customHeight="1">
-      <c r="B37" s="18" t="s">
-        <v>841</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="2" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="44.25" customHeight="1">
-      <c r="B38" s="18" t="s">
-        <v>842</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="2" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="44.25" customHeight="1">
-      <c r="B39" s="18" t="s">
-        <v>843</v>
-      </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="2" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" ht="44.25" customHeight="1">
-      <c r="B40" s="18" t="s">
-        <v>844</v>
-      </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="2" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="44.25" customHeight="1">
-      <c r="B41" s="18" t="s">
-        <v>845</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="2" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="44.25" customHeight="1">
-      <c r="B42" s="18" t="s">
-        <v>846</v>
-      </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="2" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" ht="44.25" customHeight="1">
-      <c r="B43" s="18" t="s">
-        <v>847</v>
-      </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="2" t="s">
-        <v>859</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/tests/C2Pro_Test_Suites_Master.xlsx
+++ b/tests/C2Pro_Test_Suites_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esus_\Documents\AI\ZTWQ\c2pro\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1F8783-740C-46A0-B68E-D247051A3E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688FBF51-9951-4660-ACDF-7EFA44BE7ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suite Test" sheetId="1" r:id="rId1"/>

--- a/tests/C2Pro_Test_Suites_Master.xlsx
+++ b/tests/C2Pro_Test_Suites_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esus_\Documents\AI\ZTWQ\c2pro\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79CD580-3D6E-41EC-ADBC-0888C41D8202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887C8B13-CE69-4AF6-9C3E-FBB8B4CF3DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20616" windowHeight="11016" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suite Test" sheetId="1" r:id="rId1"/>
@@ -3930,9 +3930,6 @@
     <t>AGENTE</t>
   </si>
   <si>
-    <t>orden</t>
-  </si>
-  <si>
     <t>7- skateholders</t>
   </si>
   <si>
@@ -3985,6 +3982,9 @@
   </si>
   <si>
     <t>14 - QA/E2E</t>
+  </si>
+  <si>
+    <t>prioridad</t>
   </si>
 </sst>
 </file>
@@ -4593,8 +4593,8 @@
   <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="19.2" customHeight="1"/>
@@ -8712,9 +8712,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FEA767-FEF3-4D23-9143-13AEAC680DA5}">
   <dimension ref="A1:Q404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F338" sqref="F338:F402"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -8725,8 +8725,9 @@
     <col min="4" max="4" width="11.5546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="50.5546875" customWidth="1"/>
-    <col min="7" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="10" width="39.5546875" customWidth="1"/>
+    <col min="7" max="8" width="11.5546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="39.5546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="39.5546875" customWidth="1"/>
     <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -18474,7 +18475,7 @@
       <c r="D338" s="6"/>
       <c r="E338" s="7"/>
       <c r="F338" s="5" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="339" spans="1:10" ht="16.2" thickBot="1">
@@ -18490,7 +18491,7 @@
       <c r="D339" s="6"/>
       <c r="E339" s="7"/>
       <c r="F339" s="5" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="340" spans="1:10" ht="16.2" thickBot="1">
@@ -18506,7 +18507,7 @@
       <c r="D340" s="6"/>
       <c r="E340" s="7"/>
       <c r="F340" s="5" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="341" spans="1:10" ht="16.2" thickBot="1">
@@ -18522,7 +18523,7 @@
       <c r="D341" s="6"/>
       <c r="E341" s="7"/>
       <c r="F341" s="5" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="342" spans="1:10" ht="16.2" thickBot="1">
@@ -18538,7 +18539,7 @@
       <c r="D342" s="6"/>
       <c r="E342" s="7"/>
       <c r="F342" s="5" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="343" spans="1:10" ht="16.2" thickBot="1">
@@ -18554,7 +18555,7 @@
       <c r="D343" s="6"/>
       <c r="E343" s="7"/>
       <c r="F343" s="5" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="344" spans="1:10" ht="16.2" thickBot="1">
@@ -18570,7 +18571,7 @@
       <c r="D344" s="6"/>
       <c r="E344" s="7"/>
       <c r="F344" s="5" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="345" spans="1:10" ht="16.2" thickBot="1">
@@ -18586,7 +18587,7 @@
       <c r="D345" s="6"/>
       <c r="E345" s="7"/>
       <c r="F345" s="5" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="346" spans="1:10" ht="16.2" thickBot="1">
@@ -18602,7 +18603,7 @@
       <c r="D346" s="6"/>
       <c r="E346" s="7"/>
       <c r="F346" s="5" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="347" spans="1:10" ht="16.2" thickBot="1">
@@ -18618,7 +18619,7 @@
       <c r="D347" s="6"/>
       <c r="E347" s="7"/>
       <c r="F347" s="5" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="348" spans="1:10" ht="16.2" thickBot="1">
@@ -18634,7 +18635,7 @@
       <c r="D348" s="6"/>
       <c r="E348" s="7"/>
       <c r="F348" s="5" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="349" spans="1:10" ht="16.2" thickBot="1">
@@ -18650,7 +18651,7 @@
       <c r="D349" s="6"/>
       <c r="E349" s="7"/>
       <c r="F349" s="5" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="350" spans="1:10" ht="16.2" thickBot="1">
@@ -18666,7 +18667,7 @@
       <c r="D350" s="6"/>
       <c r="E350" s="7"/>
       <c r="F350" s="5" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="351" spans="1:10" ht="16.2" thickBot="1">
@@ -18682,7 +18683,7 @@
       <c r="D351" s="6"/>
       <c r="E351" s="7"/>
       <c r="F351" s="5" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="352" spans="1:10" ht="16.2" thickBot="1">
@@ -18698,7 +18699,7 @@
       <c r="D352" s="31"/>
       <c r="E352" s="32"/>
       <c r="F352" s="5" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="J352" t="s">
         <v>404</v>
@@ -18717,7 +18718,7 @@
       <c r="D353" s="31"/>
       <c r="E353" s="32"/>
       <c r="F353" s="5" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="J353" t="s">
         <v>404</v>
@@ -18736,7 +18737,7 @@
       <c r="D354" s="6"/>
       <c r="E354" s="7"/>
       <c r="F354" s="5" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="355" spans="1:10" ht="16.2" thickBot="1">
@@ -18752,7 +18753,7 @@
       <c r="D355" s="6"/>
       <c r="E355" s="7"/>
       <c r="F355" s="5" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="356" spans="1:10" ht="16.2" thickBot="1">
@@ -18768,7 +18769,7 @@
       <c r="D356" s="6"/>
       <c r="E356" s="7"/>
       <c r="F356" s="5" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="357" spans="1:10" ht="16.2" thickBot="1">
@@ -18784,7 +18785,7 @@
       <c r="D357" s="6"/>
       <c r="E357" s="7"/>
       <c r="F357" s="5" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="358" spans="1:10" ht="16.2" thickBot="1">
@@ -18800,7 +18801,7 @@
       <c r="D358" s="6"/>
       <c r="E358" s="7"/>
       <c r="F358" s="5" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="359" spans="1:10" ht="16.2" thickBot="1">
@@ -18816,7 +18817,7 @@
       <c r="D359" s="6"/>
       <c r="E359" s="7"/>
       <c r="F359" s="5" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="360" spans="1:10" ht="16.2" thickBot="1">
@@ -18832,7 +18833,7 @@
       <c r="D360" s="6"/>
       <c r="E360" s="7"/>
       <c r="F360" s="5" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="361" spans="1:10" ht="16.2" thickBot="1">
@@ -18848,7 +18849,7 @@
       <c r="D361" s="6"/>
       <c r="E361" s="7"/>
       <c r="F361" s="5" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="362" spans="1:10" ht="16.2" thickBot="1">
@@ -18864,7 +18865,7 @@
       <c r="D362" s="6"/>
       <c r="E362" s="7"/>
       <c r="F362" s="5" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="363" spans="1:10" ht="16.2" thickBot="1">
@@ -18880,7 +18881,7 @@
       <c r="D363" s="6"/>
       <c r="E363" s="7"/>
       <c r="F363" s="5" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="364" spans="1:10" ht="16.2" thickBot="1">
@@ -18896,7 +18897,7 @@
       <c r="D364" s="6"/>
       <c r="E364" s="7"/>
       <c r="F364" s="5" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="365" spans="1:10" ht="16.2" thickBot="1">
@@ -18912,7 +18913,7 @@
       <c r="D365" s="6"/>
       <c r="E365" s="7"/>
       <c r="F365" s="5" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="366" spans="1:10" ht="16.2" thickBot="1">
@@ -18928,7 +18929,7 @@
       <c r="D366" s="6"/>
       <c r="E366" s="7"/>
       <c r="F366" s="5" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="367" spans="1:10" ht="16.2" thickBot="1">
@@ -18944,7 +18945,7 @@
       <c r="D367" s="6"/>
       <c r="E367" s="7"/>
       <c r="F367" s="5" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="368" spans="1:10" ht="16.2" thickBot="1">
@@ -18960,7 +18961,7 @@
       <c r="D368" s="6"/>
       <c r="E368" s="7"/>
       <c r="F368" s="5" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="369" spans="1:10" ht="16.2" thickBot="1">
@@ -18976,7 +18977,7 @@
       <c r="D369" s="6"/>
       <c r="E369" s="7"/>
       <c r="F369" s="5" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="J369" t="s">
         <v>851</v>
@@ -18995,7 +18996,7 @@
       <c r="D370" s="6"/>
       <c r="E370" s="7"/>
       <c r="F370" s="5" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="J370" t="s">
         <v>851</v>
@@ -19014,7 +19015,7 @@
       <c r="D371" s="6"/>
       <c r="E371" s="7"/>
       <c r="F371" s="5" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="372" spans="1:10" ht="16.2" thickBot="1">
@@ -19030,7 +19031,7 @@
       <c r="D372" s="6"/>
       <c r="E372" s="7"/>
       <c r="F372" s="5" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="373" spans="1:10" ht="16.2" thickBot="1">
@@ -19046,7 +19047,7 @@
       <c r="D373" s="6"/>
       <c r="E373" s="7"/>
       <c r="F373" s="5" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="J373" t="s">
         <v>851</v>
@@ -19065,7 +19066,7 @@
       <c r="D374" s="6"/>
       <c r="E374" s="7"/>
       <c r="F374" s="5" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="375" spans="1:10" ht="16.2" thickBot="1">
@@ -19081,7 +19082,7 @@
       <c r="D375" s="6"/>
       <c r="E375" s="7"/>
       <c r="F375" s="5" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="376" spans="1:10" ht="16.2" thickBot="1">
@@ -19097,7 +19098,7 @@
       <c r="D376" s="6"/>
       <c r="E376" s="7"/>
       <c r="F376" s="5" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="377" spans="1:10" ht="16.2" thickBot="1">
@@ -19113,7 +19114,7 @@
       <c r="D377" s="6"/>
       <c r="E377" s="7"/>
       <c r="F377" s="5" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="378" spans="1:10" ht="16.2" thickBot="1">
@@ -19129,7 +19130,7 @@
       <c r="D378" s="6"/>
       <c r="E378" s="7"/>
       <c r="F378" s="5" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="J378" t="s">
         <v>404</v>
@@ -19148,7 +19149,7 @@
       <c r="D379" s="6"/>
       <c r="E379" s="7"/>
       <c r="F379" s="5" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="J379" t="s">
         <v>404</v>
@@ -19167,7 +19168,7 @@
       <c r="D380" s="6"/>
       <c r="E380" s="7"/>
       <c r="F380" s="5" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="J380" t="s">
         <v>404</v>
@@ -19186,7 +19187,7 @@
       <c r="D381" s="6"/>
       <c r="E381" s="7"/>
       <c r="F381" s="5" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="382" spans="1:10" ht="16.2" thickBot="1">
@@ -19202,7 +19203,7 @@
       <c r="D382" s="6"/>
       <c r="E382" s="7"/>
       <c r="F382" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="383" spans="1:10" ht="16.2" thickBot="1">
@@ -19218,7 +19219,7 @@
       <c r="D383" s="6"/>
       <c r="E383" s="7"/>
       <c r="F383" s="5" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="384" spans="1:10" ht="16.2" thickBot="1">
@@ -19234,7 +19235,7 @@
       <c r="D384" s="6"/>
       <c r="E384" s="7"/>
       <c r="F384" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="385" spans="1:10" ht="16.2" thickBot="1">
@@ -19250,7 +19251,7 @@
       <c r="D385" s="6"/>
       <c r="E385" s="7"/>
       <c r="F385" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="386" spans="1:10" ht="16.2" thickBot="1">
@@ -19266,7 +19267,7 @@
       <c r="D386" s="6"/>
       <c r="E386" s="7"/>
       <c r="F386" s="5" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="387" spans="1:10" ht="16.2" thickBot="1">
@@ -19282,7 +19283,7 @@
       <c r="D387" s="6"/>
       <c r="E387" s="7"/>
       <c r="F387" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="388" spans="1:10" ht="16.2" thickBot="1">
@@ -19298,7 +19299,7 @@
       <c r="D388" s="6"/>
       <c r="E388" s="7"/>
       <c r="F388" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="389" spans="1:10" ht="16.2" thickBot="1">
@@ -19314,7 +19315,7 @@
       <c r="D389" s="6"/>
       <c r="E389" s="7"/>
       <c r="F389" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="390" spans="1:10" ht="16.2" thickBot="1">
@@ -19330,7 +19331,7 @@
       <c r="D390" s="6"/>
       <c r="E390" s="7"/>
       <c r="F390" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="391" spans="1:10" ht="16.2" thickBot="1">
@@ -19346,7 +19347,7 @@
       <c r="D391" s="6"/>
       <c r="E391" s="7"/>
       <c r="F391" s="5" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="J391" t="s">
         <v>404</v>
@@ -19365,7 +19366,7 @@
       <c r="D392" s="6"/>
       <c r="E392" s="7"/>
       <c r="F392" s="5" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="J392" t="s">
         <v>404</v>
@@ -19384,7 +19385,7 @@
       <c r="D393" s="6"/>
       <c r="E393" s="7"/>
       <c r="F393" s="5" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="J393" t="s">
         <v>404</v>
@@ -19403,7 +19404,7 @@
       <c r="D394" s="6"/>
       <c r="E394" s="7"/>
       <c r="F394" s="5" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="395" spans="1:10" ht="16.2" thickBot="1">
@@ -19419,7 +19420,7 @@
       <c r="D395" s="6"/>
       <c r="E395" s="7"/>
       <c r="F395" s="5" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="396" spans="1:10" ht="16.2" thickBot="1">
@@ -19435,7 +19436,7 @@
       <c r="D396" s="6"/>
       <c r="E396" s="7"/>
       <c r="F396" s="5" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="397" spans="1:10" ht="16.2" thickBot="1">
@@ -19451,7 +19452,7 @@
       <c r="D397" s="21"/>
       <c r="E397" s="30"/>
       <c r="F397" s="5" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="G397" s="20"/>
       <c r="H397" s="20"/>
@@ -19473,7 +19474,7 @@
       <c r="D398" s="6"/>
       <c r="E398" s="7"/>
       <c r="F398" s="5" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="399" spans="1:10" ht="16.2" thickBot="1">
@@ -19489,7 +19490,7 @@
       <c r="D399" s="6"/>
       <c r="E399" s="7"/>
       <c r="F399" s="5" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="400" spans="1:10" ht="16.2" thickBot="1">
@@ -19505,7 +19506,7 @@
       <c r="D400" s="6"/>
       <c r="E400" s="7"/>
       <c r="F400" s="5" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="401" spans="1:6" ht="16.2" thickBot="1">
@@ -19521,7 +19522,7 @@
       <c r="D401" s="6"/>
       <c r="E401" s="7"/>
       <c r="F401" s="5" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="402" spans="1:6" ht="16.2" thickBot="1">
@@ -19537,7 +19538,7 @@
       <c r="D402" s="6"/>
       <c r="E402" s="7"/>
       <c r="F402" s="5" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="403" spans="1:6" ht="15" thickBot="1">
@@ -22471,8 +22472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7AC209-399B-46DE-A186-E777887E2AAF}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -22489,7 +22490,7 @@
         <v>1167</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>1168</v>
+        <v>1186</v>
       </c>
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
@@ -22737,10 +22738,10 @@
       <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="35" t="s">
         <v>875</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="35" t="s">
         <v>852</v>
       </c>
       <c r="C16" s="29">
@@ -24399,8 +24400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAF9D8E-5017-468F-8689-A64B44F82814}">
   <dimension ref="A1:J166"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="45" customHeight="1"/>
@@ -25513,7 +25514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7DD0CD-6695-4D3C-9518-BDB565BCCF21}">
   <dimension ref="B3:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/tests/C2Pro_Test_Suites_Master.xlsx
+++ b/tests/C2Pro_Test_Suites_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esus_\Documents\AI\ZTWQ\c2pro\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE75CE3-DA52-4ED3-AE03-4303D95E33AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CE3207-E29A-40DF-984A-841E56D8C249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12480" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suite Test" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5768" uniqueCount="1637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5788" uniqueCount="1637">
   <si>
     <t>Nº</t>
   </si>
@@ -12905,7 +12905,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -13080,6 +13080,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13393,16 +13394,16 @@
       <selection pane="bottomLeft" activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="19.149999999999999" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="19.2" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="62.28515625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="62.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="1" spans="1:13" ht="19.2" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13440,7 +13441,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="2" spans="1:13" ht="19.2" customHeight="1">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -13479,7 +13480,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="3" spans="1:13" ht="19.2" customHeight="1">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -13518,7 +13519,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="4" spans="1:13" ht="19.2" customHeight="1">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -13557,7 +13558,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="5" spans="1:13" ht="19.2" customHeight="1">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -13599,7 +13600,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="6" spans="1:13" ht="19.2" customHeight="1">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -13638,7 +13639,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="7" spans="1:13" ht="19.2" customHeight="1">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -13677,7 +13678,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="8" spans="1:13" ht="19.2" customHeight="1">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -13716,7 +13717,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="9" spans="1:13" ht="19.2" customHeight="1">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -13755,7 +13756,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="10" spans="1:13" ht="19.2" customHeight="1">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -13797,7 +13798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="11" spans="1:13" ht="19.2" customHeight="1">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -13839,7 +13840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="12" spans="1:13" ht="19.2" customHeight="1">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -13878,7 +13879,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="13" spans="1:13" ht="19.2" customHeight="1">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -13917,7 +13918,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="14" spans="1:13" ht="19.2" customHeight="1">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -13953,7 +13954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="15" spans="1:13" ht="19.2" customHeight="1">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -13989,7 +13990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="16" spans="1:13" ht="19.2" customHeight="1">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -14028,7 +14029,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="17" spans="1:13" ht="19.2" customHeight="1">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -14064,7 +14065,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="18" spans="1:13" ht="19.2" customHeight="1">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -14097,7 +14098,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="19" spans="1:13" ht="19.2" customHeight="1">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -14130,7 +14131,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="20" spans="1:13" ht="19.2" customHeight="1">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -14163,7 +14164,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="21" spans="1:13" ht="19.2" customHeight="1">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -14196,7 +14197,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="22" spans="1:13" ht="19.2" customHeight="1">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -14229,7 +14230,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="23" spans="1:13" ht="19.2" customHeight="1">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -14268,7 +14269,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="24" spans="1:13" ht="19.2" customHeight="1">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -14304,7 +14305,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="25" spans="1:13" ht="19.2" customHeight="1">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -14337,7 +14338,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="26" spans="1:13" ht="19.2" customHeight="1">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -14370,7 +14371,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="27" spans="1:13" ht="19.2" customHeight="1">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -14403,7 +14404,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="28" spans="1:13" ht="19.2" customHeight="1">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -14442,7 +14443,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="29" spans="1:13" ht="19.2" customHeight="1">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -14475,7 +14476,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="30" spans="1:13" ht="19.2" customHeight="1">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -14508,7 +14509,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="31" spans="1:13" ht="19.2" customHeight="1">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -14541,7 +14542,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="32" spans="1:13" ht="19.2" customHeight="1">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -14574,7 +14575,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="33" spans="1:13" ht="19.2" customHeight="1">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -14607,7 +14608,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="34" spans="1:13" ht="19.2" customHeight="1">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -14643,7 +14644,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="35" spans="1:13" ht="19.2" customHeight="1">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -14679,7 +14680,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="36" spans="1:13" ht="19.2" customHeight="1">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -14715,7 +14716,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="37" spans="1:13" ht="19.2" customHeight="1">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -14751,7 +14752,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="38" spans="1:13" ht="19.2" customHeight="1">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -14787,7 +14788,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="39" spans="1:13" ht="19.2" customHeight="1">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -14826,7 +14827,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="40" spans="1:13" ht="19.2" customHeight="1">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -14859,7 +14860,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="41" spans="1:13" ht="19.2" customHeight="1">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -14892,7 +14893,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="42" spans="1:13" ht="19.2" customHeight="1">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -14925,7 +14926,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="43" spans="1:13" ht="19.2" customHeight="1">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -14958,7 +14959,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="44" spans="1:13" ht="19.2" customHeight="1">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -14991,7 +14992,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="45" spans="1:13" ht="19.2" customHeight="1">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -15024,7 +15025,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="46" spans="1:13" ht="19.2" customHeight="1">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -15057,7 +15058,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="47" spans="1:13" ht="19.2" customHeight="1">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -15096,7 +15097,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="48" spans="1:13" ht="19.2" customHeight="1">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -15129,7 +15130,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="49" spans="1:13" ht="19.2" customHeight="1">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -15162,7 +15163,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="50" spans="1:13" ht="19.2" customHeight="1">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -15195,7 +15196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="51" spans="1:13" ht="19.2" customHeight="1">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -15228,7 +15229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="52" spans="1:13" ht="19.2" customHeight="1">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -15261,7 +15262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="53" spans="1:13" ht="19.2" customHeight="1">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -15294,7 +15295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="54" spans="1:13" ht="19.2" customHeight="1">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -15327,7 +15328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="55" spans="1:13" ht="19.2" customHeight="1">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -15360,7 +15361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="56" spans="1:13" ht="19.2" customHeight="1">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -15393,7 +15394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="57" spans="1:13" ht="19.2" customHeight="1">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -15426,7 +15427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="58" spans="1:13" ht="19.2" customHeight="1">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -15459,7 +15460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="59" spans="1:13" ht="19.2" customHeight="1">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -15492,7 +15493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="60" spans="1:13" ht="19.2" customHeight="1">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -15525,7 +15526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="61" spans="1:13" ht="19.2" customHeight="1">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -15558,7 +15559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="62" spans="1:13" ht="19.2" customHeight="1">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -15591,7 +15592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="63" spans="1:13" ht="19.2" customHeight="1">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -15624,7 +15625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="64" spans="1:13" ht="19.2" customHeight="1">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -15657,7 +15658,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="65" spans="1:13" ht="19.2" customHeight="1">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -15690,7 +15691,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="66" spans="1:13" ht="19.2" customHeight="1">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -15723,7 +15724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="67" spans="1:13" ht="19.2" customHeight="1">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -15756,7 +15757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="68" spans="1:13" ht="19.2" customHeight="1">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -15789,7 +15790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="69" spans="1:13" ht="19.2" customHeight="1">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -15822,7 +15823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="70" spans="1:13" ht="19.2" customHeight="1">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -15855,7 +15856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="71" spans="1:13" ht="19.2" customHeight="1">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -15888,7 +15889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="72" spans="1:13" ht="19.2" customHeight="1">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -15930,7 +15931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="73" spans="1:13" ht="19.2" customHeight="1">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -15969,7 +15970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="74" spans="1:13" ht="19.2" customHeight="1">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -16008,7 +16009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="75" spans="1:13" ht="19.2" customHeight="1">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -16044,7 +16045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="76" spans="1:13" ht="19.2" customHeight="1">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -16077,7 +16078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="77" spans="1:13" ht="19.2" customHeight="1">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -16116,7 +16117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="78" spans="1:13" ht="19.2" customHeight="1">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -16155,7 +16156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="79" spans="1:13" ht="19.2" customHeight="1">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -16194,7 +16195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="80" spans="1:13" ht="19.2" customHeight="1">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -16230,7 +16231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="81" spans="1:13" ht="19.2" customHeight="1">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -16266,7 +16267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="82" spans="1:13" ht="19.2" customHeight="1">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -16299,7 +16300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="83" spans="1:13" ht="19.2" customHeight="1">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -16341,7 +16342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="84" spans="1:13" ht="19.2" customHeight="1">
       <c r="A84" t="s">
         <v>102</v>
       </c>
@@ -16374,7 +16375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="85" spans="1:13" ht="19.2" customHeight="1">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -16410,7 +16411,7 @@
         <v>CODEX</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="86" spans="1:13" ht="19.2" customHeight="1">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -16449,7 +16450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="87" spans="1:13" ht="19.2" customHeight="1">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -16482,7 +16483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="88" spans="1:13" ht="19.2" customHeight="1">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -16515,7 +16516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="89" spans="1:13" ht="19.2" customHeight="1">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -16548,7 +16549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="90" spans="1:13" ht="19.2" customHeight="1">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -16587,7 +16588,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="91" spans="1:13" ht="19.2" customHeight="1">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -16623,7 +16624,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="92" spans="1:13" ht="19.2" customHeight="1">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -16659,7 +16660,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="93" spans="1:13" ht="19.2" customHeight="1">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -16692,7 +16693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="94" spans="1:13" ht="19.2" customHeight="1">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -16728,7 +16729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="95" spans="1:13" ht="19.2" customHeight="1">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -16767,7 +16768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="96" spans="1:13" ht="19.2" customHeight="1">
       <c r="A96" t="s">
         <v>90</v>
       </c>
@@ -16800,7 +16801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="97" spans="1:13" ht="19.2" customHeight="1">
       <c r="A97" t="s">
         <v>85</v>
       </c>
@@ -16839,7 +16840,7 @@
         <v>CODEX</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="98" spans="1:13" ht="19.2" customHeight="1">
       <c r="A98" t="s">
         <v>86</v>
       </c>
@@ -16875,7 +16876,7 @@
         <v>CODEX</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="99" spans="1:13" ht="19.2" customHeight="1">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -16911,7 +16912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="100" spans="1:13" ht="19.2" customHeight="1">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -16947,7 +16948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="101" spans="1:13" ht="19.2" customHeight="1">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -16980,7 +16981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="102" spans="1:13" ht="19.2" customHeight="1">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -17016,7 +17017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="103" spans="1:13" ht="19.2" customHeight="1">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -17058,7 +17059,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="104" spans="1:13" ht="19.2" customHeight="1">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -17094,7 +17095,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="105" spans="1:13" ht="19.2" customHeight="1">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -17130,7 +17131,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="106" spans="1:13" ht="19.2" customHeight="1">
       <c r="A106" t="s">
         <v>110</v>
       </c>
@@ -17166,7 +17167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="107" spans="1:13" ht="19.2" customHeight="1">
       <c r="A107" t="s">
         <v>111</v>
       </c>
@@ -17205,7 +17206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="108" spans="1:13" ht="19.2" customHeight="1">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -17241,7 +17242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="109" spans="1:13" ht="19.2" customHeight="1">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -17280,7 +17281,7 @@
         <v>claude</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="110" spans="1:13" ht="19.2" customHeight="1">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -17319,7 +17320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="111" spans="1:13" ht="19.2" customHeight="1">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -17358,7 +17359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="112" spans="1:13" ht="19.2" customHeight="1">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -17391,7 +17392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="113" spans="1:13" ht="19.2" customHeight="1">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -17424,7 +17425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="19.149999999999999" customHeight="1">
+    <row r="114" spans="1:13" ht="19.2" customHeight="1">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -17476,17 +17477,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="146.42578125" customWidth="1"/>
+    <col min="1" max="1" width="146.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
+    <row r="1" spans="1:1" ht="409.6">
       <c r="A1" s="2" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="90">
+    <row r="3" spans="1:1" ht="86.4">
       <c r="A3" s="2" t="s">
         <v>1340</v>
       </c>
@@ -17501,18 +17502,18 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F236"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="77.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="79" customWidth="1"/>
-    <col min="6" max="6" width="67.85546875" customWidth="1"/>
+    <col min="6" max="6" width="67.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -17544,82 +17545,82 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.25" hidden="1">
+    <row r="3" spans="1:5" ht="19.2" hidden="1">
       <c r="B3" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="86.25" hidden="1">
+    <row r="4" spans="1:5" ht="96" hidden="1">
       <c r="B4" s="43" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="34.5" hidden="1">
+    <row r="5" spans="1:5" ht="38.4" hidden="1">
       <c r="B5" s="43" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="51.75" hidden="1">
+    <row r="6" spans="1:5" ht="57.6" hidden="1">
       <c r="B6" s="43" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" hidden="1">
+    <row r="7" spans="1:5" ht="19.2" hidden="1">
       <c r="B7" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="34.5" hidden="1">
+    <row r="8" spans="1:5" ht="38.4" hidden="1">
       <c r="B8" s="43" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="34.5" hidden="1">
+    <row r="9" spans="1:5" ht="38.4" hidden="1">
       <c r="B9" s="43" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="34.5" hidden="1">
+    <row r="10" spans="1:5" ht="38.4" hidden="1">
       <c r="B10" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="51.75" hidden="1">
+    <row r="11" spans="1:5" ht="57.6" hidden="1">
       <c r="B11" s="43" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="51.75" hidden="1">
+    <row r="12" spans="1:5" ht="57.6" hidden="1">
       <c r="B12" s="43" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17.25" hidden="1">
+    <row r="13" spans="1:5" ht="19.2" hidden="1">
       <c r="B13" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="51.75" hidden="1">
+    <row r="14" spans="1:5" ht="57.6" hidden="1">
       <c r="B14" s="43" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="34.5" hidden="1">
+    <row r="15" spans="1:5" ht="38.4" hidden="1">
       <c r="B15" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="69" hidden="1">
+    <row r="16" spans="1:5" ht="57.6" hidden="1">
       <c r="B16" s="43" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="34.5" hidden="1">
+    <row r="17" spans="1:6" ht="38.4" hidden="1">
       <c r="B17" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="69" hidden="1">
+    <row r="18" spans="1:6" ht="57.6" hidden="1">
       <c r="B18" s="43" t="s">
         <v>1359</v>
       </c>
@@ -17645,82 +17646,82 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.25" hidden="1">
+    <row r="20" spans="1:6" ht="19.2" hidden="1">
       <c r="B20" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="51.75" hidden="1">
+    <row r="21" spans="1:6" ht="57.6" hidden="1">
       <c r="B21" s="43" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="69" hidden="1">
+    <row r="22" spans="1:6" ht="76.8" hidden="1">
       <c r="B22" s="43" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="69" hidden="1">
+    <row r="23" spans="1:6" ht="57.6" hidden="1">
       <c r="B23" s="43" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.25" hidden="1">
+    <row r="24" spans="1:6" ht="19.2" hidden="1">
       <c r="B24" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.25" hidden="1">
+    <row r="25" spans="1:6" ht="19.2" hidden="1">
       <c r="B25" s="43" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="34.5" hidden="1">
+    <row r="26" spans="1:6" ht="38.4" hidden="1">
       <c r="B26" s="43" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="34.5" hidden="1">
+    <row r="27" spans="1:6" ht="38.4" hidden="1">
       <c r="B27" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="34.5" hidden="1">
+    <row r="28" spans="1:6" ht="38.4" hidden="1">
       <c r="B28" s="43" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="51.75" hidden="1">
+    <row r="29" spans="1:6" ht="38.4" hidden="1">
       <c r="B29" s="43" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.25" hidden="1">
+    <row r="30" spans="1:6" ht="19.2" hidden="1">
       <c r="B30" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="51.75" hidden="1">
+    <row r="31" spans="1:6" ht="57.6" hidden="1">
       <c r="B31" s="43" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="34.5" hidden="1">
+    <row r="32" spans="1:6" ht="38.4" hidden="1">
       <c r="B32" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="51.75" hidden="1">
+    <row r="33" spans="1:5" ht="57.6" hidden="1">
       <c r="B33" s="43" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="34.5" hidden="1">
+    <row r="34" spans="1:5" ht="38.4" hidden="1">
       <c r="B34" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="51.75" hidden="1">
+    <row r="35" spans="1:5" ht="57.6" hidden="1">
       <c r="B35" s="43" t="s">
         <v>1370</v>
       </c>
@@ -17729,7 +17730,7 @@
       <c r="A36" s="44" t="s">
         <v>1371</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="66" t="s">
         <v>1635</v>
       </c>
       <c r="C36" t="s">
@@ -17743,82 +17744,82 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17.25" hidden="1">
+    <row r="37" spans="1:5" ht="19.2" hidden="1">
       <c r="B37" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="51.75" hidden="1">
+    <row r="38" spans="1:5" ht="57.6" hidden="1">
       <c r="B38" s="43" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="51.75" hidden="1">
+    <row r="39" spans="1:5" ht="57.6" hidden="1">
       <c r="B39" s="43" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="69" hidden="1">
+    <row r="40" spans="1:5" ht="76.8" hidden="1">
       <c r="B40" s="43" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17.25" hidden="1">
+    <row r="41" spans="1:5" ht="19.2" hidden="1">
       <c r="B41" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="51.75" hidden="1">
+    <row r="42" spans="1:5" ht="38.4" hidden="1">
       <c r="B42" s="43" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="34.5" hidden="1">
+    <row r="43" spans="1:5" ht="38.4" hidden="1">
       <c r="B43" s="43" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="34.5" hidden="1">
+    <row r="44" spans="1:5" ht="38.4" hidden="1">
       <c r="B44" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="51.75" hidden="1">
+    <row r="45" spans="1:5" ht="57.6" hidden="1">
       <c r="B45" s="43" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="34.5" hidden="1">
+    <row r="46" spans="1:5" ht="38.4" hidden="1">
       <c r="B46" s="43" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17.25" hidden="1">
+    <row r="47" spans="1:5" ht="19.2" hidden="1">
       <c r="B47" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="34.5" hidden="1">
+    <row r="48" spans="1:5" ht="38.4" hidden="1">
       <c r="B48" s="43" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="34.5" hidden="1">
+    <row r="49" spans="1:5" ht="38.4" hidden="1">
       <c r="B49" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="51.75" hidden="1">
+    <row r="50" spans="1:5" ht="57.6" hidden="1">
       <c r="B50" s="43" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="34.5" hidden="1">
+    <row r="51" spans="1:5" ht="38.4" hidden="1">
       <c r="B51" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="51.75" hidden="1">
+    <row r="52" spans="1:5" ht="57.6" hidden="1">
       <c r="B52" s="43" t="s">
         <v>1381</v>
       </c>
@@ -17827,8 +17828,8 @@
       <c r="A53" s="44" t="s">
         <v>1382</v>
       </c>
-      <c r="B53" t="s">
-        <v>1501</v>
+      <c r="B53" s="20" t="s">
+        <v>1635</v>
       </c>
       <c r="C53" t="s">
         <v>1500</v>
@@ -17841,82 +17842,82 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="17.25" hidden="1">
+    <row r="54" spans="1:5" ht="19.2" hidden="1">
       <c r="B54" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="51.75" hidden="1">
+    <row r="55" spans="1:5" ht="38.4" hidden="1">
       <c r="B55" s="43" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="51.75" hidden="1">
+    <row r="56" spans="1:5" ht="57.6" hidden="1">
       <c r="B56" s="43" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="51.75" hidden="1">
+    <row r="57" spans="1:5" ht="57.6" hidden="1">
       <c r="B57" s="43" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="17.25" hidden="1">
+    <row r="58" spans="1:5" ht="19.2" hidden="1">
       <c r="B58" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="34.5" hidden="1">
+    <row r="59" spans="1:5" ht="38.4" hidden="1">
       <c r="B59" s="43" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="34.5" hidden="1">
+    <row r="60" spans="1:5" ht="38.4" hidden="1">
       <c r="B60" s="43" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="34.5" hidden="1">
+    <row r="61" spans="1:5" ht="38.4" hidden="1">
       <c r="B61" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="51.75" hidden="1">
+    <row r="62" spans="1:5" ht="57.6" hidden="1">
       <c r="B62" s="43" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="34.5" hidden="1">
+    <row r="63" spans="1:5" ht="19.2" hidden="1">
       <c r="B63" s="43" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="17.25" hidden="1">
+    <row r="64" spans="1:5" ht="19.2" hidden="1">
       <c r="B64" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="34.5" hidden="1">
+    <row r="65" spans="1:5" ht="38.4" hidden="1">
       <c r="B65" s="43" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="34.5" hidden="1">
+    <row r="66" spans="1:5" ht="38.4" hidden="1">
       <c r="B66" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="34.5" hidden="1">
+    <row r="67" spans="1:5" ht="38.4" hidden="1">
       <c r="B67" s="43" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="34.5" hidden="1">
+    <row r="68" spans="1:5" ht="38.4" hidden="1">
       <c r="B68" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="69" hidden="1">
+    <row r="69" spans="1:5" ht="57.6" hidden="1">
       <c r="B69" s="43" t="s">
         <v>1392</v>
       </c>
@@ -17939,82 +17940,82 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="17.25" hidden="1">
+    <row r="71" spans="1:5" ht="19.2" hidden="1">
       <c r="B71" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="69" hidden="1">
+    <row r="72" spans="1:5" ht="76.8" hidden="1">
       <c r="B72" s="43" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="51.75" hidden="1">
+    <row r="73" spans="1:5" ht="57.6" hidden="1">
       <c r="B73" s="43" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="51.75" hidden="1">
+    <row r="74" spans="1:5" ht="57.6" hidden="1">
       <c r="B74" s="43" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="17.25" hidden="1">
+    <row r="75" spans="1:5" ht="19.2" hidden="1">
       <c r="B75" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="34.5" hidden="1">
+    <row r="76" spans="1:5" ht="38.4" hidden="1">
       <c r="B76" s="43" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="34.5" hidden="1">
+    <row r="77" spans="1:5" ht="38.4" hidden="1">
       <c r="B77" s="43" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="34.5" hidden="1">
+    <row r="78" spans="1:5" ht="38.4" hidden="1">
       <c r="B78" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="51.75" hidden="1">
+    <row r="79" spans="1:5" ht="57.6" hidden="1">
       <c r="B79" s="43" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="34.5" hidden="1">
+    <row r="80" spans="1:5" ht="38.4" hidden="1">
       <c r="B80" s="43" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="17.25" hidden="1">
+    <row r="81" spans="1:5" ht="19.2" hidden="1">
       <c r="B81" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="51.75" hidden="1">
+    <row r="82" spans="1:5" ht="38.4" hidden="1">
       <c r="B82" s="43" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="34.5" hidden="1">
+    <row r="83" spans="1:5" ht="38.4" hidden="1">
       <c r="B83" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="51.75" hidden="1">
+    <row r="84" spans="1:5" ht="57.6" hidden="1">
       <c r="B84" s="43" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="34.5" hidden="1">
+    <row r="85" spans="1:5" ht="38.4" hidden="1">
       <c r="B85" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="69" hidden="1">
+    <row r="86" spans="1:5" ht="76.8" hidden="1">
       <c r="B86" s="43" t="s">
         <v>1403</v>
       </c>
@@ -18037,77 +18038,77 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="17.25" hidden="1">
+    <row r="88" spans="1:5" ht="19.2" hidden="1">
       <c r="B88" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="69" hidden="1">
+    <row r="89" spans="1:5" ht="76.8" hidden="1">
       <c r="B89" s="43" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="51.75" hidden="1">
+    <row r="90" spans="1:5" ht="38.4" hidden="1">
       <c r="B90" s="43" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="34.5" hidden="1">
+    <row r="91" spans="1:5" ht="38.4" hidden="1">
       <c r="B91" s="43" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="17.25" hidden="1">
+    <row r="92" spans="1:5" ht="19.2" hidden="1">
       <c r="B92" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="34.5" hidden="1">
+    <row r="93" spans="1:5" ht="38.4" hidden="1">
       <c r="B93" s="43" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="17.25" hidden="1">
+    <row r="94" spans="1:5" ht="19.2" hidden="1">
       <c r="B94" s="43" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="34.5" hidden="1">
+    <row r="95" spans="1:5" ht="38.4" hidden="1">
       <c r="B95" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="51.75" hidden="1">
+    <row r="96" spans="1:5" ht="57.6" hidden="1">
       <c r="B96" s="43" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="17.25" hidden="1">
+    <row r="97" spans="1:5" ht="19.2" hidden="1">
       <c r="B97" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="34.5" hidden="1">
+    <row r="98" spans="1:5" ht="38.4" hidden="1">
       <c r="B98" s="43" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="34.5" hidden="1">
+    <row r="99" spans="1:5" ht="38.4" hidden="1">
       <c r="B99" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="34.5" hidden="1">
+    <row r="100" spans="1:5" ht="38.4" hidden="1">
       <c r="B100" s="43" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="34.5" hidden="1">
+    <row r="101" spans="1:5" ht="38.4" hidden="1">
       <c r="B101" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="34.5" hidden="1">
+    <row r="102" spans="1:5" ht="38.4" hidden="1">
       <c r="B102" s="43" t="s">
         <v>1413</v>
       </c>
@@ -18130,77 +18131,77 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="17.25" hidden="1">
+    <row r="104" spans="1:5" ht="19.2" hidden="1">
       <c r="B104" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="51.75" hidden="1">
+    <row r="105" spans="1:5" ht="57.6" hidden="1">
       <c r="B105" s="43" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="34.5" hidden="1">
+    <row r="106" spans="1:5" ht="38.4" hidden="1">
       <c r="B106" s="43" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="51.75" hidden="1">
+    <row r="107" spans="1:5" ht="57.6" hidden="1">
       <c r="B107" s="43" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="17.25" hidden="1">
+    <row r="108" spans="1:5" ht="19.2" hidden="1">
       <c r="B108" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="34.5" hidden="1">
+    <row r="109" spans="1:5" ht="38.4" hidden="1">
       <c r="B109" s="43" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="34.5" hidden="1">
+    <row r="110" spans="1:5" ht="19.2" hidden="1">
       <c r="B110" s="43" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="34.5" hidden="1">
+    <row r="111" spans="1:5" ht="38.4" hidden="1">
       <c r="B111" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="51.75" hidden="1">
+    <row r="112" spans="1:5" ht="57.6" hidden="1">
       <c r="B112" s="43" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="17.25" hidden="1">
+    <row r="113" spans="1:5" ht="19.2" hidden="1">
       <c r="B113" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="34.5" hidden="1">
+    <row r="114" spans="1:5" ht="38.4" hidden="1">
       <c r="B114" s="43" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="34.5" hidden="1">
+    <row r="115" spans="1:5" ht="38.4" hidden="1">
       <c r="B115" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="51.75" hidden="1">
+    <row r="116" spans="1:5" ht="57.6" hidden="1">
       <c r="B116" s="43" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="34.5" hidden="1">
+    <row r="117" spans="1:5" ht="38.4" hidden="1">
       <c r="B117" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="51.75" hidden="1">
+    <row r="118" spans="1:5" ht="57.6" hidden="1">
       <c r="B118" s="43" t="s">
         <v>1423</v>
       </c>
@@ -18223,82 +18224,82 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="17.25" hidden="1">
+    <row r="120" spans="1:5" ht="19.2" hidden="1">
       <c r="B120" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="51.75" hidden="1">
+    <row r="121" spans="1:5" ht="57.6" hidden="1">
       <c r="B121" s="43" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="51.75" hidden="1">
+    <row r="122" spans="1:5" ht="57.6" hidden="1">
       <c r="B122" s="43" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="34.5" hidden="1">
+    <row r="123" spans="1:5" ht="38.4" hidden="1">
       <c r="B123" s="43" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="17.25" hidden="1">
+    <row r="124" spans="1:5" ht="19.2" hidden="1">
       <c r="B124" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="34.5" hidden="1">
+    <row r="125" spans="1:5" ht="38.4" hidden="1">
       <c r="B125" s="43" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="34.5" hidden="1">
+    <row r="126" spans="1:5" ht="38.4" hidden="1">
       <c r="B126" s="43" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="34.5" hidden="1">
+    <row r="127" spans="1:5" ht="38.4" hidden="1">
       <c r="B127" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="34.5" hidden="1">
+    <row r="128" spans="1:5" ht="38.4" hidden="1">
       <c r="B128" s="43" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="51.75" hidden="1">
+    <row r="129" spans="1:5" ht="57.6" hidden="1">
       <c r="B129" s="43" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="17.25" hidden="1">
+    <row r="130" spans="1:5" ht="19.2" hidden="1">
       <c r="B130" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="34.5" hidden="1">
+    <row r="131" spans="1:5" ht="38.4" hidden="1">
       <c r="B131" s="43" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="34.5" hidden="1">
+    <row r="132" spans="1:5" ht="38.4" hidden="1">
       <c r="B132" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="51.75" hidden="1">
+    <row r="133" spans="1:5" ht="57.6" hidden="1">
       <c r="B133" s="43" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="34.5" hidden="1">
+    <row r="134" spans="1:5" ht="38.4" hidden="1">
       <c r="B134" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="69" hidden="1">
+    <row r="135" spans="1:5" ht="76.8" hidden="1">
       <c r="B135" s="43" t="s">
         <v>1434</v>
       </c>
@@ -18321,77 +18322,77 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="17.25" hidden="1">
+    <row r="137" spans="1:5" ht="19.2" hidden="1">
       <c r="B137" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="51.75" hidden="1">
+    <row r="138" spans="1:5" ht="57.6" hidden="1">
       <c r="B138" s="43" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="51.75" hidden="1">
+    <row r="139" spans="1:5" ht="57.6" hidden="1">
       <c r="B139" s="43" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="51.75" hidden="1">
+    <row r="140" spans="1:5" ht="57.6" hidden="1">
       <c r="B140" s="43" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="17.25" hidden="1">
+    <row r="141" spans="1:5" ht="19.2" hidden="1">
       <c r="B141" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="51.75" hidden="1">
+    <row r="142" spans="1:5" ht="38.4" hidden="1">
       <c r="B142" s="43" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="34.5" hidden="1">
+    <row r="143" spans="1:5" ht="38.4" hidden="1">
       <c r="B143" s="43" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="34.5" hidden="1">
+    <row r="144" spans="1:5" ht="38.4" hidden="1">
       <c r="B144" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="69" hidden="1">
+    <row r="145" spans="1:5" ht="76.8" hidden="1">
       <c r="B145" s="43" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="17.25" hidden="1">
+    <row r="146" spans="1:5" ht="19.2" hidden="1">
       <c r="B146" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="51.75" hidden="1">
+    <row r="147" spans="1:5" ht="57.6" hidden="1">
       <c r="B147" s="43" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="34.5" hidden="1">
+    <row r="148" spans="1:5" ht="38.4" hidden="1">
       <c r="B148" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="51.75" hidden="1">
+    <row r="149" spans="1:5" ht="57.6" hidden="1">
       <c r="B149" s="43" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="34.5" hidden="1">
+    <row r="150" spans="1:5" ht="38.4" hidden="1">
       <c r="B150" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="34.5" hidden="1">
+    <row r="151" spans="1:5" ht="38.4" hidden="1">
       <c r="B151" s="43" t="s">
         <v>1444</v>
       </c>
@@ -18414,82 +18415,82 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="17.25" hidden="1">
+    <row r="153" spans="1:5" ht="19.2" hidden="1">
       <c r="B153" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="51.75" hidden="1">
+    <row r="154" spans="1:5" ht="57.6" hidden="1">
       <c r="B154" s="43" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="51.75" hidden="1">
+    <row r="155" spans="1:5" ht="57.6" hidden="1">
       <c r="B155" s="43" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="51.75" hidden="1">
+    <row r="156" spans="1:5" ht="57.6" hidden="1">
       <c r="B156" s="43" t="s">
         <v>1448</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="17.25" hidden="1">
+    <row r="157" spans="1:5" ht="19.2" hidden="1">
       <c r="B157" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="34.5" hidden="1">
+    <row r="158" spans="1:5" ht="38.4" hidden="1">
       <c r="B158" s="43" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="34.5" hidden="1">
+    <row r="159" spans="1:5" ht="38.4" hidden="1">
       <c r="B159" s="43" t="s">
         <v>1450</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="34.5" hidden="1">
+    <row r="160" spans="1:5" ht="38.4" hidden="1">
       <c r="B160" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="34.5" hidden="1">
+    <row r="161" spans="1:5" ht="38.4" hidden="1">
       <c r="B161" s="43" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="34.5" hidden="1">
+    <row r="162" spans="1:5" ht="38.4" hidden="1">
       <c r="B162" s="43" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="17.25" hidden="1">
+    <row r="163" spans="1:5" ht="19.2" hidden="1">
       <c r="B163" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="51.75" hidden="1">
+    <row r="164" spans="1:5" ht="57.6" hidden="1">
       <c r="B164" s="43" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="34.5" hidden="1">
+    <row r="165" spans="1:5" ht="38.4" hidden="1">
       <c r="B165" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="34.5" hidden="1">
+    <row r="166" spans="1:5" ht="38.4" hidden="1">
       <c r="B166" s="43" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="34.5" hidden="1">
+    <row r="167" spans="1:5" ht="38.4" hidden="1">
       <c r="B167" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="51.75" hidden="1">
+    <row r="168" spans="1:5" ht="57.6" hidden="1">
       <c r="B168" s="43" t="s">
         <v>1455</v>
       </c>
@@ -18512,77 +18513,77 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="17.25" hidden="1">
+    <row r="170" spans="1:5" ht="19.2" hidden="1">
       <c r="B170" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="34.5" hidden="1">
+    <row r="171" spans="1:5" ht="38.4" hidden="1">
       <c r="B171" s="43" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="51.75" hidden="1">
+    <row r="172" spans="1:5" ht="57.6" hidden="1">
       <c r="B172" s="43" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="34.5" hidden="1">
+    <row r="173" spans="1:5" ht="38.4" hidden="1">
       <c r="B173" s="43" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="17.25" hidden="1">
+    <row r="174" spans="1:5" ht="19.2" hidden="1">
       <c r="B174" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="34.5" hidden="1">
+    <row r="175" spans="1:5" ht="38.4" hidden="1">
       <c r="B175" s="43" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="34.5" hidden="1">
+    <row r="176" spans="1:5" ht="38.4" hidden="1">
       <c r="B176" s="43" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="34.5" hidden="1">
+    <row r="177" spans="1:5" ht="38.4" hidden="1">
       <c r="B177" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="51.75" hidden="1">
+    <row r="178" spans="1:5" ht="57.6" hidden="1">
       <c r="B178" s="43" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="17.25" hidden="1">
+    <row r="179" spans="1:5" ht="19.2" hidden="1">
       <c r="B179" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="34.5" hidden="1">
+    <row r="180" spans="1:5" ht="38.4" hidden="1">
       <c r="B180" s="43" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="34.5" hidden="1">
+    <row r="181" spans="1:5" ht="38.4" hidden="1">
       <c r="B181" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="51.75" hidden="1">
+    <row r="182" spans="1:5" ht="38.4" hidden="1">
       <c r="B182" s="43" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="34.5" hidden="1">
+    <row r="183" spans="1:5" ht="38.4" hidden="1">
       <c r="B183" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="34.5" hidden="1">
+    <row r="184" spans="1:5" ht="38.4" hidden="1">
       <c r="B184" s="43" t="s">
         <v>1465</v>
       </c>
@@ -18605,77 +18606,77 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="17.25" hidden="1">
+    <row r="186" spans="1:5" ht="19.2" hidden="1">
       <c r="B186" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="34.5" hidden="1">
+    <row r="187" spans="1:5" ht="38.4" hidden="1">
       <c r="B187" s="43" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="51.75" hidden="1">
+    <row r="188" spans="1:5" ht="57.6" hidden="1">
       <c r="B188" s="43" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="51.75" hidden="1">
+    <row r="189" spans="1:5" ht="57.6" hidden="1">
       <c r="B189" s="43" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="17.25" hidden="1">
+    <row r="190" spans="1:5" ht="19.2" hidden="1">
       <c r="B190" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="34.5" hidden="1">
+    <row r="191" spans="1:5" ht="38.4" hidden="1">
       <c r="B191" s="43" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="34.5" hidden="1">
+    <row r="192" spans="1:5" ht="38.4" hidden="1">
       <c r="B192" s="43" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="34.5" hidden="1">
+    <row r="193" spans="1:5" ht="38.4" hidden="1">
       <c r="B193" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="69" hidden="1">
+    <row r="194" spans="1:5" ht="76.8" hidden="1">
       <c r="B194" s="43" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="17.25" hidden="1">
+    <row r="195" spans="1:5" ht="19.2" hidden="1">
       <c r="B195" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="34.5" hidden="1">
+    <row r="196" spans="1:5" ht="38.4" hidden="1">
       <c r="B196" s="43" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="34.5" hidden="1">
+    <row r="197" spans="1:5" ht="38.4" hidden="1">
       <c r="B197" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="51.75" hidden="1">
+    <row r="198" spans="1:5" ht="57.6" hidden="1">
       <c r="B198" s="43" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="34.5" hidden="1">
+    <row r="199" spans="1:5" ht="38.4" hidden="1">
       <c r="B199" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="51.75" hidden="1">
+    <row r="200" spans="1:5" ht="57.6" hidden="1">
       <c r="B200" s="43" t="s">
         <v>1475</v>
       </c>
@@ -18698,77 +18699,77 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="17.25" hidden="1">
+    <row r="202" spans="1:5" ht="19.2" hidden="1">
       <c r="B202" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="51.75" hidden="1">
+    <row r="203" spans="1:5" ht="57.6" hidden="1">
       <c r="B203" s="43" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="51.75" hidden="1">
+    <row r="204" spans="1:5" ht="57.6" hidden="1">
       <c r="B204" s="43" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="51.75" hidden="1">
+    <row r="205" spans="1:5" ht="57.6" hidden="1">
       <c r="B205" s="43" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="17.25" hidden="1">
+    <row r="206" spans="1:5" ht="19.2" hidden="1">
       <c r="B206" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="34.5" hidden="1">
+    <row r="207" spans="1:5" ht="38.4" hidden="1">
       <c r="B207" s="43" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="51.75" hidden="1">
+    <row r="208" spans="1:5" ht="57.6" hidden="1">
       <c r="B208" s="43" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="34.5" hidden="1">
+    <row r="209" spans="1:5" ht="38.4" hidden="1">
       <c r="B209" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="51.75" hidden="1">
+    <row r="210" spans="1:5" ht="57.6" hidden="1">
       <c r="B210" s="43" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="17.25" hidden="1">
+    <row r="211" spans="1:5" ht="19.2" hidden="1">
       <c r="B211" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="34.5" hidden="1">
+    <row r="212" spans="1:5" ht="38.4" hidden="1">
       <c r="B212" s="43" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="34.5" hidden="1">
+    <row r="213" spans="1:5" ht="38.4" hidden="1">
       <c r="B213" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="51.75" hidden="1">
+    <row r="214" spans="1:5" ht="57.6" hidden="1">
       <c r="B214" s="43" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="34.5" hidden="1">
+    <row r="215" spans="1:5" ht="38.4" hidden="1">
       <c r="B215" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="51.75" hidden="1">
+    <row r="216" spans="1:5" ht="57.6" hidden="1">
       <c r="B216" s="43" t="s">
         <v>1485</v>
       </c>
@@ -18791,92 +18792,92 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="17.25" hidden="1">
+    <row r="218" spans="1:5" ht="19.2" hidden="1">
       <c r="B218" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="51.75" hidden="1">
+    <row r="219" spans="1:5" ht="57.6" hidden="1">
       <c r="B219" s="43" t="s">
         <v>1487</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="51.75" hidden="1">
+    <row r="220" spans="1:5" ht="57.6" hidden="1">
       <c r="B220" s="43" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="34.5" hidden="1">
+    <row r="221" spans="1:5" ht="38.4" hidden="1">
       <c r="B221" s="43" t="s">
         <v>1489</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="86.25" hidden="1">
+    <row r="222" spans="1:5" ht="76.8" hidden="1">
       <c r="B222" s="43" t="s">
         <v>1490</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="51.75" hidden="1">
+    <row r="223" spans="1:5" ht="57.6" hidden="1">
       <c r="B223" s="43" t="s">
         <v>1491</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="17.25" hidden="1">
+    <row r="224" spans="1:5" ht="19.2" hidden="1">
       <c r="B224" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="225" spans="2:2" ht="34.5" hidden="1">
+    <row r="225" spans="2:2" ht="38.4" hidden="1">
       <c r="B225" s="43" t="s">
         <v>1492</v>
       </c>
     </row>
-    <row r="226" spans="2:2" ht="34.5" hidden="1">
+    <row r="226" spans="2:2" ht="38.4" hidden="1">
       <c r="B226" s="43" t="s">
         <v>1493</v>
       </c>
     </row>
-    <row r="227" spans="2:2" ht="34.5" hidden="1">
+    <row r="227" spans="2:2" ht="38.4" hidden="1">
       <c r="B227" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="228" spans="2:2" ht="51.75" hidden="1">
+    <row r="228" spans="2:2" ht="57.6" hidden="1">
       <c r="B228" s="43" t="s">
         <v>1494</v>
       </c>
     </row>
-    <row r="229" spans="2:2" ht="34.5" hidden="1">
+    <row r="229" spans="2:2" ht="38.4" hidden="1">
       <c r="B229" s="43" t="s">
         <v>1495</v>
       </c>
     </row>
-    <row r="230" spans="2:2" ht="17.25" hidden="1">
+    <row r="230" spans="2:2" ht="19.2" hidden="1">
       <c r="B230" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="231" spans="2:2" ht="34.5" hidden="1">
+    <row r="231" spans="2:2" ht="38.4" hidden="1">
       <c r="B231" s="43" t="s">
         <v>1496</v>
       </c>
     </row>
-    <row r="232" spans="2:2" ht="34.5" hidden="1">
+    <row r="232" spans="2:2" ht="38.4" hidden="1">
       <c r="B232" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="233" spans="2:2" ht="51.75" hidden="1">
+    <row r="233" spans="2:2" ht="57.6" hidden="1">
       <c r="B233" s="43" t="s">
         <v>1497</v>
       </c>
     </row>
-    <row r="234" spans="2:2" ht="34.5" hidden="1">
+    <row r="234" spans="2:2" ht="38.4" hidden="1">
       <c r="B234" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="235" spans="2:2" ht="51.75" hidden="1">
+    <row r="235" spans="2:2" ht="38.4" hidden="1">
       <c r="B235" s="43" t="s">
         <v>1498</v>
       </c>
@@ -18902,17 +18903,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="155.85546875" customWidth="1"/>
+    <col min="1" max="1" width="155.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1" ht="409.5">
+    <row r="4" spans="1:1" ht="409.6">
       <c r="A4" s="14" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="409.5">
+    <row r="7" spans="1:1" ht="409.6">
       <c r="A7" s="46" t="s">
         <v>1514</v>
       </c>
@@ -18930,12 +18931,12 @@
       <selection activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="112.7109375" customWidth="1"/>
+    <col min="2" max="2" width="112.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" ht="255">
+    <row r="4" spans="1:2" ht="244.8">
       <c r="A4" t="s">
         <v>400</v>
       </c>
@@ -18943,7 +18944,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="409.5">
+    <row r="10" spans="1:2" ht="409.6">
       <c r="A10" t="s">
         <v>401</v>
       </c>
@@ -18965,22 +18966,22 @@
       <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" customWidth="1"/>
-    <col min="7" max="8" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="39.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="39.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="50.5546875" customWidth="1"/>
+    <col min="7" max="8" width="11.5546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="39.5546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="39.5546875" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1">
+    <row r="1" spans="1:11" ht="16.2" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>760</v>
       </c>
@@ -19011,7 +19012,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="31.5" thickBot="1">
+    <row r="2" spans="1:11" ht="31.2" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>119</v>
       </c>
@@ -19042,7 +19043,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="31.5" thickBot="1">
+    <row r="3" spans="1:11" ht="31.2" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>119</v>
       </c>
@@ -19070,7 +19071,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.5" thickBot="1">
+    <row r="4" spans="1:11" ht="31.2" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>119</v>
       </c>
@@ -19098,7 +19099,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="46.5" thickBot="1">
+    <row r="5" spans="1:11" ht="46.2" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>119</v>
       </c>
@@ -19126,7 +19127,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="31.5" thickBot="1">
+    <row r="6" spans="1:11" ht="31.2" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>119</v>
       </c>
@@ -19154,7 +19155,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="31.5" thickBot="1">
+    <row r="7" spans="1:11" ht="31.2" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>119</v>
       </c>
@@ -19182,7 +19183,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="31.5" thickBot="1">
+    <row r="8" spans="1:11" ht="31.2" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>119</v>
       </c>
@@ -19210,7 +19211,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="31.5" thickBot="1">
+    <row r="9" spans="1:11" ht="31.2" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>119</v>
       </c>
@@ -19238,7 +19239,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="31.5" thickBot="1">
+    <row r="10" spans="1:11" ht="31.2" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>119</v>
       </c>
@@ -19266,7 +19267,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="31.5" thickBot="1">
+    <row r="11" spans="1:11" ht="31.2" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>119</v>
       </c>
@@ -19294,7 +19295,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="31.5" thickBot="1">
+    <row r="12" spans="1:11" ht="31.2" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>119</v>
       </c>
@@ -19322,7 +19323,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="31.5" thickBot="1">
+    <row r="13" spans="1:11" ht="31.2" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>119</v>
       </c>
@@ -19350,7 +19351,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="31.5" thickBot="1">
+    <row r="14" spans="1:11" ht="31.2" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>119</v>
       </c>
@@ -19378,7 +19379,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="31.5" thickBot="1">
+    <row r="15" spans="1:11" ht="31.2" thickBot="1">
       <c r="A15" s="6" t="s">
         <v>119</v>
       </c>
@@ -19406,7 +19407,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="31.5" thickBot="1">
+    <row r="16" spans="1:11" ht="31.2" thickBot="1">
       <c r="A16" s="6" t="s">
         <v>119</v>
       </c>
@@ -19434,7 +19435,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="31.5" thickBot="1">
+    <row r="17" spans="1:17" ht="31.2" thickBot="1">
       <c r="A17" s="6" t="s">
         <v>119</v>
       </c>
@@ -19462,7 +19463,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="46.5" thickBot="1">
+    <row r="18" spans="1:17" ht="31.2" thickBot="1">
       <c r="A18" s="6" t="s">
         <v>119</v>
       </c>
@@ -19490,7 +19491,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="31.5" thickBot="1">
+    <row r="19" spans="1:17" ht="31.2" thickBot="1">
       <c r="A19" s="6" t="s">
         <v>119</v>
       </c>
@@ -19518,7 +19519,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="31.5" thickBot="1">
+    <row r="20" spans="1:17" ht="31.2" thickBot="1">
       <c r="A20" s="6" t="s">
         <v>119</v>
       </c>
@@ -19546,7 +19547,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="31.5" thickBot="1">
+    <row r="21" spans="1:17" ht="31.2" thickBot="1">
       <c r="A21" s="6" t="s">
         <v>119</v>
       </c>
@@ -19574,7 +19575,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="31.5" thickBot="1">
+    <row r="22" spans="1:17" ht="31.2" thickBot="1">
       <c r="A22" s="6" t="s">
         <v>119</v>
       </c>
@@ -19602,7 +19603,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="31.5" thickBot="1">
+    <row r="23" spans="1:17" ht="31.2" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>119</v>
       </c>
@@ -19630,7 +19631,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="31.5" thickBot="1">
+    <row r="24" spans="1:17" ht="31.2" thickBot="1">
       <c r="A24" s="6" t="s">
         <v>120</v>
       </c>
@@ -19665,7 +19666,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="31.5" thickBot="1">
+    <row r="25" spans="1:17" ht="31.2" thickBot="1">
       <c r="A25" s="6" t="s">
         <v>120</v>
       </c>
@@ -19700,7 +19701,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="31.5" thickBot="1">
+    <row r="26" spans="1:17" ht="31.2" thickBot="1">
       <c r="A26" s="6" t="s">
         <v>120</v>
       </c>
@@ -19735,7 +19736,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="31.5" thickBot="1">
+    <row r="27" spans="1:17" ht="31.2" thickBot="1">
       <c r="A27" s="6" t="s">
         <v>120</v>
       </c>
@@ -19770,7 +19771,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="31.5" thickBot="1">
+    <row r="28" spans="1:17" ht="31.2" thickBot="1">
       <c r="A28" s="6" t="s">
         <v>120</v>
       </c>
@@ -19805,7 +19806,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="31.5" thickBot="1">
+    <row r="29" spans="1:17" ht="31.2" thickBot="1">
       <c r="A29" s="6" t="s">
         <v>120</v>
       </c>
@@ -19840,7 +19841,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="31.5" thickBot="1">
+    <row r="30" spans="1:17" ht="31.2" thickBot="1">
       <c r="A30" s="6" t="s">
         <v>120</v>
       </c>
@@ -19875,7 +19876,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="31.5" thickBot="1">
+    <row r="31" spans="1:17" ht="31.2" thickBot="1">
       <c r="A31" s="6" t="s">
         <v>120</v>
       </c>
@@ -19910,7 +19911,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="31.5" thickBot="1">
+    <row r="32" spans="1:17" ht="31.2" thickBot="1">
       <c r="A32" s="6" t="s">
         <v>120</v>
       </c>
@@ -19945,7 +19946,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="31.5" thickBot="1">
+    <row r="33" spans="1:17" ht="31.2" thickBot="1">
       <c r="A33" s="6" t="s">
         <v>120</v>
       </c>
@@ -19980,7 +19981,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="31.5" thickBot="1">
+    <row r="34" spans="1:17" ht="31.2" thickBot="1">
       <c r="A34" s="6" t="s">
         <v>120</v>
       </c>
@@ -20015,7 +20016,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="31.5" thickBot="1">
+    <row r="35" spans="1:17" ht="31.2" thickBot="1">
       <c r="A35" s="6" t="s">
         <v>120</v>
       </c>
@@ -20050,7 +20051,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="31.5" thickBot="1">
+    <row r="36" spans="1:17" ht="31.2" thickBot="1">
       <c r="A36" s="6" t="s">
         <v>120</v>
       </c>
@@ -20085,7 +20086,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="31.5" thickBot="1">
+    <row r="37" spans="1:17" ht="31.2" thickBot="1">
       <c r="A37" s="6" t="s">
         <v>120</v>
       </c>
@@ -20120,7 +20121,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="31.5" thickBot="1">
+    <row r="38" spans="1:17" ht="31.2" thickBot="1">
       <c r="A38" s="6" t="s">
         <v>120</v>
       </c>
@@ -20155,7 +20156,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="31.5" thickBot="1">
+    <row r="39" spans="1:17" ht="31.2" thickBot="1">
       <c r="A39" s="6" t="s">
         <v>120</v>
       </c>
@@ -20190,7 +20191,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="31.5" thickBot="1">
+    <row r="40" spans="1:17" ht="31.2" thickBot="1">
       <c r="A40" s="6" t="s">
         <v>120</v>
       </c>
@@ -20225,7 +20226,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="31.5" thickBot="1">
+    <row r="41" spans="1:17" ht="31.2" thickBot="1">
       <c r="A41" s="6" t="s">
         <v>121</v>
       </c>
@@ -20257,7 +20258,7 @@
         <v>TS-UC-SEC-MCP-003test_001_query_under_5s_allowed</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="31.5" thickBot="1">
+    <row r="42" spans="1:17" ht="31.2" thickBot="1">
       <c r="A42" s="6" t="s">
         <v>121</v>
       </c>
@@ -20289,7 +20290,7 @@
         <v>TS-UC-SEC-MCP-003test_002_query_at_5s_allowed</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="31.5" thickBot="1">
+    <row r="43" spans="1:17" ht="31.2" thickBot="1">
       <c r="A43" s="6" t="s">
         <v>121</v>
       </c>
@@ -20321,7 +20322,7 @@
         <v>TS-UC-SEC-MCP-003test_003_query_over_5s_timeout_cancelled</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="31.5" thickBot="1">
+    <row r="44" spans="1:17" ht="31.2" thickBot="1">
       <c r="A44" s="6" t="s">
         <v>121</v>
       </c>
@@ -20353,7 +20354,7 @@
         <v>TS-UC-SEC-MCP-003test_004_query_result_under_1000_rows_allowed</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="31.5" thickBot="1">
+    <row r="45" spans="1:17" ht="31.2" thickBot="1">
       <c r="A45" s="6" t="s">
         <v>121</v>
       </c>
@@ -20385,7 +20386,7 @@
         <v>TS-UC-SEC-MCP-003test_005_query_result_at_1000_rows_allowed</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="31.5" thickBot="1">
+    <row r="46" spans="1:17" ht="31.2" thickBot="1">
       <c r="A46" s="6" t="s">
         <v>121</v>
       </c>
@@ -20417,7 +20418,7 @@
         <v>TS-UC-SEC-MCP-003test_006_query_result_over_1000_rows_truncated</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="31.5" thickBot="1">
+    <row r="47" spans="1:17" ht="31.2" thickBot="1">
       <c r="A47" s="6" t="s">
         <v>121</v>
       </c>
@@ -20449,7 +20450,7 @@
         <v>TS-UC-SEC-MCP-003test_007_query_result_truncated_flag_set</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="31.5" thickBot="1">
+    <row r="48" spans="1:17" ht="31.2" thickBot="1">
       <c r="A48" s="6" t="s">
         <v>121</v>
       </c>
@@ -20481,7 +20482,7 @@
         <v>TS-UC-SEC-MCP-003test_008_timeout_returns_partial_results</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="31.5" thickBot="1">
+    <row r="49" spans="1:11" ht="31.2" thickBot="1">
       <c r="A49" s="6" t="s">
         <v>121</v>
       </c>
@@ -20513,7 +20514,7 @@
         <v>TS-UC-SEC-MCP-003test_009_timeout_audit_log_created</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="31.5" thickBot="1">
+    <row r="50" spans="1:11" ht="31.2" thickBot="1">
       <c r="A50" s="6" t="s">
         <v>121</v>
       </c>
@@ -20545,7 +20546,7 @@
         <v>TS-UC-SEC-MCP-003test_010_row_limit_audit_log_created</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="31.5" thickBot="1">
+    <row r="51" spans="1:11" ht="31.2" thickBot="1">
       <c r="A51" s="6" t="s">
         <v>121</v>
       </c>
@@ -20577,7 +20578,7 @@
         <v>TS-UC-SEC-MCP-003test_011_combined_timeout_and_row_limit</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="31.5" thickBot="1">
+    <row r="52" spans="1:11" ht="31.2" thickBot="1">
       <c r="A52" s="6" t="s">
         <v>121</v>
       </c>
@@ -20609,7 +20610,7 @@
         <v>TS-UC-SEC-MCP-003test_012_query_limit_config_per_tenant</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="31.5" thickBot="1">
+    <row r="53" spans="1:11" ht="31.2" thickBot="1">
       <c r="A53" s="6" t="s">
         <v>121</v>
       </c>
@@ -20641,7 +20642,7 @@
         <v>TS-UC-SEC-MCP-003test_edge_001_exactly_1000_rows</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="31.5" thickBot="1">
+    <row r="54" spans="1:11" ht="31.2" thickBot="1">
       <c r="A54" s="6" t="s">
         <v>121</v>
       </c>
@@ -20673,7 +20674,7 @@
         <v>TS-UC-SEC-MCP-003test_edge_002_empty_result_set</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="31.5" thickBot="1">
+    <row r="55" spans="1:11" ht="31.2" thickBot="1">
       <c r="A55" s="6" t="s">
         <v>121</v>
       </c>
@@ -20705,7 +20706,7 @@
         <v>TS-UC-SEC-MCP-003test_edge_003_streaming_query_timeout</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="31.5" thickBot="1">
+    <row r="56" spans="1:11" ht="31.2" thickBot="1">
       <c r="A56" s="6" t="s">
         <v>123</v>
       </c>
@@ -20737,7 +20738,7 @@
         <v>TS-UC-SEC-ANO-001test_001_detect_dni_valid_12345678Z</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="31.5" thickBot="1">
+    <row r="57" spans="1:11" ht="31.2" thickBot="1">
       <c r="A57" s="6" t="s">
         <v>123</v>
       </c>
@@ -20769,7 +20770,7 @@
         <v>TS-UC-SEC-ANO-001test_002_detect_dni_valid_87654321X</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="31.5" thickBot="1">
+    <row r="58" spans="1:11" ht="31.2" thickBot="1">
       <c r="A58" s="6" t="s">
         <v>123</v>
       </c>
@@ -20801,7 +20802,7 @@
         <v>TS-UC-SEC-ANO-001test_003_detect_dni_invalid_length_9_digits</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="31.5" thickBot="1">
+    <row r="59" spans="1:11" ht="31.2" thickBot="1">
       <c r="A59" s="6" t="s">
         <v>123</v>
       </c>
@@ -20833,7 +20834,7 @@
         <v>TS-UC-SEC-ANO-001test_004_detect_dni_invalid_length_7_digits</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="31.5" thickBot="1">
+    <row r="60" spans="1:11" ht="31.2" thickBot="1">
       <c r="A60" s="6" t="s">
         <v>123</v>
       </c>
@@ -20865,7 +20866,7 @@
         <v>TS-UC-SEC-ANO-001test_005_detect_dni_invalid_letter_checksum</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="31.5" thickBot="1">
+    <row r="61" spans="1:11" ht="31.2" thickBot="1">
       <c r="A61" s="6" t="s">
         <v>123</v>
       </c>
@@ -20897,7 +20898,7 @@
         <v>TS-UC-SEC-ANO-001test_006_detect_multiple_dnis_in_text</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="31.5" thickBot="1">
+    <row r="62" spans="1:11" ht="31.2" thickBot="1">
       <c r="A62" s="6" t="s">
         <v>123</v>
       </c>
@@ -20929,7 +20930,7 @@
         <v>TS-UC-SEC-ANO-001test_007_detect_email_simple</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="31.5" thickBot="1">
+    <row r="63" spans="1:11" ht="31.2" thickBot="1">
       <c r="A63" s="6" t="s">
         <v>123</v>
       </c>
@@ -20961,7 +20962,7 @@
         <v>TS-UC-SEC-ANO-001test_008_detect_email_with_subdomain</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="31.5" thickBot="1">
+    <row r="64" spans="1:11" ht="31.2" thickBot="1">
       <c r="A64" s="6" t="s">
         <v>123</v>
       </c>
@@ -20993,7 +20994,7 @@
         <v>TS-UC-SEC-ANO-001test_009_detect_email_with_plus_sign</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="31.5" thickBot="1">
+    <row r="65" spans="1:11" ht="31.2" thickBot="1">
       <c r="A65" s="6" t="s">
         <v>123</v>
       </c>
@@ -21025,7 +21026,7 @@
         <v>TS-UC-SEC-ANO-001test_010_detect_email_invalid_no_at</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="31.5" thickBot="1">
+    <row r="66" spans="1:11" ht="31.2" thickBot="1">
       <c r="A66" s="6" t="s">
         <v>123</v>
       </c>
@@ -21057,7 +21058,7 @@
         <v>TS-UC-SEC-ANO-001test_011_detect_multiple_emails_in_text</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="31.5" thickBot="1">
+    <row r="67" spans="1:11" ht="31.2" thickBot="1">
       <c r="A67" s="6" t="s">
         <v>123</v>
       </c>
@@ -21089,7 +21090,7 @@
         <v>TS-UC-SEC-ANO-001test_012_detect_phone_mobile_612345678</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="31.5" thickBot="1">
+    <row r="68" spans="1:11" ht="31.2" thickBot="1">
       <c r="A68" s="6" t="s">
         <v>123</v>
       </c>
@@ -21121,7 +21122,7 @@
         <v>TS-UC-SEC-ANO-001test_013_detect_phone_mobile_with_prefix_34</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="31.5" thickBot="1">
+    <row r="69" spans="1:11" ht="31.2" thickBot="1">
       <c r="A69" s="6" t="s">
         <v>123</v>
       </c>
@@ -21153,7 +21154,7 @@
         <v>TS-UC-SEC-ANO-001test_014_detect_phone_landline_912345678</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="31.5" thickBot="1">
+    <row r="70" spans="1:11" ht="31.2" thickBot="1">
       <c r="A70" s="6" t="s">
         <v>123</v>
       </c>
@@ -21185,7 +21186,7 @@
         <v>TS-UC-SEC-ANO-001test_015_detect_phone_invalid_short</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="31.5" thickBot="1">
+    <row r="71" spans="1:11" ht="31.2" thickBot="1">
       <c r="A71" s="6" t="s">
         <v>123</v>
       </c>
@@ -21217,7 +21218,7 @@
         <v>TS-UC-SEC-ANO-001test_016_detect_multiple_phones_in_text</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="31.5" thickBot="1">
+    <row r="72" spans="1:11" ht="31.2" thickBot="1">
       <c r="A72" s="6" t="s">
         <v>123</v>
       </c>
@@ -21249,7 +21250,7 @@
         <v>TS-UC-SEC-ANO-001test_017_detect_iban_spain_valid</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="31.5" thickBot="1">
+    <row r="73" spans="1:11" ht="31.2" thickBot="1">
       <c r="A73" s="6" t="s">
         <v>123</v>
       </c>
@@ -21281,7 +21282,7 @@
         <v>TS-UC-SEC-ANO-001test_018_detect_iban_germany_valid</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="31.5" thickBot="1">
+    <row r="74" spans="1:11" ht="31.2" thickBot="1">
       <c r="A74" s="6" t="s">
         <v>123</v>
       </c>
@@ -21313,7 +21314,7 @@
         <v>TS-UC-SEC-ANO-001test_019_detect_iban_invalid_checksum</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="31.5" thickBot="1">
+    <row r="75" spans="1:11" ht="31.2" thickBot="1">
       <c r="A75" s="6" t="s">
         <v>123</v>
       </c>
@@ -21345,7 +21346,7 @@
         <v>TS-UC-SEC-ANO-001test_020_detect_iban_invalid_length</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="31.5" thickBot="1">
+    <row r="76" spans="1:11" ht="31.2" thickBot="1">
       <c r="A76" s="6" t="s">
         <v>123</v>
       </c>
@@ -21377,7 +21378,7 @@
         <v>TS-UC-SEC-ANO-001test_021_detect_all_pii_types_in_document</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="31.5" thickBot="1">
+    <row r="77" spans="1:11" ht="31.2" thickBot="1">
       <c r="A77" s="6" t="s">
         <v>123</v>
       </c>
@@ -21409,7 +21410,7 @@
         <v>TS-UC-SEC-ANO-001test_022_detect_no_pii_clean_document</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="31.5" thickBot="1">
+    <row r="78" spans="1:11" ht="31.2" thickBot="1">
       <c r="A78" s="6" t="s">
         <v>123</v>
       </c>
@@ -21441,7 +21442,7 @@
         <v>TS-UC-SEC-ANO-001test_023_detect_pii_positions_returned</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="31.5" thickBot="1">
+    <row r="79" spans="1:11" ht="31.2" thickBot="1">
       <c r="A79" s="6" t="s">
         <v>123</v>
       </c>
@@ -21473,7 +21474,7 @@
         <v>TS-UC-SEC-ANO-001test_024_detect_pii_counts_by_type</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="31.5" thickBot="1">
+    <row r="80" spans="1:11" ht="31.2" thickBot="1">
       <c r="A80" s="6" t="s">
         <v>123</v>
       </c>
@@ -21505,7 +21506,7 @@
         <v>TS-UC-SEC-ANO-001test_edge_001_pii_in_different_languages</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="31.5" thickBot="1">
+    <row r="81" spans="1:11" ht="31.2" thickBot="1">
       <c r="A81" s="6" t="s">
         <v>123</v>
       </c>
@@ -21537,7 +21538,7 @@
         <v>TS-UC-SEC-ANO-001test_edge_002_pii_with_unicode_characters</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="31.5" thickBot="1">
+    <row r="82" spans="1:11" ht="31.2" thickBot="1">
       <c r="A82" s="6" t="s">
         <v>123</v>
       </c>
@@ -21560,7 +21561,7 @@
         <v>TS-UC-SEC-ANO-001test_edge_003_pii_in_html_escaped_text</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="31.5" thickBot="1">
+    <row r="83" spans="1:11" ht="31.2" thickBot="1">
       <c r="A83" s="6" t="s">
         <v>124</v>
       </c>
@@ -21589,7 +21590,7 @@
         <v>TS-UC-SEC-ANO-002test_001_redact_dni_to_redacted</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="31.5" thickBot="1">
+    <row r="84" spans="1:11" ht="31.2" thickBot="1">
       <c r="A84" s="6" t="s">
         <v>124</v>
       </c>
@@ -21618,7 +21619,7 @@
         <v>TS-UC-SEC-ANO-002test_002_redact_email_to_redacted</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="31.5" thickBot="1">
+    <row r="85" spans="1:11" ht="31.2" thickBot="1">
       <c r="A85" s="6" t="s">
         <v>124</v>
       </c>
@@ -21647,7 +21648,7 @@
         <v>TS-UC-SEC-ANO-002test_003_redact_phone_to_redacted</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="31.5" thickBot="1">
+    <row r="86" spans="1:11" ht="31.2" thickBot="1">
       <c r="A86" s="6" t="s">
         <v>124</v>
       </c>
@@ -21676,7 +21677,7 @@
         <v>TS-UC-SEC-ANO-002test_004_redact_multiple_pii_all_redacted</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="31.5" thickBot="1">
+    <row r="87" spans="1:11" ht="31.2" thickBot="1">
       <c r="A87" s="6" t="s">
         <v>124</v>
       </c>
@@ -21705,7 +21706,7 @@
         <v>TS-UC-SEC-ANO-002test_005_hash_dni_deterministic</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="31.5" thickBot="1">
+    <row r="88" spans="1:11" ht="31.2" thickBot="1">
       <c r="A88" s="6" t="s">
         <v>124</v>
       </c>
@@ -21734,7 +21735,7 @@
         <v>TS-UC-SEC-ANO-002test_006_hash_same_value_same_hash</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="31.5" thickBot="1">
+    <row r="89" spans="1:11" ht="31.2" thickBot="1">
       <c r="A89" s="6" t="s">
         <v>124</v>
       </c>
@@ -21763,7 +21764,7 @@
         <v>TS-UC-SEC-ANO-002test_007_hash_different_values_different_hash</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="31.5" thickBot="1">
+    <row r="90" spans="1:11" ht="31.2" thickBot="1">
       <c r="A90" s="6" t="s">
         <v>124</v>
       </c>
@@ -21792,7 +21793,7 @@
         <v>TS-UC-SEC-ANO-002test_008_hash_irreversible_validation</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="31.5" thickBot="1">
+    <row r="91" spans="1:11" ht="31.2" thickBot="1">
       <c r="A91" s="6" t="s">
         <v>124</v>
       </c>
@@ -21821,7 +21822,7 @@
         <v>TS-UC-SEC-ANO-002test_009_pseudonymize_name_to_persona_001</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="31.5" thickBot="1">
+    <row r="92" spans="1:11" ht="31.2" thickBot="1">
       <c r="A92" s="6" t="s">
         <v>124</v>
       </c>
@@ -21850,7 +21851,7 @@
         <v>TS-UC-SEC-ANO-002test_010_pseudonymize_consistent_same_name</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="46.5" thickBot="1">
+    <row r="93" spans="1:11" ht="31.2" thickBot="1">
       <c r="A93" s="6" t="s">
         <v>124</v>
       </c>
@@ -21879,7 +21880,7 @@
         <v>TS-UC-SEC-ANO-002test_011_pseudonymize_different_names_different_ids</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="31.5" thickBot="1">
+    <row r="94" spans="1:11" ht="31.2" thickBot="1">
       <c r="A94" s="6" t="s">
         <v>124</v>
       </c>
@@ -21908,7 +21909,7 @@
         <v>TS-UC-SEC-ANO-002test_012_pseudonymize_in_context_preserved</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="31.5" thickBot="1">
+    <row r="95" spans="1:11" ht="31.2" thickBot="1">
       <c r="A95" s="6" t="s">
         <v>124</v>
       </c>
@@ -21937,7 +21938,7 @@
         <v>TS-UC-SEC-ANO-002test_013_strategy_by_pii_type_default</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="31.5" thickBot="1">
+    <row r="96" spans="1:11" ht="31.2" thickBot="1">
       <c r="A96" s="6" t="s">
         <v>124</v>
       </c>
@@ -21966,7 +21967,7 @@
         <v>TS-UC-SEC-ANO-002test_014_strategy_by_tenant_config</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="31.5" thickBot="1">
+    <row r="97" spans="1:11" ht="31.2" thickBot="1">
       <c r="A97" s="6" t="s">
         <v>124</v>
       </c>
@@ -21995,7 +21996,7 @@
         <v>TS-UC-SEC-ANO-002test_015_strategy_mixed_per_type</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="31.5" thickBot="1">
+    <row r="98" spans="1:11" ht="31.2" thickBot="1">
       <c r="A98" s="6" t="s">
         <v>124</v>
       </c>
@@ -22024,7 +22025,7 @@
         <v>TS-UC-SEC-ANO-002test_016_strategy_none_keeps_original</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="31.5" thickBot="1">
+    <row r="99" spans="1:11" ht="31.2" thickBot="1">
       <c r="A99" s="6" t="s">
         <v>124</v>
       </c>
@@ -22053,7 +22054,7 @@
         <v>TS-UC-SEC-ANO-002test_edge_001_nested_pii_in_pii</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="31.5" thickBot="1">
+    <row r="100" spans="1:11" ht="31.2" thickBot="1">
       <c r="A100" s="6" t="s">
         <v>124</v>
       </c>
@@ -22082,7 +22083,7 @@
         <v>TS-UC-SEC-ANO-002test_edge_002_overlapping_pii_positions</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="31.5" thickBot="1">
+    <row r="101" spans="1:11" ht="31.2" thickBot="1">
       <c r="A101" s="6" t="s">
         <v>124</v>
       </c>
@@ -22111,7 +22112,7 @@
         <v>TS-UC-SEC-ANO-002test_edge_003_empty_text_no_error</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="16.5" thickBot="1">
+    <row r="102" spans="1:11" ht="16.2" thickBot="1">
       <c r="A102" s="6" t="s">
         <v>125</v>
       </c>
@@ -22140,7 +22141,7 @@
         <v>TS-UC-SEC-ANO-003Tests not individually listed</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="16.5" thickBot="1">
+    <row r="103" spans="1:11" ht="16.2" thickBot="1">
       <c r="A103" s="6" t="s">
         <v>126</v>
       </c>
@@ -22169,7 +22170,7 @@
         <v>TS-UC-SEC-TNT-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="16.5" thickBot="1">
+    <row r="104" spans="1:11" ht="16.2" thickBot="1">
       <c r="A104" s="6" t="s">
         <v>127</v>
       </c>
@@ -22195,7 +22196,7 @@
         <v>TS-UC-SEC-JWT-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="16.5" thickBot="1">
+    <row r="105" spans="1:11" ht="16.2" thickBot="1">
       <c r="A105" s="6" t="s">
         <v>128</v>
       </c>
@@ -22221,7 +22222,7 @@
         <v>TS-UC-SEC-AUD-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="31.5" thickBot="1">
+    <row r="106" spans="1:11" ht="31.2" thickBot="1">
       <c r="A106" s="6" t="s">
         <v>129</v>
       </c>
@@ -22250,7 +22251,7 @@
         <v>TS-UC-SEC-GAM-001test_001_mass_changes_11_in_hour_detected</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="31.5" thickBot="1">
+    <row r="107" spans="1:11" ht="31.2" thickBot="1">
       <c r="A107" s="6" t="s">
         <v>129</v>
       </c>
@@ -22279,7 +22280,7 @@
         <v>TS-UC-SEC-GAM-001test_002_mass_changes_10_in_hour_allowed</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="31.5" thickBot="1">
+    <row r="108" spans="1:11" ht="31.2" thickBot="1">
       <c r="A108" s="6" t="s">
         <v>129</v>
       </c>
@@ -22308,7 +22309,7 @@
         <v>TS-UC-SEC-GAM-001test_003_mass_changes_window_reset</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="31.5" thickBot="1">
+    <row r="109" spans="1:11" ht="31.2" thickBot="1">
       <c r="A109" s="6" t="s">
         <v>129</v>
       </c>
@@ -22337,7 +22338,7 @@
         <v>TS-UC-SEC-GAM-001test_004_resolve_reintroduce_3_times_detected</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="31.5" thickBot="1">
+    <row r="110" spans="1:11" ht="31.2" thickBot="1">
       <c r="A110" s="6" t="s">
         <v>129</v>
       </c>
@@ -22366,7 +22367,7 @@
         <v>TS-UC-SEC-GAM-001test_005_resolve_reintroduce_2_times_allowed</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="31.5" thickBot="1">
+    <row r="111" spans="1:11" ht="31.2" thickBot="1">
       <c r="A111" s="6" t="s">
         <v>129</v>
       </c>
@@ -22395,7 +22396,7 @@
         <v>TS-UC-SEC-GAM-001test_006_resolve_reintroduce_different_hash_allowed</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="31.5" thickBot="1">
+    <row r="112" spans="1:11" ht="31.2" thickBot="1">
       <c r="A112" s="6" t="s">
         <v>129</v>
       </c>
@@ -22424,7 +22425,7 @@
         <v>TS-UC-SEC-GAM-001test_007_high_score_few_docs_detected</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="31.5" thickBot="1">
+    <row r="113" spans="1:11" ht="31.2" thickBot="1">
       <c r="A113" s="6" t="s">
         <v>129</v>
       </c>
@@ -22453,7 +22454,7 @@
         <v>TS-UC-SEC-GAM-001test_008_high_score_many_docs_allowed</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="31.5" thickBot="1">
+    <row r="114" spans="1:11" ht="31.2" thickBot="1">
       <c r="A114" s="6" t="s">
         <v>129</v>
       </c>
@@ -22482,7 +22483,7 @@
         <v>TS-UC-SEC-GAM-001test_009_high_score_threshold_boundary</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="31.5" thickBot="1">
+    <row r="115" spans="1:11" ht="31.2" thickBot="1">
       <c r="A115" s="6" t="s">
         <v>129</v>
       </c>
@@ -22511,7 +22512,7 @@
         <v>TS-UC-SEC-GAM-001test_010_weight_change_25_percent_detected</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="31.5" thickBot="1">
+    <row r="116" spans="1:11" ht="31.2" thickBot="1">
       <c r="A116" s="6" t="s">
         <v>129</v>
       </c>
@@ -22540,7 +22541,7 @@
         <v>TS-UC-SEC-GAM-001test_011_weight_change_15_percent_allowed</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="31.5" thickBot="1">
+    <row r="117" spans="1:11" ht="31.2" thickBot="1">
       <c r="A117" s="6" t="s">
         <v>129</v>
       </c>
@@ -22569,7 +22570,7 @@
         <v>TS-UC-SEC-GAM-001test_012_weight_change_tracking_24h_window</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="31.5" thickBot="1">
+    <row r="118" spans="1:11" ht="31.2" thickBot="1">
       <c r="A118" s="6" t="s">
         <v>129</v>
       </c>
@@ -22598,7 +22599,7 @@
         <v>TS-UC-SEC-GAM-001test_edge_001_multiple_violations_combined</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="31.5" thickBot="1">
+    <row r="119" spans="1:11" ht="31.2" thickBot="1">
       <c r="A119" s="6" t="s">
         <v>129</v>
       </c>
@@ -22627,7 +22628,7 @@
         <v>TS-UC-SEC-GAM-001test_edge_002_violation_penalty_application</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="31.5" thickBot="1">
+    <row r="120" spans="1:11" ht="31.2" thickBot="1">
       <c r="A120" s="6" t="s">
         <v>129</v>
       </c>
@@ -22656,7 +22657,7 @@
         <v>TS-UC-SEC-GAM-001test_edge_003_violation_audit_logging</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="31.5" thickBot="1">
+    <row r="121" spans="1:11" ht="31.2" thickBot="1">
       <c r="A121" s="6" t="s">
         <v>130</v>
       </c>
@@ -22688,7 +22689,7 @@
         <v>TS-UD-DOC-CLS-001test_001_clause_creation_with_all_fields</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="31.5" thickBot="1">
+    <row r="122" spans="1:11" ht="31.2" thickBot="1">
       <c r="A122" s="6" t="s">
         <v>130</v>
       </c>
@@ -22717,7 +22718,7 @@
         <v>TS-UD-DOC-CLS-001test_002_clause_creation_minimum_fields</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="31.5" thickBot="1">
+    <row r="123" spans="1:11" ht="31.2" thickBot="1">
       <c r="A123" s="6" t="s">
         <v>130</v>
       </c>
@@ -22746,7 +22747,7 @@
         <v>TS-UD-DOC-CLS-001test_003_clause_creation_fails_without_content</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="31.5" thickBot="1">
+    <row r="124" spans="1:11" ht="31.2" thickBot="1">
       <c r="A124" s="6" t="s">
         <v>130</v>
       </c>
@@ -22775,7 +22776,7 @@
         <v>TS-UD-DOC-CLS-001test_004_clause_creation_fails_without_document_id</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="31.5" thickBot="1">
+    <row r="125" spans="1:11" ht="31.2" thickBot="1">
       <c r="A125" s="6" t="s">
         <v>130</v>
       </c>
@@ -22804,7 +22805,7 @@
         <v>TS-UD-DOC-CLS-001test_005_clause_creation_fails_without_tenant_id</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="31.5" thickBot="1">
+    <row r="126" spans="1:11" ht="31.2" thickBot="1">
       <c r="A126" s="6" t="s">
         <v>130</v>
       </c>
@@ -22833,7 +22834,7 @@
         <v>TS-UD-DOC-CLS-001test_006_clause_immutability_after_creation</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="31.5" thickBot="1">
+    <row r="127" spans="1:11" ht="31.2" thickBot="1">
       <c r="A127" s="6" t="s">
         <v>130</v>
       </c>
@@ -22862,7 +22863,7 @@
         <v>TS-UD-DOC-CLS-001test_007_clause_number_format_primera</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="31.5" thickBot="1">
+    <row r="128" spans="1:11" ht="31.2" thickBot="1">
       <c r="A128" s="6" t="s">
         <v>130</v>
       </c>
@@ -22891,7 +22892,7 @@
         <v>TS-UD-DOC-CLS-001test_008_clause_number_format_numeric</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="31.5" thickBot="1">
+    <row r="129" spans="1:11" ht="31.2" thickBot="1">
       <c r="A129" s="6" t="s">
         <v>130</v>
       </c>
@@ -22920,7 +22921,7 @@
         <v>TS-UD-DOC-CLS-001test_009_clause_number_format_decimal</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="31.5" thickBot="1">
+    <row r="130" spans="1:11" ht="31.2" thickBot="1">
       <c r="A130" s="6" t="s">
         <v>130</v>
       </c>
@@ -22949,7 +22950,7 @@
         <v>TS-UD-DOC-CLS-001test_010_clause_number_normalization</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="31.5" thickBot="1">
+    <row r="131" spans="1:11" ht="31.2" thickBot="1">
       <c r="A131" s="6" t="s">
         <v>130</v>
       </c>
@@ -22978,7 +22979,7 @@
         <v>TS-UD-DOC-CLS-001test_011_clause_content_max_length</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="31.5" thickBot="1">
+    <row r="132" spans="1:11" ht="31.2" thickBot="1">
       <c r="A132" s="6" t="s">
         <v>130</v>
       </c>
@@ -23007,7 +23008,7 @@
         <v>TS-UD-DOC-CLS-001test_012_clause_content_empty_rejected</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="31.5" thickBot="1">
+    <row r="133" spans="1:11" ht="31.2" thickBot="1">
       <c r="A133" s="6" t="s">
         <v>130</v>
       </c>
@@ -23036,7 +23037,7 @@
         <v>TS-UD-DOC-CLS-001test_013_clause_document_fk_valid</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="31.5" thickBot="1">
+    <row r="134" spans="1:11" ht="31.2" thickBot="1">
       <c r="A134" s="6" t="s">
         <v>130</v>
       </c>
@@ -23065,7 +23066,7 @@
         <v>TS-UD-DOC-CLS-001test_014_clause_document_fk_invalid_rejected</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="31.5" thickBot="1">
+    <row r="135" spans="1:11" ht="31.2" thickBot="1">
       <c r="A135" s="6" t="s">
         <v>130</v>
       </c>
@@ -23094,7 +23095,7 @@
         <v>TS-UD-DOC-CLS-001test_015_clause_tenant_fk_valid</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="31.5" thickBot="1">
+    <row r="136" spans="1:11" ht="31.2" thickBot="1">
       <c r="A136" s="6" t="s">
         <v>130</v>
       </c>
@@ -23123,7 +23124,7 @@
         <v>TS-UD-DOC-CLS-001test_016_clause_tenant_fk_invalid_rejected</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="31.5" thickBot="1">
+    <row r="137" spans="1:11" ht="31.2" thickBot="1">
       <c r="A137" s="6" t="s">
         <v>130</v>
       </c>
@@ -23152,7 +23153,7 @@
         <v>TS-UD-DOC-CLS-001test_017_clause_on_delete_restrict_document</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="31.5" thickBot="1">
+    <row r="138" spans="1:11" ht="31.2" thickBot="1">
       <c r="A138" s="6" t="s">
         <v>130</v>
       </c>
@@ -23181,7 +23182,7 @@
         <v>TS-UD-DOC-CLS-001test_018_clause_on_delete_restrict_tenant</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="31.5" thickBot="1">
+    <row r="139" spans="1:11" ht="31.2" thickBot="1">
       <c r="A139" s="6" t="s">
         <v>130</v>
       </c>
@@ -23210,7 +23211,7 @@
         <v>TS-UD-DOC-CLS-001test_019_clause_embedding_vector_size</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="31.5" thickBot="1">
+    <row r="140" spans="1:11" ht="31.2" thickBot="1">
       <c r="A140" s="6" t="s">
         <v>130</v>
       </c>
@@ -23239,7 +23240,7 @@
         <v>TS-UD-DOC-CLS-001test_020_clause_embedding_generation</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="31.5" thickBot="1">
+    <row r="141" spans="1:11" ht="31.2" thickBot="1">
       <c r="A141" s="6" t="s">
         <v>130</v>
       </c>
@@ -23268,7 +23269,7 @@
         <v>TS-UD-DOC-CLS-001test_021_clause_embedding_null_allowed</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="31.5" thickBot="1">
+    <row r="142" spans="1:11" ht="31.2" thickBot="1">
       <c r="A142" s="6" t="s">
         <v>130</v>
       </c>
@@ -23297,7 +23298,7 @@
         <v>TS-UD-DOC-CLS-001test_022_clause_embedding_update</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="16.5" thickBot="1">
+    <row r="143" spans="1:11" ht="16.2" thickBot="1">
       <c r="A143" s="6" t="s">
         <v>131</v>
       </c>
@@ -23326,7 +23327,7 @@
         <v>TS-UD-DOC-CLS-002Tests not individually listed</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="16.5" thickBot="1">
+    <row r="144" spans="1:11" ht="16.2" thickBot="1">
       <c r="A144" s="6" t="s">
         <v>132</v>
       </c>
@@ -23352,7 +23353,7 @@
         <v>TS-UD-DOC-CLS-003Tests not individually listed</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="31.5" thickBot="1">
+    <row r="145" spans="1:11" ht="31.2" thickBot="1">
       <c r="A145" s="6" t="s">
         <v>133</v>
       </c>
@@ -23381,7 +23382,7 @@
         <v>TS-UD-DOC-ENT-001test_001_date_dd_mm_yyyy_slash</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="31.5" thickBot="1">
+    <row r="146" spans="1:11" ht="31.2" thickBot="1">
       <c r="A146" s="6" t="s">
         <v>133</v>
       </c>
@@ -23410,7 +23411,7 @@
         <v>TS-UD-DOC-ENT-001test_002_date_yyyy_mm_dd_dash</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="31.5" thickBot="1">
+    <row r="147" spans="1:11" ht="31.2" thickBot="1">
       <c r="A147" s="6" t="s">
         <v>133</v>
       </c>
@@ -23439,7 +23440,7 @@
         <v>TS-UD-DOC-ENT-001test_003_date_dd_month_yyyy_spanish</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="31.5" thickBot="1">
+    <row r="148" spans="1:11" ht="31.2" thickBot="1">
       <c r="A148" s="6" t="s">
         <v>133</v>
       </c>
@@ -23468,7 +23469,7 @@
         <v>TS-UD-DOC-ENT-001test_004_date_month_dd_yyyy_english</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="31.5" thickBot="1">
+    <row r="149" spans="1:11" ht="31.2" thickBot="1">
       <c r="A149" s="6" t="s">
         <v>133</v>
       </c>
@@ -23497,7 +23498,7 @@
         <v>TS-UD-DOC-ENT-001test_005_date_relative_30_days</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="31.5" thickBot="1">
+    <row r="150" spans="1:11" ht="31.2" thickBot="1">
       <c r="A150" s="6" t="s">
         <v>133</v>
       </c>
@@ -23526,7 +23527,7 @@
         <v>TS-UD-DOC-ENT-001test_006_date_relative_3_months</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="31.5" thickBot="1">
+    <row r="151" spans="1:11" ht="31.2" thickBot="1">
       <c r="A151" s="6" t="s">
         <v>133</v>
       </c>
@@ -23555,7 +23556,7 @@
         <v>TS-UD-DOC-ENT-001test_007_date_relative_1_year</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="31.5" thickBot="1">
+    <row r="152" spans="1:11" ht="31.2" thickBot="1">
       <c r="A152" s="6" t="s">
         <v>133</v>
       </c>
@@ -23584,7 +23585,7 @@
         <v>TS-UD-DOC-ENT-001test_008_date_relative_from_date</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="31.5" thickBot="1">
+    <row r="153" spans="1:11" ht="31.2" thickBot="1">
       <c r="A153" s="6" t="s">
         <v>133</v>
       </c>
@@ -23613,7 +23614,7 @@
         <v>TS-UD-DOC-ENT-001test_009_date_context_entrega</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="31.5" thickBot="1">
+    <row r="154" spans="1:11" ht="31.2" thickBot="1">
       <c r="A154" s="6" t="s">
         <v>133</v>
       </c>
@@ -23642,7 +23643,7 @@
         <v>TS-UD-DOC-ENT-001test_010_date_context_firma</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="31.5" thickBot="1">
+    <row r="155" spans="1:11" ht="31.2" thickBot="1">
       <c r="A155" s="6" t="s">
         <v>133</v>
       </c>
@@ -23671,7 +23672,7 @@
         <v>TS-UD-DOC-ENT-001test_011_date_context_inicio</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="16.5" thickBot="1">
+    <row r="156" spans="1:11" ht="16.2" thickBot="1">
       <c r="A156" s="6" t="s">
         <v>133</v>
       </c>
@@ -23700,7 +23701,7 @@
         <v>TS-UD-DOC-ENT-001test_012_date_context_fin</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="31.5" thickBot="1">
+    <row r="157" spans="1:11" ht="31.2" thickBot="1">
       <c r="A157" s="6" t="s">
         <v>133</v>
       </c>
@@ -23729,7 +23730,7 @@
         <v>TS-UD-DOC-ENT-001test_013_multiple_dates_extraction</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="31.5" thickBot="1">
+    <row r="158" spans="1:11" ht="31.2" thickBot="1">
       <c r="A158" s="6" t="s">
         <v>133</v>
       </c>
@@ -23758,7 +23759,7 @@
         <v>TS-UD-DOC-ENT-001test_014_multiple_dates_ordering</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="31.5" thickBot="1">
+    <row r="159" spans="1:11" ht="31.2" thickBot="1">
       <c r="A159" s="6" t="s">
         <v>133</v>
       </c>
@@ -23787,7 +23788,7 @@
         <v>TS-UD-DOC-ENT-001test_015_date_range_extraction</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="31.5" thickBot="1">
+    <row r="160" spans="1:11" ht="31.2" thickBot="1">
       <c r="A160" s="6" t="s">
         <v>133</v>
       </c>
@@ -23816,7 +23817,7 @@
         <v>TS-UD-DOC-ENT-001test_016_date_invalid_format_ignored</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="31.5" thickBot="1">
+    <row r="161" spans="1:11" ht="31.2" thickBot="1">
       <c r="A161" s="6" t="s">
         <v>134</v>
       </c>
@@ -23845,7 +23846,7 @@
         <v>TS-UD-DOC-ENT-002test_001_money_eur_symbol_suffix</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="31.5" thickBot="1">
+    <row r="162" spans="1:11" ht="31.2" thickBot="1">
       <c r="A162" s="6" t="s">
         <v>134</v>
       </c>
@@ -23874,7 +23875,7 @@
         <v>TS-UD-DOC-ENT-002test_002_money_eur_symbol_prefix</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="31.5" thickBot="1">
+    <row r="163" spans="1:11" ht="31.2" thickBot="1">
       <c r="A163" s="6" t="s">
         <v>134</v>
       </c>
@@ -23903,7 +23904,7 @@
         <v>TS-UD-DOC-ENT-002test_003_money_eur_word_euros</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="31.5" thickBot="1">
+    <row r="164" spans="1:11" ht="31.2" thickBot="1">
       <c r="A164" s="6" t="s">
         <v>134</v>
       </c>
@@ -23932,7 +23933,7 @@
         <v>TS-UD-DOC-ENT-002test_004_money_eur_thousands_separator</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="31.5" thickBot="1">
+    <row r="165" spans="1:11" ht="31.2" thickBot="1">
       <c r="A165" s="6" t="s">
         <v>134</v>
       </c>
@@ -23961,7 +23962,7 @@
         <v>TS-UD-DOC-ENT-002test_005_money_usd_symbol</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="31.5" thickBot="1">
+    <row r="166" spans="1:11" ht="16.2" thickBot="1">
       <c r="A166" s="6" t="s">
         <v>134</v>
       </c>
@@ -23990,7 +23991,7 @@
         <v>TS-UD-DOC-ENT-002test_006_money_usd_word</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="31.5" thickBot="1">
+    <row r="167" spans="1:11" ht="31.2" thickBot="1">
       <c r="A167" s="6" t="s">
         <v>134</v>
       </c>
@@ -24019,7 +24020,7 @@
         <v>TS-UD-DOC-ENT-002test_007_money_usd_thousands_separator</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="31.5" thickBot="1">
+    <row r="168" spans="1:11" ht="31.2" thickBot="1">
       <c r="A168" s="6" t="s">
         <v>134</v>
       </c>
@@ -24048,7 +24049,7 @@
         <v>TS-UD-DOC-ENT-002test_008_money_context_anticipo</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="31.5" thickBot="1">
+    <row r="169" spans="1:11" ht="31.2" thickBot="1">
       <c r="A169" s="6" t="s">
         <v>134</v>
       </c>
@@ -24077,7 +24078,7 @@
         <v>TS-UD-DOC-ENT-002test_009_money_context_pago_final</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="31.5" thickBot="1">
+    <row r="170" spans="1:11" ht="31.2" thickBot="1">
       <c r="A170" s="6" t="s">
         <v>134</v>
       </c>
@@ -24106,7 +24107,7 @@
         <v>TS-UD-DOC-ENT-002test_010_money_context_penalizacion</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="31.5" thickBot="1">
+    <row r="171" spans="1:11" ht="31.2" thickBot="1">
       <c r="A171" s="6" t="s">
         <v>134</v>
       </c>
@@ -24135,7 +24136,7 @@
         <v>TS-UD-DOC-ENT-002test_011_money_context_total</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="31.5" thickBot="1">
+    <row r="172" spans="1:11" ht="31.2" thickBot="1">
       <c r="A172" s="6" t="s">
         <v>134</v>
       </c>
@@ -24164,7 +24165,7 @@
         <v>TS-UD-DOC-ENT-002test_012_multiple_amounts_extraction</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="31.5" thickBot="1">
+    <row r="173" spans="1:11" ht="31.2" thickBot="1">
       <c r="A173" s="6" t="s">
         <v>134</v>
       </c>
@@ -24193,7 +24194,7 @@
         <v>TS-UD-DOC-ENT-002test_013_money_percentage_extraction</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="31.5" thickBot="1">
+    <row r="174" spans="1:11" ht="31.2" thickBot="1">
       <c r="A174" s="6" t="s">
         <v>134</v>
       </c>
@@ -24222,7 +24223,7 @@
         <v>TS-UD-DOC-ENT-002test_014_money_negative_amount</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="16.5" thickBot="1">
+    <row r="175" spans="1:11" ht="16.2" thickBot="1">
       <c r="A175" s="6" t="s">
         <v>135</v>
       </c>
@@ -24243,7 +24244,7 @@
         <v>TS-UD-DOC-ENT-003Tests not individually listed</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="16.5" thickBot="1">
+    <row r="176" spans="1:11" ht="16.2" thickBot="1">
       <c r="A176" s="6" t="s">
         <v>136</v>
       </c>
@@ -24264,7 +24265,7 @@
         <v>TS-UD-DOC-ENT-004Tests not individually listed</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="16.5" thickBot="1">
+    <row r="177" spans="1:11" ht="16.2" thickBot="1">
       <c r="A177" s="6" t="s">
         <v>137</v>
       </c>
@@ -24285,7 +24286,7 @@
         <v>TS-UD-DOC-DOC-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="16.5" thickBot="1">
+    <row r="178" spans="1:11" ht="16.2" thickBot="1">
       <c r="A178" s="6" t="s">
         <v>138</v>
       </c>
@@ -24306,7 +24307,7 @@
         <v>TS-UD-DOC-CNF-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="16.5" thickBot="1">
+    <row r="179" spans="1:11" ht="16.2" thickBot="1">
       <c r="A179" s="6" t="s">
         <v>139</v>
       </c>
@@ -24327,7 +24328,7 @@
         <v>TS-UD-COH-CAT-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="31.5" thickBot="1">
+    <row r="180" spans="1:11" ht="31.2" thickBot="1">
       <c r="A180" s="6" t="s">
         <v>140</v>
       </c>
@@ -24359,7 +24360,7 @@
         <v>TS-UD-COH-RUL-001test_001_r11_wbs_level4_no_activities_alert</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="31.5" thickBot="1">
+    <row r="181" spans="1:11" ht="31.2" thickBot="1">
       <c r="A181" s="6" t="s">
         <v>140</v>
       </c>
@@ -24388,7 +24389,7 @@
         <v>TS-UD-COH-RUL-001test_002_r11_wbs_level4_with_activities_pass</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="31.5" thickBot="1">
+    <row r="182" spans="1:11" ht="31.2" thickBot="1">
       <c r="A182" s="6" t="s">
         <v>140</v>
       </c>
@@ -24417,7 +24418,7 @@
         <v>TS-UD-COH-RUL-001test_003_r11_wbs_level3_no_activities_ignored</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="31.5" thickBot="1">
+    <row r="183" spans="1:11" ht="31.2" thickBot="1">
       <c r="A183" s="6" t="s">
         <v>140</v>
       </c>
@@ -24446,7 +24447,7 @@
         <v>TS-UD-COH-RUL-001test_004_r11_wbs_level2_no_activities_ignored</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="31.5" thickBot="1">
+    <row r="184" spans="1:11" ht="31.2" thickBot="1">
       <c r="A184" s="6" t="s">
         <v>140</v>
       </c>
@@ -24475,7 +24476,7 @@
         <v>TS-UD-COH-RUL-001test_005_r11_multiple_wbs_level4_violations</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="31.5" thickBot="1">
+    <row r="185" spans="1:11" ht="31.2" thickBot="1">
       <c r="A185" s="6" t="s">
         <v>140</v>
       </c>
@@ -24504,7 +24505,7 @@
         <v>TS-UD-COH-RUL-001test_006_r11_alert_severity_medium</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="31.5" thickBot="1">
+    <row r="186" spans="1:11" ht="31.2" thickBot="1">
       <c r="A186" s="6" t="s">
         <v>140</v>
       </c>
@@ -24533,7 +24534,7 @@
         <v>TS-UD-COH-RUL-001test_007_r12_wbs_no_budget_line_alert</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="31.5" thickBot="1">
+    <row r="187" spans="1:11" ht="31.2" thickBot="1">
       <c r="A187" s="6" t="s">
         <v>140</v>
       </c>
@@ -24562,7 +24563,7 @@
         <v>TS-UD-COH-RUL-001test_008_r12_wbs_with_budget_line_pass</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="31.5" thickBot="1">
+    <row r="188" spans="1:11" ht="31.2" thickBot="1">
       <c r="A188" s="6" t="s">
         <v>140</v>
       </c>
@@ -24591,7 +24592,7 @@
         <v>TS-UD-COH-RUL-001test_009_r12_wbs_budget_zero_warning</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="31.5" thickBot="1">
+    <row r="189" spans="1:11" ht="31.2" thickBot="1">
       <c r="A189" s="6" t="s">
         <v>140</v>
       </c>
@@ -24620,7 +24621,7 @@
         <v>TS-UD-COH-RUL-001test_010_r12_multiple_wbs_violations</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="31.5" thickBot="1">
+    <row r="190" spans="1:11" ht="31.2" thickBot="1">
       <c r="A190" s="6" t="s">
         <v>140</v>
       </c>
@@ -24649,7 +24650,7 @@
         <v>TS-UD-COH-RUL-001test_011_r12_alert_severity_high</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="31.5" thickBot="1">
+    <row r="191" spans="1:11" ht="31.2" thickBot="1">
       <c r="A191" s="6" t="s">
         <v>140</v>
       </c>
@@ -24678,7 +24679,7 @@
         <v>TS-UD-COH-RUL-001test_012_r12_affected_entities_list</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="31.5" thickBot="1">
+    <row r="192" spans="1:11" ht="31.2" thickBot="1">
       <c r="A192" s="6" t="s">
         <v>140</v>
       </c>
@@ -24707,7 +24708,7 @@
         <v>TS-UD-COH-RUL-001test_013_r13_scope_clause_no_wbs_alert</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="31.5" thickBot="1">
+    <row r="193" spans="1:11" ht="31.2" thickBot="1">
       <c r="A193" s="6" t="s">
         <v>140</v>
       </c>
@@ -24736,7 +24737,7 @@
         <v>TS-UD-COH-RUL-001test_014_r13_scope_clause_with_wbs_pass</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="31.5" thickBot="1">
+    <row r="194" spans="1:11" ht="31.2" thickBot="1">
       <c r="A194" s="6" t="s">
         <v>140</v>
       </c>
@@ -24765,7 +24766,7 @@
         <v>TS-UD-COH-RUL-001test_015_r13_partial_coverage_calculation</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="31.5" thickBot="1">
+    <row r="195" spans="1:11" ht="31.2" thickBot="1">
       <c r="A195" s="6" t="s">
         <v>140</v>
       </c>
@@ -24794,7 +24795,7 @@
         <v>TS-UD-COH-RUL-001test_016_r13_coverage_percentage_80</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="31.5" thickBot="1">
+    <row r="196" spans="1:11" ht="31.2" thickBot="1">
       <c r="A196" s="6" t="s">
         <v>140</v>
       </c>
@@ -24823,7 +24824,7 @@
         <v>TS-UD-COH-RUL-001test_017_r13_uncovered_clauses_list</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="31.5" thickBot="1">
+    <row r="197" spans="1:11" ht="31.2" thickBot="1">
       <c r="A197" s="6" t="s">
         <v>140</v>
       </c>
@@ -24852,7 +24853,7 @@
         <v>TS-UD-COH-RUL-001test_018_r13_alert_severity_high</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="31.5" thickBot="1">
+    <row r="198" spans="1:11" ht="31.2" thickBot="1">
       <c r="A198" s="6" t="s">
         <v>141</v>
       </c>
@@ -24881,7 +24882,7 @@
         <v>TS-UD-COH-RUL-002test_001_r6_deviation_10_percent_alert</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="31.5" thickBot="1">
+    <row r="199" spans="1:11" ht="31.2" thickBot="1">
       <c r="A199" s="6" t="s">
         <v>141</v>
       </c>
@@ -24910,7 +24911,7 @@
         <v>TS-UD-COH-RUL-002test_002_r6_deviation_5_percent_pass</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="31.5" thickBot="1">
+    <row r="200" spans="1:11" ht="31.2" thickBot="1">
       <c r="A200" s="6" t="s">
         <v>141</v>
       </c>
@@ -24939,7 +24940,7 @@
         <v>TS-UD-COH-RUL-002test_003_r6_deviation_4_9_percent_pass</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="31.5" thickBot="1">
+    <row r="201" spans="1:11" ht="31.2" thickBot="1">
       <c r="A201" s="6" t="s">
         <v>141</v>
       </c>
@@ -24968,7 +24969,7 @@
         <v>TS-UD-COH-RUL-002test_004_r6_over_budget_critical</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="31.5" thickBot="1">
+    <row r="202" spans="1:11" ht="31.2" thickBot="1">
       <c r="A202" s="6" t="s">
         <v>141</v>
       </c>
@@ -24997,7 +24998,7 @@
         <v>TS-UD-COH-RUL-002test_005_r6_under_budget_warning</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="31.5" thickBot="1">
+    <row r="203" spans="1:11" ht="31.2" thickBot="1">
       <c r="A203" s="6" t="s">
         <v>141</v>
       </c>
@@ -25026,7 +25027,7 @@
         <v>TS-UD-COH-RUL-002test_006_r6_exact_match_pass</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="31.5" thickBot="1">
+    <row r="204" spans="1:11" ht="31.2" thickBot="1">
       <c r="A204" s="6" t="s">
         <v>141</v>
       </c>
@@ -25055,7 +25056,7 @@
         <v>TS-UD-COH-RUL-002test_007_r15_bom_no_budget_alert</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="31.5" thickBot="1">
+    <row r="205" spans="1:11" ht="31.2" thickBot="1">
       <c r="A205" s="6" t="s">
         <v>141</v>
       </c>
@@ -25084,7 +25085,7 @@
         <v>TS-UD-COH-RUL-002test_008_r15_bom_with_budget_pass</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="31.5" thickBot="1">
+    <row r="206" spans="1:11" ht="31.2" thickBot="1">
       <c r="A206" s="6" t="s">
         <v>141</v>
       </c>
@@ -25113,7 +25114,7 @@
         <v>TS-UD-COH-RUL-002test_009_r15_bom_client_provided_exception</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="31.5" thickBot="1">
+    <row r="207" spans="1:11" ht="31.2" thickBot="1">
       <c r="A207" s="6" t="s">
         <v>141</v>
       </c>
@@ -25142,7 +25143,7 @@
         <v>TS-UD-COH-RUL-002test_010_r15_multiple_bom_violations</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="31.5" thickBot="1">
+    <row r="208" spans="1:11" ht="31.2" thickBot="1">
       <c r="A208" s="6" t="s">
         <v>141</v>
       </c>
@@ -25171,7 +25172,7 @@
         <v>TS-UD-COH-RUL-002test_011_r15_affected_items_list</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="31.5" thickBot="1">
+    <row r="209" spans="1:11" ht="31.2" thickBot="1">
       <c r="A209" s="6" t="s">
         <v>141</v>
       </c>
@@ -25200,7 +25201,7 @@
         <v>TS-UD-COH-RUL-002test_012_r16_deviation_11_percent_alert</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="31.5" thickBot="1">
+    <row r="210" spans="1:11" ht="31.2" thickBot="1">
       <c r="A210" s="6" t="s">
         <v>141</v>
       </c>
@@ -25229,7 +25230,7 @@
         <v>TS-UD-COH-RUL-002test_013_r16_deviation_10_percent_pass</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="31.5" thickBot="1">
+    <row r="211" spans="1:11" ht="31.2" thickBot="1">
       <c r="A211" s="6" t="s">
         <v>141</v>
       </c>
@@ -25258,7 +25259,7 @@
         <v>TS-UD-COH-RUL-002test_014_r16_over_budget_critical</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="31.5" thickBot="1">
+    <row r="212" spans="1:11" ht="31.2" thickBot="1">
       <c r="A212" s="6" t="s">
         <v>141</v>
       </c>
@@ -25287,7 +25288,7 @@
         <v>TS-UD-COH-RUL-002test_015_r16_under_budget_different_severity</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="31.5" thickBot="1">
+    <row r="213" spans="1:11" ht="31.2" thickBot="1">
       <c r="A213" s="6" t="s">
         <v>141</v>
       </c>
@@ -25316,7 +25317,7 @@
         <v>TS-UD-COH-RUL-002test_016_r16_trend_calculation</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="31.5" thickBot="1">
+    <row r="214" spans="1:11" ht="31.2" thickBot="1">
       <c r="A214" s="6" t="s">
         <v>142</v>
       </c>
@@ -25348,7 +25349,7 @@
         <v>TS-UD-COH-RUL-003test_001_r1_dates_mismatch_alert</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="31.5" thickBot="1">
+    <row r="215" spans="1:11" ht="31.2" thickBot="1">
       <c r="A215" s="6" t="s">
         <v>142</v>
       </c>
@@ -25377,7 +25378,7 @@
         <v>TS-UD-COH-RUL-003test_002_r1_dates_match_pass</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="31.5" thickBot="1">
+    <row r="216" spans="1:11" ht="31.2" thickBot="1">
       <c r="A216" s="6" t="s">
         <v>142</v>
       </c>
@@ -25406,7 +25407,7 @@
         <v>TS-UD-COH-RUL-003test_003_r1_schedule_late_critical</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="31.5" thickBot="1">
+    <row r="217" spans="1:11" ht="31.2" thickBot="1">
       <c r="A217" s="6" t="s">
         <v>142</v>
       </c>
@@ -25435,7 +25436,7 @@
         <v>TS-UD-COH-RUL-003test_004_r1_schedule_early_warning</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="31.5" thickBot="1">
+    <row r="218" spans="1:11" ht="31.2" thickBot="1">
       <c r="A218" s="6" t="s">
         <v>142</v>
       </c>
@@ -25464,7 +25465,7 @@
         <v>TS-UD-COH-RUL-003test_005_r1_delta_days_calculation</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="31.5" thickBot="1">
+    <row r="219" spans="1:11" ht="31.2" thickBot="1">
       <c r="A219" s="6" t="s">
         <v>142</v>
       </c>
@@ -25493,7 +25494,7 @@
         <v>TS-UD-COH-RUL-003test_006_r2_milestone_no_activity_alert</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="31.5" thickBot="1">
+    <row r="220" spans="1:11" ht="31.2" thickBot="1">
       <c r="A220" s="6" t="s">
         <v>142</v>
       </c>
@@ -25522,7 +25523,7 @@
         <v>TS-UD-COH-RUL-003test_007_r2_milestone_with_activity_pass</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="31.5" thickBot="1">
+    <row r="221" spans="1:11" ht="31.2" thickBot="1">
       <c r="A221" s="6" t="s">
         <v>142</v>
       </c>
@@ -25551,7 +25552,7 @@
         <v>TS-UD-COH-RUL-003test_008_r2_milestone_date_mismatch_alert</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="31.5" thickBot="1">
+    <row r="222" spans="1:11" ht="31.2" thickBot="1">
       <c r="A222" s="6" t="s">
         <v>142</v>
       </c>
@@ -25580,7 +25581,7 @@
         <v>TS-UD-COH-RUL-003test_009_r2_multiple_milestones_violations</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="31.5" thickBot="1">
+    <row r="223" spans="1:11" ht="31.2" thickBot="1">
       <c r="A223" s="6" t="s">
         <v>142</v>
       </c>
@@ -25609,7 +25610,7 @@
         <v>TS-UD-COH-RUL-003test_010_r2_unlinked_milestones_list</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="31.5" thickBot="1">
+    <row r="224" spans="1:11" ht="31.2" thickBot="1">
       <c r="A224" s="6" t="s">
         <v>142</v>
       </c>
@@ -25638,7 +25639,7 @@
         <v>TS-UD-COH-RUL-003test_011_r5_activity_exceeds_contract_alert</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="31.5" thickBot="1">
+    <row r="225" spans="1:11" ht="31.2" thickBot="1">
       <c r="A225" s="6" t="s">
         <v>142</v>
       </c>
@@ -25667,7 +25668,7 @@
         <v>TS-UD-COH-RUL-003test_012_r5_activity_within_contract_pass</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="31.5" thickBot="1">
+    <row r="226" spans="1:11" ht="31.2" thickBot="1">
       <c r="A226" s="6" t="s">
         <v>142</v>
       </c>
@@ -25696,7 +25697,7 @@
         <v>TS-UD-COH-RUL-003test_013_r5_exceeding_activities_list</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="31.5" thickBot="1">
+    <row r="227" spans="1:11" ht="31.2" thickBot="1">
       <c r="A227" s="6" t="s">
         <v>142</v>
       </c>
@@ -25725,7 +25726,7 @@
         <v>TS-UD-COH-RUL-003test_014_r5_alert_severity_critical</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="31.5" thickBot="1">
+    <row r="228" spans="1:11" ht="31.2" thickBot="1">
       <c r="A228" s="6" t="s">
         <v>142</v>
       </c>
@@ -25754,7 +25755,7 @@
         <v>TS-UD-COH-RUL-003test_015_r14_order_date_passed_critical</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="31.5" thickBot="1">
+    <row r="229" spans="1:11" ht="31.2" thickBot="1">
       <c r="A229" s="6" t="s">
         <v>142</v>
       </c>
@@ -25783,7 +25784,7 @@
         <v>TS-UD-COH-RUL-003test_016_r14_order_date_tight_warning</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="16.5" thickBot="1">
+    <row r="230" spans="1:11" ht="16.2" thickBot="1">
       <c r="A230" s="6" t="s">
         <v>143</v>
       </c>
@@ -25804,7 +25805,7 @@
         <v>TS-UD-COH-RUL-004Tests not individually listed</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="16.5" thickBot="1">
+    <row r="231" spans="1:11" ht="16.2" thickBot="1">
       <c r="A231" s="6" t="s">
         <v>144</v>
       </c>
@@ -25825,7 +25826,7 @@
         <v>TS-UD-COH-RUL-005Tests not individually listed</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="16.5" thickBot="1">
+    <row r="232" spans="1:11" ht="16.2" thickBot="1">
       <c r="A232" s="6" t="s">
         <v>145</v>
       </c>
@@ -25846,7 +25847,7 @@
         <v>TS-UD-COH-RUL-006Tests not individually listed</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="31.5" thickBot="1">
+    <row r="233" spans="1:11" ht="31.2" thickBot="1">
       <c r="A233" s="6" t="s">
         <v>146</v>
       </c>
@@ -25878,7 +25879,7 @@
         <v>TS-UD-COH-SCR-001test_001_subscore_no_alerts_100_percent</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="31.5" thickBot="1">
+    <row r="234" spans="1:11" ht="31.2" thickBot="1">
       <c r="A234" s="6" t="s">
         <v>146</v>
       </c>
@@ -25907,7 +25908,7 @@
         <v>TS-UD-COH-SCR-001test_002_subscore_one_alert_penalized</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="31.5" thickBot="1">
+    <row r="235" spans="1:11" ht="31.2" thickBot="1">
       <c r="A235" s="6" t="s">
         <v>146</v>
       </c>
@@ -25936,7 +25937,7 @@
         <v>TS-UD-COH-SCR-001test_003_subscore_multiple_alerts_cumulative</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="31.5" thickBot="1">
+    <row r="236" spans="1:11" ht="31.2" thickBot="1">
       <c r="A236" s="6" t="s">
         <v>146</v>
       </c>
@@ -25965,7 +25966,7 @@
         <v>TS-UD-COH-SCR-001test_004_subscore_severity_low_penalty_5</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="31.5" thickBot="1">
+    <row r="237" spans="1:11" ht="31.2" thickBot="1">
       <c r="A237" s="6" t="s">
         <v>146</v>
       </c>
@@ -25994,7 +25995,7 @@
         <v>TS-UD-COH-SCR-001test_005_subscore_severity_medium_penalty_10</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="31.5" thickBot="1">
+    <row r="238" spans="1:11" ht="31.2" thickBot="1">
       <c r="A238" s="6" t="s">
         <v>146</v>
       </c>
@@ -26023,7 +26024,7 @@
         <v>TS-UD-COH-SCR-001test_006_subscore_severity_high_penalty_20</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="31.5" thickBot="1">
+    <row r="239" spans="1:11" ht="31.2" thickBot="1">
       <c r="A239" s="6" t="s">
         <v>146</v>
       </c>
@@ -26052,7 +26053,7 @@
         <v>TS-UD-COH-SCR-001test_007_subscore_severity_critical_penalty_30</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="31.5" thickBot="1">
+    <row r="240" spans="1:11" ht="31.2" thickBot="1">
       <c r="A240" s="6" t="s">
         <v>146</v>
       </c>
@@ -26081,7 +26082,7 @@
         <v>TS-UD-COH-SCR-001test_008_subscore_scope_calculation</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="31.5" thickBot="1">
+    <row r="241" spans="1:11" ht="31.2" thickBot="1">
       <c r="A241" s="6" t="s">
         <v>146</v>
       </c>
@@ -26110,7 +26111,7 @@
         <v>TS-UD-COH-SCR-001test_009_subscore_budget_calculation</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="31.5" thickBot="1">
+    <row r="242" spans="1:11" ht="31.2" thickBot="1">
       <c r="A242" s="6" t="s">
         <v>146</v>
       </c>
@@ -26139,7 +26140,7 @@
         <v>TS-UD-COH-SCR-001test_010_subscore_quality_calculation</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="31.5" thickBot="1">
+    <row r="243" spans="1:11" ht="31.2" thickBot="1">
       <c r="A243" s="6" t="s">
         <v>146</v>
       </c>
@@ -26168,7 +26169,7 @@
         <v>TS-UD-COH-SCR-001test_011_subscore_technical_calculation</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="31.5" thickBot="1">
+    <row r="244" spans="1:11" ht="31.2" thickBot="1">
       <c r="A244" s="6" t="s">
         <v>146</v>
       </c>
@@ -26197,7 +26198,7 @@
         <v>TS-UD-COH-SCR-001test_012_subscore_legal_calculation</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="31.5" thickBot="1">
+    <row r="245" spans="1:11" ht="31.2" thickBot="1">
       <c r="A245" s="6" t="s">
         <v>146</v>
       </c>
@@ -26226,7 +26227,7 @@
         <v>TS-UD-COH-SCR-001test_013_subscore_time_calculation</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="31.5" thickBot="1">
+    <row r="246" spans="1:11" ht="31.2" thickBot="1">
       <c r="A246" s="6" t="s">
         <v>146</v>
       </c>
@@ -26255,7 +26256,7 @@
         <v>TS-UD-COH-SCR-001test_014_subscore_floor_at_zero</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="31.5" thickBot="1">
+    <row r="247" spans="1:11" ht="31.2" thickBot="1">
       <c r="A247" s="6" t="s">
         <v>147</v>
       </c>
@@ -26284,7 +26285,7 @@
         <v>TS-UD-COH-SCR-002test_001_global_score_formula_verification</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="31.5" thickBot="1">
+    <row r="248" spans="1:11" ht="31.2" thickBot="1">
       <c r="A248" s="6" t="s">
         <v>147</v>
       </c>
@@ -26313,7 +26314,7 @@
         <v>TS-UD-COH-SCR-002test_002_global_score_default_weights</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="31.5" thickBot="1">
+    <row r="249" spans="1:11" ht="31.2" thickBot="1">
       <c r="A249" s="6" t="s">
         <v>147</v>
       </c>
@@ -26342,7 +26343,7 @@
         <v>TS-UD-COH-SCR-002test_003_global_score_all_100_equals_100</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="31.5" thickBot="1">
+    <row r="250" spans="1:11" ht="31.2" thickBot="1">
       <c r="A250" s="6" t="s">
         <v>147</v>
       </c>
@@ -26371,7 +26372,7 @@
         <v>TS-UD-COH-SCR-002test_004_global_score_all_0_equals_0</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="31.5" thickBot="1">
+    <row r="251" spans="1:11" ht="31.2" thickBot="1">
       <c r="A251" s="6" t="s">
         <v>147</v>
       </c>
@@ -26400,7 +26401,7 @@
         <v>TS-UD-COH-SCR-002test_005_global_score_mixed_subscores</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="31.5" thickBot="1">
+    <row r="252" spans="1:11" ht="31.2" thickBot="1">
       <c r="A252" s="6" t="s">
         <v>147</v>
       </c>
@@ -26429,7 +26430,7 @@
         <v>TS-UD-COH-SCR-002test_006_global_score_range_0_to_100</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="31.5" thickBot="1">
+    <row r="253" spans="1:11" ht="31.2" thickBot="1">
       <c r="A253" s="6" t="s">
         <v>147</v>
       </c>
@@ -26458,7 +26459,7 @@
         <v>TS-UD-COH-SCR-002test_007_weights_sum_validation</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="31.5" thickBot="1">
+    <row r="254" spans="1:11" ht="31.2" thickBot="1">
       <c r="A254" s="6" t="s">
         <v>147</v>
       </c>
@@ -26487,7 +26488,7 @@
         <v>TS-UD-COH-SCR-002test_008_weights_normalization_auto</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="31.5" thickBot="1">
+    <row r="255" spans="1:11" ht="31.2" thickBot="1">
       <c r="A255" s="6" t="s">
         <v>147</v>
       </c>
@@ -26516,7 +26517,7 @@
         <v>TS-UD-COH-SCR-002test_009_weights_custom_budget_30</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="31.5" thickBot="1">
+    <row r="256" spans="1:11" ht="31.2" thickBot="1">
       <c r="A256" s="6" t="s">
         <v>147</v>
       </c>
@@ -26545,7 +26546,7 @@
         <v>TS-UD-COH-SCR-002test_010_weights_custom_time_25</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="31.5" thickBot="1">
+    <row r="257" spans="1:11" ht="31.2" thickBot="1">
       <c r="A257" s="6" t="s">
         <v>147</v>
       </c>
@@ -26574,7 +26575,7 @@
         <v>TS-UD-COH-SCR-002test_011_weights_per_project_type</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="31.5" thickBot="1">
+    <row r="258" spans="1:11" ht="31.2" thickBot="1">
       <c r="A258" s="6" t="s">
         <v>147</v>
       </c>
@@ -26603,7 +26604,7 @@
         <v>TS-UD-COH-SCR-002test_012_weights_history_tracking</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="16.5" thickBot="1">
+    <row r="259" spans="1:11" ht="16.2" thickBot="1">
       <c r="A259" s="6" t="s">
         <v>148</v>
       </c>
@@ -26620,7 +26621,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="31.5" thickBot="1">
+    <row r="260" spans="1:11" ht="31.2" thickBot="1">
       <c r="A260" s="6" t="s">
         <v>149</v>
       </c>
@@ -26649,7 +26650,7 @@
         <v>TS-UD-COH-GAM-001test_001_detect_mass_changes_15_in_30min</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="31.5" thickBot="1">
+    <row r="261" spans="1:11" ht="31.2" thickBot="1">
       <c r="A261" s="6" t="s">
         <v>149</v>
       </c>
@@ -26678,7 +26679,7 @@
         <v>TS-UD-COH-GAM-001test_002_no_violation_10_in_60min</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="31.5" thickBot="1">
+    <row r="262" spans="1:11" ht="31.2" thickBot="1">
       <c r="A262" s="6" t="s">
         <v>149</v>
       </c>
@@ -26707,7 +26708,7 @@
         <v>TS-UD-COH-GAM-001test_003_mass_changes_window_sliding</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="31.5" thickBot="1">
+    <row r="263" spans="1:11" ht="31.2" thickBot="1">
       <c r="A263" s="6" t="s">
         <v>149</v>
       </c>
@@ -26736,7 +26737,7 @@
         <v>TS-UD-COH-GAM-001test_004_mass_changes_flag_for_review</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="31.5" thickBot="1">
+    <row r="264" spans="1:11" ht="31.2" thickBot="1">
       <c r="A264" s="6" t="s">
         <v>149</v>
       </c>
@@ -26765,7 +26766,7 @@
         <v>TS-UD-COH-GAM-001test_005_detect_resolve_reintroduce_4_times</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="31.5" thickBot="1">
+    <row r="265" spans="1:11" ht="31.2" thickBot="1">
       <c r="A265" s="6" t="s">
         <v>149</v>
       </c>
@@ -26794,7 +26795,7 @@
         <v>TS-UD-COH-GAM-001test_006_no_violation_2_times</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="31.5" thickBot="1">
+    <row r="266" spans="1:11" ht="31.2" thickBot="1">
       <c r="A266" s="6" t="s">
         <v>149</v>
       </c>
@@ -26823,7 +26824,7 @@
         <v>TS-UD-COH-GAM-001test_007_hash_comparison_same_content</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="31.5" thickBot="1">
+    <row r="267" spans="1:11" ht="31.2" thickBot="1">
       <c r="A267" s="6" t="s">
         <v>149</v>
       </c>
@@ -26852,7 +26853,7 @@
         <v>TS-UD-COH-GAM-001test_008_penalty_minus_5_points</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="31.5" thickBot="1">
+    <row r="268" spans="1:11" ht="31.2" thickBot="1">
       <c r="A268" s="6" t="s">
         <v>149</v>
       </c>
@@ -26881,7 +26882,7 @@
         <v>TS-UD-COH-GAM-001test_009_detect_95_percent_3_docs</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="31.5" thickBot="1">
+    <row r="269" spans="1:11" ht="31.2" thickBot="1">
       <c r="A269" s="6" t="s">
         <v>149</v>
       </c>
@@ -26910,7 +26911,7 @@
         <v>TS-UD-COH-GAM-001test_010_no_violation_95_percent_50_docs</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="31.5" thickBot="1">
+    <row r="270" spans="1:11" ht="31.2" thickBot="1">
       <c r="A270" s="6" t="s">
         <v>149</v>
       </c>
@@ -26939,7 +26940,7 @@
         <v>TS-UD-COH-GAM-001test_011_threshold_90_percent_5_docs</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="31.5" thickBot="1">
+    <row r="271" spans="1:11" ht="31.2" thickBot="1">
       <c r="A271" s="6" t="s">
         <v>149</v>
       </c>
@@ -26968,7 +26969,7 @@
         <v>TS-UD-COH-GAM-001test_012_require_audit_action</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="31.5" thickBot="1">
+    <row r="272" spans="1:11" ht="31.2" thickBot="1">
       <c r="A272" s="6" t="s">
         <v>149</v>
       </c>
@@ -26997,7 +26998,7 @@
         <v>TS-UD-COH-GAM-001test_013_detect_weight_change_25_percent</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="31.5" thickBot="1">
+    <row r="273" spans="1:11" ht="31.2" thickBot="1">
       <c r="A273" s="6" t="s">
         <v>149</v>
       </c>
@@ -27026,7 +27027,7 @@
         <v>TS-UD-COH-GAM-001test_014_no_violation_change_15_percent</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="31.5" thickBot="1">
+    <row r="274" spans="1:11" ht="31.2" thickBot="1">
       <c r="A274" s="6" t="s">
         <v>149</v>
       </c>
@@ -27055,7 +27056,7 @@
         <v>TS-UD-COH-GAM-001test_015_24h_window_tracking</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="31.5" thickBot="1">
+    <row r="275" spans="1:11" ht="31.2" thickBot="1">
       <c r="A275" s="6" t="s">
         <v>149</v>
       </c>
@@ -27084,7 +27085,7 @@
         <v>TS-UD-COH-GAM-001test_016_notify_admin_action</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="16.5" thickBot="1">
+    <row r="276" spans="1:11" ht="16.2" thickBot="1">
       <c r="A276" s="6" t="s">
         <v>150</v>
       </c>
@@ -27105,7 +27106,7 @@
         <v>TS-UD-COH-ALR-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="31.5" thickBot="1">
+    <row r="277" spans="1:11" ht="31.2" thickBot="1">
       <c r="A277" s="6" t="s">
         <v>151</v>
       </c>
@@ -27137,7 +27138,7 @@
         <v>TS-UD-PRJ-WBS-001test_001_wbs_item_creation_all_fields</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="31.5" thickBot="1">
+    <row r="278" spans="1:11" ht="31.2" thickBot="1">
       <c r="A278" s="6" t="s">
         <v>151</v>
       </c>
@@ -27166,7 +27167,7 @@
         <v>TS-UD-PRJ-WBS-001test_002_wbs_item_creation_minimum_fields</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="31.5" thickBot="1">
+    <row r="279" spans="1:11" ht="31.2" thickBot="1">
       <c r="A279" s="6" t="s">
         <v>151</v>
       </c>
@@ -27195,7 +27196,7 @@
         <v>TS-UD-PRJ-WBS-001test_003_wbs_item_fails_without_code</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="31.5" thickBot="1">
+    <row r="280" spans="1:11" ht="31.2" thickBot="1">
       <c r="A280" s="6" t="s">
         <v>151</v>
       </c>
@@ -27224,7 +27225,7 @@
         <v>TS-UD-PRJ-WBS-001test_004_wbs_item_fails_without_name</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="31.5" thickBot="1">
+    <row r="281" spans="1:11" ht="31.2" thickBot="1">
       <c r="A281" s="6" t="s">
         <v>151</v>
       </c>
@@ -27253,7 +27254,7 @@
         <v>TS-UD-PRJ-WBS-001test_005_wbs_item_fails_invalid_level</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="31.5" thickBot="1">
+    <row r="282" spans="1:11" ht="31.2" thickBot="1">
       <c r="A282" s="6" t="s">
         <v>151</v>
       </c>
@@ -27282,7 +27283,7 @@
         <v>TS-UD-PRJ-WBS-001test_006_wbs_item_immutability</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="31.5" thickBot="1">
+    <row r="283" spans="1:11" ht="31.2" thickBot="1">
       <c r="A283" s="6" t="s">
         <v>151</v>
       </c>
@@ -27311,7 +27312,7 @@
         <v>TS-UD-PRJ-WBS-001test_007_wbs_code_format_1</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="31.5" thickBot="1">
+    <row r="284" spans="1:11" ht="31.2" thickBot="1">
       <c r="A284" s="6" t="s">
         <v>151</v>
       </c>
@@ -27340,7 +27341,7 @@
         <v>TS-UD-PRJ-WBS-001test_008_wbs_code_format_1_1</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="31.5" thickBot="1">
+    <row r="285" spans="1:11" ht="31.2" thickBot="1">
       <c r="A285" s="6" t="s">
         <v>151</v>
       </c>
@@ -27369,7 +27370,7 @@
         <v>TS-UD-PRJ-WBS-001test_009_wbs_code_format_1_1_1</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="31.5" thickBot="1">
+    <row r="286" spans="1:11" ht="31.2" thickBot="1">
       <c r="A286" s="6" t="s">
         <v>151</v>
       </c>
@@ -27398,7 +27399,7 @@
         <v>TS-UD-PRJ-WBS-001test_010_wbs_code_format_1_1_1_1</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="31.5" thickBot="1">
+    <row r="287" spans="1:11" ht="31.2" thickBot="1">
       <c r="A287" s="6" t="s">
         <v>151</v>
       </c>
@@ -27427,7 +27428,7 @@
         <v>TS-UD-PRJ-WBS-001test_011_wbs_code_invalid_format_rejected</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="31.5" thickBot="1">
+    <row r="288" spans="1:11" ht="31.2" thickBot="1">
       <c r="A288" s="6" t="s">
         <v>151</v>
       </c>
@@ -27456,7 +27457,7 @@
         <v>TS-UD-PRJ-WBS-001test_012_wbs_code_uniqueness_per_project</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="31.5" thickBot="1">
+    <row r="289" spans="1:11" ht="16.2" thickBot="1">
       <c r="A289" s="6" t="s">
         <v>151</v>
       </c>
@@ -27485,7 +27486,7 @@
         <v>TS-UD-PRJ-WBS-001test_013_wbs_level_1_valid</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="31.5" thickBot="1">
+    <row r="290" spans="1:11" ht="16.2" thickBot="1">
       <c r="A290" s="6" t="s">
         <v>151</v>
       </c>
@@ -27514,7 +27515,7 @@
         <v>TS-UD-PRJ-WBS-001test_014_wbs_level_4_valid</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="31.5" thickBot="1">
+    <row r="291" spans="1:11" ht="31.2" thickBot="1">
       <c r="A291" s="6" t="s">
         <v>151</v>
       </c>
@@ -27543,7 +27544,7 @@
         <v>TS-UD-PRJ-WBS-001test_015_wbs_level_0_invalid</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="31.5" thickBot="1">
+    <row r="292" spans="1:11" ht="31.2" thickBot="1">
       <c r="A292" s="6" t="s">
         <v>151</v>
       </c>
@@ -27572,7 +27573,7 @@
         <v>TS-UD-PRJ-WBS-001test_016_wbs_level_5_invalid</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="31.5" thickBot="1">
+    <row r="293" spans="1:11" ht="31.2" thickBot="1">
       <c r="A293" s="6" t="s">
         <v>151</v>
       </c>
@@ -27601,7 +27602,7 @@
         <v>TS-UD-PRJ-WBS-001test_017_wbs_level_matches_code_depth</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="31.5" thickBot="1">
+    <row r="294" spans="1:11" ht="31.2" thickBot="1">
       <c r="A294" s="6" t="s">
         <v>151</v>
       </c>
@@ -27630,7 +27631,7 @@
         <v>TS-UD-PRJ-WBS-001test_018_wbs_level_parent_child_validation</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="16.5" thickBot="1">
+    <row r="295" spans="1:11" ht="16.2" thickBot="1">
       <c r="A295" s="6" t="s">
         <v>152</v>
       </c>
@@ -27651,7 +27652,7 @@
         <v>TS-UD-PRJ-WBS-002Tests not individually listed</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="16.5" thickBot="1">
+    <row r="296" spans="1:11" ht="16.2" thickBot="1">
       <c r="A296" s="6" t="s">
         <v>153</v>
       </c>
@@ -27672,7 +27673,7 @@
         <v>TS-UD-PRJ-WBS-003Tests not individually listed</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="16.5" thickBot="1">
+    <row r="297" spans="1:11" ht="16.2" thickBot="1">
       <c r="A297" s="6" t="s">
         <v>154</v>
       </c>
@@ -27693,7 +27694,7 @@
         <v>TS-UD-PRJ-WBS-004Tests not individually listed</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="16.5" thickBot="1">
+    <row r="298" spans="1:11" ht="16.2" thickBot="1">
       <c r="A298" s="6" t="s">
         <v>155</v>
       </c>
@@ -27714,7 +27715,7 @@
         <v>TS-UD-PRJ-PRJ-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="16.5" thickBot="1">
+    <row r="299" spans="1:11" ht="16.2" thickBot="1">
       <c r="A299" s="6" t="s">
         <v>156</v>
       </c>
@@ -27735,7 +27736,7 @@
         <v>TS-UD-PRJ-DTO-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="16.5" thickBot="1">
+    <row r="300" spans="1:11" ht="16.2" thickBot="1">
       <c r="A300" s="6" t="s">
         <v>157</v>
       </c>
@@ -27756,7 +27757,7 @@
         <v>TS-UD-PROC-BOM-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="16.5" thickBot="1">
+    <row r="301" spans="1:11" ht="16.2" thickBot="1">
       <c r="A301" s="6" t="s">
         <v>158</v>
       </c>
@@ -27777,7 +27778,7 @@
         <v>TS-UD-PROC-BOM-002Tests not individually listed</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="31.5" thickBot="1">
+    <row r="302" spans="1:11" ht="31.2" thickBot="1">
       <c r="A302" s="6" t="s">
         <v>159</v>
       </c>
@@ -27809,7 +27810,7 @@
         <v>TS-UD-PROC-LTM-001test_001_optimal_date_production_only</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="31.5" thickBot="1">
+    <row r="303" spans="1:11" ht="31.2" thickBot="1">
       <c r="A303" s="6" t="s">
         <v>159</v>
       </c>
@@ -27838,7 +27839,7 @@
         <v>TS-UD-PROC-LTM-001test_002_optimal_date_production_transit</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="31.5" thickBot="1">
+    <row r="304" spans="1:11" ht="31.2" thickBot="1">
       <c r="A304" s="6" t="s">
         <v>159</v>
       </c>
@@ -27867,7 +27868,7 @@
         <v>TS-UD-PROC-LTM-001test_003_optimal_date_production_transit_buffer</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="31.5" thickBot="1">
+    <row r="305" spans="1:11" ht="31.2" thickBot="1">
       <c r="A305" s="6" t="s">
         <v>159</v>
       </c>
@@ -27896,7 +27897,7 @@
         <v>TS-UD-PROC-LTM-001test_004_optimal_date_all_components</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="31.5" thickBot="1">
+    <row r="306" spans="1:11" ht="31.2" thickBot="1">
       <c r="A306" s="6" t="s">
         <v>159</v>
       </c>
@@ -27925,7 +27926,7 @@
         <v>TS-UD-PROC-LTM-001test_005_lead_time_breakdown_returned</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="31.5" thickBot="1">
+    <row r="307" spans="1:11" ht="31.2" thickBot="1">
       <c r="A307" s="6" t="s">
         <v>159</v>
       </c>
@@ -27954,7 +27955,7 @@
         <v>TS-UD-PROC-LTM-001test_006_required_on_site_calculation</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="31.5" thickBot="1">
+    <row r="308" spans="1:11" ht="31.2" thickBot="1">
       <c r="A308" s="6" t="s">
         <v>159</v>
       </c>
@@ -27983,7 +27984,7 @@
         <v>TS-UD-PROC-LTM-001test_007_business_days_calculation</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="31.5" thickBot="1">
+    <row r="309" spans="1:11" ht="31.2" thickBot="1">
       <c r="A309" s="6" t="s">
         <v>159</v>
       </c>
@@ -28012,7 +28013,7 @@
         <v>TS-UD-PROC-LTM-001test_008_weekend_exclusion</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="16.5" thickBot="1">
+    <row r="310" spans="1:11" ht="16.2" thickBot="1">
       <c r="A310" s="6" t="s">
         <v>159</v>
       </c>
@@ -28041,7 +28042,7 @@
         <v>TS-UD-PROC-LTM-001test_009_holiday_exclusion</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="31.5" thickBot="1">
+    <row r="311" spans="1:11" ht="31.2" thickBot="1">
       <c r="A311" s="6" t="s">
         <v>159</v>
       </c>
@@ -28070,7 +28071,7 @@
         <v>TS-UD-PROC-LTM-001test_010_delivery_on_weekend_adjusted</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="31.5" thickBot="1">
+    <row r="312" spans="1:11" ht="31.2" thickBot="1">
       <c r="A312" s="6" t="s">
         <v>159</v>
       </c>
@@ -28099,7 +28100,7 @@
         <v>TS-UD-PROC-LTM-001test_011_mixed_calendar_business_days</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="31.5" thickBot="1">
+    <row r="313" spans="1:11" ht="31.2" thickBot="1">
       <c r="A313" s="6" t="s">
         <v>159</v>
       </c>
@@ -28128,7 +28129,7 @@
         <v>TS-UD-PROC-LTM-001test_012_alert_r14_date_passed</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="31.5" thickBot="1">
+    <row r="314" spans="1:11" ht="31.2" thickBot="1">
       <c r="A314" s="6" t="s">
         <v>159</v>
       </c>
@@ -28157,7 +28158,7 @@
         <v>TS-UD-PROC-LTM-001test_013_alert_r14_tight_margin_3_days</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="31.5" thickBot="1">
+    <row r="315" spans="1:11" ht="31.2" thickBot="1">
       <c r="A315" s="6" t="s">
         <v>159</v>
       </c>
@@ -28186,7 +28187,7 @@
         <v>TS-UD-PROC-LTM-001test_014_alert_severity_critical_passed</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="31.5" thickBot="1">
+    <row r="316" spans="1:11" ht="31.2" thickBot="1">
       <c r="A316" s="6" t="s">
         <v>159</v>
       </c>
@@ -28215,7 +28216,7 @@
         <v>TS-UD-PROC-LTM-001test_015_alert_severity_warning_tight</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="31.5" thickBot="1">
+    <row r="317" spans="1:11" ht="31.2" thickBot="1">
       <c r="A317" s="6" t="s">
         <v>159</v>
       </c>
@@ -28244,7 +28245,7 @@
         <v>TS-UD-PROC-LTM-001test_016_no_alert_sufficient_margin</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="31.5" thickBot="1">
+    <row r="318" spans="1:11" ht="31.2" thickBot="1">
       <c r="A318" s="6" t="s">
         <v>160</v>
       </c>
@@ -28270,7 +28271,7 @@
         <v>TS-UD-PROC-LTM-002test_001_exw_buyer_full_responsibility</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="31.5" thickBot="1">
+    <row r="319" spans="1:11" ht="31.2" thickBot="1">
       <c r="A319" s="6" t="s">
         <v>160</v>
       </c>
@@ -28296,7 +28297,7 @@
         <v>TS-UD-PROC-LTM-002test_002_exw_transit_time_included</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="31.5" thickBot="1">
+    <row r="320" spans="1:11" ht="31.2" thickBot="1">
       <c r="A320" s="6" t="s">
         <v>160</v>
       </c>
@@ -28322,7 +28323,7 @@
         <v>TS-UD-PROC-LTM-002test_003_exw_customs_included</v>
       </c>
     </row>
-    <row r="321" spans="1:11" ht="31.5" thickBot="1">
+    <row r="321" spans="1:11" ht="31.2" thickBot="1">
       <c r="A321" s="6" t="s">
         <v>160</v>
       </c>
@@ -28348,7 +28349,7 @@
         <v>TS-UD-PROC-LTM-002test_004_fob_shared_responsibility</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="31.5" thickBot="1">
+    <row r="322" spans="1:11" ht="31.2" thickBot="1">
       <c r="A322" s="6" t="s">
         <v>160</v>
       </c>
@@ -28374,7 +28375,7 @@
         <v>TS-UD-PROC-LTM-002test_005_fob_port_handover</v>
       </c>
     </row>
-    <row r="323" spans="1:11" ht="31.5" thickBot="1">
+    <row r="323" spans="1:11" ht="31.2" thickBot="1">
       <c r="A323" s="6" t="s">
         <v>160</v>
       </c>
@@ -28400,7 +28401,7 @@
         <v>TS-UD-PROC-LTM-002test_006_fob_insurance_buyer</v>
       </c>
     </row>
-    <row r="324" spans="1:11" ht="31.5" thickBot="1">
+    <row r="324" spans="1:11" ht="31.2" thickBot="1">
       <c r="A324" s="6" t="s">
         <v>160</v>
       </c>
@@ -28426,7 +28427,7 @@
         <v>TS-UD-PROC-LTM-002test_007_cif_seller_insurance</v>
       </c>
     </row>
-    <row r="325" spans="1:11" ht="16.5" thickBot="1">
+    <row r="325" spans="1:11" ht="16.2" thickBot="1">
       <c r="A325" s="6" t="s">
         <v>160</v>
       </c>
@@ -28452,7 +28453,7 @@
         <v>TS-UD-PROC-LTM-002test_008_cif_port_to_port</v>
       </c>
     </row>
-    <row r="326" spans="1:11" ht="31.5" thickBot="1">
+    <row r="326" spans="1:11" ht="31.2" thickBot="1">
       <c r="A326" s="6" t="s">
         <v>160</v>
       </c>
@@ -28478,7 +28479,7 @@
         <v>TS-UD-PROC-LTM-002test_009_cif_customs_buyer</v>
       </c>
     </row>
-    <row r="327" spans="1:11" ht="31.5" thickBot="1">
+    <row r="327" spans="1:11" ht="31.2" thickBot="1">
       <c r="A327" s="6" t="s">
         <v>160</v>
       </c>
@@ -28504,7 +28505,7 @@
         <v>TS-UD-PROC-LTM-002test_010_ddp_seller_full_responsibility</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="31.5" thickBot="1">
+    <row r="328" spans="1:11" ht="31.2" thickBot="1">
       <c r="A328" s="6" t="s">
         <v>160</v>
       </c>
@@ -28530,7 +28531,7 @@
         <v>TS-UD-PROC-LTM-002test_011_ddp_no_customs_buyer</v>
       </c>
     </row>
-    <row r="329" spans="1:11" ht="31.5" thickBot="1">
+    <row r="329" spans="1:11" ht="31.2" thickBot="1">
       <c r="A329" s="6" t="s">
         <v>160</v>
       </c>
@@ -28556,7 +28557,7 @@
         <v>TS-UD-PROC-LTM-002test_012_ddp_door_to_door</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="31.5" thickBot="1">
+    <row r="330" spans="1:11" ht="31.2" thickBot="1">
       <c r="A330" s="6" t="s">
         <v>160</v>
       </c>
@@ -28582,7 +28583,7 @@
         <v>TS-UD-PROC-LTM-002test_013_incoterm_comparison_same_route</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="31.5" thickBot="1">
+    <row r="331" spans="1:11" ht="31.2" thickBot="1">
       <c r="A331" s="6" t="s">
         <v>160</v>
       </c>
@@ -28608,7 +28609,7 @@
         <v>TS-UD-PROC-LTM-002test_014_incoterm_impact_on_lead_time</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="16.5" thickBot="1">
+    <row r="332" spans="1:11" ht="16.2" thickBot="1">
       <c r="A332" s="6" t="s">
         <v>161</v>
       </c>
@@ -28625,7 +28626,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="16.5" thickBot="1">
+    <row r="333" spans="1:11" ht="16.2" thickBot="1">
       <c r="A333" s="6" t="s">
         <v>162</v>
       </c>
@@ -28642,7 +28643,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="16.5" thickBot="1">
+    <row r="334" spans="1:11" ht="16.2" thickBot="1">
       <c r="A334" s="6" t="s">
         <v>163</v>
       </c>
@@ -28659,7 +28660,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="16.5" thickBot="1">
+    <row r="335" spans="1:11" ht="16.2" thickBot="1">
       <c r="A335" s="6" t="s">
         <v>164</v>
       </c>
@@ -28676,7 +28677,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="336" spans="1:11" ht="16.5" thickBot="1">
+    <row r="336" spans="1:11" ht="16.2" thickBot="1">
       <c r="A336" s="6" t="s">
         <v>165</v>
       </c>
@@ -28693,7 +28694,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="16.5" thickBot="1">
+    <row r="337" spans="1:10" ht="16.2" thickBot="1">
       <c r="A337" s="6" t="s">
         <v>166</v>
       </c>
@@ -28710,7 +28711,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="16.5" thickBot="1">
+    <row r="338" spans="1:10" ht="16.2" thickBot="1">
       <c r="A338" s="6" t="s">
         <v>167</v>
       </c>
@@ -28726,7 +28727,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="16.5" thickBot="1">
+    <row r="339" spans="1:10" ht="16.2" thickBot="1">
       <c r="A339" s="6" t="s">
         <v>168</v>
       </c>
@@ -28742,7 +28743,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="16.5" thickBot="1">
+    <row r="340" spans="1:10" ht="16.2" thickBot="1">
       <c r="A340" s="6" t="s">
         <v>169</v>
       </c>
@@ -28758,7 +28759,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="16.5" thickBot="1">
+    <row r="341" spans="1:10" ht="16.2" thickBot="1">
       <c r="A341" s="6" t="s">
         <v>170</v>
       </c>
@@ -28774,7 +28775,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="16.5" thickBot="1">
+    <row r="342" spans="1:10" ht="16.2" thickBot="1">
       <c r="A342" s="6" t="s">
         <v>171</v>
       </c>
@@ -28790,7 +28791,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="16.5" thickBot="1">
+    <row r="343" spans="1:10" ht="16.2" thickBot="1">
       <c r="A343" s="6" t="s">
         <v>172</v>
       </c>
@@ -28806,7 +28807,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="16.5" thickBot="1">
+    <row r="344" spans="1:10" ht="16.2" thickBot="1">
       <c r="A344" s="6" t="s">
         <v>173</v>
       </c>
@@ -28822,7 +28823,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="16.5" thickBot="1">
+    <row r="345" spans="1:10" ht="16.2" thickBot="1">
       <c r="A345" s="6" t="s">
         <v>174</v>
       </c>
@@ -28838,7 +28839,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="16.5" thickBot="1">
+    <row r="346" spans="1:10" ht="16.2" thickBot="1">
       <c r="A346" s="6" t="s">
         <v>175</v>
       </c>
@@ -28854,7 +28855,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="31.5" thickBot="1">
+    <row r="347" spans="1:10" ht="16.2" thickBot="1">
       <c r="A347" s="6" t="s">
         <v>176</v>
       </c>
@@ -28870,7 +28871,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="31.5" thickBot="1">
+    <row r="348" spans="1:10" ht="16.2" thickBot="1">
       <c r="A348" s="6" t="s">
         <v>177</v>
       </c>
@@ -28886,7 +28887,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="31.5" thickBot="1">
+    <row r="349" spans="1:10" ht="16.2" thickBot="1">
       <c r="A349" s="6" t="s">
         <v>178</v>
       </c>
@@ -28902,7 +28903,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="31.5" thickBot="1">
+    <row r="350" spans="1:10" ht="16.2" thickBot="1">
       <c r="A350" s="6" t="s">
         <v>179</v>
       </c>
@@ -28918,7 +28919,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="31.5" thickBot="1">
+    <row r="351" spans="1:10" ht="16.2" thickBot="1">
       <c r="A351" s="6" t="s">
         <v>180</v>
       </c>
@@ -28934,7 +28935,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="31.5" thickBot="1">
+    <row r="352" spans="1:10" ht="16.2" thickBot="1">
       <c r="A352" s="31" t="s">
         <v>181</v>
       </c>
@@ -28953,7 +28954,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="353" spans="1:10" ht="31.5" thickBot="1">
+    <row r="353" spans="1:10" ht="16.2" thickBot="1">
       <c r="A353" s="31" t="s">
         <v>182</v>
       </c>
@@ -28972,7 +28973,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="31.5" thickBot="1">
+    <row r="354" spans="1:10" ht="16.2" thickBot="1">
       <c r="A354" s="6" t="s">
         <v>183</v>
       </c>
@@ -28988,7 +28989,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="31.5" thickBot="1">
+    <row r="355" spans="1:10" ht="16.2" thickBot="1">
       <c r="A355" s="6" t="s">
         <v>184</v>
       </c>
@@ -29004,7 +29005,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="356" spans="1:10" ht="31.5" thickBot="1">
+    <row r="356" spans="1:10" ht="16.2" thickBot="1">
       <c r="A356" s="6" t="s">
         <v>185</v>
       </c>
@@ -29020,7 +29021,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="31.5" thickBot="1">
+    <row r="357" spans="1:10" ht="16.2" thickBot="1">
       <c r="A357" s="6" t="s">
         <v>186</v>
       </c>
@@ -29036,7 +29037,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="358" spans="1:10" ht="31.5" thickBot="1">
+    <row r="358" spans="1:10" ht="16.2" thickBot="1">
       <c r="A358" s="6" t="s">
         <v>187</v>
       </c>
@@ -29052,7 +29053,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="359" spans="1:10" ht="31.5" thickBot="1">
+    <row r="359" spans="1:10" ht="16.2" thickBot="1">
       <c r="A359" s="6" t="s">
         <v>188</v>
       </c>
@@ -29068,7 +29069,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="360" spans="1:10" ht="31.5" thickBot="1">
+    <row r="360" spans="1:10" ht="16.2" thickBot="1">
       <c r="A360" s="6" t="s">
         <v>189</v>
       </c>
@@ -29084,7 +29085,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="361" spans="1:10" ht="31.5" thickBot="1">
+    <row r="361" spans="1:10" ht="16.2" thickBot="1">
       <c r="A361" s="6" t="s">
         <v>190</v>
       </c>
@@ -29100,7 +29101,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="362" spans="1:10" ht="16.5" thickBot="1">
+    <row r="362" spans="1:10" ht="16.2" thickBot="1">
       <c r="A362" s="6" t="s">
         <v>191</v>
       </c>
@@ -29116,7 +29117,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="16.5" thickBot="1">
+    <row r="363" spans="1:10" ht="16.2" thickBot="1">
       <c r="A363" s="6" t="s">
         <v>192</v>
       </c>
@@ -29132,7 +29133,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="16.5" thickBot="1">
+    <row r="364" spans="1:10" ht="16.2" thickBot="1">
       <c r="A364" s="6" t="s">
         <v>193</v>
       </c>
@@ -29148,7 +29149,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="365" spans="1:10" ht="16.5" thickBot="1">
+    <row r="365" spans="1:10" ht="16.2" thickBot="1">
       <c r="A365" s="6" t="s">
         <v>194</v>
       </c>
@@ -29164,7 +29165,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="366" spans="1:10" ht="16.5" thickBot="1">
+    <row r="366" spans="1:10" ht="16.2" thickBot="1">
       <c r="A366" s="6" t="s">
         <v>195</v>
       </c>
@@ -29180,7 +29181,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="367" spans="1:10" ht="16.5" thickBot="1">
+    <row r="367" spans="1:10" ht="16.2" thickBot="1">
       <c r="A367" s="6" t="s">
         <v>196</v>
       </c>
@@ -29196,7 +29197,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="368" spans="1:10" ht="16.5" thickBot="1">
+    <row r="368" spans="1:10" ht="16.2" thickBot="1">
       <c r="A368" s="6" t="s">
         <v>197</v>
       </c>
@@ -29212,7 +29213,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="369" spans="1:10" ht="16.5" thickBot="1">
+    <row r="369" spans="1:10" ht="16.2" thickBot="1">
       <c r="A369" s="6" t="s">
         <v>198</v>
       </c>
@@ -29231,7 +29232,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="370" spans="1:10" ht="16.5" thickBot="1">
+    <row r="370" spans="1:10" ht="16.2" thickBot="1">
       <c r="A370" s="6" t="s">
         <v>199</v>
       </c>
@@ -29250,7 +29251,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="371" spans="1:10" ht="16.5" thickBot="1">
+    <row r="371" spans="1:10" ht="16.2" thickBot="1">
       <c r="A371" s="6" t="s">
         <v>200</v>
       </c>
@@ -29266,7 +29267,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="16.5" thickBot="1">
+    <row r="372" spans="1:10" ht="16.2" thickBot="1">
       <c r="A372" s="6" t="s">
         <v>201</v>
       </c>
@@ -29282,7 +29283,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="373" spans="1:10" ht="16.5" thickBot="1">
+    <row r="373" spans="1:10" ht="16.2" thickBot="1">
       <c r="A373" s="6" t="s">
         <v>202</v>
       </c>
@@ -29301,7 +29302,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="374" spans="1:10" ht="31.5" thickBot="1">
+    <row r="374" spans="1:10" ht="16.2" thickBot="1">
       <c r="A374" s="6" t="s">
         <v>203</v>
       </c>
@@ -29317,7 +29318,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="375" spans="1:10" ht="31.5" thickBot="1">
+    <row r="375" spans="1:10" ht="16.2" thickBot="1">
       <c r="A375" s="6" t="s">
         <v>204</v>
       </c>
@@ -29333,7 +29334,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="376" spans="1:10" ht="31.5" thickBot="1">
+    <row r="376" spans="1:10" ht="16.2" thickBot="1">
       <c r="A376" s="6" t="s">
         <v>205</v>
       </c>
@@ -29349,7 +29350,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="377" spans="1:10" ht="31.5" thickBot="1">
+    <row r="377" spans="1:10" ht="16.2" thickBot="1">
       <c r="A377" s="6" t="s">
         <v>206</v>
       </c>
@@ -29365,7 +29366,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="378" spans="1:10" ht="16.5" thickBot="1">
+    <row r="378" spans="1:10" ht="16.2" thickBot="1">
       <c r="A378" s="25" t="s">
         <v>207</v>
       </c>
@@ -29384,7 +29385,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="379" spans="1:10" ht="16.5" thickBot="1">
+    <row r="379" spans="1:10" ht="16.2" thickBot="1">
       <c r="A379" s="6" t="s">
         <v>208</v>
       </c>
@@ -29403,7 +29404,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="380" spans="1:10" ht="16.5" thickBot="1">
+    <row r="380" spans="1:10" ht="16.2" thickBot="1">
       <c r="A380" s="6" t="s">
         <v>209</v>
       </c>
@@ -29422,7 +29423,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="381" spans="1:10" ht="16.5" thickBot="1">
+    <row r="381" spans="1:10" ht="16.2" thickBot="1">
       <c r="A381" s="6" t="s">
         <v>210</v>
       </c>
@@ -29438,7 +29439,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="382" spans="1:10" ht="16.5" thickBot="1">
+    <row r="382" spans="1:10" ht="16.2" thickBot="1">
       <c r="A382" s="6" t="s">
         <v>211</v>
       </c>
@@ -29454,7 +29455,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="383" spans="1:10" ht="16.5" thickBot="1">
+    <row r="383" spans="1:10" ht="16.2" thickBot="1">
       <c r="A383" s="6" t="s">
         <v>212</v>
       </c>
@@ -29470,7 +29471,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="384" spans="1:10" ht="16.5" thickBot="1">
+    <row r="384" spans="1:10" ht="16.2" thickBot="1">
       <c r="A384" s="6" t="s">
         <v>213</v>
       </c>
@@ -29486,7 +29487,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="385" spans="1:10" ht="16.5" thickBot="1">
+    <row r="385" spans="1:10" ht="16.2" thickBot="1">
       <c r="A385" s="6" t="s">
         <v>214</v>
       </c>
@@ -29502,7 +29503,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="386" spans="1:10" ht="16.5" thickBot="1">
+    <row r="386" spans="1:10" ht="16.2" thickBot="1">
       <c r="A386" s="6" t="s">
         <v>215</v>
       </c>
@@ -29518,7 +29519,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="387" spans="1:10" ht="16.5" thickBot="1">
+    <row r="387" spans="1:10" ht="16.2" thickBot="1">
       <c r="A387" s="6" t="s">
         <v>216</v>
       </c>
@@ -29534,7 +29535,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="388" spans="1:10" ht="16.5" thickBot="1">
+    <row r="388" spans="1:10" ht="16.2" thickBot="1">
       <c r="A388" s="6" t="s">
         <v>217</v>
       </c>
@@ -29550,7 +29551,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="389" spans="1:10" ht="16.5" thickBot="1">
+    <row r="389" spans="1:10" ht="16.2" thickBot="1">
       <c r="A389" s="6" t="s">
         <v>218</v>
       </c>
@@ -29566,7 +29567,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="390" spans="1:10" ht="16.5" thickBot="1">
+    <row r="390" spans="1:10" ht="16.2" thickBot="1">
       <c r="A390" s="6" t="s">
         <v>219</v>
       </c>
@@ -29582,7 +29583,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="391" spans="1:10" ht="16.5" thickBot="1">
+    <row r="391" spans="1:10" ht="16.2" thickBot="1">
       <c r="A391" s="6" t="s">
         <v>220</v>
       </c>
@@ -29601,7 +29602,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="392" spans="1:10" ht="16.5" thickBot="1">
+    <row r="392" spans="1:10" ht="16.2" thickBot="1">
       <c r="A392" s="6" t="s">
         <v>221</v>
       </c>
@@ -29620,7 +29621,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="393" spans="1:10" ht="16.5" thickBot="1">
+    <row r="393" spans="1:10" ht="16.2" thickBot="1">
       <c r="A393" s="6" t="s">
         <v>222</v>
       </c>
@@ -29639,7 +29640,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="394" spans="1:10" ht="16.5" thickBot="1">
+    <row r="394" spans="1:10" ht="16.2" thickBot="1">
       <c r="A394" s="6" t="s">
         <v>223</v>
       </c>
@@ -29655,7 +29656,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="395" spans="1:10" ht="16.5" thickBot="1">
+    <row r="395" spans="1:10" ht="16.2" thickBot="1">
       <c r="A395" s="6" t="s">
         <v>224</v>
       </c>
@@ -29671,7 +29672,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="396" spans="1:10" ht="16.5" thickBot="1">
+    <row r="396" spans="1:10" ht="16.2" thickBot="1">
       <c r="A396" s="6" t="s">
         <v>225</v>
       </c>
@@ -29687,7 +29688,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="397" spans="1:10" ht="16.5" thickBot="1">
+    <row r="397" spans="1:10" ht="16.2" thickBot="1">
       <c r="A397" s="21" t="s">
         <v>226</v>
       </c>
@@ -29709,7 +29710,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="398" spans="1:10" ht="16.5" thickBot="1">
+    <row r="398" spans="1:10" ht="16.2" thickBot="1">
       <c r="A398" s="6" t="s">
         <v>227</v>
       </c>
@@ -29725,7 +29726,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="399" spans="1:10" ht="16.5" thickBot="1">
+    <row r="399" spans="1:10" ht="16.2" thickBot="1">
       <c r="A399" s="6" t="s">
         <v>228</v>
       </c>
@@ -29741,7 +29742,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="400" spans="1:10" ht="16.5" thickBot="1">
+    <row r="400" spans="1:10" ht="16.2" thickBot="1">
       <c r="A400" s="6" t="s">
         <v>229</v>
       </c>
@@ -29757,7 +29758,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="16.5" thickBot="1">
+    <row r="401" spans="1:6" ht="16.2" thickBot="1">
       <c r="A401" s="6" t="s">
         <v>230</v>
       </c>
@@ -29773,7 +29774,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="16.5" thickBot="1">
+    <row r="402" spans="1:6" ht="16.2" thickBot="1">
       <c r="A402" s="6" t="s">
         <v>231</v>
       </c>
@@ -29789,7 +29790,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="15.75" thickBot="1">
+    <row r="403" spans="1:6" ht="15" thickBot="1">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
@@ -29797,7 +29798,7 @@
       <c r="E403" s="5"/>
       <c r="F403" s="5"/>
     </row>
-    <row r="404" spans="1:6" ht="15.75" thickBot="1">
+    <row r="404" spans="1:6" ht="15" thickBot="1">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
@@ -29819,9 +29820,9 @@
       <selection activeCell="A285" sqref="A285:G285"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="9" width="11.42578125" style="23"/>
+    <col min="1" max="9" width="11.44140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -32724,10 +32725,10 @@
       <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="91.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="91.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -34654,9 +34655,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="45" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="66.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="178.85546875" customWidth="1"/>
+    <col min="2" max="2" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="178.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="45" customHeight="1">
@@ -34686,7 +34687,7 @@
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
     </row>
-    <row r="3" spans="1:10" ht="14.45" customHeight="1">
+    <row r="3" spans="1:10" ht="14.4" customHeight="1">
       <c r="A3" s="26" t="s">
         <v>834</v>
       </c>
@@ -34702,7 +34703,7 @@
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
     </row>
-    <row r="4" spans="1:10" ht="14.45" customHeight="1">
+    <row r="4" spans="1:10" ht="14.4" customHeight="1">
       <c r="A4" s="27" t="s">
         <v>835</v>
       </c>
@@ -34718,7 +34719,7 @@
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
     </row>
-    <row r="5" spans="1:10" ht="14.45" customHeight="1">
+    <row r="5" spans="1:10" ht="14.4" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>836</v>
       </c>
@@ -34734,7 +34735,7 @@
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
     </row>
-    <row r="6" spans="1:10" ht="14.45" customHeight="1">
+    <row r="6" spans="1:10" ht="14.4" customHeight="1">
       <c r="A6" s="22" t="s">
         <v>837</v>
       </c>
@@ -34750,7 +34751,7 @@
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
     </row>
-    <row r="7" spans="1:10" ht="14.45" customHeight="1">
+    <row r="7" spans="1:10" ht="14.4" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>838</v>
       </c>
@@ -34766,7 +34767,7 @@
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
     </row>
-    <row r="8" spans="1:10" ht="14.45" customHeight="1">
+    <row r="8" spans="1:10" ht="14.4" customHeight="1">
       <c r="A8" s="27" t="s">
         <v>839</v>
       </c>
@@ -34782,7 +34783,7 @@
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
     </row>
-    <row r="9" spans="1:10" ht="14.45" customHeight="1">
+    <row r="9" spans="1:10" ht="14.4" customHeight="1">
       <c r="A9" s="22" t="s">
         <v>840</v>
       </c>
@@ -34798,7 +34799,7 @@
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
     </row>
-    <row r="10" spans="1:10" ht="14.45" customHeight="1">
+    <row r="10" spans="1:10" ht="14.4" customHeight="1">
       <c r="A10" s="22" t="s">
         <v>841</v>
       </c>
@@ -34814,7 +34815,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="1:10" ht="14.45" customHeight="1">
+    <row r="11" spans="1:10" ht="14.4" customHeight="1">
       <c r="A11" s="22" t="s">
         <v>842</v>
       </c>
@@ -34830,7 +34831,7 @@
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:10" ht="14.45" customHeight="1">
+    <row r="12" spans="1:10" ht="14.4" customHeight="1">
       <c r="A12" s="22" t="s">
         <v>843</v>
       </c>
@@ -34846,7 +34847,7 @@
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
     </row>
-    <row r="13" spans="1:10" ht="14.45" customHeight="1">
+    <row r="13" spans="1:10" ht="14.4" customHeight="1">
       <c r="A13" s="22" t="s">
         <v>844</v>
       </c>
@@ -34862,7 +34863,7 @@
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
     </row>
-    <row r="14" spans="1:10" ht="14.45" customHeight="1">
+    <row r="14" spans="1:10" ht="14.4" customHeight="1">
       <c r="A14" s="35" t="s">
         <v>845</v>
       </c>
@@ -34878,7 +34879,7 @@
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
     </row>
-    <row r="15" spans="1:10" ht="14.45" customHeight="1">
+    <row r="15" spans="1:10" ht="14.4" customHeight="1">
       <c r="A15" s="35" t="s">
         <v>846</v>
       </c>
@@ -34894,7 +34895,7 @@
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" spans="1:10" ht="14.45" customHeight="1">
+    <row r="16" spans="1:10" ht="14.4" customHeight="1">
       <c r="A16" s="22" t="s">
         <v>1165</v>
       </c>
@@ -34910,7 +34911,7 @@
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
     </row>
-    <row r="17" spans="2:10" ht="14.45" customHeight="1">
+    <row r="17" spans="2:10" ht="14.4" customHeight="1">
       <c r="D17" s="22" t="s">
         <v>1135</v>
       </c>
@@ -34921,7 +34922,7 @@
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
     </row>
-    <row r="18" spans="2:10" ht="14.45" customHeight="1">
+    <row r="18" spans="2:10" ht="14.4" customHeight="1">
       <c r="B18" s="16" t="s">
         <v>812</v>
       </c>
@@ -34935,7 +34936,7 @@
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
     </row>
-    <row r="19" spans="2:10" ht="14.45" customHeight="1">
+    <row r="19" spans="2:10" ht="14.4" customHeight="1">
       <c r="B19" s="16" t="s">
         <v>813</v>
       </c>
@@ -34952,7 +34953,7 @@
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
     </row>
-    <row r="20" spans="2:10" ht="14.45" customHeight="1">
+    <row r="20" spans="2:10" ht="14.4" customHeight="1">
       <c r="B20" s="16" t="s">
         <v>814</v>
       </c>
@@ -34966,7 +34967,7 @@
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
     </row>
-    <row r="21" spans="2:10" ht="14.45" customHeight="1">
+    <row r="21" spans="2:10" ht="14.4" customHeight="1">
       <c r="B21" s="16" t="s">
         <v>815</v>
       </c>
@@ -34980,7 +34981,7 @@
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
     </row>
-    <row r="22" spans="2:10" ht="14.45" customHeight="1">
+    <row r="22" spans="2:10" ht="14.4" customHeight="1">
       <c r="B22" s="17"/>
       <c r="D22" s="22" t="s">
         <v>1126</v>
@@ -34992,7 +34993,7 @@
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
     </row>
-    <row r="23" spans="2:10" ht="14.45" customHeight="1">
+    <row r="23" spans="2:10" ht="14.4" customHeight="1">
       <c r="B23" s="16" t="s">
         <v>816</v>
       </c>
@@ -35006,7 +35007,7 @@
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
     </row>
-    <row r="24" spans="2:10" ht="14.45" customHeight="1">
+    <row r="24" spans="2:10" ht="14.4" customHeight="1">
       <c r="B24" s="16" t="s">
         <v>817</v>
       </c>
@@ -35020,7 +35021,7 @@
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
     </row>
-    <row r="25" spans="2:10" ht="14.45" customHeight="1">
+    <row r="25" spans="2:10" ht="14.4" customHeight="1">
       <c r="B25" s="17"/>
       <c r="D25" s="22" t="s">
         <v>1139</v>
@@ -35032,7 +35033,7 @@
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
     </row>
-    <row r="26" spans="2:10" ht="14.45" customHeight="1">
+    <row r="26" spans="2:10" ht="14.4" customHeight="1">
       <c r="B26" s="16" t="s">
         <v>818</v>
       </c>
@@ -35046,7 +35047,7 @@
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
     </row>
-    <row r="27" spans="2:10" ht="14.45" customHeight="1">
+    <row r="27" spans="2:10" ht="14.4" customHeight="1">
       <c r="B27" s="16" t="s">
         <v>819</v>
       </c>
@@ -35060,7 +35061,7 @@
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
     </row>
-    <row r="28" spans="2:10" ht="14.45" customHeight="1">
+    <row r="28" spans="2:10" ht="14.4" customHeight="1">
       <c r="B28" s="17"/>
       <c r="D28" s="22" t="s">
         <v>1126</v>
@@ -35072,7 +35073,7 @@
       <c r="I28" s="23"/>
       <c r="J28" s="23"/>
     </row>
-    <row r="29" spans="2:10" ht="14.45" customHeight="1">
+    <row r="29" spans="2:10" ht="14.4" customHeight="1">
       <c r="B29" s="16" t="s">
         <v>820</v>
       </c>
@@ -35086,7 +35087,7 @@
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
     </row>
-    <row r="30" spans="2:10" ht="14.45" customHeight="1">
+    <row r="30" spans="2:10" ht="14.4" customHeight="1">
       <c r="B30" s="16" t="s">
         <v>821</v>
       </c>
@@ -35100,7 +35101,7 @@
       <c r="I30" s="23"/>
       <c r="J30" s="23"/>
     </row>
-    <row r="31" spans="2:10" ht="14.45" customHeight="1">
+    <row r="31" spans="2:10" ht="14.4" customHeight="1">
       <c r="B31" s="16" t="s">
         <v>822</v>
       </c>
@@ -35114,7 +35115,7 @@
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
     </row>
-    <row r="32" spans="2:10" ht="14.45" customHeight="1">
+    <row r="32" spans="2:10" ht="14.4" customHeight="1">
       <c r="B32" s="17"/>
       <c r="D32" s="22" t="s">
         <v>1130</v>
@@ -35126,7 +35127,7 @@
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
     </row>
-    <row r="33" spans="2:10" ht="14.45" customHeight="1">
+    <row r="33" spans="2:10" ht="14.4" customHeight="1">
       <c r="B33" s="16" t="s">
         <v>823</v>
       </c>
@@ -35140,7 +35141,7 @@
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
     </row>
-    <row r="34" spans="2:10" ht="14.45" customHeight="1">
+    <row r="34" spans="2:10" ht="14.4" customHeight="1">
       <c r="B34" s="16" t="s">
         <v>824</v>
       </c>
@@ -35154,7 +35155,7 @@
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
     </row>
-    <row r="35" spans="2:10" ht="14.45" customHeight="1">
+    <row r="35" spans="2:10" ht="14.4" customHeight="1">
       <c r="B35" s="16" t="s">
         <v>825</v>
       </c>
@@ -35168,7 +35169,7 @@
       <c r="I35" s="23"/>
       <c r="J35" s="23"/>
     </row>
-    <row r="36" spans="2:10" ht="14.45" customHeight="1">
+    <row r="36" spans="2:10" ht="14.4" customHeight="1">
       <c r="B36" s="17"/>
       <c r="D36" s="22" t="s">
         <v>1134</v>
@@ -35180,7 +35181,7 @@
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
     </row>
-    <row r="37" spans="2:10" ht="14.45" customHeight="1">
+    <row r="37" spans="2:10" ht="14.4" customHeight="1">
       <c r="B37" s="16" t="s">
         <v>826</v>
       </c>
@@ -35194,7 +35195,7 @@
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
     </row>
-    <row r="38" spans="2:10" ht="14.45" customHeight="1">
+    <row r="38" spans="2:10" ht="14.4" customHeight="1">
       <c r="B38" s="16" t="s">
         <v>827</v>
       </c>
@@ -35208,7 +35209,7 @@
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
     </row>
-    <row r="39" spans="2:10" ht="14.45" customHeight="1">
+    <row r="39" spans="2:10" ht="14.4" customHeight="1">
       <c r="B39" s="16" t="s">
         <v>828</v>
       </c>
@@ -35222,7 +35223,7 @@
       <c r="I39" s="23"/>
       <c r="J39" s="23"/>
     </row>
-    <row r="40" spans="2:10" ht="14.45" customHeight="1">
+    <row r="40" spans="2:10" ht="14.4" customHeight="1">
       <c r="B40" s="16" t="s">
         <v>829</v>
       </c>
@@ -35236,7 +35237,7 @@
       <c r="I40" s="23"/>
       <c r="J40" s="23"/>
     </row>
-    <row r="41" spans="2:10" ht="14.45" customHeight="1">
+    <row r="41" spans="2:10" ht="14.4" customHeight="1">
       <c r="B41" s="16" t="s">
         <v>830</v>
       </c>
@@ -35250,7 +35251,7 @@
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
     </row>
-    <row r="42" spans="2:10" ht="14.45" customHeight="1">
+    <row r="42" spans="2:10" ht="14.4" customHeight="1">
       <c r="D42" s="22" t="s">
         <v>1148</v>
       </c>
@@ -35261,7 +35262,7 @@
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
     </row>
-    <row r="43" spans="2:10" ht="14.45" customHeight="1">
+    <row r="43" spans="2:10" ht="14.4" customHeight="1">
       <c r="D43" s="22" t="s">
         <v>1149</v>
       </c>
@@ -35272,7 +35273,7 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
     </row>
-    <row r="44" spans="2:10" ht="14.45" customHeight="1">
+    <row r="44" spans="2:10" ht="14.4" customHeight="1">
       <c r="B44" s="18" t="s">
         <v>832</v>
       </c>
@@ -35287,7 +35288,7 @@
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
     </row>
-    <row r="45" spans="2:10" ht="14.45" customHeight="1">
+    <row r="45" spans="2:10" ht="14.4" customHeight="1">
       <c r="B45" s="18" t="s">
         <v>833</v>
       </c>
@@ -35302,7 +35303,7 @@
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="2:10" ht="14.45" customHeight="1">
+    <row r="46" spans="2:10" ht="14.4" customHeight="1">
       <c r="B46" s="18" t="s">
         <v>834</v>
       </c>
@@ -35317,7 +35318,7 @@
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
     </row>
-    <row r="47" spans="2:10" ht="14.45" customHeight="1">
+    <row r="47" spans="2:10" ht="14.4" customHeight="1">
       <c r="B47" s="18" t="s">
         <v>835</v>
       </c>
@@ -35332,7 +35333,7 @@
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
     </row>
-    <row r="48" spans="2:10" ht="14.45" customHeight="1">
+    <row r="48" spans="2:10" ht="14.4" customHeight="1">
       <c r="B48" s="18" t="s">
         <v>836</v>
       </c>
@@ -35347,7 +35348,7 @@
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
     </row>
-    <row r="49" spans="2:10" ht="14.45" customHeight="1">
+    <row r="49" spans="2:10" ht="14.4" customHeight="1">
       <c r="B49" s="18" t="s">
         <v>837</v>
       </c>
@@ -35362,7 +35363,7 @@
       <c r="I49" s="23"/>
       <c r="J49" s="23"/>
     </row>
-    <row r="50" spans="2:10" ht="14.45" customHeight="1">
+    <row r="50" spans="2:10" ht="14.4" customHeight="1">
       <c r="B50" s="18" t="s">
         <v>838</v>
       </c>
@@ -35377,7 +35378,7 @@
       <c r="I50" s="23"/>
       <c r="J50" s="23"/>
     </row>
-    <row r="51" spans="2:10" ht="14.45" customHeight="1">
+    <row r="51" spans="2:10" ht="14.4" customHeight="1">
       <c r="B51" s="18" t="s">
         <v>839</v>
       </c>
@@ -35392,7 +35393,7 @@
       <c r="I51" s="23"/>
       <c r="J51" s="23"/>
     </row>
-    <row r="52" spans="2:10" ht="14.45" customHeight="1">
+    <row r="52" spans="2:10" ht="14.4" customHeight="1">
       <c r="B52" s="18" t="s">
         <v>840</v>
       </c>
@@ -35407,7 +35408,7 @@
       <c r="I52" s="23"/>
       <c r="J52" s="23"/>
     </row>
-    <row r="53" spans="2:10" ht="14.45" customHeight="1">
+    <row r="53" spans="2:10" ht="14.4" customHeight="1">
       <c r="B53" s="18" t="s">
         <v>841</v>
       </c>
@@ -35422,7 +35423,7 @@
       <c r="I53" s="23"/>
       <c r="J53" s="23"/>
     </row>
-    <row r="54" spans="2:10" ht="14.45" customHeight="1">
+    <row r="54" spans="2:10" ht="14.4" customHeight="1">
       <c r="B54" s="18" t="s">
         <v>842</v>
       </c>
@@ -35437,7 +35438,7 @@
       <c r="I54" s="23"/>
       <c r="J54" s="23"/>
     </row>
-    <row r="55" spans="2:10" ht="14.45" customHeight="1">
+    <row r="55" spans="2:10" ht="14.4" customHeight="1">
       <c r="B55" s="18" t="s">
         <v>843</v>
       </c>
@@ -35452,7 +35453,7 @@
       <c r="I55" s="23"/>
       <c r="J55" s="23"/>
     </row>
-    <row r="56" spans="2:10" ht="14.45" customHeight="1">
+    <row r="56" spans="2:10" ht="14.4" customHeight="1">
       <c r="B56" s="18" t="s">
         <v>844</v>
       </c>
@@ -35467,7 +35468,7 @@
       <c r="I56" s="23"/>
       <c r="J56" s="23"/>
     </row>
-    <row r="57" spans="2:10" ht="14.45" customHeight="1">
+    <row r="57" spans="2:10" ht="14.4" customHeight="1">
       <c r="B57" s="18" t="s">
         <v>845</v>
       </c>
@@ -35482,7 +35483,7 @@
       <c r="I57" s="23"/>
       <c r="J57" s="23"/>
     </row>
-    <row r="58" spans="2:10" ht="14.45" customHeight="1">
+    <row r="58" spans="2:10" ht="14.4" customHeight="1">
       <c r="B58" s="18" t="s">
         <v>846</v>
       </c>
@@ -35497,7 +35498,7 @@
       <c r="I58" s="23"/>
       <c r="J58" s="23"/>
     </row>
-    <row r="59" spans="2:10" ht="14.45" customHeight="1">
+    <row r="59" spans="2:10" ht="14.4" customHeight="1">
       <c r="B59" s="18" t="s">
         <v>847</v>
       </c>
@@ -35512,7 +35513,7 @@
       <c r="I59" s="23"/>
       <c r="J59" s="23"/>
     </row>
-    <row r="60" spans="2:10" ht="14.45" customHeight="1">
+    <row r="60" spans="2:10" ht="14.4" customHeight="1">
       <c r="D60" s="22" t="s">
         <v>1156</v>
       </c>
@@ -35523,7 +35524,7 @@
       <c r="I60" s="23"/>
       <c r="J60" s="23"/>
     </row>
-    <row r="61" spans="2:10" ht="14.45" customHeight="1">
+    <row r="61" spans="2:10" ht="14.4" customHeight="1">
       <c r="D61" s="22" t="s">
         <v>1157</v>
       </c>
@@ -35534,7 +35535,7 @@
       <c r="I61" s="23"/>
       <c r="J61" s="23"/>
     </row>
-    <row r="62" spans="2:10" ht="14.45" customHeight="1">
+    <row r="62" spans="2:10" ht="14.4" customHeight="1">
       <c r="D62" s="22" t="s">
         <v>1134</v>
       </c>
@@ -35545,7 +35546,7 @@
       <c r="I62" s="23"/>
       <c r="J62" s="23"/>
     </row>
-    <row r="63" spans="2:10" ht="14.45" customHeight="1">
+    <row r="63" spans="2:10" ht="14.4" customHeight="1">
       <c r="D63" s="22" t="s">
         <v>1128</v>
       </c>
@@ -35556,7 +35557,7 @@
       <c r="I63" s="23"/>
       <c r="J63" s="23"/>
     </row>
-    <row r="64" spans="2:10" ht="14.45" customHeight="1">
+    <row r="64" spans="2:10" ht="14.4" customHeight="1">
       <c r="D64" s="22" t="s">
         <v>1135</v>
       </c>
@@ -35567,7 +35568,7 @@
       <c r="I64" s="23"/>
       <c r="J64" s="23"/>
     </row>
-    <row r="65" spans="4:10" ht="14.45" customHeight="1">
+    <row r="65" spans="4:10" ht="14.4" customHeight="1">
       <c r="D65" s="22" t="s">
         <v>1126</v>
       </c>
@@ -35578,7 +35579,7 @@
       <c r="I65" s="23"/>
       <c r="J65" s="23"/>
     </row>
-    <row r="66" spans="4:10" ht="14.45" customHeight="1">
+    <row r="66" spans="4:10" ht="14.4" customHeight="1">
       <c r="D66" s="22" t="s">
         <v>1136</v>
       </c>
@@ -35589,7 +35590,7 @@
       <c r="I66" s="23"/>
       <c r="J66" s="23"/>
     </row>
-    <row r="67" spans="4:10" ht="14.45" customHeight="1">
+    <row r="67" spans="4:10" ht="14.4" customHeight="1">
       <c r="D67" s="22" t="s">
         <v>1158</v>
       </c>
@@ -35600,7 +35601,7 @@
       <c r="I67" s="23"/>
       <c r="J67" s="23"/>
     </row>
-    <row r="68" spans="4:10" ht="14.45" customHeight="1">
+    <row r="68" spans="4:10" ht="14.4" customHeight="1">
       <c r="D68" s="22" t="s">
         <v>1159</v>
       </c>
@@ -35611,7 +35612,7 @@
       <c r="I68" s="23"/>
       <c r="J68" s="23"/>
     </row>
-    <row r="69" spans="4:10" ht="14.45" customHeight="1">
+    <row r="69" spans="4:10" ht="14.4" customHeight="1">
       <c r="D69" s="22" t="s">
         <v>1160</v>
       </c>
@@ -35622,7 +35623,7 @@
       <c r="I69" s="23"/>
       <c r="J69" s="23"/>
     </row>
-    <row r="70" spans="4:10" ht="14.45" customHeight="1">
+    <row r="70" spans="4:10" ht="14.4" customHeight="1">
       <c r="D70" s="22" t="s">
         <v>1161</v>
       </c>
@@ -35633,7 +35634,7 @@
       <c r="I70" s="23"/>
       <c r="J70" s="23"/>
     </row>
-    <row r="71" spans="4:10" ht="14.45" customHeight="1">
+    <row r="71" spans="4:10" ht="14.4" customHeight="1">
       <c r="D71" s="22" t="s">
         <v>1162</v>
       </c>
@@ -35644,7 +35645,7 @@
       <c r="I71" s="23"/>
       <c r="J71" s="23"/>
     </row>
-    <row r="72" spans="4:10" ht="14.45" customHeight="1">
+    <row r="72" spans="4:10" ht="14.4" customHeight="1">
       <c r="E72" s="23"/>
       <c r="F72" s="23"/>
       <c r="G72" s="23"/>
@@ -35652,7 +35653,7 @@
       <c r="I72" s="23"/>
       <c r="J72" s="23"/>
     </row>
-    <row r="73" spans="4:10" ht="15">
+    <row r="73" spans="4:10" ht="14.4">
       <c r="E73" s="23"/>
       <c r="F73" s="23"/>
       <c r="G73" s="23"/>
@@ -35660,99 +35661,99 @@
       <c r="I73" s="23"/>
       <c r="J73" s="23"/>
     </row>
-    <row r="74" spans="4:10" ht="15"/>
-    <row r="75" spans="4:10" ht="15"/>
-    <row r="76" spans="4:10" ht="15"/>
-    <row r="77" spans="4:10" ht="15"/>
-    <row r="78" spans="4:10" ht="15"/>
-    <row r="79" spans="4:10" ht="15"/>
-    <row r="80" spans="4:10" ht="15"/>
-    <row r="81" ht="15"/>
-    <row r="82" ht="15"/>
-    <row r="83" ht="15"/>
-    <row r="84" ht="15"/>
-    <row r="85" ht="15"/>
-    <row r="86" ht="15"/>
-    <row r="87" ht="15"/>
-    <row r="88" ht="15"/>
-    <row r="89" ht="15"/>
-    <row r="90" ht="15"/>
-    <row r="91" ht="15"/>
-    <row r="92" ht="15"/>
-    <row r="93" ht="15"/>
-    <row r="94" ht="15"/>
-    <row r="95" ht="15"/>
-    <row r="96" ht="15"/>
-    <row r="97" ht="15"/>
-    <row r="98" ht="15"/>
-    <row r="99" ht="15"/>
-    <row r="100" ht="15"/>
-    <row r="101" ht="15"/>
-    <row r="102" ht="15"/>
-    <row r="103" ht="15"/>
-    <row r="104" ht="15"/>
-    <row r="105" ht="15"/>
-    <row r="106" ht="15"/>
-    <row r="107" ht="15"/>
-    <row r="108" ht="15"/>
-    <row r="109" ht="15"/>
-    <row r="110" ht="15"/>
-    <row r="111" ht="15"/>
-    <row r="112" ht="15"/>
-    <row r="113" ht="15"/>
-    <row r="114" ht="15"/>
-    <row r="115" ht="15"/>
-    <row r="116" ht="15"/>
-    <row r="117" ht="15"/>
-    <row r="118" ht="15"/>
-    <row r="119" ht="15"/>
-    <row r="120" ht="15"/>
-    <row r="121" ht="15"/>
-    <row r="122" ht="15"/>
-    <row r="123" ht="15"/>
-    <row r="124" ht="15"/>
-    <row r="125" ht="15"/>
-    <row r="126" ht="15"/>
-    <row r="127" ht="15"/>
-    <row r="128" ht="15"/>
-    <row r="129" ht="15"/>
-    <row r="130" ht="15"/>
-    <row r="131" ht="15"/>
-    <row r="132" ht="15"/>
-    <row r="133" ht="15"/>
-    <row r="134" ht="15"/>
-    <row r="135" ht="15"/>
-    <row r="136" ht="15"/>
-    <row r="137" ht="15"/>
-    <row r="138" ht="15"/>
-    <row r="139" ht="15"/>
-    <row r="140" ht="15"/>
-    <row r="141" ht="15"/>
-    <row r="142" ht="15"/>
-    <row r="143" ht="15"/>
-    <row r="144" ht="15"/>
-    <row r="145" ht="15"/>
-    <row r="146" ht="15"/>
-    <row r="147" ht="15"/>
-    <row r="148" ht="15"/>
-    <row r="149" ht="15"/>
-    <row r="150" ht="15"/>
-    <row r="151" ht="15"/>
-    <row r="152" ht="15"/>
-    <row r="153" ht="15"/>
-    <row r="154" ht="15"/>
-    <row r="155" ht="15"/>
-    <row r="156" ht="15"/>
-    <row r="157" ht="15"/>
-    <row r="158" ht="15"/>
-    <row r="159" ht="15"/>
-    <row r="160" ht="15"/>
-    <row r="161" ht="15"/>
-    <row r="162" ht="15"/>
-    <row r="163" ht="15"/>
-    <row r="164" ht="15"/>
-    <row r="165" ht="15"/>
-    <row r="166" ht="15"/>
+    <row r="74" spans="4:10" ht="14.4"/>
+    <row r="75" spans="4:10" ht="14.4"/>
+    <row r="76" spans="4:10" ht="14.4"/>
+    <row r="77" spans="4:10" ht="14.4"/>
+    <row r="78" spans="4:10" ht="14.4"/>
+    <row r="79" spans="4:10" ht="14.4"/>
+    <row r="80" spans="4:10" ht="14.4"/>
+    <row r="81" ht="14.4"/>
+    <row r="82" ht="14.4"/>
+    <row r="83" ht="14.4"/>
+    <row r="84" ht="14.4"/>
+    <row r="85" ht="14.4"/>
+    <row r="86" ht="14.4"/>
+    <row r="87" ht="14.4"/>
+    <row r="88" ht="14.4"/>
+    <row r="89" ht="14.4"/>
+    <row r="90" ht="14.4"/>
+    <row r="91" ht="14.4"/>
+    <row r="92" ht="14.4"/>
+    <row r="93" ht="14.4"/>
+    <row r="94" ht="14.4"/>
+    <row r="95" ht="14.4"/>
+    <row r="96" ht="14.4"/>
+    <row r="97" ht="14.4"/>
+    <row r="98" ht="14.4"/>
+    <row r="99" ht="14.4"/>
+    <row r="100" ht="14.4"/>
+    <row r="101" ht="14.4"/>
+    <row r="102" ht="14.4"/>
+    <row r="103" ht="14.4"/>
+    <row r="104" ht="14.4"/>
+    <row r="105" ht="14.4"/>
+    <row r="106" ht="14.4"/>
+    <row r="107" ht="14.4"/>
+    <row r="108" ht="14.4"/>
+    <row r="109" ht="14.4"/>
+    <row r="110" ht="14.4"/>
+    <row r="111" ht="14.4"/>
+    <row r="112" ht="14.4"/>
+    <row r="113" ht="14.4"/>
+    <row r="114" ht="14.4"/>
+    <row r="115" ht="14.4"/>
+    <row r="116" ht="14.4"/>
+    <row r="117" ht="14.4"/>
+    <row r="118" ht="14.4"/>
+    <row r="119" ht="14.4"/>
+    <row r="120" ht="14.4"/>
+    <row r="121" ht="14.4"/>
+    <row r="122" ht="14.4"/>
+    <row r="123" ht="14.4"/>
+    <row r="124" ht="14.4"/>
+    <row r="125" ht="14.4"/>
+    <row r="126" ht="14.4"/>
+    <row r="127" ht="14.4"/>
+    <row r="128" ht="14.4"/>
+    <row r="129" ht="14.4"/>
+    <row r="130" ht="14.4"/>
+    <row r="131" ht="14.4"/>
+    <row r="132" ht="14.4"/>
+    <row r="133" ht="14.4"/>
+    <row r="134" ht="14.4"/>
+    <row r="135" ht="14.4"/>
+    <row r="136" ht="14.4"/>
+    <row r="137" ht="14.4"/>
+    <row r="138" ht="14.4"/>
+    <row r="139" ht="14.4"/>
+    <row r="140" ht="14.4"/>
+    <row r="141" ht="14.4"/>
+    <row r="142" ht="14.4"/>
+    <row r="143" ht="14.4"/>
+    <row r="144" ht="14.4"/>
+    <row r="145" ht="14.4"/>
+    <row r="146" ht="14.4"/>
+    <row r="147" ht="14.4"/>
+    <row r="148" ht="14.4"/>
+    <row r="149" ht="14.4"/>
+    <row r="150" ht="14.4"/>
+    <row r="151" ht="14.4"/>
+    <row r="152" ht="14.4"/>
+    <row r="153" ht="14.4"/>
+    <row r="154" ht="14.4"/>
+    <row r="155" ht="14.4"/>
+    <row r="156" ht="14.4"/>
+    <row r="157" ht="14.4"/>
+    <row r="158" ht="14.4"/>
+    <row r="159" ht="14.4"/>
+    <row r="160" ht="14.4"/>
+    <row r="161" ht="14.4"/>
+    <row r="162" ht="14.4"/>
+    <row r="163" ht="14.4"/>
+    <row r="164" ht="14.4"/>
+    <row r="165" ht="14.4"/>
+    <row r="166" ht="14.4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35766,15 +35767,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="101.42578125" customWidth="1"/>
+    <col min="2" max="2" width="101.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" s="2"/>
     </row>
-    <row r="5" spans="2:2" ht="409.5">
+    <row r="5" spans="2:2" ht="409.6">
       <c r="B5" s="2" t="s">
         <v>769</v>
       </c>
@@ -35796,17 +35797,17 @@
       <selection pane="bottomLeft" activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="65"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="65"/>
     <col min="7" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="48" thickBot="1">
+    <row r="1" spans="1:12" ht="31.8" thickBot="1">
       <c r="A1" t="s">
         <v>760</v>
       </c>
@@ -36702,7 +36703,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1">
+    <row r="42" spans="1:12" ht="15" thickBot="1">
       <c r="A42" s="49">
         <v>41</v>
       </c>
@@ -36725,7 +36726,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="16.5" thickBot="1">
+    <row r="43" spans="1:12" ht="16.2" thickBot="1">
       <c r="A43" s="49">
         <v>42</v>
       </c>
@@ -36748,7 +36749,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="16.5" thickBot="1">
+    <row r="44" spans="1:12" ht="16.2" thickBot="1">
       <c r="A44" s="49">
         <v>42</v>
       </c>
@@ -37434,7 +37435,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.75" thickBot="1">
+    <row r="75" spans="1:12" ht="15" thickBot="1">
       <c r="A75" s="49">
         <v>71</v>
       </c>
@@ -37457,7 +37458,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="16.5" thickBot="1">
+    <row r="76" spans="1:12" ht="16.2" thickBot="1">
       <c r="A76" s="49">
         <v>72</v>
       </c>
@@ -37480,7 +37481,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="16.5" thickBot="1">
+    <row r="77" spans="1:12" ht="16.2" thickBot="1">
       <c r="A77" s="49">
         <v>73</v>
       </c>
@@ -37793,7 +37794,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15.75" thickBot="1">
+    <row r="94" spans="1:12" ht="15" thickBot="1">
       <c r="A94" s="49">
         <v>89</v>
       </c>
@@ -37816,7 +37817,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="16.5" thickBot="1">
+    <row r="95" spans="1:12" ht="16.2" thickBot="1">
       <c r="A95" s="49">
         <v>72</v>
       </c>
@@ -37879,7 +37880,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.75" thickBot="1">
+    <row r="98" spans="1:12" ht="15" thickBot="1">
       <c r="A98" s="49"/>
       <c r="B98" s="22" t="s">
         <v>214</v>
@@ -37898,7 +37899,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="16.5" thickBot="1">
+    <row r="99" spans="1:12" ht="16.2" thickBot="1">
       <c r="A99" s="49">
         <v>92</v>
       </c>
@@ -37921,7 +37922,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="16.5" thickBot="1">
+    <row r="100" spans="1:12" ht="16.2" thickBot="1">
       <c r="A100" s="49">
         <v>92</v>
       </c>
@@ -37944,7 +37945,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="16.5" thickBot="1">
+    <row r="101" spans="1:12" ht="16.2" thickBot="1">
       <c r="A101" s="49">
         <v>92</v>
       </c>
@@ -37967,7 +37968,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="16.5" thickBot="1">
+    <row r="102" spans="1:12" ht="16.2" thickBot="1">
       <c r="A102" s="49">
         <v>92</v>
       </c>
@@ -37988,7 +37989,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15.75" thickBot="1">
+    <row r="103" spans="1:12" ht="15" thickBot="1">
       <c r="A103" s="49">
         <v>92</v>
       </c>
@@ -38006,7 +38007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15.75" thickBot="1">
+    <row r="104" spans="1:12" ht="15" thickBot="1">
       <c r="A104" s="49">
         <v>93</v>
       </c>
@@ -38330,7 +38331,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.75" thickBot="1">
+    <row r="118" spans="1:12" ht="15" thickBot="1">
       <c r="A118" s="58">
         <v>616</v>
       </c>
@@ -38356,7 +38357,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15.75" thickBot="1">
+    <row r="119" spans="1:12" ht="15" thickBot="1">
       <c r="A119" s="49">
         <v>94</v>
       </c>
@@ -38377,7 +38378,7 @@
       <c r="J119" s="57"/>
       <c r="K119" s="57"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" thickBot="1">
+    <row r="120" spans="1:12" ht="15" thickBot="1">
       <c r="A120" s="49">
         <v>95</v>
       </c>
@@ -38405,7 +38406,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15.75" thickBot="1">
+    <row r="121" spans="1:12" ht="15" thickBot="1">
       <c r="A121" s="49">
         <v>96</v>
       </c>
@@ -38433,7 +38434,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="15.75" thickBot="1">
+    <row r="122" spans="1:12" ht="15" thickBot="1">
       <c r="A122" s="49">
         <v>97</v>
       </c>
@@ -38461,7 +38462,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15.75" thickBot="1">
+    <row r="123" spans="1:12" ht="15" thickBot="1">
       <c r="A123" s="58">
         <v>598</v>
       </c>
@@ -38484,7 +38485,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15.75" thickBot="1">
+    <row r="124" spans="1:12" ht="15" thickBot="1">
       <c r="A124" s="58">
         <v>599</v>
       </c>
@@ -38507,7 +38508,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="15.75" thickBot="1">
+    <row r="125" spans="1:12" ht="15" thickBot="1">
       <c r="A125" s="58">
         <v>600</v>
       </c>
@@ -38530,7 +38531,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15.75" thickBot="1">
+    <row r="126" spans="1:12" ht="15" thickBot="1">
       <c r="A126" s="58">
         <v>607</v>
       </c>
@@ -38553,7 +38554,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="15.75" thickBot="1">
+    <row r="127" spans="1:12" ht="15" thickBot="1">
       <c r="A127" s="49">
         <v>98</v>
       </c>
@@ -38581,7 +38582,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15.75" thickBot="1">
+    <row r="128" spans="1:12" ht="15" thickBot="1">
       <c r="A128" s="49">
         <v>99</v>
       </c>
@@ -38609,7 +38610,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="15.75" thickBot="1">
+    <row r="129" spans="1:12" ht="15" thickBot="1">
       <c r="A129" s="49">
         <v>100</v>
       </c>
@@ -38630,7 +38631,7 @@
       <c r="J129" s="57"/>
       <c r="K129" s="57"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" thickBot="1">
+    <row r="130" spans="1:12" ht="15" thickBot="1">
       <c r="A130" s="49">
         <v>101</v>
       </c>
@@ -38651,7 +38652,7 @@
       <c r="J130" s="57"/>
       <c r="K130" s="57"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" thickBot="1">
+    <row r="131" spans="1:12" ht="15" thickBot="1">
       <c r="A131" s="49">
         <v>102</v>
       </c>
@@ -38674,7 +38675,7 @@
       <c r="J131" s="57"/>
       <c r="K131" s="57"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" thickBot="1">
+    <row r="132" spans="1:12" ht="15" thickBot="1">
       <c r="A132" s="49">
         <v>106</v>
       </c>
@@ -38702,7 +38703,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15.75" thickBot="1">
+    <row r="133" spans="1:12" ht="15" thickBot="1">
       <c r="A133" s="49">
         <v>107</v>
       </c>
@@ -38730,7 +38731,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="15.75" thickBot="1">
+    <row r="134" spans="1:12" ht="15" thickBot="1">
       <c r="A134" s="49">
         <v>103</v>
       </c>
@@ -38758,7 +38759,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="15.75" thickBot="1">
+    <row r="135" spans="1:12" ht="15" thickBot="1">
       <c r="B135" s="55" t="s">
         <v>224</v>
       </c>
@@ -38778,7 +38779,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="15.75" thickBot="1">
+    <row r="136" spans="1:12" ht="15" thickBot="1">
       <c r="B136" s="64" t="s">
         <v>225</v>
       </c>
@@ -38796,7 +38797,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15.75" thickBot="1">
+    <row r="137" spans="1:12" ht="15" thickBot="1">
       <c r="A137" s="49">
         <v>108</v>
       </c>
@@ -38819,7 +38820,7 @@
       <c r="J137" s="57"/>
       <c r="K137" s="57"/>
     </row>
-    <row r="138" spans="1:12" ht="15.75" thickBot="1">
+    <row r="138" spans="1:12" ht="15" thickBot="1">
       <c r="A138" s="49">
         <v>109</v>
       </c>
@@ -38842,7 +38843,7 @@
       <c r="J138" s="57"/>
       <c r="K138" s="57"/>
     </row>
-    <row r="139" spans="1:12" ht="15.75" thickBot="1">
+    <row r="139" spans="1:12" ht="15" thickBot="1">
       <c r="A139" s="49">
         <v>110</v>
       </c>
@@ -38865,7 +38866,7 @@
       <c r="J139" s="57"/>
       <c r="K139" s="57"/>
     </row>
-    <row r="140" spans="1:12" ht="15.75" thickBot="1">
+    <row r="140" spans="1:12" ht="15" thickBot="1">
       <c r="A140" s="49">
         <v>111</v>
       </c>
@@ -38888,7 +38889,7 @@
       <c r="J140" s="57"/>
       <c r="K140" s="57"/>
     </row>
-    <row r="141" spans="1:12" ht="15.75" thickBot="1">
+    <row r="141" spans="1:12" ht="15" thickBot="1">
       <c r="A141" s="58">
         <v>569</v>
       </c>
@@ -38906,7 +38907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="15.75" thickBot="1">
+    <row r="142" spans="1:12" ht="15" thickBot="1">
       <c r="B142" s="55" t="s">
         <v>1568</v>
       </c>
@@ -39013,15 +39014,15 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E25" sqref="B25:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
     <col min="3" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -39047,7 +39048,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="55.5">
+    <row r="2" spans="1:7" ht="55.2">
       <c r="A2" s="38" t="s">
         <v>1191</v>
       </c>
@@ -39070,7 +39071,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45">
+    <row r="3" spans="1:7" ht="43.2">
       <c r="A3" s="38" t="s">
         <v>1195</v>
       </c>
@@ -39093,7 +39094,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45">
+    <row r="4" spans="1:7" ht="43.2">
       <c r="A4" s="38" t="s">
         <v>1199</v>
       </c>
@@ -39116,7 +39117,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:7" ht="43.2">
       <c r="A5" s="38" t="s">
         <v>1204</v>
       </c>
@@ -39139,7 +39140,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60">
+    <row r="6" spans="1:7" ht="43.2">
       <c r="A6" s="38" t="s">
         <v>1208</v>
       </c>
@@ -39162,7 +39163,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45">
+    <row r="7" spans="1:7" ht="43.2">
       <c r="A7" s="38" t="s">
         <v>1211</v>
       </c>
@@ -39185,7 +39186,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45">
+    <row r="8" spans="1:7" ht="43.2">
       <c r="A8" s="38" t="s">
         <v>1216</v>
       </c>
@@ -39208,7 +39209,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="45">
+    <row r="9" spans="1:7" ht="43.2">
       <c r="A9" s="38" t="s">
         <v>1220</v>
       </c>
@@ -39231,7 +39232,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="75">
+    <row r="10" spans="1:7" ht="57.6">
       <c r="A10" s="38" t="s">
         <v>1223</v>
       </c>
@@ -39254,7 +39255,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60">
+    <row r="11" spans="1:7" ht="57.6">
       <c r="A11" s="38" t="s">
         <v>1226</v>
       </c>
@@ -39277,7 +39278,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="60">
+    <row r="12" spans="1:7" ht="57.6">
       <c r="A12" s="38" t="s">
         <v>1230</v>
       </c>
@@ -39300,7 +39301,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45">
+    <row r="13" spans="1:7" ht="43.2">
       <c r="A13" s="38" t="s">
         <v>1234</v>
       </c>
@@ -39323,7 +39324,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="60">
+    <row r="14" spans="1:7" ht="57.6">
       <c r="A14" s="38" t="s">
         <v>1238</v>
       </c>
@@ -39346,7 +39347,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="75">
+    <row r="15" spans="1:7" ht="72">
       <c r="A15" s="38" t="s">
         <v>1241</v>
       </c>
@@ -39365,8 +39366,11 @@
       <c r="F15" s="38" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="30">
+      <c r="G15" s="38" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.8">
       <c r="A16" s="38" t="s">
         <v>1244</v>
       </c>
@@ -39382,8 +39386,14 @@
       <c r="E16" s="38" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="45">
+      <c r="F16" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.2">
       <c r="A17" s="38" t="s">
         <v>1249</v>
       </c>
@@ -39399,8 +39409,14 @@
       <c r="E17" s="38" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="60">
+      <c r="F17" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="57.6">
       <c r="A18" s="38" t="s">
         <v>1252</v>
       </c>
@@ -39416,8 +39432,14 @@
       <c r="E18" s="38" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="30">
+      <c r="F18" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.8">
       <c r="A19" s="38" t="s">
         <v>1256</v>
       </c>
@@ -39433,8 +39455,14 @@
       <c r="E19" s="38" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="27.75">
+      <c r="F19" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="27.6">
       <c r="A20" s="38" t="s">
         <v>1260</v>
       </c>
@@ -39450,8 +39478,14 @@
       <c r="E20" s="38" t="s">
         <v>1263</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="45">
+      <c r="F20" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="43.2">
       <c r="A21" s="38" t="s">
         <v>1264</v>
       </c>
@@ -39467,8 +39501,14 @@
       <c r="E21" s="38" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="30">
+      <c r="F21" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.8">
       <c r="A22" s="38" t="s">
         <v>1267</v>
       </c>
@@ -39484,8 +39524,14 @@
       <c r="E22" s="38" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="45">
+      <c r="F22" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="43.2">
       <c r="A23" s="38" t="s">
         <v>1270</v>
       </c>
@@ -39501,8 +39547,14 @@
       <c r="E23" s="38" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="45">
+      <c r="F23" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="43.2">
       <c r="A24" s="38" t="s">
         <v>1273</v>
       </c>
@@ -39518,8 +39570,14 @@
       <c r="E24" s="38" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="60">
+      <c r="F24" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="43.2">
       <c r="A25" s="38" t="s">
         <v>1276</v>
       </c>
@@ -39535,8 +39593,11 @@
       <c r="E25" s="38" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="42.75">
+      <c r="F25" s="38" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="42">
       <c r="A26" s="38" t="s">
         <v>1279</v>
       </c>
@@ -39553,7 +39614,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30">
+    <row r="27" spans="1:7" ht="28.8">
       <c r="A27" s="38" t="s">
         <v>1283</v>
       </c>
@@ -39570,7 +39631,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="45">
+    <row r="28" spans="1:7" ht="43.2">
       <c r="A28" s="38" t="s">
         <v>1287</v>
       </c>
@@ -39587,7 +39648,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="45">
+    <row r="29" spans="1:7" ht="43.2">
       <c r="A29" s="38" t="s">
         <v>1290</v>
       </c>
@@ -39604,7 +39665,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="60">
+    <row r="30" spans="1:7" ht="43.2">
       <c r="A30" s="38" t="s">
         <v>1293</v>
       </c>
@@ -39621,7 +39682,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="60">
+    <row r="31" spans="1:7" ht="57.6">
       <c r="A31" s="38" t="s">
         <v>1297</v>
       </c>
@@ -39638,7 +39699,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="60">
+    <row r="32" spans="1:7" ht="57.6">
       <c r="A32" s="38" t="s">
         <v>1301</v>
       </c>
@@ -39655,7 +39716,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="45">
+    <row r="33" spans="1:5" ht="43.2">
       <c r="A33" s="38" t="s">
         <v>1304</v>
       </c>
@@ -39672,7 +39733,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="45">
+    <row r="34" spans="1:5" ht="43.2">
       <c r="A34" s="38" t="s">
         <v>1308</v>
       </c>
@@ -39689,7 +39750,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="45">
+    <row r="35" spans="1:5" ht="43.2">
       <c r="A35" s="38" t="s">
         <v>1312</v>
       </c>
@@ -39706,7 +39767,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30">
+    <row r="36" spans="1:5" ht="28.8">
       <c r="A36" s="38" t="s">
         <v>1315</v>
       </c>
@@ -39723,7 +39784,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30">
+    <row r="37" spans="1:5" ht="28.8">
       <c r="A37" s="38" t="s">
         <v>1318</v>
       </c>
@@ -39740,7 +39801,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="45">
+    <row r="38" spans="1:5" ht="28.8">
       <c r="A38" s="38" t="s">
         <v>1322</v>
       </c>
@@ -39757,7 +39818,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="45">
+    <row r="39" spans="1:5" ht="43.2">
       <c r="A39" s="38" t="s">
         <v>1326</v>
       </c>
@@ -39774,7 +39835,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="45">
+    <row r="40" spans="1:5" ht="43.2">
       <c r="A40" s="38" t="s">
         <v>1330</v>
       </c>
@@ -39791,7 +39852,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="45">
+    <row r="41" spans="1:5" ht="43.2">
       <c r="A41" s="38" t="s">
         <v>1333</v>
       </c>
@@ -39808,7 +39869,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30">
+    <row r="42" spans="1:5" ht="28.8">
       <c r="A42" s="38" t="s">
         <v>1336</v>
       </c>

--- a/tests/C2Pro_Test_Suites_Master.xlsx
+++ b/tests/C2Pro_Test_Suites_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esus_\Documents\AI\ZTWQ\c2pro\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CE3207-E29A-40DF-984A-841E56D8C249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72E091C-0488-4CD6-A8F3-5226143CCA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12480" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suite Test" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5788" uniqueCount="1637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5823" uniqueCount="1658">
   <si>
     <t>Nº</t>
   </si>
@@ -12654,12 +12654,87 @@
   - test_i2_ocr_provider_choice_logged_to_langsmith
   - test_i2_low_confidence_table_routes_to_human_review_conceptually</t>
   </si>
+  <si>
+    <t>detectado issue de seguridad</t>
+  </si>
+  <si>
+    <t>- Coding orchestrator rules live in `agents.md`.</t>
+  </si>
+  <si>
+    <t>- `@planner-agent` rules live in `context/agent_planner.md`.</t>
+  </si>
+  <si>
+    <t>- `@qa-agent` rules live in `context/agent_qa.md`.</t>
+  </si>
+  <si>
+    <t>- `@backend-tdd` agent rules live in `context/agent_backend_tdd.md`.</t>
+  </si>
+  <si>
+    <t>- `@frontend-tdd` agent rules live in `context/agent_frontend_tdd.md`.</t>
+  </si>
+  <si>
+    <t>- `@security-agent` rules live in `context/agent_security.md`.</t>
+  </si>
+  <si>
+    <t>- `@devops-agent` rules live in `context/agent_devops.md`.</t>
+  </si>
+  <si>
+    <t>- `@docs-agent` rules live in `context/agent_doc.md`.</t>
+  </si>
+  <si>
+    <t>- `@product-agent` rules live in `context/agent_product.md`.</t>
+  </si>
+  <si>
+    <t>- Document Upload → Coherence flow (TS-E2E-FLW-DOC-001)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Multi-tenant isolation (TS-E2E-SEC-TNT-001) - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_In CI but not fully implemented_</t>
+    </r>
+  </si>
+  <si>
+    <t>- Alert review workflow (TS-E2E-FLW-ALR-001)</t>
+  </si>
+  <si>
+    <t>- Error recovery scenarios (TS-E2E-ERR-REC-001)</t>
+  </si>
+  <si>
+    <t>`@qa-agent`</t>
+  </si>
+  <si>
+    <t>`@backend-tdd`</t>
+  </si>
+  <si>
+    <t>`@frontend-tdd`</t>
+  </si>
+  <si>
+    <t>`@security-agent`</t>
+  </si>
+  <si>
+    <t>`@docs-agent`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @frontend-tdd can then implement GREEN for those new failing tests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @qa-agent RED plan for S3-0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12756,6 +12831,13 @@
       <color rgb="FF1F2328"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="13">
@@ -13394,16 +13476,16 @@
       <selection pane="bottomLeft" activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="19.2" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="19.149999999999999" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.33203125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="62.33203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="62.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.2" customHeight="1">
+    <row r="1" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13441,7 +13523,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19.2" customHeight="1">
+    <row r="2" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -13480,7 +13562,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="19.2" customHeight="1">
+    <row r="3" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -13519,7 +13601,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="19.2" customHeight="1">
+    <row r="4" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -13558,7 +13640,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="19.2" customHeight="1">
+    <row r="5" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -13600,7 +13682,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="19.2" customHeight="1">
+    <row r="6" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -13639,7 +13721,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="19.2" customHeight="1">
+    <row r="7" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -13678,7 +13760,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="19.2" customHeight="1">
+    <row r="8" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -13717,7 +13799,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="19.2" customHeight="1">
+    <row r="9" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -13756,7 +13838,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="19.2" customHeight="1">
+    <row r="10" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -13798,7 +13880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="19.2" customHeight="1">
+    <row r="11" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -13840,7 +13922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="19.2" customHeight="1">
+    <row r="12" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -13879,7 +13961,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="19.2" customHeight="1">
+    <row r="13" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -13918,7 +14000,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="19.2" customHeight="1">
+    <row r="14" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -13954,7 +14036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="19.2" customHeight="1">
+    <row r="15" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -13990,7 +14072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19.2" customHeight="1">
+    <row r="16" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -14029,7 +14111,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.2" customHeight="1">
+    <row r="17" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -14065,7 +14147,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.2" customHeight="1">
+    <row r="18" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -14098,7 +14180,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.2" customHeight="1">
+    <row r="19" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -14131,7 +14213,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.2" customHeight="1">
+    <row r="20" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -14164,7 +14246,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.2" customHeight="1">
+    <row r="21" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -14197,7 +14279,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="19.2" customHeight="1">
+    <row r="22" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -14230,7 +14312,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="19.2" customHeight="1">
+    <row r="23" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -14269,7 +14351,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="19.2" customHeight="1">
+    <row r="24" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -14305,7 +14387,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="19.2" customHeight="1">
+    <row r="25" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -14338,7 +14420,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="19.2" customHeight="1">
+    <row r="26" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -14371,7 +14453,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="19.2" customHeight="1">
+    <row r="27" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -14404,7 +14486,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="19.2" customHeight="1">
+    <row r="28" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -14443,7 +14525,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="19.2" customHeight="1">
+    <row r="29" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -14476,7 +14558,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="19.2" customHeight="1">
+    <row r="30" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -14509,7 +14591,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="19.2" customHeight="1">
+    <row r="31" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -14542,7 +14624,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="19.2" customHeight="1">
+    <row r="32" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -14575,7 +14657,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="19.2" customHeight="1">
+    <row r="33" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -14608,7 +14690,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="19.2" customHeight="1">
+    <row r="34" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -14644,7 +14726,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="19.2" customHeight="1">
+    <row r="35" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -14680,7 +14762,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="19.2" customHeight="1">
+    <row r="36" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -14716,7 +14798,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="19.2" customHeight="1">
+    <row r="37" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -14752,7 +14834,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="19.2" customHeight="1">
+    <row r="38" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -14788,7 +14870,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="19.2" customHeight="1">
+    <row r="39" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -14827,7 +14909,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="19.2" customHeight="1">
+    <row r="40" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -14860,7 +14942,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="19.2" customHeight="1">
+    <row r="41" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -14893,7 +14975,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="19.2" customHeight="1">
+    <row r="42" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -14926,7 +15008,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="19.2" customHeight="1">
+    <row r="43" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -14959,7 +15041,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="19.2" customHeight="1">
+    <row r="44" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -14992,7 +15074,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="19.2" customHeight="1">
+    <row r="45" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -15025,7 +15107,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="19.2" customHeight="1">
+    <row r="46" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -15058,7 +15140,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="19.2" customHeight="1">
+    <row r="47" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -15097,7 +15179,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="19.2" customHeight="1">
+    <row r="48" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -15130,7 +15212,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="19.2" customHeight="1">
+    <row r="49" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -15163,7 +15245,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="19.2" customHeight="1">
+    <row r="50" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -15196,7 +15278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="19.2" customHeight="1">
+    <row r="51" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -15229,7 +15311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="19.2" customHeight="1">
+    <row r="52" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -15262,7 +15344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="19.2" customHeight="1">
+    <row r="53" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -15295,7 +15377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="19.2" customHeight="1">
+    <row r="54" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -15328,7 +15410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="19.2" customHeight="1">
+    <row r="55" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -15361,7 +15443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="19.2" customHeight="1">
+    <row r="56" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -15394,7 +15476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="19.2" customHeight="1">
+    <row r="57" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -15427,7 +15509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="19.2" customHeight="1">
+    <row r="58" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -15460,7 +15542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="19.2" customHeight="1">
+    <row r="59" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -15493,7 +15575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="19.2" customHeight="1">
+    <row r="60" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -15526,7 +15608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="19.2" customHeight="1">
+    <row r="61" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -15559,7 +15641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="19.2" customHeight="1">
+    <row r="62" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -15592,7 +15674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="19.2" customHeight="1">
+    <row r="63" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -15625,7 +15707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="19.2" customHeight="1">
+    <row r="64" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -15658,7 +15740,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="19.2" customHeight="1">
+    <row r="65" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -15691,7 +15773,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="19.2" customHeight="1">
+    <row r="66" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -15724,7 +15806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="19.2" customHeight="1">
+    <row r="67" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -15757,7 +15839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="19.2" customHeight="1">
+    <row r="68" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -15790,7 +15872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="19.2" customHeight="1">
+    <row r="69" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -15823,7 +15905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="19.2" customHeight="1">
+    <row r="70" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -15856,7 +15938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="19.2" customHeight="1">
+    <row r="71" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -15889,7 +15971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="19.2" customHeight="1">
+    <row r="72" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -15931,7 +16013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="19.2" customHeight="1">
+    <row r="73" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -15970,7 +16052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="19.2" customHeight="1">
+    <row r="74" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -16009,7 +16091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="19.2" customHeight="1">
+    <row r="75" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -16045,7 +16127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="19.2" customHeight="1">
+    <row r="76" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -16078,7 +16160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="19.2" customHeight="1">
+    <row r="77" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -16117,7 +16199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="19.2" customHeight="1">
+    <row r="78" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -16156,7 +16238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="19.2" customHeight="1">
+    <row r="79" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -16195,7 +16277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="19.2" customHeight="1">
+    <row r="80" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -16231,7 +16313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="19.2" customHeight="1">
+    <row r="81" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -16267,7 +16349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="19.2" customHeight="1">
+    <row r="82" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -16300,7 +16382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="19.2" customHeight="1">
+    <row r="83" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -16342,7 +16424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="19.2" customHeight="1">
+    <row r="84" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A84" t="s">
         <v>102</v>
       </c>
@@ -16375,7 +16457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="19.2" customHeight="1">
+    <row r="85" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -16411,7 +16493,7 @@
         <v>CODEX</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="19.2" customHeight="1">
+    <row r="86" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -16450,7 +16532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="19.2" customHeight="1">
+    <row r="87" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -16483,7 +16565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="19.2" customHeight="1">
+    <row r="88" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -16516,7 +16598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="19.2" customHeight="1">
+    <row r="89" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -16549,7 +16631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="19.2" customHeight="1">
+    <row r="90" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -16588,7 +16670,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="19.2" customHeight="1">
+    <row r="91" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -16624,7 +16706,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="19.2" customHeight="1">
+    <row r="92" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -16660,7 +16742,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="19.2" customHeight="1">
+    <row r="93" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -16693,7 +16775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="19.2" customHeight="1">
+    <row r="94" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -16729,7 +16811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="19.2" customHeight="1">
+    <row r="95" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -16768,7 +16850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="19.2" customHeight="1">
+    <row r="96" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A96" t="s">
         <v>90</v>
       </c>
@@ -16801,7 +16883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="19.2" customHeight="1">
+    <row r="97" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A97" t="s">
         <v>85</v>
       </c>
@@ -16840,7 +16922,7 @@
         <v>CODEX</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="19.2" customHeight="1">
+    <row r="98" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A98" t="s">
         <v>86</v>
       </c>
@@ -16876,7 +16958,7 @@
         <v>CODEX</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="19.2" customHeight="1">
+    <row r="99" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -16912,7 +16994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="19.2" customHeight="1">
+    <row r="100" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -16948,7 +17030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="19.2" customHeight="1">
+    <row r="101" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -16981,7 +17063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="19.2" customHeight="1">
+    <row r="102" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -17017,7 +17099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="19.2" customHeight="1">
+    <row r="103" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -17059,7 +17141,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="19.2" customHeight="1">
+    <row r="104" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -17095,7 +17177,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="19.2" customHeight="1">
+    <row r="105" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -17131,7 +17213,7 @@
         <v>codex</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="19.2" customHeight="1">
+    <row r="106" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A106" t="s">
         <v>110</v>
       </c>
@@ -17167,7 +17249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="19.2" customHeight="1">
+    <row r="107" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A107" t="s">
         <v>111</v>
       </c>
@@ -17206,7 +17288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="19.2" customHeight="1">
+    <row r="108" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -17242,7 +17324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="19.2" customHeight="1">
+    <row r="109" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -17281,7 +17363,7 @@
         <v>claude</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="19.2" customHeight="1">
+    <row r="110" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -17320,7 +17402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="19.2" customHeight="1">
+    <row r="111" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -17359,7 +17441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="19.2" customHeight="1">
+    <row r="112" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -17392,7 +17474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="19.2" customHeight="1">
+    <row r="113" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -17425,7 +17507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="19.2" customHeight="1">
+    <row r="114" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -17477,17 +17559,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="146.44140625" customWidth="1"/>
+    <col min="1" max="1" width="146.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.6">
+    <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="2" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="86.4">
+    <row r="3" spans="1:1" ht="90">
       <c r="A3" s="2" t="s">
         <v>1340</v>
       </c>
@@ -17500,20 +17582,20 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1590E3-1708-4563-889F-3AD6ACE1A716}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F236"/>
+  <dimension ref="A1:F264"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView topLeftCell="A237" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A250" sqref="A250"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="77.6640625" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
     <col min="5" max="5" width="79" customWidth="1"/>
-    <col min="6" max="6" width="67.88671875" customWidth="1"/>
+    <col min="6" max="6" width="67.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -17545,82 +17627,82 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.2" hidden="1">
+    <row r="3" spans="1:5" ht="17.25" hidden="1">
       <c r="B3" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="96" hidden="1">
+    <row r="4" spans="1:5" ht="86.25" hidden="1">
       <c r="B4" s="43" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="38.4" hidden="1">
+    <row r="5" spans="1:5" ht="34.5" hidden="1">
       <c r="B5" s="43" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="57.6" hidden="1">
+    <row r="6" spans="1:5" ht="51.75" hidden="1">
       <c r="B6" s="43" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.2" hidden="1">
+    <row r="7" spans="1:5" ht="17.25" hidden="1">
       <c r="B7" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="38.4" hidden="1">
+    <row r="8" spans="1:5" ht="34.5" hidden="1">
       <c r="B8" s="43" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="38.4" hidden="1">
+    <row r="9" spans="1:5" ht="34.5" hidden="1">
       <c r="B9" s="43" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="38.4" hidden="1">
+    <row r="10" spans="1:5" ht="34.5" hidden="1">
       <c r="B10" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="57.6" hidden="1">
+    <row r="11" spans="1:5" ht="51.75" hidden="1">
       <c r="B11" s="43" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="57.6" hidden="1">
+    <row r="12" spans="1:5" ht="51.75" hidden="1">
       <c r="B12" s="43" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19.2" hidden="1">
+    <row r="13" spans="1:5" ht="17.25" hidden="1">
       <c r="B13" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="57.6" hidden="1">
+    <row r="14" spans="1:5" ht="51.75" hidden="1">
       <c r="B14" s="43" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="38.4" hidden="1">
+    <row r="15" spans="1:5" ht="34.5" hidden="1">
       <c r="B15" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="57.6" hidden="1">
+    <row r="16" spans="1:5" ht="69" hidden="1">
       <c r="B16" s="43" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="38.4" hidden="1">
+    <row r="17" spans="1:6" ht="34.5" hidden="1">
       <c r="B17" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="57.6" hidden="1">
+    <row r="18" spans="1:6" ht="69" hidden="1">
       <c r="B18" s="43" t="s">
         <v>1359</v>
       </c>
@@ -17646,82 +17728,82 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19.2" hidden="1">
+    <row r="20" spans="1:6" ht="17.25" hidden="1">
       <c r="B20" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="57.6" hidden="1">
+    <row r="21" spans="1:6" ht="51.75" hidden="1">
       <c r="B21" s="43" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="76.8" hidden="1">
+    <row r="22" spans="1:6" ht="69" hidden="1">
       <c r="B22" s="43" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="57.6" hidden="1">
+    <row r="23" spans="1:6" ht="69" hidden="1">
       <c r="B23" s="43" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="19.2" hidden="1">
+    <row r="24" spans="1:6" ht="17.25" hidden="1">
       <c r="B24" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="19.2" hidden="1">
+    <row r="25" spans="1:6" ht="17.25" hidden="1">
       <c r="B25" s="43" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="38.4" hidden="1">
+    <row r="26" spans="1:6" ht="34.5" hidden="1">
       <c r="B26" s="43" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="38.4" hidden="1">
+    <row r="27" spans="1:6" ht="34.5" hidden="1">
       <c r="B27" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="38.4" hidden="1">
+    <row r="28" spans="1:6" ht="34.5" hidden="1">
       <c r="B28" s="43" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="38.4" hidden="1">
+    <row r="29" spans="1:6" ht="51.75" hidden="1">
       <c r="B29" s="43" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="19.2" hidden="1">
+    <row r="30" spans="1:6" ht="17.25" hidden="1">
       <c r="B30" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="57.6" hidden="1">
+    <row r="31" spans="1:6" ht="51.75" hidden="1">
       <c r="B31" s="43" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="38.4" hidden="1">
+    <row r="32" spans="1:6" ht="34.5" hidden="1">
       <c r="B32" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="57.6" hidden="1">
+    <row r="33" spans="1:5" ht="51.75" hidden="1">
       <c r="B33" s="43" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="38.4" hidden="1">
+    <row r="34" spans="1:5" ht="34.5" hidden="1">
       <c r="B34" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="57.6" hidden="1">
+    <row r="35" spans="1:5" ht="51.75" hidden="1">
       <c r="B35" s="43" t="s">
         <v>1370</v>
       </c>
@@ -17744,82 +17826,82 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="19.2" hidden="1">
+    <row r="37" spans="1:5" ht="17.25" hidden="1">
       <c r="B37" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="57.6" hidden="1">
+    <row r="38" spans="1:5" ht="51.75" hidden="1">
       <c r="B38" s="43" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="57.6" hidden="1">
+    <row r="39" spans="1:5" ht="51.75" hidden="1">
       <c r="B39" s="43" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="76.8" hidden="1">
+    <row r="40" spans="1:5" ht="69" hidden="1">
       <c r="B40" s="43" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="19.2" hidden="1">
+    <row r="41" spans="1:5" ht="17.25" hidden="1">
       <c r="B41" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="38.4" hidden="1">
+    <row r="42" spans="1:5" ht="51.75" hidden="1">
       <c r="B42" s="43" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="38.4" hidden="1">
+    <row r="43" spans="1:5" ht="34.5" hidden="1">
       <c r="B43" s="43" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="38.4" hidden="1">
+    <row r="44" spans="1:5" ht="34.5" hidden="1">
       <c r="B44" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="57.6" hidden="1">
+    <row r="45" spans="1:5" ht="51.75" hidden="1">
       <c r="B45" s="43" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="38.4" hidden="1">
+    <row r="46" spans="1:5" ht="34.5" hidden="1">
       <c r="B46" s="43" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="19.2" hidden="1">
+    <row r="47" spans="1:5" ht="17.25" hidden="1">
       <c r="B47" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="38.4" hidden="1">
+    <row r="48" spans="1:5" ht="34.5" hidden="1">
       <c r="B48" s="43" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="38.4" hidden="1">
+    <row r="49" spans="1:5" ht="34.5" hidden="1">
       <c r="B49" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="57.6" hidden="1">
+    <row r="50" spans="1:5" ht="51.75" hidden="1">
       <c r="B50" s="43" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="38.4" hidden="1">
+    <row r="51" spans="1:5" ht="34.5" hidden="1">
       <c r="B51" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="57.6" hidden="1">
+    <row r="52" spans="1:5" ht="51.75" hidden="1">
       <c r="B52" s="43" t="s">
         <v>1381</v>
       </c>
@@ -17842,82 +17924,82 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="19.2" hidden="1">
+    <row r="54" spans="1:5" ht="17.25" hidden="1">
       <c r="B54" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="38.4" hidden="1">
+    <row r="55" spans="1:5" ht="51.75" hidden="1">
       <c r="B55" s="43" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="57.6" hidden="1">
+    <row r="56" spans="1:5" ht="51.75" hidden="1">
       <c r="B56" s="43" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="57.6" hidden="1">
+    <row r="57" spans="1:5" ht="51.75" hidden="1">
       <c r="B57" s="43" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="19.2" hidden="1">
+    <row r="58" spans="1:5" ht="17.25" hidden="1">
       <c r="B58" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="38.4" hidden="1">
+    <row r="59" spans="1:5" ht="34.5" hidden="1">
       <c r="B59" s="43" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="38.4" hidden="1">
+    <row r="60" spans="1:5" ht="34.5" hidden="1">
       <c r="B60" s="43" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="38.4" hidden="1">
+    <row r="61" spans="1:5" ht="34.5" hidden="1">
       <c r="B61" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="57.6" hidden="1">
+    <row r="62" spans="1:5" ht="51.75" hidden="1">
       <c r="B62" s="43" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="19.2" hidden="1">
+    <row r="63" spans="1:5" ht="34.5" hidden="1">
       <c r="B63" s="43" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="19.2" hidden="1">
+    <row r="64" spans="1:5" ht="17.25" hidden="1">
       <c r="B64" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="38.4" hidden="1">
+    <row r="65" spans="1:5" ht="34.5" hidden="1">
       <c r="B65" s="43" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="38.4" hidden="1">
+    <row r="66" spans="1:5" ht="34.5" hidden="1">
       <c r="B66" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="38.4" hidden="1">
+    <row r="67" spans="1:5" ht="34.5" hidden="1">
       <c r="B67" s="43" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="38.4" hidden="1">
+    <row r="68" spans="1:5" ht="34.5" hidden="1">
       <c r="B68" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="57.6" hidden="1">
+    <row r="69" spans="1:5" ht="69" hidden="1">
       <c r="B69" s="43" t="s">
         <v>1392</v>
       </c>
@@ -17940,82 +18022,82 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="19.2" hidden="1">
+    <row r="71" spans="1:5" ht="17.25" hidden="1">
       <c r="B71" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="76.8" hidden="1">
+    <row r="72" spans="1:5" ht="69" hidden="1">
       <c r="B72" s="43" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="57.6" hidden="1">
+    <row r="73" spans="1:5" ht="51.75" hidden="1">
       <c r="B73" s="43" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="57.6" hidden="1">
+    <row r="74" spans="1:5" ht="51.75" hidden="1">
       <c r="B74" s="43" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="19.2" hidden="1">
+    <row r="75" spans="1:5" ht="17.25" hidden="1">
       <c r="B75" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="38.4" hidden="1">
+    <row r="76" spans="1:5" ht="34.5" hidden="1">
       <c r="B76" s="43" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="38.4" hidden="1">
+    <row r="77" spans="1:5" ht="34.5" hidden="1">
       <c r="B77" s="43" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="38.4" hidden="1">
+    <row r="78" spans="1:5" ht="34.5" hidden="1">
       <c r="B78" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="57.6" hidden="1">
+    <row r="79" spans="1:5" ht="51.75" hidden="1">
       <c r="B79" s="43" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="38.4" hidden="1">
+    <row r="80" spans="1:5" ht="34.5" hidden="1">
       <c r="B80" s="43" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="19.2" hidden="1">
+    <row r="81" spans="1:5" ht="17.25" hidden="1">
       <c r="B81" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="38.4" hidden="1">
+    <row r="82" spans="1:5" ht="51.75" hidden="1">
       <c r="B82" s="43" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="38.4" hidden="1">
+    <row r="83" spans="1:5" ht="34.5" hidden="1">
       <c r="B83" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="57.6" hidden="1">
+    <row r="84" spans="1:5" ht="51.75" hidden="1">
       <c r="B84" s="43" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="38.4" hidden="1">
+    <row r="85" spans="1:5" ht="34.5" hidden="1">
       <c r="B85" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="76.8" hidden="1">
+    <row r="86" spans="1:5" ht="69" hidden="1">
       <c r="B86" s="43" t="s">
         <v>1403</v>
       </c>
@@ -18038,77 +18120,77 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="19.2" hidden="1">
+    <row r="88" spans="1:5" ht="17.25" hidden="1">
       <c r="B88" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="76.8" hidden="1">
+    <row r="89" spans="1:5" ht="69" hidden="1">
       <c r="B89" s="43" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="38.4" hidden="1">
+    <row r="90" spans="1:5" ht="51.75" hidden="1">
       <c r="B90" s="43" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="38.4" hidden="1">
+    <row r="91" spans="1:5" ht="34.5" hidden="1">
       <c r="B91" s="43" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="19.2" hidden="1">
+    <row r="92" spans="1:5" ht="17.25" hidden="1">
       <c r="B92" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="38.4" hidden="1">
+    <row r="93" spans="1:5" ht="34.5" hidden="1">
       <c r="B93" s="43" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="19.2" hidden="1">
+    <row r="94" spans="1:5" ht="17.25" hidden="1">
       <c r="B94" s="43" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="38.4" hidden="1">
+    <row r="95" spans="1:5" ht="34.5" hidden="1">
       <c r="B95" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="57.6" hidden="1">
+    <row r="96" spans="1:5" ht="51.75" hidden="1">
       <c r="B96" s="43" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="19.2" hidden="1">
+    <row r="97" spans="1:5" ht="17.25" hidden="1">
       <c r="B97" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="38.4" hidden="1">
+    <row r="98" spans="1:5" ht="34.5" hidden="1">
       <c r="B98" s="43" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="38.4" hidden="1">
+    <row r="99" spans="1:5" ht="34.5" hidden="1">
       <c r="B99" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="38.4" hidden="1">
+    <row r="100" spans="1:5" ht="34.5" hidden="1">
       <c r="B100" s="43" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="38.4" hidden="1">
+    <row r="101" spans="1:5" ht="34.5" hidden="1">
       <c r="B101" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="38.4" hidden="1">
+    <row r="102" spans="1:5" ht="34.5" hidden="1">
       <c r="B102" s="43" t="s">
         <v>1413</v>
       </c>
@@ -18131,77 +18213,77 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="19.2" hidden="1">
+    <row r="104" spans="1:5" ht="17.25" hidden="1">
       <c r="B104" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="57.6" hidden="1">
+    <row r="105" spans="1:5" ht="51.75" hidden="1">
       <c r="B105" s="43" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="38.4" hidden="1">
+    <row r="106" spans="1:5" ht="34.5" hidden="1">
       <c r="B106" s="43" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="57.6" hidden="1">
+    <row r="107" spans="1:5" ht="51.75" hidden="1">
       <c r="B107" s="43" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="19.2" hidden="1">
+    <row r="108" spans="1:5" ht="17.25" hidden="1">
       <c r="B108" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="38.4" hidden="1">
+    <row r="109" spans="1:5" ht="34.5" hidden="1">
       <c r="B109" s="43" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="19.2" hidden="1">
+    <row r="110" spans="1:5" ht="34.5" hidden="1">
       <c r="B110" s="43" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="38.4" hidden="1">
+    <row r="111" spans="1:5" ht="34.5" hidden="1">
       <c r="B111" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="57.6" hidden="1">
+    <row r="112" spans="1:5" ht="51.75" hidden="1">
       <c r="B112" s="43" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="19.2" hidden="1">
+    <row r="113" spans="1:5" ht="17.25" hidden="1">
       <c r="B113" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="38.4" hidden="1">
+    <row r="114" spans="1:5" ht="34.5" hidden="1">
       <c r="B114" s="43" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="38.4" hidden="1">
+    <row r="115" spans="1:5" ht="34.5" hidden="1">
       <c r="B115" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="57.6" hidden="1">
+    <row r="116" spans="1:5" ht="51.75" hidden="1">
       <c r="B116" s="43" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="38.4" hidden="1">
+    <row r="117" spans="1:5" ht="34.5" hidden="1">
       <c r="B117" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="57.6" hidden="1">
+    <row r="118" spans="1:5" ht="51.75" hidden="1">
       <c r="B118" s="43" t="s">
         <v>1423</v>
       </c>
@@ -18224,82 +18306,82 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="19.2" hidden="1">
+    <row r="120" spans="1:5" ht="17.25" hidden="1">
       <c r="B120" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="57.6" hidden="1">
+    <row r="121" spans="1:5" ht="51.75" hidden="1">
       <c r="B121" s="43" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="57.6" hidden="1">
+    <row r="122" spans="1:5" ht="51.75" hidden="1">
       <c r="B122" s="43" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="38.4" hidden="1">
+    <row r="123" spans="1:5" ht="34.5" hidden="1">
       <c r="B123" s="43" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="19.2" hidden="1">
+    <row r="124" spans="1:5" ht="17.25" hidden="1">
       <c r="B124" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="38.4" hidden="1">
+    <row r="125" spans="1:5" ht="34.5" hidden="1">
       <c r="B125" s="43" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="38.4" hidden="1">
+    <row r="126" spans="1:5" ht="34.5" hidden="1">
       <c r="B126" s="43" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="38.4" hidden="1">
+    <row r="127" spans="1:5" ht="34.5" hidden="1">
       <c r="B127" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="38.4" hidden="1">
+    <row r="128" spans="1:5" ht="34.5" hidden="1">
       <c r="B128" s="43" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="57.6" hidden="1">
+    <row r="129" spans="1:5" ht="51.75" hidden="1">
       <c r="B129" s="43" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="19.2" hidden="1">
+    <row r="130" spans="1:5" ht="17.25" hidden="1">
       <c r="B130" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="38.4" hidden="1">
+    <row r="131" spans="1:5" ht="34.5" hidden="1">
       <c r="B131" s="43" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="38.4" hidden="1">
+    <row r="132" spans="1:5" ht="34.5" hidden="1">
       <c r="B132" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="57.6" hidden="1">
+    <row r="133" spans="1:5" ht="51.75" hidden="1">
       <c r="B133" s="43" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="38.4" hidden="1">
+    <row r="134" spans="1:5" ht="34.5" hidden="1">
       <c r="B134" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="76.8" hidden="1">
+    <row r="135" spans="1:5" ht="69" hidden="1">
       <c r="B135" s="43" t="s">
         <v>1434</v>
       </c>
@@ -18322,77 +18404,77 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="19.2" hidden="1">
+    <row r="137" spans="1:5" ht="17.25" hidden="1">
       <c r="B137" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="57.6" hidden="1">
+    <row r="138" spans="1:5" ht="51.75" hidden="1">
       <c r="B138" s="43" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="57.6" hidden="1">
+    <row r="139" spans="1:5" ht="51.75" hidden="1">
       <c r="B139" s="43" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="57.6" hidden="1">
+    <row r="140" spans="1:5" ht="51.75" hidden="1">
       <c r="B140" s="43" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="19.2" hidden="1">
+    <row r="141" spans="1:5" ht="17.25" hidden="1">
       <c r="B141" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="38.4" hidden="1">
+    <row r="142" spans="1:5" ht="51.75" hidden="1">
       <c r="B142" s="43" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="38.4" hidden="1">
+    <row r="143" spans="1:5" ht="34.5" hidden="1">
       <c r="B143" s="43" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="38.4" hidden="1">
+    <row r="144" spans="1:5" ht="34.5" hidden="1">
       <c r="B144" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="76.8" hidden="1">
+    <row r="145" spans="1:5" ht="69" hidden="1">
       <c r="B145" s="43" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="19.2" hidden="1">
+    <row r="146" spans="1:5" ht="17.25" hidden="1">
       <c r="B146" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="57.6" hidden="1">
+    <row r="147" spans="1:5" ht="51.75" hidden="1">
       <c r="B147" s="43" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="38.4" hidden="1">
+    <row r="148" spans="1:5" ht="34.5" hidden="1">
       <c r="B148" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="57.6" hidden="1">
+    <row r="149" spans="1:5" ht="51.75" hidden="1">
       <c r="B149" s="43" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="38.4" hidden="1">
+    <row r="150" spans="1:5" ht="34.5" hidden="1">
       <c r="B150" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="38.4" hidden="1">
+    <row r="151" spans="1:5" ht="34.5" hidden="1">
       <c r="B151" s="43" t="s">
         <v>1444</v>
       </c>
@@ -18415,82 +18497,82 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="19.2" hidden="1">
+    <row r="153" spans="1:5" ht="17.25" hidden="1">
       <c r="B153" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="57.6" hidden="1">
+    <row r="154" spans="1:5" ht="51.75" hidden="1">
       <c r="B154" s="43" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="57.6" hidden="1">
+    <row r="155" spans="1:5" ht="51.75" hidden="1">
       <c r="B155" s="43" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="57.6" hidden="1">
+    <row r="156" spans="1:5" ht="51.75" hidden="1">
       <c r="B156" s="43" t="s">
         <v>1448</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="19.2" hidden="1">
+    <row r="157" spans="1:5" ht="17.25" hidden="1">
       <c r="B157" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="38.4" hidden="1">
+    <row r="158" spans="1:5" ht="34.5" hidden="1">
       <c r="B158" s="43" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="38.4" hidden="1">
+    <row r="159" spans="1:5" ht="34.5" hidden="1">
       <c r="B159" s="43" t="s">
         <v>1450</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="38.4" hidden="1">
+    <row r="160" spans="1:5" ht="34.5" hidden="1">
       <c r="B160" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="38.4" hidden="1">
+    <row r="161" spans="1:5" ht="34.5" hidden="1">
       <c r="B161" s="43" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="38.4" hidden="1">
+    <row r="162" spans="1:5" ht="34.5" hidden="1">
       <c r="B162" s="43" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="19.2" hidden="1">
+    <row r="163" spans="1:5" ht="17.25" hidden="1">
       <c r="B163" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="57.6" hidden="1">
+    <row r="164" spans="1:5" ht="51.75" hidden="1">
       <c r="B164" s="43" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="38.4" hidden="1">
+    <row r="165" spans="1:5" ht="34.5" hidden="1">
       <c r="B165" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="38.4" hidden="1">
+    <row r="166" spans="1:5" ht="34.5" hidden="1">
       <c r="B166" s="43" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="38.4" hidden="1">
+    <row r="167" spans="1:5" ht="34.5" hidden="1">
       <c r="B167" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="57.6" hidden="1">
+    <row r="168" spans="1:5" ht="51.75" hidden="1">
       <c r="B168" s="43" t="s">
         <v>1455</v>
       </c>
@@ -18513,77 +18595,77 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="19.2" hidden="1">
+    <row r="170" spans="1:5" ht="17.25" hidden="1">
       <c r="B170" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="38.4" hidden="1">
+    <row r="171" spans="1:5" ht="34.5" hidden="1">
       <c r="B171" s="43" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="57.6" hidden="1">
+    <row r="172" spans="1:5" ht="51.75" hidden="1">
       <c r="B172" s="43" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="38.4" hidden="1">
+    <row r="173" spans="1:5" ht="34.5" hidden="1">
       <c r="B173" s="43" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="19.2" hidden="1">
+    <row r="174" spans="1:5" ht="17.25" hidden="1">
       <c r="B174" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="38.4" hidden="1">
+    <row r="175" spans="1:5" ht="34.5" hidden="1">
       <c r="B175" s="43" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="38.4" hidden="1">
+    <row r="176" spans="1:5" ht="34.5" hidden="1">
       <c r="B176" s="43" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="38.4" hidden="1">
+    <row r="177" spans="1:5" ht="34.5" hidden="1">
       <c r="B177" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="57.6" hidden="1">
+    <row r="178" spans="1:5" ht="51.75" hidden="1">
       <c r="B178" s="43" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="19.2" hidden="1">
+    <row r="179" spans="1:5" ht="17.25" hidden="1">
       <c r="B179" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="38.4" hidden="1">
+    <row r="180" spans="1:5" ht="34.5" hidden="1">
       <c r="B180" s="43" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="38.4" hidden="1">
+    <row r="181" spans="1:5" ht="34.5" hidden="1">
       <c r="B181" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="38.4" hidden="1">
+    <row r="182" spans="1:5" ht="51.75" hidden="1">
       <c r="B182" s="43" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="38.4" hidden="1">
+    <row r="183" spans="1:5" ht="34.5" hidden="1">
       <c r="B183" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="38.4" hidden="1">
+    <row r="184" spans="1:5" ht="34.5" hidden="1">
       <c r="B184" s="43" t="s">
         <v>1465</v>
       </c>
@@ -18606,77 +18688,77 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="19.2" hidden="1">
+    <row r="186" spans="1:5" ht="17.25" hidden="1">
       <c r="B186" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="38.4" hidden="1">
+    <row r="187" spans="1:5" ht="34.5" hidden="1">
       <c r="B187" s="43" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="57.6" hidden="1">
+    <row r="188" spans="1:5" ht="51.75" hidden="1">
       <c r="B188" s="43" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="57.6" hidden="1">
+    <row r="189" spans="1:5" ht="51.75" hidden="1">
       <c r="B189" s="43" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="19.2" hidden="1">
+    <row r="190" spans="1:5" ht="17.25" hidden="1">
       <c r="B190" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="38.4" hidden="1">
+    <row r="191" spans="1:5" ht="34.5" hidden="1">
       <c r="B191" s="43" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="38.4" hidden="1">
+    <row r="192" spans="1:5" ht="34.5" hidden="1">
       <c r="B192" s="43" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="38.4" hidden="1">
+    <row r="193" spans="1:5" ht="34.5" hidden="1">
       <c r="B193" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="76.8" hidden="1">
+    <row r="194" spans="1:5" ht="69" hidden="1">
       <c r="B194" s="43" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="19.2" hidden="1">
+    <row r="195" spans="1:5" ht="17.25" hidden="1">
       <c r="B195" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="38.4" hidden="1">
+    <row r="196" spans="1:5" ht="34.5" hidden="1">
       <c r="B196" s="43" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="38.4" hidden="1">
+    <row r="197" spans="1:5" ht="34.5" hidden="1">
       <c r="B197" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="57.6" hidden="1">
+    <row r="198" spans="1:5" ht="51.75" hidden="1">
       <c r="B198" s="43" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="38.4" hidden="1">
+    <row r="199" spans="1:5" ht="34.5" hidden="1">
       <c r="B199" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="57.6" hidden="1">
+    <row r="200" spans="1:5" ht="51.75" hidden="1">
       <c r="B200" s="43" t="s">
         <v>1475</v>
       </c>
@@ -18699,77 +18781,77 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="19.2" hidden="1">
+    <row r="202" spans="1:5" ht="17.25" hidden="1">
       <c r="B202" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="57.6" hidden="1">
+    <row r="203" spans="1:5" ht="51.75" hidden="1">
       <c r="B203" s="43" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="57.6" hidden="1">
+    <row r="204" spans="1:5" ht="51.75" hidden="1">
       <c r="B204" s="43" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="57.6" hidden="1">
+    <row r="205" spans="1:5" ht="51.75" hidden="1">
       <c r="B205" s="43" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="19.2" hidden="1">
+    <row r="206" spans="1:5" ht="17.25" hidden="1">
       <c r="B206" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="38.4" hidden="1">
+    <row r="207" spans="1:5" ht="34.5" hidden="1">
       <c r="B207" s="43" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="57.6" hidden="1">
+    <row r="208" spans="1:5" ht="51.75" hidden="1">
       <c r="B208" s="43" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="38.4" hidden="1">
+    <row r="209" spans="1:5" ht="34.5" hidden="1">
       <c r="B209" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="57.6" hidden="1">
+    <row r="210" spans="1:5" ht="51.75" hidden="1">
       <c r="B210" s="43" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="19.2" hidden="1">
+    <row r="211" spans="1:5" ht="17.25" hidden="1">
       <c r="B211" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="38.4" hidden="1">
+    <row r="212" spans="1:5" ht="34.5" hidden="1">
       <c r="B212" s="43" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="38.4" hidden="1">
+    <row r="213" spans="1:5" ht="34.5" hidden="1">
       <c r="B213" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="57.6" hidden="1">
+    <row r="214" spans="1:5" ht="51.75" hidden="1">
       <c r="B214" s="43" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="38.4" hidden="1">
+    <row r="215" spans="1:5" ht="34.5" hidden="1">
       <c r="B215" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="57.6" hidden="1">
+    <row r="216" spans="1:5" ht="51.75" hidden="1">
       <c r="B216" s="43" t="s">
         <v>1485</v>
       </c>
@@ -18792,97 +18874,162 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="19.2" hidden="1">
+    <row r="218" spans="1:5" ht="17.25" hidden="1">
       <c r="B218" s="42" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="57.6" hidden="1">
+    <row r="219" spans="1:5" ht="51.75" hidden="1">
       <c r="B219" s="43" t="s">
         <v>1487</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="57.6" hidden="1">
+    <row r="220" spans="1:5" ht="51.75" hidden="1">
       <c r="B220" s="43" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="38.4" hidden="1">
+    <row r="221" spans="1:5" ht="34.5" hidden="1">
       <c r="B221" s="43" t="s">
         <v>1489</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="76.8" hidden="1">
+    <row r="222" spans="1:5" ht="86.25" hidden="1">
       <c r="B222" s="43" t="s">
         <v>1490</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="57.6" hidden="1">
+    <row r="223" spans="1:5" ht="51.75" hidden="1">
       <c r="B223" s="43" t="s">
         <v>1491</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="19.2" hidden="1">
+    <row r="224" spans="1:5" ht="17.25" hidden="1">
       <c r="B224" s="42" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="225" spans="2:2" ht="38.4" hidden="1">
+    <row r="225" spans="2:2" ht="34.5" hidden="1">
       <c r="B225" s="43" t="s">
         <v>1492</v>
       </c>
     </row>
-    <row r="226" spans="2:2" ht="38.4" hidden="1">
+    <row r="226" spans="2:2" ht="34.5" hidden="1">
       <c r="B226" s="43" t="s">
         <v>1493</v>
       </c>
     </row>
-    <row r="227" spans="2:2" ht="38.4" hidden="1">
+    <row r="227" spans="2:2" ht="34.5" hidden="1">
       <c r="B227" s="42" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="228" spans="2:2" ht="57.6" hidden="1">
+    <row r="228" spans="2:2" ht="51.75" hidden="1">
       <c r="B228" s="43" t="s">
         <v>1494</v>
       </c>
     </row>
-    <row r="229" spans="2:2" ht="38.4" hidden="1">
+    <row r="229" spans="2:2" ht="34.5" hidden="1">
       <c r="B229" s="43" t="s">
         <v>1495</v>
       </c>
     </row>
-    <row r="230" spans="2:2" ht="19.2" hidden="1">
+    <row r="230" spans="2:2" ht="17.25" hidden="1">
       <c r="B230" s="42" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="231" spans="2:2" ht="38.4" hidden="1">
+    <row r="231" spans="2:2" ht="34.5" hidden="1">
       <c r="B231" s="43" t="s">
         <v>1496</v>
       </c>
     </row>
-    <row r="232" spans="2:2" ht="38.4" hidden="1">
+    <row r="232" spans="2:2" ht="34.5" hidden="1">
       <c r="B232" s="42" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="233" spans="2:2" ht="57.6" hidden="1">
+    <row r="233" spans="2:2" ht="51.75" hidden="1">
       <c r="B233" s="43" t="s">
         <v>1497</v>
       </c>
     </row>
-    <row r="234" spans="2:2" ht="38.4" hidden="1">
+    <row r="234" spans="2:2" ht="34.5" hidden="1">
       <c r="B234" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="235" spans="2:2" ht="38.4" hidden="1">
+    <row r="235" spans="2:2" ht="51.75" hidden="1">
       <c r="B235" s="43" t="s">
         <v>1498</v>
       </c>
     </row>
     <row r="236" spans="2:2" hidden="1"/>
+    <row r="243" spans="1:1">
+      <c r="A243" s="16" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="16" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="16" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="16" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="16" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="16" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="16" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="16" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="16" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="16" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="16" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="16" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="16" t="s">
+        <v>1650</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B236" xr:uid="{0D1590E3-1708-4563-889F-3AD6ACE1A716}">
     <filterColumn colId="0">
@@ -18903,17 +19050,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="155.88671875" customWidth="1"/>
+    <col min="1" max="1" width="155.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1" ht="409.6">
+    <row r="4" spans="1:1" ht="409.5">
       <c r="A4" s="14" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="409.6">
+    <row r="7" spans="1:1" ht="409.5">
       <c r="A7" s="46" t="s">
         <v>1514</v>
       </c>
@@ -18931,12 +19078,12 @@
       <selection activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="112.6640625" customWidth="1"/>
+    <col min="2" max="2" width="112.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" ht="244.8">
+    <row r="4" spans="1:2" ht="255">
       <c r="A4" t="s">
         <v>400</v>
       </c>
@@ -18944,7 +19091,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="409.6">
+    <row r="10" spans="1:2" ht="409.5">
       <c r="A10" t="s">
         <v>401</v>
       </c>
@@ -18966,22 +19113,22 @@
       <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="50.5546875" customWidth="1"/>
-    <col min="7" max="8" width="11.5546875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="39.5546875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="39.5546875" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="39.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="39.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>760</v>
       </c>
@@ -19012,7 +19159,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="31.2" thickBot="1">
+    <row r="2" spans="1:11" ht="31.5" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>119</v>
       </c>
@@ -19043,7 +19190,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="31.2" thickBot="1">
+    <row r="3" spans="1:11" ht="31.5" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>119</v>
       </c>
@@ -19071,7 +19218,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.2" thickBot="1">
+    <row r="4" spans="1:11" ht="31.5" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>119</v>
       </c>
@@ -19099,7 +19246,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="46.2" thickBot="1">
+    <row r="5" spans="1:11" ht="46.5" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>119</v>
       </c>
@@ -19127,7 +19274,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="31.2" thickBot="1">
+    <row r="6" spans="1:11" ht="31.5" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>119</v>
       </c>
@@ -19155,7 +19302,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="31.2" thickBot="1">
+    <row r="7" spans="1:11" ht="31.5" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>119</v>
       </c>
@@ -19183,7 +19330,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="31.2" thickBot="1">
+    <row r="8" spans="1:11" ht="31.5" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>119</v>
       </c>
@@ -19211,7 +19358,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="31.2" thickBot="1">
+    <row r="9" spans="1:11" ht="31.5" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>119</v>
       </c>
@@ -19239,7 +19386,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="31.2" thickBot="1">
+    <row r="10" spans="1:11" ht="31.5" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>119</v>
       </c>
@@ -19267,7 +19414,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="31.2" thickBot="1">
+    <row r="11" spans="1:11" ht="31.5" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>119</v>
       </c>
@@ -19295,7 +19442,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="31.2" thickBot="1">
+    <row r="12" spans="1:11" ht="31.5" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>119</v>
       </c>
@@ -19323,7 +19470,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="31.2" thickBot="1">
+    <row r="13" spans="1:11" ht="31.5" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>119</v>
       </c>
@@ -19351,7 +19498,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="31.2" thickBot="1">
+    <row r="14" spans="1:11" ht="31.5" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>119</v>
       </c>
@@ -19379,7 +19526,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="31.2" thickBot="1">
+    <row r="15" spans="1:11" ht="31.5" thickBot="1">
       <c r="A15" s="6" t="s">
         <v>119</v>
       </c>
@@ -19407,7 +19554,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="31.2" thickBot="1">
+    <row r="16" spans="1:11" ht="31.5" thickBot="1">
       <c r="A16" s="6" t="s">
         <v>119</v>
       </c>
@@ -19435,7 +19582,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="31.2" thickBot="1">
+    <row r="17" spans="1:17" ht="31.5" thickBot="1">
       <c r="A17" s="6" t="s">
         <v>119</v>
       </c>
@@ -19463,7 +19610,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="31.2" thickBot="1">
+    <row r="18" spans="1:17" ht="46.5" thickBot="1">
       <c r="A18" s="6" t="s">
         <v>119</v>
       </c>
@@ -19491,7 +19638,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="31.2" thickBot="1">
+    <row r="19" spans="1:17" ht="31.5" thickBot="1">
       <c r="A19" s="6" t="s">
         <v>119</v>
       </c>
@@ -19519,7 +19666,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="31.2" thickBot="1">
+    <row r="20" spans="1:17" ht="31.5" thickBot="1">
       <c r="A20" s="6" t="s">
         <v>119</v>
       </c>
@@ -19547,7 +19694,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="31.2" thickBot="1">
+    <row r="21" spans="1:17" ht="31.5" thickBot="1">
       <c r="A21" s="6" t="s">
         <v>119</v>
       </c>
@@ -19575,7 +19722,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="31.2" thickBot="1">
+    <row r="22" spans="1:17" ht="31.5" thickBot="1">
       <c r="A22" s="6" t="s">
         <v>119</v>
       </c>
@@ -19603,7 +19750,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="31.2" thickBot="1">
+    <row r="23" spans="1:17" ht="31.5" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>119</v>
       </c>
@@ -19631,7 +19778,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="31.2" thickBot="1">
+    <row r="24" spans="1:17" ht="31.5" thickBot="1">
       <c r="A24" s="6" t="s">
         <v>120</v>
       </c>
@@ -19666,7 +19813,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="31.2" thickBot="1">
+    <row r="25" spans="1:17" ht="31.5" thickBot="1">
       <c r="A25" s="6" t="s">
         <v>120</v>
       </c>
@@ -19701,7 +19848,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="31.2" thickBot="1">
+    <row r="26" spans="1:17" ht="31.5" thickBot="1">
       <c r="A26" s="6" t="s">
         <v>120</v>
       </c>
@@ -19736,7 +19883,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="31.2" thickBot="1">
+    <row r="27" spans="1:17" ht="31.5" thickBot="1">
       <c r="A27" s="6" t="s">
         <v>120</v>
       </c>
@@ -19771,7 +19918,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="31.2" thickBot="1">
+    <row r="28" spans="1:17" ht="31.5" thickBot="1">
       <c r="A28" s="6" t="s">
         <v>120</v>
       </c>
@@ -19806,7 +19953,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="31.2" thickBot="1">
+    <row r="29" spans="1:17" ht="31.5" thickBot="1">
       <c r="A29" s="6" t="s">
         <v>120</v>
       </c>
@@ -19841,7 +19988,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="31.2" thickBot="1">
+    <row r="30" spans="1:17" ht="31.5" thickBot="1">
       <c r="A30" s="6" t="s">
         <v>120</v>
       </c>
@@ -19876,7 +20023,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="31.2" thickBot="1">
+    <row r="31" spans="1:17" ht="31.5" thickBot="1">
       <c r="A31" s="6" t="s">
         <v>120</v>
       </c>
@@ -19911,7 +20058,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="31.2" thickBot="1">
+    <row r="32" spans="1:17" ht="31.5" thickBot="1">
       <c r="A32" s="6" t="s">
         <v>120</v>
       </c>
@@ -19946,7 +20093,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="31.2" thickBot="1">
+    <row r="33" spans="1:17" ht="31.5" thickBot="1">
       <c r="A33" s="6" t="s">
         <v>120</v>
       </c>
@@ -19981,7 +20128,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="31.2" thickBot="1">
+    <row r="34" spans="1:17" ht="31.5" thickBot="1">
       <c r="A34" s="6" t="s">
         <v>120</v>
       </c>
@@ -20016,7 +20163,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="31.2" thickBot="1">
+    <row r="35" spans="1:17" ht="31.5" thickBot="1">
       <c r="A35" s="6" t="s">
         <v>120</v>
       </c>
@@ -20051,7 +20198,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="31.2" thickBot="1">
+    <row r="36" spans="1:17" ht="31.5" thickBot="1">
       <c r="A36" s="6" t="s">
         <v>120</v>
       </c>
@@ -20086,7 +20233,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="31.2" thickBot="1">
+    <row r="37" spans="1:17" ht="31.5" thickBot="1">
       <c r="A37" s="6" t="s">
         <v>120</v>
       </c>
@@ -20121,7 +20268,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="31.2" thickBot="1">
+    <row r="38" spans="1:17" ht="31.5" thickBot="1">
       <c r="A38" s="6" t="s">
         <v>120</v>
       </c>
@@ -20156,7 +20303,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="31.2" thickBot="1">
+    <row r="39" spans="1:17" ht="31.5" thickBot="1">
       <c r="A39" s="6" t="s">
         <v>120</v>
       </c>
@@ -20191,7 +20338,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="31.2" thickBot="1">
+    <row r="40" spans="1:17" ht="31.5" thickBot="1">
       <c r="A40" s="6" t="s">
         <v>120</v>
       </c>
@@ -20226,7 +20373,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="31.2" thickBot="1">
+    <row r="41" spans="1:17" ht="31.5" thickBot="1">
       <c r="A41" s="6" t="s">
         <v>121</v>
       </c>
@@ -20258,7 +20405,7 @@
         <v>TS-UC-SEC-MCP-003test_001_query_under_5s_allowed</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="31.2" thickBot="1">
+    <row r="42" spans="1:17" ht="31.5" thickBot="1">
       <c r="A42" s="6" t="s">
         <v>121</v>
       </c>
@@ -20290,7 +20437,7 @@
         <v>TS-UC-SEC-MCP-003test_002_query_at_5s_allowed</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="31.2" thickBot="1">
+    <row r="43" spans="1:17" ht="31.5" thickBot="1">
       <c r="A43" s="6" t="s">
         <v>121</v>
       </c>
@@ -20322,7 +20469,7 @@
         <v>TS-UC-SEC-MCP-003test_003_query_over_5s_timeout_cancelled</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="31.2" thickBot="1">
+    <row r="44" spans="1:17" ht="31.5" thickBot="1">
       <c r="A44" s="6" t="s">
         <v>121</v>
       </c>
@@ -20354,7 +20501,7 @@
         <v>TS-UC-SEC-MCP-003test_004_query_result_under_1000_rows_allowed</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="31.2" thickBot="1">
+    <row r="45" spans="1:17" ht="31.5" thickBot="1">
       <c r="A45" s="6" t="s">
         <v>121</v>
       </c>
@@ -20386,7 +20533,7 @@
         <v>TS-UC-SEC-MCP-003test_005_query_result_at_1000_rows_allowed</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="31.2" thickBot="1">
+    <row r="46" spans="1:17" ht="31.5" thickBot="1">
       <c r="A46" s="6" t="s">
         <v>121</v>
       </c>
@@ -20418,7 +20565,7 @@
         <v>TS-UC-SEC-MCP-003test_006_query_result_over_1000_rows_truncated</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="31.2" thickBot="1">
+    <row r="47" spans="1:17" ht="31.5" thickBot="1">
       <c r="A47" s="6" t="s">
         <v>121</v>
       </c>
@@ -20450,7 +20597,7 @@
         <v>TS-UC-SEC-MCP-003test_007_query_result_truncated_flag_set</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="31.2" thickBot="1">
+    <row r="48" spans="1:17" ht="31.5" thickBot="1">
       <c r="A48" s="6" t="s">
         <v>121</v>
       </c>
@@ -20482,7 +20629,7 @@
         <v>TS-UC-SEC-MCP-003test_008_timeout_returns_partial_results</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="31.2" thickBot="1">
+    <row r="49" spans="1:11" ht="31.5" thickBot="1">
       <c r="A49" s="6" t="s">
         <v>121</v>
       </c>
@@ -20514,7 +20661,7 @@
         <v>TS-UC-SEC-MCP-003test_009_timeout_audit_log_created</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="31.2" thickBot="1">
+    <row r="50" spans="1:11" ht="31.5" thickBot="1">
       <c r="A50" s="6" t="s">
         <v>121</v>
       </c>
@@ -20546,7 +20693,7 @@
         <v>TS-UC-SEC-MCP-003test_010_row_limit_audit_log_created</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="31.2" thickBot="1">
+    <row r="51" spans="1:11" ht="31.5" thickBot="1">
       <c r="A51" s="6" t="s">
         <v>121</v>
       </c>
@@ -20578,7 +20725,7 @@
         <v>TS-UC-SEC-MCP-003test_011_combined_timeout_and_row_limit</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="31.2" thickBot="1">
+    <row r="52" spans="1:11" ht="31.5" thickBot="1">
       <c r="A52" s="6" t="s">
         <v>121</v>
       </c>
@@ -20610,7 +20757,7 @@
         <v>TS-UC-SEC-MCP-003test_012_query_limit_config_per_tenant</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="31.2" thickBot="1">
+    <row r="53" spans="1:11" ht="31.5" thickBot="1">
       <c r="A53" s="6" t="s">
         <v>121</v>
       </c>
@@ -20642,7 +20789,7 @@
         <v>TS-UC-SEC-MCP-003test_edge_001_exactly_1000_rows</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="31.2" thickBot="1">
+    <row r="54" spans="1:11" ht="31.5" thickBot="1">
       <c r="A54" s="6" t="s">
         <v>121</v>
       </c>
@@ -20674,7 +20821,7 @@
         <v>TS-UC-SEC-MCP-003test_edge_002_empty_result_set</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="31.2" thickBot="1">
+    <row r="55" spans="1:11" ht="31.5" thickBot="1">
       <c r="A55" s="6" t="s">
         <v>121</v>
       </c>
@@ -20706,7 +20853,7 @@
         <v>TS-UC-SEC-MCP-003test_edge_003_streaming_query_timeout</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="31.2" thickBot="1">
+    <row r="56" spans="1:11" ht="31.5" thickBot="1">
       <c r="A56" s="6" t="s">
         <v>123</v>
       </c>
@@ -20738,7 +20885,7 @@
         <v>TS-UC-SEC-ANO-001test_001_detect_dni_valid_12345678Z</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="31.2" thickBot="1">
+    <row r="57" spans="1:11" ht="31.5" thickBot="1">
       <c r="A57" s="6" t="s">
         <v>123</v>
       </c>
@@ -20770,7 +20917,7 @@
         <v>TS-UC-SEC-ANO-001test_002_detect_dni_valid_87654321X</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="31.2" thickBot="1">
+    <row r="58" spans="1:11" ht="31.5" thickBot="1">
       <c r="A58" s="6" t="s">
         <v>123</v>
       </c>
@@ -20802,7 +20949,7 @@
         <v>TS-UC-SEC-ANO-001test_003_detect_dni_invalid_length_9_digits</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="31.2" thickBot="1">
+    <row r="59" spans="1:11" ht="31.5" thickBot="1">
       <c r="A59" s="6" t="s">
         <v>123</v>
       </c>
@@ -20834,7 +20981,7 @@
         <v>TS-UC-SEC-ANO-001test_004_detect_dni_invalid_length_7_digits</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="31.2" thickBot="1">
+    <row r="60" spans="1:11" ht="31.5" thickBot="1">
       <c r="A60" s="6" t="s">
         <v>123</v>
       </c>
@@ -20866,7 +21013,7 @@
         <v>TS-UC-SEC-ANO-001test_005_detect_dni_invalid_letter_checksum</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="31.2" thickBot="1">
+    <row r="61" spans="1:11" ht="31.5" thickBot="1">
       <c r="A61" s="6" t="s">
         <v>123</v>
       </c>
@@ -20898,7 +21045,7 @@
         <v>TS-UC-SEC-ANO-001test_006_detect_multiple_dnis_in_text</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="31.2" thickBot="1">
+    <row r="62" spans="1:11" ht="31.5" thickBot="1">
       <c r="A62" s="6" t="s">
         <v>123</v>
       </c>
@@ -20930,7 +21077,7 @@
         <v>TS-UC-SEC-ANO-001test_007_detect_email_simple</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="31.2" thickBot="1">
+    <row r="63" spans="1:11" ht="31.5" thickBot="1">
       <c r="A63" s="6" t="s">
         <v>123</v>
       </c>
@@ -20962,7 +21109,7 @@
         <v>TS-UC-SEC-ANO-001test_008_detect_email_with_subdomain</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="31.2" thickBot="1">
+    <row r="64" spans="1:11" ht="31.5" thickBot="1">
       <c r="A64" s="6" t="s">
         <v>123</v>
       </c>
@@ -20994,7 +21141,7 @@
         <v>TS-UC-SEC-ANO-001test_009_detect_email_with_plus_sign</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="31.2" thickBot="1">
+    <row r="65" spans="1:11" ht="31.5" thickBot="1">
       <c r="A65" s="6" t="s">
         <v>123</v>
       </c>
@@ -21026,7 +21173,7 @@
         <v>TS-UC-SEC-ANO-001test_010_detect_email_invalid_no_at</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="31.2" thickBot="1">
+    <row r="66" spans="1:11" ht="31.5" thickBot="1">
       <c r="A66" s="6" t="s">
         <v>123</v>
       </c>
@@ -21058,7 +21205,7 @@
         <v>TS-UC-SEC-ANO-001test_011_detect_multiple_emails_in_text</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="31.2" thickBot="1">
+    <row r="67" spans="1:11" ht="31.5" thickBot="1">
       <c r="A67" s="6" t="s">
         <v>123</v>
       </c>
@@ -21090,7 +21237,7 @@
         <v>TS-UC-SEC-ANO-001test_012_detect_phone_mobile_612345678</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="31.2" thickBot="1">
+    <row r="68" spans="1:11" ht="31.5" thickBot="1">
       <c r="A68" s="6" t="s">
         <v>123</v>
       </c>
@@ -21122,7 +21269,7 @@
         <v>TS-UC-SEC-ANO-001test_013_detect_phone_mobile_with_prefix_34</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="31.2" thickBot="1">
+    <row r="69" spans="1:11" ht="31.5" thickBot="1">
       <c r="A69" s="6" t="s">
         <v>123</v>
       </c>
@@ -21154,7 +21301,7 @@
         <v>TS-UC-SEC-ANO-001test_014_detect_phone_landline_912345678</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="31.2" thickBot="1">
+    <row r="70" spans="1:11" ht="31.5" thickBot="1">
       <c r="A70" s="6" t="s">
         <v>123</v>
       </c>
@@ -21186,7 +21333,7 @@
         <v>TS-UC-SEC-ANO-001test_015_detect_phone_invalid_short</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="31.2" thickBot="1">
+    <row r="71" spans="1:11" ht="31.5" thickBot="1">
       <c r="A71" s="6" t="s">
         <v>123</v>
       </c>
@@ -21218,7 +21365,7 @@
         <v>TS-UC-SEC-ANO-001test_016_detect_multiple_phones_in_text</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="31.2" thickBot="1">
+    <row r="72" spans="1:11" ht="31.5" thickBot="1">
       <c r="A72" s="6" t="s">
         <v>123</v>
       </c>
@@ -21250,7 +21397,7 @@
         <v>TS-UC-SEC-ANO-001test_017_detect_iban_spain_valid</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="31.2" thickBot="1">
+    <row r="73" spans="1:11" ht="31.5" thickBot="1">
       <c r="A73" s="6" t="s">
         <v>123</v>
       </c>
@@ -21282,7 +21429,7 @@
         <v>TS-UC-SEC-ANO-001test_018_detect_iban_germany_valid</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="31.2" thickBot="1">
+    <row r="74" spans="1:11" ht="31.5" thickBot="1">
       <c r="A74" s="6" t="s">
         <v>123</v>
       </c>
@@ -21314,7 +21461,7 @@
         <v>TS-UC-SEC-ANO-001test_019_detect_iban_invalid_checksum</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="31.2" thickBot="1">
+    <row r="75" spans="1:11" ht="31.5" thickBot="1">
       <c r="A75" s="6" t="s">
         <v>123</v>
       </c>
@@ -21346,7 +21493,7 @@
         <v>TS-UC-SEC-ANO-001test_020_detect_iban_invalid_length</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="31.2" thickBot="1">
+    <row r="76" spans="1:11" ht="31.5" thickBot="1">
       <c r="A76" s="6" t="s">
         <v>123</v>
       </c>
@@ -21378,7 +21525,7 @@
         <v>TS-UC-SEC-ANO-001test_021_detect_all_pii_types_in_document</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="31.2" thickBot="1">
+    <row r="77" spans="1:11" ht="31.5" thickBot="1">
       <c r="A77" s="6" t="s">
         <v>123</v>
       </c>
@@ -21410,7 +21557,7 @@
         <v>TS-UC-SEC-ANO-001test_022_detect_no_pii_clean_document</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="31.2" thickBot="1">
+    <row r="78" spans="1:11" ht="31.5" thickBot="1">
       <c r="A78" s="6" t="s">
         <v>123</v>
       </c>
@@ -21442,7 +21589,7 @@
         <v>TS-UC-SEC-ANO-001test_023_detect_pii_positions_returned</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="31.2" thickBot="1">
+    <row r="79" spans="1:11" ht="31.5" thickBot="1">
       <c r="A79" s="6" t="s">
         <v>123</v>
       </c>
@@ -21474,7 +21621,7 @@
         <v>TS-UC-SEC-ANO-001test_024_detect_pii_counts_by_type</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="31.2" thickBot="1">
+    <row r="80" spans="1:11" ht="31.5" thickBot="1">
       <c r="A80" s="6" t="s">
         <v>123</v>
       </c>
@@ -21506,7 +21653,7 @@
         <v>TS-UC-SEC-ANO-001test_edge_001_pii_in_different_languages</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="31.2" thickBot="1">
+    <row r="81" spans="1:11" ht="31.5" thickBot="1">
       <c r="A81" s="6" t="s">
         <v>123</v>
       </c>
@@ -21538,7 +21685,7 @@
         <v>TS-UC-SEC-ANO-001test_edge_002_pii_with_unicode_characters</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="31.2" thickBot="1">
+    <row r="82" spans="1:11" ht="31.5" thickBot="1">
       <c r="A82" s="6" t="s">
         <v>123</v>
       </c>
@@ -21561,7 +21708,7 @@
         <v>TS-UC-SEC-ANO-001test_edge_003_pii_in_html_escaped_text</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="31.2" thickBot="1">
+    <row r="83" spans="1:11" ht="31.5" thickBot="1">
       <c r="A83" s="6" t="s">
         <v>124</v>
       </c>
@@ -21590,7 +21737,7 @@
         <v>TS-UC-SEC-ANO-002test_001_redact_dni_to_redacted</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="31.2" thickBot="1">
+    <row r="84" spans="1:11" ht="31.5" thickBot="1">
       <c r="A84" s="6" t="s">
         <v>124</v>
       </c>
@@ -21619,7 +21766,7 @@
         <v>TS-UC-SEC-ANO-002test_002_redact_email_to_redacted</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="31.2" thickBot="1">
+    <row r="85" spans="1:11" ht="31.5" thickBot="1">
       <c r="A85" s="6" t="s">
         <v>124</v>
       </c>
@@ -21648,7 +21795,7 @@
         <v>TS-UC-SEC-ANO-002test_003_redact_phone_to_redacted</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="31.2" thickBot="1">
+    <row r="86" spans="1:11" ht="31.5" thickBot="1">
       <c r="A86" s="6" t="s">
         <v>124</v>
       </c>
@@ -21677,7 +21824,7 @@
         <v>TS-UC-SEC-ANO-002test_004_redact_multiple_pii_all_redacted</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="31.2" thickBot="1">
+    <row r="87" spans="1:11" ht="31.5" thickBot="1">
       <c r="A87" s="6" t="s">
         <v>124</v>
       </c>
@@ -21706,7 +21853,7 @@
         <v>TS-UC-SEC-ANO-002test_005_hash_dni_deterministic</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="31.2" thickBot="1">
+    <row r="88" spans="1:11" ht="31.5" thickBot="1">
       <c r="A88" s="6" t="s">
         <v>124</v>
       </c>
@@ -21735,7 +21882,7 @@
         <v>TS-UC-SEC-ANO-002test_006_hash_same_value_same_hash</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="31.2" thickBot="1">
+    <row r="89" spans="1:11" ht="31.5" thickBot="1">
       <c r="A89" s="6" t="s">
         <v>124</v>
       </c>
@@ -21764,7 +21911,7 @@
         <v>TS-UC-SEC-ANO-002test_007_hash_different_values_different_hash</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="31.2" thickBot="1">
+    <row r="90" spans="1:11" ht="31.5" thickBot="1">
       <c r="A90" s="6" t="s">
         <v>124</v>
       </c>
@@ -21793,7 +21940,7 @@
         <v>TS-UC-SEC-ANO-002test_008_hash_irreversible_validation</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="31.2" thickBot="1">
+    <row r="91" spans="1:11" ht="31.5" thickBot="1">
       <c r="A91" s="6" t="s">
         <v>124</v>
       </c>
@@ -21822,7 +21969,7 @@
         <v>TS-UC-SEC-ANO-002test_009_pseudonymize_name_to_persona_001</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="31.2" thickBot="1">
+    <row r="92" spans="1:11" ht="31.5" thickBot="1">
       <c r="A92" s="6" t="s">
         <v>124</v>
       </c>
@@ -21851,7 +21998,7 @@
         <v>TS-UC-SEC-ANO-002test_010_pseudonymize_consistent_same_name</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="31.2" thickBot="1">
+    <row r="93" spans="1:11" ht="46.5" thickBot="1">
       <c r="A93" s="6" t="s">
         <v>124</v>
       </c>
@@ -21880,7 +22027,7 @@
         <v>TS-UC-SEC-ANO-002test_011_pseudonymize_different_names_different_ids</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="31.2" thickBot="1">
+    <row r="94" spans="1:11" ht="31.5" thickBot="1">
       <c r="A94" s="6" t="s">
         <v>124</v>
       </c>
@@ -21909,7 +22056,7 @@
         <v>TS-UC-SEC-ANO-002test_012_pseudonymize_in_context_preserved</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="31.2" thickBot="1">
+    <row r="95" spans="1:11" ht="31.5" thickBot="1">
       <c r="A95" s="6" t="s">
         <v>124</v>
       </c>
@@ -21938,7 +22085,7 @@
         <v>TS-UC-SEC-ANO-002test_013_strategy_by_pii_type_default</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="31.2" thickBot="1">
+    <row r="96" spans="1:11" ht="31.5" thickBot="1">
       <c r="A96" s="6" t="s">
         <v>124</v>
       </c>
@@ -21967,7 +22114,7 @@
         <v>TS-UC-SEC-ANO-002test_014_strategy_by_tenant_config</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="31.2" thickBot="1">
+    <row r="97" spans="1:11" ht="31.5" thickBot="1">
       <c r="A97" s="6" t="s">
         <v>124</v>
       </c>
@@ -21996,7 +22143,7 @@
         <v>TS-UC-SEC-ANO-002test_015_strategy_mixed_per_type</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="31.2" thickBot="1">
+    <row r="98" spans="1:11" ht="31.5" thickBot="1">
       <c r="A98" s="6" t="s">
         <v>124</v>
       </c>
@@ -22025,7 +22172,7 @@
         <v>TS-UC-SEC-ANO-002test_016_strategy_none_keeps_original</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="31.2" thickBot="1">
+    <row r="99" spans="1:11" ht="31.5" thickBot="1">
       <c r="A99" s="6" t="s">
         <v>124</v>
       </c>
@@ -22054,7 +22201,7 @@
         <v>TS-UC-SEC-ANO-002test_edge_001_nested_pii_in_pii</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="31.2" thickBot="1">
+    <row r="100" spans="1:11" ht="31.5" thickBot="1">
       <c r="A100" s="6" t="s">
         <v>124</v>
       </c>
@@ -22083,7 +22230,7 @@
         <v>TS-UC-SEC-ANO-002test_edge_002_overlapping_pii_positions</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="31.2" thickBot="1">
+    <row r="101" spans="1:11" ht="31.5" thickBot="1">
       <c r="A101" s="6" t="s">
         <v>124</v>
       </c>
@@ -22112,7 +22259,7 @@
         <v>TS-UC-SEC-ANO-002test_edge_003_empty_text_no_error</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="16.2" thickBot="1">
+    <row r="102" spans="1:11" ht="16.5" thickBot="1">
       <c r="A102" s="6" t="s">
         <v>125</v>
       </c>
@@ -22141,7 +22288,7 @@
         <v>TS-UC-SEC-ANO-003Tests not individually listed</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="16.2" thickBot="1">
+    <row r="103" spans="1:11" ht="16.5" thickBot="1">
       <c r="A103" s="6" t="s">
         <v>126</v>
       </c>
@@ -22170,7 +22317,7 @@
         <v>TS-UC-SEC-TNT-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="16.2" thickBot="1">
+    <row r="104" spans="1:11" ht="16.5" thickBot="1">
       <c r="A104" s="6" t="s">
         <v>127</v>
       </c>
@@ -22196,7 +22343,7 @@
         <v>TS-UC-SEC-JWT-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="16.2" thickBot="1">
+    <row r="105" spans="1:11" ht="16.5" thickBot="1">
       <c r="A105" s="6" t="s">
         <v>128</v>
       </c>
@@ -22222,7 +22369,7 @@
         <v>TS-UC-SEC-AUD-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="31.2" thickBot="1">
+    <row r="106" spans="1:11" ht="31.5" thickBot="1">
       <c r="A106" s="6" t="s">
         <v>129</v>
       </c>
@@ -22251,7 +22398,7 @@
         <v>TS-UC-SEC-GAM-001test_001_mass_changes_11_in_hour_detected</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="31.2" thickBot="1">
+    <row r="107" spans="1:11" ht="31.5" thickBot="1">
       <c r="A107" s="6" t="s">
         <v>129</v>
       </c>
@@ -22280,7 +22427,7 @@
         <v>TS-UC-SEC-GAM-001test_002_mass_changes_10_in_hour_allowed</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="31.2" thickBot="1">
+    <row r="108" spans="1:11" ht="31.5" thickBot="1">
       <c r="A108" s="6" t="s">
         <v>129</v>
       </c>
@@ -22309,7 +22456,7 @@
         <v>TS-UC-SEC-GAM-001test_003_mass_changes_window_reset</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="31.2" thickBot="1">
+    <row r="109" spans="1:11" ht="31.5" thickBot="1">
       <c r="A109" s="6" t="s">
         <v>129</v>
       </c>
@@ -22338,7 +22485,7 @@
         <v>TS-UC-SEC-GAM-001test_004_resolve_reintroduce_3_times_detected</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="31.2" thickBot="1">
+    <row r="110" spans="1:11" ht="31.5" thickBot="1">
       <c r="A110" s="6" t="s">
         <v>129</v>
       </c>
@@ -22367,7 +22514,7 @@
         <v>TS-UC-SEC-GAM-001test_005_resolve_reintroduce_2_times_allowed</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="31.2" thickBot="1">
+    <row r="111" spans="1:11" ht="31.5" thickBot="1">
       <c r="A111" s="6" t="s">
         <v>129</v>
       </c>
@@ -22396,7 +22543,7 @@
         <v>TS-UC-SEC-GAM-001test_006_resolve_reintroduce_different_hash_allowed</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="31.2" thickBot="1">
+    <row r="112" spans="1:11" ht="31.5" thickBot="1">
       <c r="A112" s="6" t="s">
         <v>129</v>
       </c>
@@ -22425,7 +22572,7 @@
         <v>TS-UC-SEC-GAM-001test_007_high_score_few_docs_detected</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="31.2" thickBot="1">
+    <row r="113" spans="1:11" ht="31.5" thickBot="1">
       <c r="A113" s="6" t="s">
         <v>129</v>
       </c>
@@ -22454,7 +22601,7 @@
         <v>TS-UC-SEC-GAM-001test_008_high_score_many_docs_allowed</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="31.2" thickBot="1">
+    <row r="114" spans="1:11" ht="31.5" thickBot="1">
       <c r="A114" s="6" t="s">
         <v>129</v>
       </c>
@@ -22483,7 +22630,7 @@
         <v>TS-UC-SEC-GAM-001test_009_high_score_threshold_boundary</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="31.2" thickBot="1">
+    <row r="115" spans="1:11" ht="31.5" thickBot="1">
       <c r="A115" s="6" t="s">
         <v>129</v>
       </c>
@@ -22512,7 +22659,7 @@
         <v>TS-UC-SEC-GAM-001test_010_weight_change_25_percent_detected</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="31.2" thickBot="1">
+    <row r="116" spans="1:11" ht="31.5" thickBot="1">
       <c r="A116" s="6" t="s">
         <v>129</v>
       </c>
@@ -22541,7 +22688,7 @@
         <v>TS-UC-SEC-GAM-001test_011_weight_change_15_percent_allowed</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="31.2" thickBot="1">
+    <row r="117" spans="1:11" ht="31.5" thickBot="1">
       <c r="A117" s="6" t="s">
         <v>129</v>
       </c>
@@ -22570,7 +22717,7 @@
         <v>TS-UC-SEC-GAM-001test_012_weight_change_tracking_24h_window</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="31.2" thickBot="1">
+    <row r="118" spans="1:11" ht="31.5" thickBot="1">
       <c r="A118" s="6" t="s">
         <v>129</v>
       </c>
@@ -22599,7 +22746,7 @@
         <v>TS-UC-SEC-GAM-001test_edge_001_multiple_violations_combined</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="31.2" thickBot="1">
+    <row r="119" spans="1:11" ht="31.5" thickBot="1">
       <c r="A119" s="6" t="s">
         <v>129</v>
       </c>
@@ -22628,7 +22775,7 @@
         <v>TS-UC-SEC-GAM-001test_edge_002_violation_penalty_application</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="31.2" thickBot="1">
+    <row r="120" spans="1:11" ht="31.5" thickBot="1">
       <c r="A120" s="6" t="s">
         <v>129</v>
       </c>
@@ -22657,7 +22804,7 @@
         <v>TS-UC-SEC-GAM-001test_edge_003_violation_audit_logging</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="31.2" thickBot="1">
+    <row r="121" spans="1:11" ht="31.5" thickBot="1">
       <c r="A121" s="6" t="s">
         <v>130</v>
       </c>
@@ -22689,7 +22836,7 @@
         <v>TS-UD-DOC-CLS-001test_001_clause_creation_with_all_fields</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="31.2" thickBot="1">
+    <row r="122" spans="1:11" ht="31.5" thickBot="1">
       <c r="A122" s="6" t="s">
         <v>130</v>
       </c>
@@ -22718,7 +22865,7 @@
         <v>TS-UD-DOC-CLS-001test_002_clause_creation_minimum_fields</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="31.2" thickBot="1">
+    <row r="123" spans="1:11" ht="31.5" thickBot="1">
       <c r="A123" s="6" t="s">
         <v>130</v>
       </c>
@@ -22747,7 +22894,7 @@
         <v>TS-UD-DOC-CLS-001test_003_clause_creation_fails_without_content</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="31.2" thickBot="1">
+    <row r="124" spans="1:11" ht="31.5" thickBot="1">
       <c r="A124" s="6" t="s">
         <v>130</v>
       </c>
@@ -22776,7 +22923,7 @@
         <v>TS-UD-DOC-CLS-001test_004_clause_creation_fails_without_document_id</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="31.2" thickBot="1">
+    <row r="125" spans="1:11" ht="31.5" thickBot="1">
       <c r="A125" s="6" t="s">
         <v>130</v>
       </c>
@@ -22805,7 +22952,7 @@
         <v>TS-UD-DOC-CLS-001test_005_clause_creation_fails_without_tenant_id</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="31.2" thickBot="1">
+    <row r="126" spans="1:11" ht="31.5" thickBot="1">
       <c r="A126" s="6" t="s">
         <v>130</v>
       </c>
@@ -22834,7 +22981,7 @@
         <v>TS-UD-DOC-CLS-001test_006_clause_immutability_after_creation</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="31.2" thickBot="1">
+    <row r="127" spans="1:11" ht="31.5" thickBot="1">
       <c r="A127" s="6" t="s">
         <v>130</v>
       </c>
@@ -22863,7 +23010,7 @@
         <v>TS-UD-DOC-CLS-001test_007_clause_number_format_primera</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="31.2" thickBot="1">
+    <row r="128" spans="1:11" ht="31.5" thickBot="1">
       <c r="A128" s="6" t="s">
         <v>130</v>
       </c>
@@ -22892,7 +23039,7 @@
         <v>TS-UD-DOC-CLS-001test_008_clause_number_format_numeric</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="31.2" thickBot="1">
+    <row r="129" spans="1:11" ht="31.5" thickBot="1">
       <c r="A129" s="6" t="s">
         <v>130</v>
       </c>
@@ -22921,7 +23068,7 @@
         <v>TS-UD-DOC-CLS-001test_009_clause_number_format_decimal</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="31.2" thickBot="1">
+    <row r="130" spans="1:11" ht="31.5" thickBot="1">
       <c r="A130" s="6" t="s">
         <v>130</v>
       </c>
@@ -22950,7 +23097,7 @@
         <v>TS-UD-DOC-CLS-001test_010_clause_number_normalization</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="31.2" thickBot="1">
+    <row r="131" spans="1:11" ht="31.5" thickBot="1">
       <c r="A131" s="6" t="s">
         <v>130</v>
       </c>
@@ -22979,7 +23126,7 @@
         <v>TS-UD-DOC-CLS-001test_011_clause_content_max_length</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="31.2" thickBot="1">
+    <row r="132" spans="1:11" ht="31.5" thickBot="1">
       <c r="A132" s="6" t="s">
         <v>130</v>
       </c>
@@ -23008,7 +23155,7 @@
         <v>TS-UD-DOC-CLS-001test_012_clause_content_empty_rejected</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="31.2" thickBot="1">
+    <row r="133" spans="1:11" ht="31.5" thickBot="1">
       <c r="A133" s="6" t="s">
         <v>130</v>
       </c>
@@ -23037,7 +23184,7 @@
         <v>TS-UD-DOC-CLS-001test_013_clause_document_fk_valid</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="31.2" thickBot="1">
+    <row r="134" spans="1:11" ht="31.5" thickBot="1">
       <c r="A134" s="6" t="s">
         <v>130</v>
       </c>
@@ -23066,7 +23213,7 @@
         <v>TS-UD-DOC-CLS-001test_014_clause_document_fk_invalid_rejected</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="31.2" thickBot="1">
+    <row r="135" spans="1:11" ht="31.5" thickBot="1">
       <c r="A135" s="6" t="s">
         <v>130</v>
       </c>
@@ -23095,7 +23242,7 @@
         <v>TS-UD-DOC-CLS-001test_015_clause_tenant_fk_valid</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="31.2" thickBot="1">
+    <row r="136" spans="1:11" ht="31.5" thickBot="1">
       <c r="A136" s="6" t="s">
         <v>130</v>
       </c>
@@ -23124,7 +23271,7 @@
         <v>TS-UD-DOC-CLS-001test_016_clause_tenant_fk_invalid_rejected</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="31.2" thickBot="1">
+    <row r="137" spans="1:11" ht="31.5" thickBot="1">
       <c r="A137" s="6" t="s">
         <v>130</v>
       </c>
@@ -23153,7 +23300,7 @@
         <v>TS-UD-DOC-CLS-001test_017_clause_on_delete_restrict_document</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="31.2" thickBot="1">
+    <row r="138" spans="1:11" ht="31.5" thickBot="1">
       <c r="A138" s="6" t="s">
         <v>130</v>
       </c>
@@ -23182,7 +23329,7 @@
         <v>TS-UD-DOC-CLS-001test_018_clause_on_delete_restrict_tenant</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="31.2" thickBot="1">
+    <row r="139" spans="1:11" ht="31.5" thickBot="1">
       <c r="A139" s="6" t="s">
         <v>130</v>
       </c>
@@ -23211,7 +23358,7 @@
         <v>TS-UD-DOC-CLS-001test_019_clause_embedding_vector_size</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="31.2" thickBot="1">
+    <row r="140" spans="1:11" ht="31.5" thickBot="1">
       <c r="A140" s="6" t="s">
         <v>130</v>
       </c>
@@ -23240,7 +23387,7 @@
         <v>TS-UD-DOC-CLS-001test_020_clause_embedding_generation</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="31.2" thickBot="1">
+    <row r="141" spans="1:11" ht="31.5" thickBot="1">
       <c r="A141" s="6" t="s">
         <v>130</v>
       </c>
@@ -23269,7 +23416,7 @@
         <v>TS-UD-DOC-CLS-001test_021_clause_embedding_null_allowed</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="31.2" thickBot="1">
+    <row r="142" spans="1:11" ht="31.5" thickBot="1">
       <c r="A142" s="6" t="s">
         <v>130</v>
       </c>
@@ -23298,7 +23445,7 @@
         <v>TS-UD-DOC-CLS-001test_022_clause_embedding_update</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="16.2" thickBot="1">
+    <row r="143" spans="1:11" ht="16.5" thickBot="1">
       <c r="A143" s="6" t="s">
         <v>131</v>
       </c>
@@ -23327,7 +23474,7 @@
         <v>TS-UD-DOC-CLS-002Tests not individually listed</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="16.2" thickBot="1">
+    <row r="144" spans="1:11" ht="16.5" thickBot="1">
       <c r="A144" s="6" t="s">
         <v>132</v>
       </c>
@@ -23353,7 +23500,7 @@
         <v>TS-UD-DOC-CLS-003Tests not individually listed</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="31.2" thickBot="1">
+    <row r="145" spans="1:11" ht="31.5" thickBot="1">
       <c r="A145" s="6" t="s">
         <v>133</v>
       </c>
@@ -23382,7 +23529,7 @@
         <v>TS-UD-DOC-ENT-001test_001_date_dd_mm_yyyy_slash</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="31.2" thickBot="1">
+    <row r="146" spans="1:11" ht="31.5" thickBot="1">
       <c r="A146" s="6" t="s">
         <v>133</v>
       </c>
@@ -23411,7 +23558,7 @@
         <v>TS-UD-DOC-ENT-001test_002_date_yyyy_mm_dd_dash</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="31.2" thickBot="1">
+    <row r="147" spans="1:11" ht="31.5" thickBot="1">
       <c r="A147" s="6" t="s">
         <v>133</v>
       </c>
@@ -23440,7 +23587,7 @@
         <v>TS-UD-DOC-ENT-001test_003_date_dd_month_yyyy_spanish</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="31.2" thickBot="1">
+    <row r="148" spans="1:11" ht="31.5" thickBot="1">
       <c r="A148" s="6" t="s">
         <v>133</v>
       </c>
@@ -23469,7 +23616,7 @@
         <v>TS-UD-DOC-ENT-001test_004_date_month_dd_yyyy_english</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="31.2" thickBot="1">
+    <row r="149" spans="1:11" ht="31.5" thickBot="1">
       <c r="A149" s="6" t="s">
         <v>133</v>
       </c>
@@ -23498,7 +23645,7 @@
         <v>TS-UD-DOC-ENT-001test_005_date_relative_30_days</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="31.2" thickBot="1">
+    <row r="150" spans="1:11" ht="31.5" thickBot="1">
       <c r="A150" s="6" t="s">
         <v>133</v>
       </c>
@@ -23527,7 +23674,7 @@
         <v>TS-UD-DOC-ENT-001test_006_date_relative_3_months</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="31.2" thickBot="1">
+    <row r="151" spans="1:11" ht="31.5" thickBot="1">
       <c r="A151" s="6" t="s">
         <v>133</v>
       </c>
@@ -23556,7 +23703,7 @@
         <v>TS-UD-DOC-ENT-001test_007_date_relative_1_year</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="31.2" thickBot="1">
+    <row r="152" spans="1:11" ht="31.5" thickBot="1">
       <c r="A152" s="6" t="s">
         <v>133</v>
       </c>
@@ -23585,7 +23732,7 @@
         <v>TS-UD-DOC-ENT-001test_008_date_relative_from_date</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="31.2" thickBot="1">
+    <row r="153" spans="1:11" ht="31.5" thickBot="1">
       <c r="A153" s="6" t="s">
         <v>133</v>
       </c>
@@ -23614,7 +23761,7 @@
         <v>TS-UD-DOC-ENT-001test_009_date_context_entrega</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="31.2" thickBot="1">
+    <row r="154" spans="1:11" ht="31.5" thickBot="1">
       <c r="A154" s="6" t="s">
         <v>133</v>
       </c>
@@ -23643,7 +23790,7 @@
         <v>TS-UD-DOC-ENT-001test_010_date_context_firma</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="31.2" thickBot="1">
+    <row r="155" spans="1:11" ht="31.5" thickBot="1">
       <c r="A155" s="6" t="s">
         <v>133</v>
       </c>
@@ -23672,7 +23819,7 @@
         <v>TS-UD-DOC-ENT-001test_011_date_context_inicio</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="16.2" thickBot="1">
+    <row r="156" spans="1:11" ht="16.5" thickBot="1">
       <c r="A156" s="6" t="s">
         <v>133</v>
       </c>
@@ -23701,7 +23848,7 @@
         <v>TS-UD-DOC-ENT-001test_012_date_context_fin</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="31.2" thickBot="1">
+    <row r="157" spans="1:11" ht="31.5" thickBot="1">
       <c r="A157" s="6" t="s">
         <v>133</v>
       </c>
@@ -23730,7 +23877,7 @@
         <v>TS-UD-DOC-ENT-001test_013_multiple_dates_extraction</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="31.2" thickBot="1">
+    <row r="158" spans="1:11" ht="31.5" thickBot="1">
       <c r="A158" s="6" t="s">
         <v>133</v>
       </c>
@@ -23759,7 +23906,7 @@
         <v>TS-UD-DOC-ENT-001test_014_multiple_dates_ordering</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="31.2" thickBot="1">
+    <row r="159" spans="1:11" ht="31.5" thickBot="1">
       <c r="A159" s="6" t="s">
         <v>133</v>
       </c>
@@ -23788,7 +23935,7 @@
         <v>TS-UD-DOC-ENT-001test_015_date_range_extraction</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="31.2" thickBot="1">
+    <row r="160" spans="1:11" ht="31.5" thickBot="1">
       <c r="A160" s="6" t="s">
         <v>133</v>
       </c>
@@ -23817,7 +23964,7 @@
         <v>TS-UD-DOC-ENT-001test_016_date_invalid_format_ignored</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="31.2" thickBot="1">
+    <row r="161" spans="1:11" ht="31.5" thickBot="1">
       <c r="A161" s="6" t="s">
         <v>134</v>
       </c>
@@ -23846,7 +23993,7 @@
         <v>TS-UD-DOC-ENT-002test_001_money_eur_symbol_suffix</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="31.2" thickBot="1">
+    <row r="162" spans="1:11" ht="31.5" thickBot="1">
       <c r="A162" s="6" t="s">
         <v>134</v>
       </c>
@@ -23875,7 +24022,7 @@
         <v>TS-UD-DOC-ENT-002test_002_money_eur_symbol_prefix</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="31.2" thickBot="1">
+    <row r="163" spans="1:11" ht="31.5" thickBot="1">
       <c r="A163" s="6" t="s">
         <v>134</v>
       </c>
@@ -23904,7 +24051,7 @@
         <v>TS-UD-DOC-ENT-002test_003_money_eur_word_euros</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="31.2" thickBot="1">
+    <row r="164" spans="1:11" ht="31.5" thickBot="1">
       <c r="A164" s="6" t="s">
         <v>134</v>
       </c>
@@ -23933,7 +24080,7 @@
         <v>TS-UD-DOC-ENT-002test_004_money_eur_thousands_separator</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="31.2" thickBot="1">
+    <row r="165" spans="1:11" ht="31.5" thickBot="1">
       <c r="A165" s="6" t="s">
         <v>134</v>
       </c>
@@ -23962,7 +24109,7 @@
         <v>TS-UD-DOC-ENT-002test_005_money_usd_symbol</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="16.2" thickBot="1">
+    <row r="166" spans="1:11" ht="31.5" thickBot="1">
       <c r="A166" s="6" t="s">
         <v>134</v>
       </c>
@@ -23991,7 +24138,7 @@
         <v>TS-UD-DOC-ENT-002test_006_money_usd_word</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="31.2" thickBot="1">
+    <row r="167" spans="1:11" ht="31.5" thickBot="1">
       <c r="A167" s="6" t="s">
         <v>134</v>
       </c>
@@ -24020,7 +24167,7 @@
         <v>TS-UD-DOC-ENT-002test_007_money_usd_thousands_separator</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="31.2" thickBot="1">
+    <row r="168" spans="1:11" ht="31.5" thickBot="1">
       <c r="A168" s="6" t="s">
         <v>134</v>
       </c>
@@ -24049,7 +24196,7 @@
         <v>TS-UD-DOC-ENT-002test_008_money_context_anticipo</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="31.2" thickBot="1">
+    <row r="169" spans="1:11" ht="31.5" thickBot="1">
       <c r="A169" s="6" t="s">
         <v>134</v>
       </c>
@@ -24078,7 +24225,7 @@
         <v>TS-UD-DOC-ENT-002test_009_money_context_pago_final</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="31.2" thickBot="1">
+    <row r="170" spans="1:11" ht="31.5" thickBot="1">
       <c r="A170" s="6" t="s">
         <v>134</v>
       </c>
@@ -24107,7 +24254,7 @@
         <v>TS-UD-DOC-ENT-002test_010_money_context_penalizacion</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="31.2" thickBot="1">
+    <row r="171" spans="1:11" ht="31.5" thickBot="1">
       <c r="A171" s="6" t="s">
         <v>134</v>
       </c>
@@ -24136,7 +24283,7 @@
         <v>TS-UD-DOC-ENT-002test_011_money_context_total</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="31.2" thickBot="1">
+    <row r="172" spans="1:11" ht="31.5" thickBot="1">
       <c r="A172" s="6" t="s">
         <v>134</v>
       </c>
@@ -24165,7 +24312,7 @@
         <v>TS-UD-DOC-ENT-002test_012_multiple_amounts_extraction</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="31.2" thickBot="1">
+    <row r="173" spans="1:11" ht="31.5" thickBot="1">
       <c r="A173" s="6" t="s">
         <v>134</v>
       </c>
@@ -24194,7 +24341,7 @@
         <v>TS-UD-DOC-ENT-002test_013_money_percentage_extraction</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="31.2" thickBot="1">
+    <row r="174" spans="1:11" ht="31.5" thickBot="1">
       <c r="A174" s="6" t="s">
         <v>134</v>
       </c>
@@ -24223,7 +24370,7 @@
         <v>TS-UD-DOC-ENT-002test_014_money_negative_amount</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="16.2" thickBot="1">
+    <row r="175" spans="1:11" ht="16.5" thickBot="1">
       <c r="A175" s="6" t="s">
         <v>135</v>
       </c>
@@ -24244,7 +24391,7 @@
         <v>TS-UD-DOC-ENT-003Tests not individually listed</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="16.2" thickBot="1">
+    <row r="176" spans="1:11" ht="16.5" thickBot="1">
       <c r="A176" s="6" t="s">
         <v>136</v>
       </c>
@@ -24265,7 +24412,7 @@
         <v>TS-UD-DOC-ENT-004Tests not individually listed</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="16.2" thickBot="1">
+    <row r="177" spans="1:11" ht="16.5" thickBot="1">
       <c r="A177" s="6" t="s">
         <v>137</v>
       </c>
@@ -24286,7 +24433,7 @@
         <v>TS-UD-DOC-DOC-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="16.2" thickBot="1">
+    <row r="178" spans="1:11" ht="16.5" thickBot="1">
       <c r="A178" s="6" t="s">
         <v>138</v>
       </c>
@@ -24307,7 +24454,7 @@
         <v>TS-UD-DOC-CNF-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="16.2" thickBot="1">
+    <row r="179" spans="1:11" ht="16.5" thickBot="1">
       <c r="A179" s="6" t="s">
         <v>139</v>
       </c>
@@ -24328,7 +24475,7 @@
         <v>TS-UD-COH-CAT-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="31.2" thickBot="1">
+    <row r="180" spans="1:11" ht="31.5" thickBot="1">
       <c r="A180" s="6" t="s">
         <v>140</v>
       </c>
@@ -24360,7 +24507,7 @@
         <v>TS-UD-COH-RUL-001test_001_r11_wbs_level4_no_activities_alert</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="31.2" thickBot="1">
+    <row r="181" spans="1:11" ht="31.5" thickBot="1">
       <c r="A181" s="6" t="s">
         <v>140</v>
       </c>
@@ -24389,7 +24536,7 @@
         <v>TS-UD-COH-RUL-001test_002_r11_wbs_level4_with_activities_pass</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="31.2" thickBot="1">
+    <row r="182" spans="1:11" ht="31.5" thickBot="1">
       <c r="A182" s="6" t="s">
         <v>140</v>
       </c>
@@ -24418,7 +24565,7 @@
         <v>TS-UD-COH-RUL-001test_003_r11_wbs_level3_no_activities_ignored</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="31.2" thickBot="1">
+    <row r="183" spans="1:11" ht="31.5" thickBot="1">
       <c r="A183" s="6" t="s">
         <v>140</v>
       </c>
@@ -24447,7 +24594,7 @@
         <v>TS-UD-COH-RUL-001test_004_r11_wbs_level2_no_activities_ignored</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="31.2" thickBot="1">
+    <row r="184" spans="1:11" ht="31.5" thickBot="1">
       <c r="A184" s="6" t="s">
         <v>140</v>
       </c>
@@ -24476,7 +24623,7 @@
         <v>TS-UD-COH-RUL-001test_005_r11_multiple_wbs_level4_violations</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="31.2" thickBot="1">
+    <row r="185" spans="1:11" ht="31.5" thickBot="1">
       <c r="A185" s="6" t="s">
         <v>140</v>
       </c>
@@ -24505,7 +24652,7 @@
         <v>TS-UD-COH-RUL-001test_006_r11_alert_severity_medium</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="31.2" thickBot="1">
+    <row r="186" spans="1:11" ht="31.5" thickBot="1">
       <c r="A186" s="6" t="s">
         <v>140</v>
       </c>
@@ -24534,7 +24681,7 @@
         <v>TS-UD-COH-RUL-001test_007_r12_wbs_no_budget_line_alert</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="31.2" thickBot="1">
+    <row r="187" spans="1:11" ht="31.5" thickBot="1">
       <c r="A187" s="6" t="s">
         <v>140</v>
       </c>
@@ -24563,7 +24710,7 @@
         <v>TS-UD-COH-RUL-001test_008_r12_wbs_with_budget_line_pass</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="31.2" thickBot="1">
+    <row r="188" spans="1:11" ht="31.5" thickBot="1">
       <c r="A188" s="6" t="s">
         <v>140</v>
       </c>
@@ -24592,7 +24739,7 @@
         <v>TS-UD-COH-RUL-001test_009_r12_wbs_budget_zero_warning</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="31.2" thickBot="1">
+    <row r="189" spans="1:11" ht="31.5" thickBot="1">
       <c r="A189" s="6" t="s">
         <v>140</v>
       </c>
@@ -24621,7 +24768,7 @@
         <v>TS-UD-COH-RUL-001test_010_r12_multiple_wbs_violations</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="31.2" thickBot="1">
+    <row r="190" spans="1:11" ht="31.5" thickBot="1">
       <c r="A190" s="6" t="s">
         <v>140</v>
       </c>
@@ -24650,7 +24797,7 @@
         <v>TS-UD-COH-RUL-001test_011_r12_alert_severity_high</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="31.2" thickBot="1">
+    <row r="191" spans="1:11" ht="31.5" thickBot="1">
       <c r="A191" s="6" t="s">
         <v>140</v>
       </c>
@@ -24679,7 +24826,7 @@
         <v>TS-UD-COH-RUL-001test_012_r12_affected_entities_list</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="31.2" thickBot="1">
+    <row r="192" spans="1:11" ht="31.5" thickBot="1">
       <c r="A192" s="6" t="s">
         <v>140</v>
       </c>
@@ -24708,7 +24855,7 @@
         <v>TS-UD-COH-RUL-001test_013_r13_scope_clause_no_wbs_alert</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="31.2" thickBot="1">
+    <row r="193" spans="1:11" ht="31.5" thickBot="1">
       <c r="A193" s="6" t="s">
         <v>140</v>
       </c>
@@ -24737,7 +24884,7 @@
         <v>TS-UD-COH-RUL-001test_014_r13_scope_clause_with_wbs_pass</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="31.2" thickBot="1">
+    <row r="194" spans="1:11" ht="31.5" thickBot="1">
       <c r="A194" s="6" t="s">
         <v>140</v>
       </c>
@@ -24766,7 +24913,7 @@
         <v>TS-UD-COH-RUL-001test_015_r13_partial_coverage_calculation</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="31.2" thickBot="1">
+    <row r="195" spans="1:11" ht="31.5" thickBot="1">
       <c r="A195" s="6" t="s">
         <v>140</v>
       </c>
@@ -24795,7 +24942,7 @@
         <v>TS-UD-COH-RUL-001test_016_r13_coverage_percentage_80</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="31.2" thickBot="1">
+    <row r="196" spans="1:11" ht="31.5" thickBot="1">
       <c r="A196" s="6" t="s">
         <v>140</v>
       </c>
@@ -24824,7 +24971,7 @@
         <v>TS-UD-COH-RUL-001test_017_r13_uncovered_clauses_list</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="31.2" thickBot="1">
+    <row r="197" spans="1:11" ht="31.5" thickBot="1">
       <c r="A197" s="6" t="s">
         <v>140</v>
       </c>
@@ -24853,7 +25000,7 @@
         <v>TS-UD-COH-RUL-001test_018_r13_alert_severity_high</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="31.2" thickBot="1">
+    <row r="198" spans="1:11" ht="31.5" thickBot="1">
       <c r="A198" s="6" t="s">
         <v>141</v>
       </c>
@@ -24882,7 +25029,7 @@
         <v>TS-UD-COH-RUL-002test_001_r6_deviation_10_percent_alert</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="31.2" thickBot="1">
+    <row r="199" spans="1:11" ht="31.5" thickBot="1">
       <c r="A199" s="6" t="s">
         <v>141</v>
       </c>
@@ -24911,7 +25058,7 @@
         <v>TS-UD-COH-RUL-002test_002_r6_deviation_5_percent_pass</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="31.2" thickBot="1">
+    <row r="200" spans="1:11" ht="31.5" thickBot="1">
       <c r="A200" s="6" t="s">
         <v>141</v>
       </c>
@@ -24940,7 +25087,7 @@
         <v>TS-UD-COH-RUL-002test_003_r6_deviation_4_9_percent_pass</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="31.2" thickBot="1">
+    <row r="201" spans="1:11" ht="31.5" thickBot="1">
       <c r="A201" s="6" t="s">
         <v>141</v>
       </c>
@@ -24969,7 +25116,7 @@
         <v>TS-UD-COH-RUL-002test_004_r6_over_budget_critical</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="31.2" thickBot="1">
+    <row r="202" spans="1:11" ht="31.5" thickBot="1">
       <c r="A202" s="6" t="s">
         <v>141</v>
       </c>
@@ -24998,7 +25145,7 @@
         <v>TS-UD-COH-RUL-002test_005_r6_under_budget_warning</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="31.2" thickBot="1">
+    <row r="203" spans="1:11" ht="31.5" thickBot="1">
       <c r="A203" s="6" t="s">
         <v>141</v>
       </c>
@@ -25027,7 +25174,7 @@
         <v>TS-UD-COH-RUL-002test_006_r6_exact_match_pass</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="31.2" thickBot="1">
+    <row r="204" spans="1:11" ht="31.5" thickBot="1">
       <c r="A204" s="6" t="s">
         <v>141</v>
       </c>
@@ -25056,7 +25203,7 @@
         <v>TS-UD-COH-RUL-002test_007_r15_bom_no_budget_alert</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="31.2" thickBot="1">
+    <row r="205" spans="1:11" ht="31.5" thickBot="1">
       <c r="A205" s="6" t="s">
         <v>141</v>
       </c>
@@ -25085,7 +25232,7 @@
         <v>TS-UD-COH-RUL-002test_008_r15_bom_with_budget_pass</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="31.2" thickBot="1">
+    <row r="206" spans="1:11" ht="31.5" thickBot="1">
       <c r="A206" s="6" t="s">
         <v>141</v>
       </c>
@@ -25114,7 +25261,7 @@
         <v>TS-UD-COH-RUL-002test_009_r15_bom_client_provided_exception</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="31.2" thickBot="1">
+    <row r="207" spans="1:11" ht="31.5" thickBot="1">
       <c r="A207" s="6" t="s">
         <v>141</v>
       </c>
@@ -25143,7 +25290,7 @@
         <v>TS-UD-COH-RUL-002test_010_r15_multiple_bom_violations</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="31.2" thickBot="1">
+    <row r="208" spans="1:11" ht="31.5" thickBot="1">
       <c r="A208" s="6" t="s">
         <v>141</v>
       </c>
@@ -25172,7 +25319,7 @@
         <v>TS-UD-COH-RUL-002test_011_r15_affected_items_list</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="31.2" thickBot="1">
+    <row r="209" spans="1:11" ht="31.5" thickBot="1">
       <c r="A209" s="6" t="s">
         <v>141</v>
       </c>
@@ -25201,7 +25348,7 @@
         <v>TS-UD-COH-RUL-002test_012_r16_deviation_11_percent_alert</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="31.2" thickBot="1">
+    <row r="210" spans="1:11" ht="31.5" thickBot="1">
       <c r="A210" s="6" t="s">
         <v>141</v>
       </c>
@@ -25230,7 +25377,7 @@
         <v>TS-UD-COH-RUL-002test_013_r16_deviation_10_percent_pass</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="31.2" thickBot="1">
+    <row r="211" spans="1:11" ht="31.5" thickBot="1">
       <c r="A211" s="6" t="s">
         <v>141</v>
       </c>
@@ -25259,7 +25406,7 @@
         <v>TS-UD-COH-RUL-002test_014_r16_over_budget_critical</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="31.2" thickBot="1">
+    <row r="212" spans="1:11" ht="31.5" thickBot="1">
       <c r="A212" s="6" t="s">
         <v>141</v>
       </c>
@@ -25288,7 +25435,7 @@
         <v>TS-UD-COH-RUL-002test_015_r16_under_budget_different_severity</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="31.2" thickBot="1">
+    <row r="213" spans="1:11" ht="31.5" thickBot="1">
       <c r="A213" s="6" t="s">
         <v>141</v>
       </c>
@@ -25317,7 +25464,7 @@
         <v>TS-UD-COH-RUL-002test_016_r16_trend_calculation</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="31.2" thickBot="1">
+    <row r="214" spans="1:11" ht="31.5" thickBot="1">
       <c r="A214" s="6" t="s">
         <v>142</v>
       </c>
@@ -25349,7 +25496,7 @@
         <v>TS-UD-COH-RUL-003test_001_r1_dates_mismatch_alert</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="31.2" thickBot="1">
+    <row r="215" spans="1:11" ht="31.5" thickBot="1">
       <c r="A215" s="6" t="s">
         <v>142</v>
       </c>
@@ -25378,7 +25525,7 @@
         <v>TS-UD-COH-RUL-003test_002_r1_dates_match_pass</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="31.2" thickBot="1">
+    <row r="216" spans="1:11" ht="31.5" thickBot="1">
       <c r="A216" s="6" t="s">
         <v>142</v>
       </c>
@@ -25407,7 +25554,7 @@
         <v>TS-UD-COH-RUL-003test_003_r1_schedule_late_critical</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="31.2" thickBot="1">
+    <row r="217" spans="1:11" ht="31.5" thickBot="1">
       <c r="A217" s="6" t="s">
         <v>142</v>
       </c>
@@ -25436,7 +25583,7 @@
         <v>TS-UD-COH-RUL-003test_004_r1_schedule_early_warning</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="31.2" thickBot="1">
+    <row r="218" spans="1:11" ht="31.5" thickBot="1">
       <c r="A218" s="6" t="s">
         <v>142</v>
       </c>
@@ -25465,7 +25612,7 @@
         <v>TS-UD-COH-RUL-003test_005_r1_delta_days_calculation</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="31.2" thickBot="1">
+    <row r="219" spans="1:11" ht="31.5" thickBot="1">
       <c r="A219" s="6" t="s">
         <v>142</v>
       </c>
@@ -25494,7 +25641,7 @@
         <v>TS-UD-COH-RUL-003test_006_r2_milestone_no_activity_alert</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="31.2" thickBot="1">
+    <row r="220" spans="1:11" ht="31.5" thickBot="1">
       <c r="A220" s="6" t="s">
         <v>142</v>
       </c>
@@ -25523,7 +25670,7 @@
         <v>TS-UD-COH-RUL-003test_007_r2_milestone_with_activity_pass</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="31.2" thickBot="1">
+    <row r="221" spans="1:11" ht="31.5" thickBot="1">
       <c r="A221" s="6" t="s">
         <v>142</v>
       </c>
@@ -25552,7 +25699,7 @@
         <v>TS-UD-COH-RUL-003test_008_r2_milestone_date_mismatch_alert</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="31.2" thickBot="1">
+    <row r="222" spans="1:11" ht="31.5" thickBot="1">
       <c r="A222" s="6" t="s">
         <v>142</v>
       </c>
@@ -25581,7 +25728,7 @@
         <v>TS-UD-COH-RUL-003test_009_r2_multiple_milestones_violations</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="31.2" thickBot="1">
+    <row r="223" spans="1:11" ht="31.5" thickBot="1">
       <c r="A223" s="6" t="s">
         <v>142</v>
       </c>
@@ -25610,7 +25757,7 @@
         <v>TS-UD-COH-RUL-003test_010_r2_unlinked_milestones_list</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="31.2" thickBot="1">
+    <row r="224" spans="1:11" ht="31.5" thickBot="1">
       <c r="A224" s="6" t="s">
         <v>142</v>
       </c>
@@ -25639,7 +25786,7 @@
         <v>TS-UD-COH-RUL-003test_011_r5_activity_exceeds_contract_alert</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="31.2" thickBot="1">
+    <row r="225" spans="1:11" ht="31.5" thickBot="1">
       <c r="A225" s="6" t="s">
         <v>142</v>
       </c>
@@ -25668,7 +25815,7 @@
         <v>TS-UD-COH-RUL-003test_012_r5_activity_within_contract_pass</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="31.2" thickBot="1">
+    <row r="226" spans="1:11" ht="31.5" thickBot="1">
       <c r="A226" s="6" t="s">
         <v>142</v>
       </c>
@@ -25697,7 +25844,7 @@
         <v>TS-UD-COH-RUL-003test_013_r5_exceeding_activities_list</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="31.2" thickBot="1">
+    <row r="227" spans="1:11" ht="31.5" thickBot="1">
       <c r="A227" s="6" t="s">
         <v>142</v>
       </c>
@@ -25726,7 +25873,7 @@
         <v>TS-UD-COH-RUL-003test_014_r5_alert_severity_critical</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="31.2" thickBot="1">
+    <row r="228" spans="1:11" ht="31.5" thickBot="1">
       <c r="A228" s="6" t="s">
         <v>142</v>
       </c>
@@ -25755,7 +25902,7 @@
         <v>TS-UD-COH-RUL-003test_015_r14_order_date_passed_critical</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="31.2" thickBot="1">
+    <row r="229" spans="1:11" ht="31.5" thickBot="1">
       <c r="A229" s="6" t="s">
         <v>142</v>
       </c>
@@ -25784,7 +25931,7 @@
         <v>TS-UD-COH-RUL-003test_016_r14_order_date_tight_warning</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="16.2" thickBot="1">
+    <row r="230" spans="1:11" ht="16.5" thickBot="1">
       <c r="A230" s="6" t="s">
         <v>143</v>
       </c>
@@ -25805,7 +25952,7 @@
         <v>TS-UD-COH-RUL-004Tests not individually listed</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="16.2" thickBot="1">
+    <row r="231" spans="1:11" ht="16.5" thickBot="1">
       <c r="A231" s="6" t="s">
         <v>144</v>
       </c>
@@ -25826,7 +25973,7 @@
         <v>TS-UD-COH-RUL-005Tests not individually listed</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="16.2" thickBot="1">
+    <row r="232" spans="1:11" ht="16.5" thickBot="1">
       <c r="A232" s="6" t="s">
         <v>145</v>
       </c>
@@ -25847,7 +25994,7 @@
         <v>TS-UD-COH-RUL-006Tests not individually listed</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="31.2" thickBot="1">
+    <row r="233" spans="1:11" ht="31.5" thickBot="1">
       <c r="A233" s="6" t="s">
         <v>146</v>
       </c>
@@ -25879,7 +26026,7 @@
         <v>TS-UD-COH-SCR-001test_001_subscore_no_alerts_100_percent</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="31.2" thickBot="1">
+    <row r="234" spans="1:11" ht="31.5" thickBot="1">
       <c r="A234" s="6" t="s">
         <v>146</v>
       </c>
@@ -25908,7 +26055,7 @@
         <v>TS-UD-COH-SCR-001test_002_subscore_one_alert_penalized</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="31.2" thickBot="1">
+    <row r="235" spans="1:11" ht="31.5" thickBot="1">
       <c r="A235" s="6" t="s">
         <v>146</v>
       </c>
@@ -25937,7 +26084,7 @@
         <v>TS-UD-COH-SCR-001test_003_subscore_multiple_alerts_cumulative</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="31.2" thickBot="1">
+    <row r="236" spans="1:11" ht="31.5" thickBot="1">
       <c r="A236" s="6" t="s">
         <v>146</v>
       </c>
@@ -25966,7 +26113,7 @@
         <v>TS-UD-COH-SCR-001test_004_subscore_severity_low_penalty_5</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="31.2" thickBot="1">
+    <row r="237" spans="1:11" ht="31.5" thickBot="1">
       <c r="A237" s="6" t="s">
         <v>146</v>
       </c>
@@ -25995,7 +26142,7 @@
         <v>TS-UD-COH-SCR-001test_005_subscore_severity_medium_penalty_10</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="31.2" thickBot="1">
+    <row r="238" spans="1:11" ht="31.5" thickBot="1">
       <c r="A238" s="6" t="s">
         <v>146</v>
       </c>
@@ -26024,7 +26171,7 @@
         <v>TS-UD-COH-SCR-001test_006_subscore_severity_high_penalty_20</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="31.2" thickBot="1">
+    <row r="239" spans="1:11" ht="31.5" thickBot="1">
       <c r="A239" s="6" t="s">
         <v>146</v>
       </c>
@@ -26053,7 +26200,7 @@
         <v>TS-UD-COH-SCR-001test_007_subscore_severity_critical_penalty_30</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="31.2" thickBot="1">
+    <row r="240" spans="1:11" ht="31.5" thickBot="1">
       <c r="A240" s="6" t="s">
         <v>146</v>
       </c>
@@ -26082,7 +26229,7 @@
         <v>TS-UD-COH-SCR-001test_008_subscore_scope_calculation</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="31.2" thickBot="1">
+    <row r="241" spans="1:11" ht="31.5" thickBot="1">
       <c r="A241" s="6" t="s">
         <v>146</v>
       </c>
@@ -26111,7 +26258,7 @@
         <v>TS-UD-COH-SCR-001test_009_subscore_budget_calculation</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="31.2" thickBot="1">
+    <row r="242" spans="1:11" ht="31.5" thickBot="1">
       <c r="A242" s="6" t="s">
         <v>146</v>
       </c>
@@ -26140,7 +26287,7 @@
         <v>TS-UD-COH-SCR-001test_010_subscore_quality_calculation</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="31.2" thickBot="1">
+    <row r="243" spans="1:11" ht="31.5" thickBot="1">
       <c r="A243" s="6" t="s">
         <v>146</v>
       </c>
@@ -26169,7 +26316,7 @@
         <v>TS-UD-COH-SCR-001test_011_subscore_technical_calculation</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="31.2" thickBot="1">
+    <row r="244" spans="1:11" ht="31.5" thickBot="1">
       <c r="A244" s="6" t="s">
         <v>146</v>
       </c>
@@ -26198,7 +26345,7 @@
         <v>TS-UD-COH-SCR-001test_012_subscore_legal_calculation</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="31.2" thickBot="1">
+    <row r="245" spans="1:11" ht="31.5" thickBot="1">
       <c r="A245" s="6" t="s">
         <v>146</v>
       </c>
@@ -26227,7 +26374,7 @@
         <v>TS-UD-COH-SCR-001test_013_subscore_time_calculation</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="31.2" thickBot="1">
+    <row r="246" spans="1:11" ht="31.5" thickBot="1">
       <c r="A246" s="6" t="s">
         <v>146</v>
       </c>
@@ -26256,7 +26403,7 @@
         <v>TS-UD-COH-SCR-001test_014_subscore_floor_at_zero</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="31.2" thickBot="1">
+    <row r="247" spans="1:11" ht="31.5" thickBot="1">
       <c r="A247" s="6" t="s">
         <v>147</v>
       </c>
@@ -26285,7 +26432,7 @@
         <v>TS-UD-COH-SCR-002test_001_global_score_formula_verification</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="31.2" thickBot="1">
+    <row r="248" spans="1:11" ht="31.5" thickBot="1">
       <c r="A248" s="6" t="s">
         <v>147</v>
       </c>
@@ -26314,7 +26461,7 @@
         <v>TS-UD-COH-SCR-002test_002_global_score_default_weights</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="31.2" thickBot="1">
+    <row r="249" spans="1:11" ht="31.5" thickBot="1">
       <c r="A249" s="6" t="s">
         <v>147</v>
       </c>
@@ -26343,7 +26490,7 @@
         <v>TS-UD-COH-SCR-002test_003_global_score_all_100_equals_100</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="31.2" thickBot="1">
+    <row r="250" spans="1:11" ht="31.5" thickBot="1">
       <c r="A250" s="6" t="s">
         <v>147</v>
       </c>
@@ -26372,7 +26519,7 @@
         <v>TS-UD-COH-SCR-002test_004_global_score_all_0_equals_0</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="31.2" thickBot="1">
+    <row r="251" spans="1:11" ht="31.5" thickBot="1">
       <c r="A251" s="6" t="s">
         <v>147</v>
       </c>
@@ -26401,7 +26548,7 @@
         <v>TS-UD-COH-SCR-002test_005_global_score_mixed_subscores</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="31.2" thickBot="1">
+    <row r="252" spans="1:11" ht="31.5" thickBot="1">
       <c r="A252" s="6" t="s">
         <v>147</v>
       </c>
@@ -26430,7 +26577,7 @@
         <v>TS-UD-COH-SCR-002test_006_global_score_range_0_to_100</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="31.2" thickBot="1">
+    <row r="253" spans="1:11" ht="31.5" thickBot="1">
       <c r="A253" s="6" t="s">
         <v>147</v>
       </c>
@@ -26459,7 +26606,7 @@
         <v>TS-UD-COH-SCR-002test_007_weights_sum_validation</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="31.2" thickBot="1">
+    <row r="254" spans="1:11" ht="31.5" thickBot="1">
       <c r="A254" s="6" t="s">
         <v>147</v>
       </c>
@@ -26488,7 +26635,7 @@
         <v>TS-UD-COH-SCR-002test_008_weights_normalization_auto</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="31.2" thickBot="1">
+    <row r="255" spans="1:11" ht="31.5" thickBot="1">
       <c r="A255" s="6" t="s">
         <v>147</v>
       </c>
@@ -26517,7 +26664,7 @@
         <v>TS-UD-COH-SCR-002test_009_weights_custom_budget_30</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="31.2" thickBot="1">
+    <row r="256" spans="1:11" ht="31.5" thickBot="1">
       <c r="A256" s="6" t="s">
         <v>147</v>
       </c>
@@ -26546,7 +26693,7 @@
         <v>TS-UD-COH-SCR-002test_010_weights_custom_time_25</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="31.2" thickBot="1">
+    <row r="257" spans="1:11" ht="31.5" thickBot="1">
       <c r="A257" s="6" t="s">
         <v>147</v>
       </c>
@@ -26575,7 +26722,7 @@
         <v>TS-UD-COH-SCR-002test_011_weights_per_project_type</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="31.2" thickBot="1">
+    <row r="258" spans="1:11" ht="31.5" thickBot="1">
       <c r="A258" s="6" t="s">
         <v>147</v>
       </c>
@@ -26604,7 +26751,7 @@
         <v>TS-UD-COH-SCR-002test_012_weights_history_tracking</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="16.2" thickBot="1">
+    <row r="259" spans="1:11" ht="16.5" thickBot="1">
       <c r="A259" s="6" t="s">
         <v>148</v>
       </c>
@@ -26621,7 +26768,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="31.2" thickBot="1">
+    <row r="260" spans="1:11" ht="31.5" thickBot="1">
       <c r="A260" s="6" t="s">
         <v>149</v>
       </c>
@@ -26650,7 +26797,7 @@
         <v>TS-UD-COH-GAM-001test_001_detect_mass_changes_15_in_30min</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="31.2" thickBot="1">
+    <row r="261" spans="1:11" ht="31.5" thickBot="1">
       <c r="A261" s="6" t="s">
         <v>149</v>
       </c>
@@ -26679,7 +26826,7 @@
         <v>TS-UD-COH-GAM-001test_002_no_violation_10_in_60min</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="31.2" thickBot="1">
+    <row r="262" spans="1:11" ht="31.5" thickBot="1">
       <c r="A262" s="6" t="s">
         <v>149</v>
       </c>
@@ -26708,7 +26855,7 @@
         <v>TS-UD-COH-GAM-001test_003_mass_changes_window_sliding</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="31.2" thickBot="1">
+    <row r="263" spans="1:11" ht="31.5" thickBot="1">
       <c r="A263" s="6" t="s">
         <v>149</v>
       </c>
@@ -26737,7 +26884,7 @@
         <v>TS-UD-COH-GAM-001test_004_mass_changes_flag_for_review</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="31.2" thickBot="1">
+    <row r="264" spans="1:11" ht="31.5" thickBot="1">
       <c r="A264" s="6" t="s">
         <v>149</v>
       </c>
@@ -26766,7 +26913,7 @@
         <v>TS-UD-COH-GAM-001test_005_detect_resolve_reintroduce_4_times</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="31.2" thickBot="1">
+    <row r="265" spans="1:11" ht="31.5" thickBot="1">
       <c r="A265" s="6" t="s">
         <v>149</v>
       </c>
@@ -26795,7 +26942,7 @@
         <v>TS-UD-COH-GAM-001test_006_no_violation_2_times</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="31.2" thickBot="1">
+    <row r="266" spans="1:11" ht="31.5" thickBot="1">
       <c r="A266" s="6" t="s">
         <v>149</v>
       </c>
@@ -26824,7 +26971,7 @@
         <v>TS-UD-COH-GAM-001test_007_hash_comparison_same_content</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="31.2" thickBot="1">
+    <row r="267" spans="1:11" ht="31.5" thickBot="1">
       <c r="A267" s="6" t="s">
         <v>149</v>
       </c>
@@ -26853,7 +27000,7 @@
         <v>TS-UD-COH-GAM-001test_008_penalty_minus_5_points</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="31.2" thickBot="1">
+    <row r="268" spans="1:11" ht="31.5" thickBot="1">
       <c r="A268" s="6" t="s">
         <v>149</v>
       </c>
@@ -26882,7 +27029,7 @@
         <v>TS-UD-COH-GAM-001test_009_detect_95_percent_3_docs</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="31.2" thickBot="1">
+    <row r="269" spans="1:11" ht="31.5" thickBot="1">
       <c r="A269" s="6" t="s">
         <v>149</v>
       </c>
@@ -26911,7 +27058,7 @@
         <v>TS-UD-COH-GAM-001test_010_no_violation_95_percent_50_docs</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="31.2" thickBot="1">
+    <row r="270" spans="1:11" ht="31.5" thickBot="1">
       <c r="A270" s="6" t="s">
         <v>149</v>
       </c>
@@ -26940,7 +27087,7 @@
         <v>TS-UD-COH-GAM-001test_011_threshold_90_percent_5_docs</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="31.2" thickBot="1">
+    <row r="271" spans="1:11" ht="31.5" thickBot="1">
       <c r="A271" s="6" t="s">
         <v>149</v>
       </c>
@@ -26969,7 +27116,7 @@
         <v>TS-UD-COH-GAM-001test_012_require_audit_action</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="31.2" thickBot="1">
+    <row r="272" spans="1:11" ht="31.5" thickBot="1">
       <c r="A272" s="6" t="s">
         <v>149</v>
       </c>
@@ -26998,7 +27145,7 @@
         <v>TS-UD-COH-GAM-001test_013_detect_weight_change_25_percent</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="31.2" thickBot="1">
+    <row r="273" spans="1:11" ht="31.5" thickBot="1">
       <c r="A273" s="6" t="s">
         <v>149</v>
       </c>
@@ -27027,7 +27174,7 @@
         <v>TS-UD-COH-GAM-001test_014_no_violation_change_15_percent</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="31.2" thickBot="1">
+    <row r="274" spans="1:11" ht="31.5" thickBot="1">
       <c r="A274" s="6" t="s">
         <v>149</v>
       </c>
@@ -27056,7 +27203,7 @@
         <v>TS-UD-COH-GAM-001test_015_24h_window_tracking</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="31.2" thickBot="1">
+    <row r="275" spans="1:11" ht="31.5" thickBot="1">
       <c r="A275" s="6" t="s">
         <v>149</v>
       </c>
@@ -27085,7 +27232,7 @@
         <v>TS-UD-COH-GAM-001test_016_notify_admin_action</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="16.2" thickBot="1">
+    <row r="276" spans="1:11" ht="16.5" thickBot="1">
       <c r="A276" s="6" t="s">
         <v>150</v>
       </c>
@@ -27106,7 +27253,7 @@
         <v>TS-UD-COH-ALR-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="31.2" thickBot="1">
+    <row r="277" spans="1:11" ht="31.5" thickBot="1">
       <c r="A277" s="6" t="s">
         <v>151</v>
       </c>
@@ -27138,7 +27285,7 @@
         <v>TS-UD-PRJ-WBS-001test_001_wbs_item_creation_all_fields</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="31.2" thickBot="1">
+    <row r="278" spans="1:11" ht="31.5" thickBot="1">
       <c r="A278" s="6" t="s">
         <v>151</v>
       </c>
@@ -27167,7 +27314,7 @@
         <v>TS-UD-PRJ-WBS-001test_002_wbs_item_creation_minimum_fields</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="31.2" thickBot="1">
+    <row r="279" spans="1:11" ht="31.5" thickBot="1">
       <c r="A279" s="6" t="s">
         <v>151</v>
       </c>
@@ -27196,7 +27343,7 @@
         <v>TS-UD-PRJ-WBS-001test_003_wbs_item_fails_without_code</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="31.2" thickBot="1">
+    <row r="280" spans="1:11" ht="31.5" thickBot="1">
       <c r="A280" s="6" t="s">
         <v>151</v>
       </c>
@@ -27225,7 +27372,7 @@
         <v>TS-UD-PRJ-WBS-001test_004_wbs_item_fails_without_name</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="31.2" thickBot="1">
+    <row r="281" spans="1:11" ht="31.5" thickBot="1">
       <c r="A281" s="6" t="s">
         <v>151</v>
       </c>
@@ -27254,7 +27401,7 @@
         <v>TS-UD-PRJ-WBS-001test_005_wbs_item_fails_invalid_level</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="31.2" thickBot="1">
+    <row r="282" spans="1:11" ht="31.5" thickBot="1">
       <c r="A282" s="6" t="s">
         <v>151</v>
       </c>
@@ -27283,7 +27430,7 @@
         <v>TS-UD-PRJ-WBS-001test_006_wbs_item_immutability</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="31.2" thickBot="1">
+    <row r="283" spans="1:11" ht="31.5" thickBot="1">
       <c r="A283" s="6" t="s">
         <v>151</v>
       </c>
@@ -27312,7 +27459,7 @@
         <v>TS-UD-PRJ-WBS-001test_007_wbs_code_format_1</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="31.2" thickBot="1">
+    <row r="284" spans="1:11" ht="31.5" thickBot="1">
       <c r="A284" s="6" t="s">
         <v>151</v>
       </c>
@@ -27341,7 +27488,7 @@
         <v>TS-UD-PRJ-WBS-001test_008_wbs_code_format_1_1</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="31.2" thickBot="1">
+    <row r="285" spans="1:11" ht="31.5" thickBot="1">
       <c r="A285" s="6" t="s">
         <v>151</v>
       </c>
@@ -27370,7 +27517,7 @@
         <v>TS-UD-PRJ-WBS-001test_009_wbs_code_format_1_1_1</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="31.2" thickBot="1">
+    <row r="286" spans="1:11" ht="31.5" thickBot="1">
       <c r="A286" s="6" t="s">
         <v>151</v>
       </c>
@@ -27399,7 +27546,7 @@
         <v>TS-UD-PRJ-WBS-001test_010_wbs_code_format_1_1_1_1</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="31.2" thickBot="1">
+    <row r="287" spans="1:11" ht="31.5" thickBot="1">
       <c r="A287" s="6" t="s">
         <v>151</v>
       </c>
@@ -27428,7 +27575,7 @@
         <v>TS-UD-PRJ-WBS-001test_011_wbs_code_invalid_format_rejected</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="31.2" thickBot="1">
+    <row r="288" spans="1:11" ht="31.5" thickBot="1">
       <c r="A288" s="6" t="s">
         <v>151</v>
       </c>
@@ -27457,7 +27604,7 @@
         <v>TS-UD-PRJ-WBS-001test_012_wbs_code_uniqueness_per_project</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="16.2" thickBot="1">
+    <row r="289" spans="1:11" ht="31.5" thickBot="1">
       <c r="A289" s="6" t="s">
         <v>151</v>
       </c>
@@ -27486,7 +27633,7 @@
         <v>TS-UD-PRJ-WBS-001test_013_wbs_level_1_valid</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="16.2" thickBot="1">
+    <row r="290" spans="1:11" ht="31.5" thickBot="1">
       <c r="A290" s="6" t="s">
         <v>151</v>
       </c>
@@ -27515,7 +27662,7 @@
         <v>TS-UD-PRJ-WBS-001test_014_wbs_level_4_valid</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="31.2" thickBot="1">
+    <row r="291" spans="1:11" ht="31.5" thickBot="1">
       <c r="A291" s="6" t="s">
         <v>151</v>
       </c>
@@ -27544,7 +27691,7 @@
         <v>TS-UD-PRJ-WBS-001test_015_wbs_level_0_invalid</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="31.2" thickBot="1">
+    <row r="292" spans="1:11" ht="31.5" thickBot="1">
       <c r="A292" s="6" t="s">
         <v>151</v>
       </c>
@@ -27573,7 +27720,7 @@
         <v>TS-UD-PRJ-WBS-001test_016_wbs_level_5_invalid</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="31.2" thickBot="1">
+    <row r="293" spans="1:11" ht="31.5" thickBot="1">
       <c r="A293" s="6" t="s">
         <v>151</v>
       </c>
@@ -27602,7 +27749,7 @@
         <v>TS-UD-PRJ-WBS-001test_017_wbs_level_matches_code_depth</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="31.2" thickBot="1">
+    <row r="294" spans="1:11" ht="31.5" thickBot="1">
       <c r="A294" s="6" t="s">
         <v>151</v>
       </c>
@@ -27631,7 +27778,7 @@
         <v>TS-UD-PRJ-WBS-001test_018_wbs_level_parent_child_validation</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="16.2" thickBot="1">
+    <row r="295" spans="1:11" ht="16.5" thickBot="1">
       <c r="A295" s="6" t="s">
         <v>152</v>
       </c>
@@ -27652,7 +27799,7 @@
         <v>TS-UD-PRJ-WBS-002Tests not individually listed</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="16.2" thickBot="1">
+    <row r="296" spans="1:11" ht="16.5" thickBot="1">
       <c r="A296" s="6" t="s">
         <v>153</v>
       </c>
@@ -27673,7 +27820,7 @@
         <v>TS-UD-PRJ-WBS-003Tests not individually listed</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="16.2" thickBot="1">
+    <row r="297" spans="1:11" ht="16.5" thickBot="1">
       <c r="A297" s="6" t="s">
         <v>154</v>
       </c>
@@ -27694,7 +27841,7 @@
         <v>TS-UD-PRJ-WBS-004Tests not individually listed</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="16.2" thickBot="1">
+    <row r="298" spans="1:11" ht="16.5" thickBot="1">
       <c r="A298" s="6" t="s">
         <v>155</v>
       </c>
@@ -27715,7 +27862,7 @@
         <v>TS-UD-PRJ-PRJ-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="16.2" thickBot="1">
+    <row r="299" spans="1:11" ht="16.5" thickBot="1">
       <c r="A299" s="6" t="s">
         <v>156</v>
       </c>
@@ -27736,7 +27883,7 @@
         <v>TS-UD-PRJ-DTO-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="16.2" thickBot="1">
+    <row r="300" spans="1:11" ht="16.5" thickBot="1">
       <c r="A300" s="6" t="s">
         <v>157</v>
       </c>
@@ -27757,7 +27904,7 @@
         <v>TS-UD-PROC-BOM-001Tests not individually listed</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="16.2" thickBot="1">
+    <row r="301" spans="1:11" ht="16.5" thickBot="1">
       <c r="A301" s="6" t="s">
         <v>158</v>
       </c>
@@ -27778,7 +27925,7 @@
         <v>TS-UD-PROC-BOM-002Tests not individually listed</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="31.2" thickBot="1">
+    <row r="302" spans="1:11" ht="31.5" thickBot="1">
       <c r="A302" s="6" t="s">
         <v>159</v>
       </c>
@@ -27810,7 +27957,7 @@
         <v>TS-UD-PROC-LTM-001test_001_optimal_date_production_only</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="31.2" thickBot="1">
+    <row r="303" spans="1:11" ht="31.5" thickBot="1">
       <c r="A303" s="6" t="s">
         <v>159</v>
       </c>
@@ -27839,7 +27986,7 @@
         <v>TS-UD-PROC-LTM-001test_002_optimal_date_production_transit</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="31.2" thickBot="1">
+    <row r="304" spans="1:11" ht="31.5" thickBot="1">
       <c r="A304" s="6" t="s">
         <v>159</v>
       </c>
@@ -27868,7 +28015,7 @@
         <v>TS-UD-PROC-LTM-001test_003_optimal_date_production_transit_buffer</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="31.2" thickBot="1">
+    <row r="305" spans="1:11" ht="31.5" thickBot="1">
       <c r="A305" s="6" t="s">
         <v>159</v>
       </c>
@@ -27897,7 +28044,7 @@
         <v>TS-UD-PROC-LTM-001test_004_optimal_date_all_components</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="31.2" thickBot="1">
+    <row r="306" spans="1:11" ht="31.5" thickBot="1">
       <c r="A306" s="6" t="s">
         <v>159</v>
       </c>
@@ -27926,7 +28073,7 @@
         <v>TS-UD-PROC-LTM-001test_005_lead_time_breakdown_returned</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="31.2" thickBot="1">
+    <row r="307" spans="1:11" ht="31.5" thickBot="1">
       <c r="A307" s="6" t="s">
         <v>159</v>
       </c>
@@ -27955,7 +28102,7 @@
         <v>TS-UD-PROC-LTM-001test_006_required_on_site_calculation</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="31.2" thickBot="1">
+    <row r="308" spans="1:11" ht="31.5" thickBot="1">
       <c r="A308" s="6" t="s">
         <v>159</v>
       </c>
@@ -27984,7 +28131,7 @@
         <v>TS-UD-PROC-LTM-001test_007_business_days_calculation</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="31.2" thickBot="1">
+    <row r="309" spans="1:11" ht="31.5" thickBot="1">
       <c r="A309" s="6" t="s">
         <v>159</v>
       </c>
@@ -28013,7 +28160,7 @@
         <v>TS-UD-PROC-LTM-001test_008_weekend_exclusion</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="16.2" thickBot="1">
+    <row r="310" spans="1:11" ht="16.5" thickBot="1">
       <c r="A310" s="6" t="s">
         <v>159</v>
       </c>
@@ -28042,7 +28189,7 @@
         <v>TS-UD-PROC-LTM-001test_009_holiday_exclusion</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="31.2" thickBot="1">
+    <row r="311" spans="1:11" ht="31.5" thickBot="1">
       <c r="A311" s="6" t="s">
         <v>159</v>
       </c>
@@ -28071,7 +28218,7 @@
         <v>TS-UD-PROC-LTM-001test_010_delivery_on_weekend_adjusted</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="31.2" thickBot="1">
+    <row r="312" spans="1:11" ht="31.5" thickBot="1">
       <c r="A312" s="6" t="s">
         <v>159</v>
       </c>
@@ -28100,7 +28247,7 @@
         <v>TS-UD-PROC-LTM-001test_011_mixed_calendar_business_days</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="31.2" thickBot="1">
+    <row r="313" spans="1:11" ht="31.5" thickBot="1">
       <c r="A313" s="6" t="s">
         <v>159</v>
       </c>
@@ -28129,7 +28276,7 @@
         <v>TS-UD-PROC-LTM-001test_012_alert_r14_date_passed</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="31.2" thickBot="1">
+    <row r="314" spans="1:11" ht="31.5" thickBot="1">
       <c r="A314" s="6" t="s">
         <v>159</v>
       </c>
@@ -28158,7 +28305,7 @@
         <v>TS-UD-PROC-LTM-001test_013_alert_r14_tight_margin_3_days</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="31.2" thickBot="1">
+    <row r="315" spans="1:11" ht="31.5" thickBot="1">
       <c r="A315" s="6" t="s">
         <v>159</v>
       </c>
@@ -28187,7 +28334,7 @@
         <v>TS-UD-PROC-LTM-001test_014_alert_severity_critical_passed</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="31.2" thickBot="1">
+    <row r="316" spans="1:11" ht="31.5" thickBot="1">
       <c r="A316" s="6" t="s">
         <v>159</v>
       </c>
@@ -28216,7 +28363,7 @@
         <v>TS-UD-PROC-LTM-001test_015_alert_severity_warning_tight</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="31.2" thickBot="1">
+    <row r="317" spans="1:11" ht="31.5" thickBot="1">
       <c r="A317" s="6" t="s">
         <v>159</v>
       </c>
@@ -28245,7 +28392,7 @@
         <v>TS-UD-PROC-LTM-001test_016_no_alert_sufficient_margin</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="31.2" thickBot="1">
+    <row r="318" spans="1:11" ht="31.5" thickBot="1">
       <c r="A318" s="6" t="s">
         <v>160</v>
       </c>
@@ -28271,7 +28418,7 @@
         <v>TS-UD-PROC-LTM-002test_001_exw_buyer_full_responsibility</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="31.2" thickBot="1">
+    <row r="319" spans="1:11" ht="31.5" thickBot="1">
       <c r="A319" s="6" t="s">
         <v>160</v>
       </c>
@@ -28297,7 +28444,7 @@
         <v>TS-UD-PROC-LTM-002test_002_exw_transit_time_included</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="31.2" thickBot="1">
+    <row r="320" spans="1:11" ht="31.5" thickBot="1">
       <c r="A320" s="6" t="s">
         <v>160</v>
       </c>
@@ -28323,7 +28470,7 @@
         <v>TS-UD-PROC-LTM-002test_003_exw_customs_included</v>
       </c>
     </row>
-    <row r="321" spans="1:11" ht="31.2" thickBot="1">
+    <row r="321" spans="1:11" ht="31.5" thickBot="1">
       <c r="A321" s="6" t="s">
         <v>160</v>
       </c>
@@ -28349,7 +28496,7 @@
         <v>TS-UD-PROC-LTM-002test_004_fob_shared_responsibility</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="31.2" thickBot="1">
+    <row r="322" spans="1:11" ht="31.5" thickBot="1">
       <c r="A322" s="6" t="s">
         <v>160</v>
       </c>
@@ -28375,7 +28522,7 @@
         <v>TS-UD-PROC-LTM-002test_005_fob_port_handover</v>
       </c>
     </row>
-    <row r="323" spans="1:11" ht="31.2" thickBot="1">
+    <row r="323" spans="1:11" ht="31.5" thickBot="1">
       <c r="A323" s="6" t="s">
         <v>160</v>
       </c>
@@ -28401,7 +28548,7 @@
         <v>TS-UD-PROC-LTM-002test_006_fob_insurance_buyer</v>
       </c>
     </row>
-    <row r="324" spans="1:11" ht="31.2" thickBot="1">
+    <row r="324" spans="1:11" ht="31.5" thickBot="1">
       <c r="A324" s="6" t="s">
         <v>160</v>
       </c>
@@ -28427,7 +28574,7 @@
         <v>TS-UD-PROC-LTM-002test_007_cif_seller_insurance</v>
       </c>
     </row>
-    <row r="325" spans="1:11" ht="16.2" thickBot="1">
+    <row r="325" spans="1:11" ht="16.5" thickBot="1">
       <c r="A325" s="6" t="s">
         <v>160</v>
       </c>
@@ -28453,7 +28600,7 @@
         <v>TS-UD-PROC-LTM-002test_008_cif_port_to_port</v>
       </c>
     </row>
-    <row r="326" spans="1:11" ht="31.2" thickBot="1">
+    <row r="326" spans="1:11" ht="31.5" thickBot="1">
       <c r="A326" s="6" t="s">
         <v>160</v>
       </c>
@@ -28479,7 +28626,7 @@
         <v>TS-UD-PROC-LTM-002test_009_cif_customs_buyer</v>
       </c>
     </row>
-    <row r="327" spans="1:11" ht="31.2" thickBot="1">
+    <row r="327" spans="1:11" ht="31.5" thickBot="1">
       <c r="A327" s="6" t="s">
         <v>160</v>
       </c>
@@ -28505,7 +28652,7 @@
         <v>TS-UD-PROC-LTM-002test_010_ddp_seller_full_responsibility</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="31.2" thickBot="1">
+    <row r="328" spans="1:11" ht="31.5" thickBot="1">
       <c r="A328" s="6" t="s">
         <v>160</v>
       </c>
@@ -28531,7 +28678,7 @@
         <v>TS-UD-PROC-LTM-002test_011_ddp_no_customs_buyer</v>
       </c>
     </row>
-    <row r="329" spans="1:11" ht="31.2" thickBot="1">
+    <row r="329" spans="1:11" ht="31.5" thickBot="1">
       <c r="A329" s="6" t="s">
         <v>160</v>
       </c>
@@ -28557,7 +28704,7 @@
         <v>TS-UD-PROC-LTM-002test_012_ddp_door_to_door</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="31.2" thickBot="1">
+    <row r="330" spans="1:11" ht="31.5" thickBot="1">
       <c r="A330" s="6" t="s">
         <v>160</v>
       </c>
@@ -28583,7 +28730,7 @@
         <v>TS-UD-PROC-LTM-002test_013_incoterm_comparison_same_route</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="31.2" thickBot="1">
+    <row r="331" spans="1:11" ht="31.5" thickBot="1">
       <c r="A331" s="6" t="s">
         <v>160</v>
       </c>
@@ -28609,7 +28756,7 @@
         <v>TS-UD-PROC-LTM-002test_014_incoterm_impact_on_lead_time</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="16.2" thickBot="1">
+    <row r="332" spans="1:11" ht="16.5" thickBot="1">
       <c r="A332" s="6" t="s">
         <v>161</v>
       </c>
@@ -28626,7 +28773,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="16.2" thickBot="1">
+    <row r="333" spans="1:11" ht="16.5" thickBot="1">
       <c r="A333" s="6" t="s">
         <v>162</v>
       </c>
@@ -28643,7 +28790,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="16.2" thickBot="1">
+    <row r="334" spans="1:11" ht="16.5" thickBot="1">
       <c r="A334" s="6" t="s">
         <v>163</v>
       </c>
@@ -28660,7 +28807,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="16.2" thickBot="1">
+    <row r="335" spans="1:11" ht="16.5" thickBot="1">
       <c r="A335" s="6" t="s">
         <v>164</v>
       </c>
@@ -28677,7 +28824,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="336" spans="1:11" ht="16.2" thickBot="1">
+    <row r="336" spans="1:11" ht="16.5" thickBot="1">
       <c r="A336" s="6" t="s">
         <v>165</v>
       </c>
@@ -28694,7 +28841,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="16.2" thickBot="1">
+    <row r="337" spans="1:10" ht="16.5" thickBot="1">
       <c r="A337" s="6" t="s">
         <v>166</v>
       </c>
@@ -28711,7 +28858,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="16.2" thickBot="1">
+    <row r="338" spans="1:10" ht="16.5" thickBot="1">
       <c r="A338" s="6" t="s">
         <v>167</v>
       </c>
@@ -28727,7 +28874,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="16.2" thickBot="1">
+    <row r="339" spans="1:10" ht="16.5" thickBot="1">
       <c r="A339" s="6" t="s">
         <v>168</v>
       </c>
@@ -28743,7 +28890,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="16.2" thickBot="1">
+    <row r="340" spans="1:10" ht="16.5" thickBot="1">
       <c r="A340" s="6" t="s">
         <v>169</v>
       </c>
@@ -28759,7 +28906,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="16.2" thickBot="1">
+    <row r="341" spans="1:10" ht="16.5" thickBot="1">
       <c r="A341" s="6" t="s">
         <v>170</v>
       </c>
@@ -28775,7 +28922,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="16.2" thickBot="1">
+    <row r="342" spans="1:10" ht="16.5" thickBot="1">
       <c r="A342" s="6" t="s">
         <v>171</v>
       </c>
@@ -28791,7 +28938,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="16.2" thickBot="1">
+    <row r="343" spans="1:10" ht="16.5" thickBot="1">
       <c r="A343" s="6" t="s">
         <v>172</v>
       </c>
@@ -28807,7 +28954,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="16.2" thickBot="1">
+    <row r="344" spans="1:10" ht="16.5" thickBot="1">
       <c r="A344" s="6" t="s">
         <v>173</v>
       </c>
@@ -28823,7 +28970,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="16.2" thickBot="1">
+    <row r="345" spans="1:10" ht="16.5" thickBot="1">
       <c r="A345" s="6" t="s">
         <v>174</v>
       </c>
@@ -28839,7 +28986,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="16.2" thickBot="1">
+    <row r="346" spans="1:10" ht="16.5" thickBot="1">
       <c r="A346" s="6" t="s">
         <v>175</v>
       </c>
@@ -28855,7 +29002,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="16.2" thickBot="1">
+    <row r="347" spans="1:10" ht="31.5" thickBot="1">
       <c r="A347" s="6" t="s">
         <v>176</v>
       </c>
@@ -28871,7 +29018,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="16.2" thickBot="1">
+    <row r="348" spans="1:10" ht="31.5" thickBot="1">
       <c r="A348" s="6" t="s">
         <v>177</v>
       </c>
@@ -28887,7 +29034,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="16.2" thickBot="1">
+    <row r="349" spans="1:10" ht="31.5" thickBot="1">
       <c r="A349" s="6" t="s">
         <v>178</v>
       </c>
@@ -28903,7 +29050,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="16.2" thickBot="1">
+    <row r="350" spans="1:10" ht="31.5" thickBot="1">
       <c r="A350" s="6" t="s">
         <v>179</v>
       </c>
@@ -28919,7 +29066,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="16.2" thickBot="1">
+    <row r="351" spans="1:10" ht="31.5" thickBot="1">
       <c r="A351" s="6" t="s">
         <v>180</v>
       </c>
@@ -28935,7 +29082,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="16.2" thickBot="1">
+    <row r="352" spans="1:10" ht="31.5" thickBot="1">
       <c r="A352" s="31" t="s">
         <v>181</v>
       </c>
@@ -28954,7 +29101,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="353" spans="1:10" ht="16.2" thickBot="1">
+    <row r="353" spans="1:10" ht="31.5" thickBot="1">
       <c r="A353" s="31" t="s">
         <v>182</v>
       </c>
@@ -28973,7 +29120,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="16.2" thickBot="1">
+    <row r="354" spans="1:10" ht="31.5" thickBot="1">
       <c r="A354" s="6" t="s">
         <v>183</v>
       </c>
@@ -28989,7 +29136,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="16.2" thickBot="1">
+    <row r="355" spans="1:10" ht="31.5" thickBot="1">
       <c r="A355" s="6" t="s">
         <v>184</v>
       </c>
@@ -29005,7 +29152,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="356" spans="1:10" ht="16.2" thickBot="1">
+    <row r="356" spans="1:10" ht="31.5" thickBot="1">
       <c r="A356" s="6" t="s">
         <v>185</v>
       </c>
@@ -29021,7 +29168,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="16.2" thickBot="1">
+    <row r="357" spans="1:10" ht="31.5" thickBot="1">
       <c r="A357" s="6" t="s">
         <v>186</v>
       </c>
@@ -29037,7 +29184,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="358" spans="1:10" ht="16.2" thickBot="1">
+    <row r="358" spans="1:10" ht="31.5" thickBot="1">
       <c r="A358" s="6" t="s">
         <v>187</v>
       </c>
@@ -29053,7 +29200,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="359" spans="1:10" ht="16.2" thickBot="1">
+    <row r="359" spans="1:10" ht="31.5" thickBot="1">
       <c r="A359" s="6" t="s">
         <v>188</v>
       </c>
@@ -29069,7 +29216,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="360" spans="1:10" ht="16.2" thickBot="1">
+    <row r="360" spans="1:10" ht="31.5" thickBot="1">
       <c r="A360" s="6" t="s">
         <v>189</v>
       </c>
@@ -29085,7 +29232,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="361" spans="1:10" ht="16.2" thickBot="1">
+    <row r="361" spans="1:10" ht="31.5" thickBot="1">
       <c r="A361" s="6" t="s">
         <v>190</v>
       </c>
@@ -29101,7 +29248,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="362" spans="1:10" ht="16.2" thickBot="1">
+    <row r="362" spans="1:10" ht="16.5" thickBot="1">
       <c r="A362" s="6" t="s">
         <v>191</v>
       </c>
@@ -29117,7 +29264,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="16.2" thickBot="1">
+    <row r="363" spans="1:10" ht="16.5" thickBot="1">
       <c r="A363" s="6" t="s">
         <v>192</v>
       </c>
@@ -29133,7 +29280,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="16.2" thickBot="1">
+    <row r="364" spans="1:10" ht="16.5" thickBot="1">
       <c r="A364" s="6" t="s">
         <v>193</v>
       </c>
@@ -29149,7 +29296,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="365" spans="1:10" ht="16.2" thickBot="1">
+    <row r="365" spans="1:10" ht="16.5" thickBot="1">
       <c r="A365" s="6" t="s">
         <v>194</v>
       </c>
@@ -29165,7 +29312,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="366" spans="1:10" ht="16.2" thickBot="1">
+    <row r="366" spans="1:10" ht="16.5" thickBot="1">
       <c r="A366" s="6" t="s">
         <v>195</v>
       </c>
@@ -29181,7 +29328,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="367" spans="1:10" ht="16.2" thickBot="1">
+    <row r="367" spans="1:10" ht="16.5" thickBot="1">
       <c r="A367" s="6" t="s">
         <v>196</v>
       </c>
@@ -29197,7 +29344,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="368" spans="1:10" ht="16.2" thickBot="1">
+    <row r="368" spans="1:10" ht="16.5" thickBot="1">
       <c r="A368" s="6" t="s">
         <v>197</v>
       </c>
@@ -29213,7 +29360,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="369" spans="1:10" ht="16.2" thickBot="1">
+    <row r="369" spans="1:10" ht="16.5" thickBot="1">
       <c r="A369" s="6" t="s">
         <v>198</v>
       </c>
@@ -29232,7 +29379,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="370" spans="1:10" ht="16.2" thickBot="1">
+    <row r="370" spans="1:10" ht="16.5" thickBot="1">
       <c r="A370" s="6" t="s">
         <v>199</v>
       </c>
@@ -29251,7 +29398,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="371" spans="1:10" ht="16.2" thickBot="1">
+    <row r="371" spans="1:10" ht="16.5" thickBot="1">
       <c r="A371" s="6" t="s">
         <v>200</v>
       </c>
@@ -29267,7 +29414,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="16.2" thickBot="1">
+    <row r="372" spans="1:10" ht="16.5" thickBot="1">
       <c r="A372" s="6" t="s">
         <v>201</v>
       </c>
@@ -29283,7 +29430,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="373" spans="1:10" ht="16.2" thickBot="1">
+    <row r="373" spans="1:10" ht="16.5" thickBot="1">
       <c r="A373" s="6" t="s">
         <v>202</v>
       </c>
@@ -29302,7 +29449,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="374" spans="1:10" ht="16.2" thickBot="1">
+    <row r="374" spans="1:10" ht="31.5" thickBot="1">
       <c r="A374" s="6" t="s">
         <v>203</v>
       </c>
@@ -29318,7 +29465,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="375" spans="1:10" ht="16.2" thickBot="1">
+    <row r="375" spans="1:10" ht="31.5" thickBot="1">
       <c r="A375" s="6" t="s">
         <v>204</v>
       </c>
@@ -29334,7 +29481,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="376" spans="1:10" ht="16.2" thickBot="1">
+    <row r="376" spans="1:10" ht="31.5" thickBot="1">
       <c r="A376" s="6" t="s">
         <v>205</v>
       </c>
@@ -29350,7 +29497,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="377" spans="1:10" ht="16.2" thickBot="1">
+    <row r="377" spans="1:10" ht="31.5" thickBot="1">
       <c r="A377" s="6" t="s">
         <v>206</v>
       </c>
@@ -29366,7 +29513,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="378" spans="1:10" ht="16.2" thickBot="1">
+    <row r="378" spans="1:10" ht="16.5" thickBot="1">
       <c r="A378" s="25" t="s">
         <v>207</v>
       </c>
@@ -29385,7 +29532,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="379" spans="1:10" ht="16.2" thickBot="1">
+    <row r="379" spans="1:10" ht="16.5" thickBot="1">
       <c r="A379" s="6" t="s">
         <v>208</v>
       </c>
@@ -29404,7 +29551,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="380" spans="1:10" ht="16.2" thickBot="1">
+    <row r="380" spans="1:10" ht="16.5" thickBot="1">
       <c r="A380" s="6" t="s">
         <v>209</v>
       </c>
@@ -29423,7 +29570,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="381" spans="1:10" ht="16.2" thickBot="1">
+    <row r="381" spans="1:10" ht="16.5" thickBot="1">
       <c r="A381" s="6" t="s">
         <v>210</v>
       </c>
@@ -29439,7 +29586,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="382" spans="1:10" ht="16.2" thickBot="1">
+    <row r="382" spans="1:10" ht="16.5" thickBot="1">
       <c r="A382" s="6" t="s">
         <v>211</v>
       </c>
@@ -29455,7 +29602,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="383" spans="1:10" ht="16.2" thickBot="1">
+    <row r="383" spans="1:10" ht="16.5" thickBot="1">
       <c r="A383" s="6" t="s">
         <v>212</v>
       </c>
@@ -29471,7 +29618,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="384" spans="1:10" ht="16.2" thickBot="1">
+    <row r="384" spans="1:10" ht="16.5" thickBot="1">
       <c r="A384" s="6" t="s">
         <v>213</v>
       </c>
@@ -29487,7 +29634,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="385" spans="1:10" ht="16.2" thickBot="1">
+    <row r="385" spans="1:10" ht="16.5" thickBot="1">
       <c r="A385" s="6" t="s">
         <v>214</v>
       </c>
@@ -29503,7 +29650,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="386" spans="1:10" ht="16.2" thickBot="1">
+    <row r="386" spans="1:10" ht="16.5" thickBot="1">
       <c r="A386" s="6" t="s">
         <v>215</v>
       </c>
@@ -29519,7 +29666,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="387" spans="1:10" ht="16.2" thickBot="1">
+    <row r="387" spans="1:10" ht="16.5" thickBot="1">
       <c r="A387" s="6" t="s">
         <v>216</v>
       </c>
@@ -29535,7 +29682,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="388" spans="1:10" ht="16.2" thickBot="1">
+    <row r="388" spans="1:10" ht="16.5" thickBot="1">
       <c r="A388" s="6" t="s">
         <v>217</v>
       </c>
@@ -29551,7 +29698,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="389" spans="1:10" ht="16.2" thickBot="1">
+    <row r="389" spans="1:10" ht="16.5" thickBot="1">
       <c r="A389" s="6" t="s">
         <v>218</v>
       </c>
@@ -29567,7 +29714,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="390" spans="1:10" ht="16.2" thickBot="1">
+    <row r="390" spans="1:10" ht="16.5" thickBot="1">
       <c r="A390" s="6" t="s">
         <v>219</v>
       </c>
@@ -29583,7 +29730,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="391" spans="1:10" ht="16.2" thickBot="1">
+    <row r="391" spans="1:10" ht="16.5" thickBot="1">
       <c r="A391" s="6" t="s">
         <v>220</v>
       </c>
@@ -29602,7 +29749,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="392" spans="1:10" ht="16.2" thickBot="1">
+    <row r="392" spans="1:10" ht="16.5" thickBot="1">
       <c r="A392" s="6" t="s">
         <v>221</v>
       </c>
@@ -29621,7 +29768,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="393" spans="1:10" ht="16.2" thickBot="1">
+    <row r="393" spans="1:10" ht="16.5" thickBot="1">
       <c r="A393" s="6" t="s">
         <v>222</v>
       </c>
@@ -29640,7 +29787,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="394" spans="1:10" ht="16.2" thickBot="1">
+    <row r="394" spans="1:10" ht="16.5" thickBot="1">
       <c r="A394" s="6" t="s">
         <v>223</v>
       </c>
@@ -29656,7 +29803,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="395" spans="1:10" ht="16.2" thickBot="1">
+    <row r="395" spans="1:10" ht="16.5" thickBot="1">
       <c r="A395" s="6" t="s">
         <v>224</v>
       </c>
@@ -29672,7 +29819,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="396" spans="1:10" ht="16.2" thickBot="1">
+    <row r="396" spans="1:10" ht="16.5" thickBot="1">
       <c r="A396" s="6" t="s">
         <v>225</v>
       </c>
@@ -29688,7 +29835,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="397" spans="1:10" ht="16.2" thickBot="1">
+    <row r="397" spans="1:10" ht="16.5" thickBot="1">
       <c r="A397" s="21" t="s">
         <v>226</v>
       </c>
@@ -29710,7 +29857,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="398" spans="1:10" ht="16.2" thickBot="1">
+    <row r="398" spans="1:10" ht="16.5" thickBot="1">
       <c r="A398" s="6" t="s">
         <v>227</v>
       </c>
@@ -29726,7 +29873,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="399" spans="1:10" ht="16.2" thickBot="1">
+    <row r="399" spans="1:10" ht="16.5" thickBot="1">
       <c r="A399" s="6" t="s">
         <v>228</v>
       </c>
@@ -29742,7 +29889,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="400" spans="1:10" ht="16.2" thickBot="1">
+    <row r="400" spans="1:10" ht="16.5" thickBot="1">
       <c r="A400" s="6" t="s">
         <v>229</v>
       </c>
@@ -29758,7 +29905,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="16.2" thickBot="1">
+    <row r="401" spans="1:6" ht="16.5" thickBot="1">
       <c r="A401" s="6" t="s">
         <v>230</v>
       </c>
@@ -29774,7 +29921,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="16.2" thickBot="1">
+    <row r="402" spans="1:6" ht="16.5" thickBot="1">
       <c r="A402" s="6" t="s">
         <v>231</v>
       </c>
@@ -29790,7 +29937,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="15" thickBot="1">
+    <row r="403" spans="1:6" ht="15.75" thickBot="1">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
@@ -29798,7 +29945,7 @@
       <c r="E403" s="5"/>
       <c r="F403" s="5"/>
     </row>
-    <row r="404" spans="1:6" ht="15" thickBot="1">
+    <row r="404" spans="1:6" ht="15.75" thickBot="1">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
@@ -29820,9 +29967,9 @@
       <selection activeCell="A285" sqref="A285:G285"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="9" width="11.44140625" style="23"/>
+    <col min="1" max="9" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -32725,10 +32872,10 @@
       <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="91.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="91.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -34655,9 +34802,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="45" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="66.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="178.88671875" customWidth="1"/>
+    <col min="2" max="2" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="178.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="45" customHeight="1">
@@ -34687,7 +34834,7 @@
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
     </row>
-    <row r="3" spans="1:10" ht="14.4" customHeight="1">
+    <row r="3" spans="1:10" ht="14.45" customHeight="1">
       <c r="A3" s="26" t="s">
         <v>834</v>
       </c>
@@ -34703,7 +34850,7 @@
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
     </row>
-    <row r="4" spans="1:10" ht="14.4" customHeight="1">
+    <row r="4" spans="1:10" ht="14.45" customHeight="1">
       <c r="A4" s="27" t="s">
         <v>835</v>
       </c>
@@ -34719,7 +34866,7 @@
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" customHeight="1">
+    <row r="5" spans="1:10" ht="14.45" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>836</v>
       </c>
@@ -34735,7 +34882,7 @@
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" customHeight="1">
+    <row r="6" spans="1:10" ht="14.45" customHeight="1">
       <c r="A6" s="22" t="s">
         <v>837</v>
       </c>
@@ -34751,7 +34898,7 @@
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" customHeight="1">
+    <row r="7" spans="1:10" ht="14.45" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>838</v>
       </c>
@@ -34767,7 +34914,7 @@
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" customHeight="1">
+    <row r="8" spans="1:10" ht="14.45" customHeight="1">
       <c r="A8" s="27" t="s">
         <v>839</v>
       </c>
@@ -34783,7 +34930,7 @@
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" customHeight="1">
+    <row r="9" spans="1:10" ht="14.45" customHeight="1">
       <c r="A9" s="22" t="s">
         <v>840</v>
       </c>
@@ -34799,7 +34946,7 @@
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" customHeight="1">
+    <row r="10" spans="1:10" ht="14.45" customHeight="1">
       <c r="A10" s="22" t="s">
         <v>841</v>
       </c>
@@ -34815,7 +34962,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" customHeight="1">
+    <row r="11" spans="1:10" ht="14.45" customHeight="1">
       <c r="A11" s="22" t="s">
         <v>842</v>
       </c>
@@ -34831,7 +34978,7 @@
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" customHeight="1">
+    <row r="12" spans="1:10" ht="14.45" customHeight="1">
       <c r="A12" s="22" t="s">
         <v>843</v>
       </c>
@@ -34847,7 +34994,7 @@
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4" customHeight="1">
+    <row r="13" spans="1:10" ht="14.45" customHeight="1">
       <c r="A13" s="22" t="s">
         <v>844</v>
       </c>
@@ -34863,7 +35010,7 @@
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
     </row>
-    <row r="14" spans="1:10" ht="14.4" customHeight="1">
+    <row r="14" spans="1:10" ht="14.45" customHeight="1">
       <c r="A14" s="35" t="s">
         <v>845</v>
       </c>
@@ -34879,7 +35026,7 @@
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
     </row>
-    <row r="15" spans="1:10" ht="14.4" customHeight="1">
+    <row r="15" spans="1:10" ht="14.45" customHeight="1">
       <c r="A15" s="35" t="s">
         <v>846</v>
       </c>
@@ -34895,7 +35042,7 @@
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" spans="1:10" ht="14.4" customHeight="1">
+    <row r="16" spans="1:10" ht="14.45" customHeight="1">
       <c r="A16" s="22" t="s">
         <v>1165</v>
       </c>
@@ -34911,7 +35058,7 @@
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
     </row>
-    <row r="17" spans="2:10" ht="14.4" customHeight="1">
+    <row r="17" spans="2:10" ht="14.45" customHeight="1">
       <c r="D17" s="22" t="s">
         <v>1135</v>
       </c>
@@ -34922,7 +35069,7 @@
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
     </row>
-    <row r="18" spans="2:10" ht="14.4" customHeight="1">
+    <row r="18" spans="2:10" ht="14.45" customHeight="1">
       <c r="B18" s="16" t="s">
         <v>812</v>
       </c>
@@ -34936,7 +35083,7 @@
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
     </row>
-    <row r="19" spans="2:10" ht="14.4" customHeight="1">
+    <row r="19" spans="2:10" ht="14.45" customHeight="1">
       <c r="B19" s="16" t="s">
         <v>813</v>
       </c>
@@ -34953,7 +35100,7 @@
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
     </row>
-    <row r="20" spans="2:10" ht="14.4" customHeight="1">
+    <row r="20" spans="2:10" ht="14.45" customHeight="1">
       <c r="B20" s="16" t="s">
         <v>814</v>
       </c>
@@ -34967,7 +35114,7 @@
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
     </row>
-    <row r="21" spans="2:10" ht="14.4" customHeight="1">
+    <row r="21" spans="2:10" ht="14.45" customHeight="1">
       <c r="B21" s="16" t="s">
         <v>815</v>
       </c>
@@ -34981,7 +35128,7 @@
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
     </row>
-    <row r="22" spans="2:10" ht="14.4" customHeight="1">
+    <row r="22" spans="2:10" ht="14.45" customHeight="1">
       <c r="B22" s="17"/>
       <c r="D22" s="22" t="s">
         <v>1126</v>
@@ -34993,7 +35140,7 @@
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
     </row>
-    <row r="23" spans="2:10" ht="14.4" customHeight="1">
+    <row r="23" spans="2:10" ht="14.45" customHeight="1">
       <c r="B23" s="16" t="s">
         <v>816</v>
       </c>
@@ -35007,7 +35154,7 @@
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
     </row>
-    <row r="24" spans="2:10" ht="14.4" customHeight="1">
+    <row r="24" spans="2:10" ht="14.45" customHeight="1">
       <c r="B24" s="16" t="s">
         <v>817</v>
       </c>
@@ -35021,7 +35168,7 @@
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
     </row>
-    <row r="25" spans="2:10" ht="14.4" customHeight="1">
+    <row r="25" spans="2:10" ht="14.45" customHeight="1">
       <c r="B25" s="17"/>
       <c r="D25" s="22" t="s">
         <v>1139</v>
@@ -35033,7 +35180,7 @@
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
     </row>
-    <row r="26" spans="2:10" ht="14.4" customHeight="1">
+    <row r="26" spans="2:10" ht="14.45" customHeight="1">
       <c r="B26" s="16" t="s">
         <v>818</v>
       </c>
@@ -35047,7 +35194,7 @@
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
     </row>
-    <row r="27" spans="2:10" ht="14.4" customHeight="1">
+    <row r="27" spans="2:10" ht="14.45" customHeight="1">
       <c r="B27" s="16" t="s">
         <v>819</v>
       </c>
@@ -35061,7 +35208,7 @@
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
     </row>
-    <row r="28" spans="2:10" ht="14.4" customHeight="1">
+    <row r="28" spans="2:10" ht="14.45" customHeight="1">
       <c r="B28" s="17"/>
       <c r="D28" s="22" t="s">
         <v>1126</v>
@@ -35073,7 +35220,7 @@
       <c r="I28" s="23"/>
       <c r="J28" s="23"/>
     </row>
-    <row r="29" spans="2:10" ht="14.4" customHeight="1">
+    <row r="29" spans="2:10" ht="14.45" customHeight="1">
       <c r="B29" s="16" t="s">
         <v>820</v>
       </c>
@@ -35087,7 +35234,7 @@
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
     </row>
-    <row r="30" spans="2:10" ht="14.4" customHeight="1">
+    <row r="30" spans="2:10" ht="14.45" customHeight="1">
       <c r="B30" s="16" t="s">
         <v>821</v>
       </c>
@@ -35101,7 +35248,7 @@
       <c r="I30" s="23"/>
       <c r="J30" s="23"/>
     </row>
-    <row r="31" spans="2:10" ht="14.4" customHeight="1">
+    <row r="31" spans="2:10" ht="14.45" customHeight="1">
       <c r="B31" s="16" t="s">
         <v>822</v>
       </c>
@@ -35115,7 +35262,7 @@
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
     </row>
-    <row r="32" spans="2:10" ht="14.4" customHeight="1">
+    <row r="32" spans="2:10" ht="14.45" customHeight="1">
       <c r="B32" s="17"/>
       <c r="D32" s="22" t="s">
         <v>1130</v>
@@ -35127,7 +35274,7 @@
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
     </row>
-    <row r="33" spans="2:10" ht="14.4" customHeight="1">
+    <row r="33" spans="2:10" ht="14.45" customHeight="1">
       <c r="B33" s="16" t="s">
         <v>823</v>
       </c>
@@ -35141,7 +35288,7 @@
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
     </row>
-    <row r="34" spans="2:10" ht="14.4" customHeight="1">
+    <row r="34" spans="2:10" ht="14.45" customHeight="1">
       <c r="B34" s="16" t="s">
         <v>824</v>
       </c>
@@ -35155,7 +35302,7 @@
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
     </row>
-    <row r="35" spans="2:10" ht="14.4" customHeight="1">
+    <row r="35" spans="2:10" ht="14.45" customHeight="1">
       <c r="B35" s="16" t="s">
         <v>825</v>
       </c>
@@ -35169,7 +35316,7 @@
       <c r="I35" s="23"/>
       <c r="J35" s="23"/>
     </row>
-    <row r="36" spans="2:10" ht="14.4" customHeight="1">
+    <row r="36" spans="2:10" ht="14.45" customHeight="1">
       <c r="B36" s="17"/>
       <c r="D36" s="22" t="s">
         <v>1134</v>
@@ -35181,7 +35328,7 @@
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
     </row>
-    <row r="37" spans="2:10" ht="14.4" customHeight="1">
+    <row r="37" spans="2:10" ht="14.45" customHeight="1">
       <c r="B37" s="16" t="s">
         <v>826</v>
       </c>
@@ -35195,7 +35342,7 @@
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
     </row>
-    <row r="38" spans="2:10" ht="14.4" customHeight="1">
+    <row r="38" spans="2:10" ht="14.45" customHeight="1">
       <c r="B38" s="16" t="s">
         <v>827</v>
       </c>
@@ -35209,7 +35356,7 @@
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
     </row>
-    <row r="39" spans="2:10" ht="14.4" customHeight="1">
+    <row r="39" spans="2:10" ht="14.45" customHeight="1">
       <c r="B39" s="16" t="s">
         <v>828</v>
       </c>
@@ -35223,7 +35370,7 @@
       <c r="I39" s="23"/>
       <c r="J39" s="23"/>
     </row>
-    <row r="40" spans="2:10" ht="14.4" customHeight="1">
+    <row r="40" spans="2:10" ht="14.45" customHeight="1">
       <c r="B40" s="16" t="s">
         <v>829</v>
       </c>
@@ -35237,7 +35384,7 @@
       <c r="I40" s="23"/>
       <c r="J40" s="23"/>
     </row>
-    <row r="41" spans="2:10" ht="14.4" customHeight="1">
+    <row r="41" spans="2:10" ht="14.45" customHeight="1">
       <c r="B41" s="16" t="s">
         <v>830</v>
       </c>
@@ -35251,7 +35398,7 @@
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
     </row>
-    <row r="42" spans="2:10" ht="14.4" customHeight="1">
+    <row r="42" spans="2:10" ht="14.45" customHeight="1">
       <c r="D42" s="22" t="s">
         <v>1148</v>
       </c>
@@ -35262,7 +35409,7 @@
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
     </row>
-    <row r="43" spans="2:10" ht="14.4" customHeight="1">
+    <row r="43" spans="2:10" ht="14.45" customHeight="1">
       <c r="D43" s="22" t="s">
         <v>1149</v>
       </c>
@@ -35273,7 +35420,7 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
     </row>
-    <row r="44" spans="2:10" ht="14.4" customHeight="1">
+    <row r="44" spans="2:10" ht="14.45" customHeight="1">
       <c r="B44" s="18" t="s">
         <v>832</v>
       </c>
@@ -35288,7 +35435,7 @@
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
     </row>
-    <row r="45" spans="2:10" ht="14.4" customHeight="1">
+    <row r="45" spans="2:10" ht="14.45" customHeight="1">
       <c r="B45" s="18" t="s">
         <v>833</v>
       </c>
@@ -35303,7 +35450,7 @@
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="2:10" ht="14.4" customHeight="1">
+    <row r="46" spans="2:10" ht="14.45" customHeight="1">
       <c r="B46" s="18" t="s">
         <v>834</v>
       </c>
@@ -35318,7 +35465,7 @@
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
     </row>
-    <row r="47" spans="2:10" ht="14.4" customHeight="1">
+    <row r="47" spans="2:10" ht="14.45" customHeight="1">
       <c r="B47" s="18" t="s">
         <v>835</v>
       </c>
@@ -35333,7 +35480,7 @@
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
     </row>
-    <row r="48" spans="2:10" ht="14.4" customHeight="1">
+    <row r="48" spans="2:10" ht="14.45" customHeight="1">
       <c r="B48" s="18" t="s">
         <v>836</v>
       </c>
@@ -35348,7 +35495,7 @@
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
     </row>
-    <row r="49" spans="2:10" ht="14.4" customHeight="1">
+    <row r="49" spans="2:10" ht="14.45" customHeight="1">
       <c r="B49" s="18" t="s">
         <v>837</v>
       </c>
@@ -35363,7 +35510,7 @@
       <c r="I49" s="23"/>
       <c r="J49" s="23"/>
     </row>
-    <row r="50" spans="2:10" ht="14.4" customHeight="1">
+    <row r="50" spans="2:10" ht="14.45" customHeight="1">
       <c r="B50" s="18" t="s">
         <v>838</v>
       </c>
@@ -35378,7 +35525,7 @@
       <c r="I50" s="23"/>
       <c r="J50" s="23"/>
     </row>
-    <row r="51" spans="2:10" ht="14.4" customHeight="1">
+    <row r="51" spans="2:10" ht="14.45" customHeight="1">
       <c r="B51" s="18" t="s">
         <v>839</v>
       </c>
@@ -35393,7 +35540,7 @@
       <c r="I51" s="23"/>
       <c r="J51" s="23"/>
     </row>
-    <row r="52" spans="2:10" ht="14.4" customHeight="1">
+    <row r="52" spans="2:10" ht="14.45" customHeight="1">
       <c r="B52" s="18" t="s">
         <v>840</v>
       </c>
@@ -35408,7 +35555,7 @@
       <c r="I52" s="23"/>
       <c r="J52" s="23"/>
     </row>
-    <row r="53" spans="2:10" ht="14.4" customHeight="1">
+    <row r="53" spans="2:10" ht="14.45" customHeight="1">
       <c r="B53" s="18" t="s">
         <v>841</v>
       </c>
@@ -35423,7 +35570,7 @@
       <c r="I53" s="23"/>
       <c r="J53" s="23"/>
     </row>
-    <row r="54" spans="2:10" ht="14.4" customHeight="1">
+    <row r="54" spans="2:10" ht="14.45" customHeight="1">
       <c r="B54" s="18" t="s">
         <v>842</v>
       </c>
@@ -35438,7 +35585,7 @@
       <c r="I54" s="23"/>
       <c r="J54" s="23"/>
     </row>
-    <row r="55" spans="2:10" ht="14.4" customHeight="1">
+    <row r="55" spans="2:10" ht="14.45" customHeight="1">
       <c r="B55" s="18" t="s">
         <v>843</v>
       </c>
@@ -35453,7 +35600,7 @@
       <c r="I55" s="23"/>
       <c r="J55" s="23"/>
     </row>
-    <row r="56" spans="2:10" ht="14.4" customHeight="1">
+    <row r="56" spans="2:10" ht="14.45" customHeight="1">
       <c r="B56" s="18" t="s">
         <v>844</v>
       </c>
@@ -35468,7 +35615,7 @@
       <c r="I56" s="23"/>
       <c r="J56" s="23"/>
     </row>
-    <row r="57" spans="2:10" ht="14.4" customHeight="1">
+    <row r="57" spans="2:10" ht="14.45" customHeight="1">
       <c r="B57" s="18" t="s">
         <v>845</v>
       </c>
@@ -35483,7 +35630,7 @@
       <c r="I57" s="23"/>
       <c r="J57" s="23"/>
     </row>
-    <row r="58" spans="2:10" ht="14.4" customHeight="1">
+    <row r="58" spans="2:10" ht="14.45" customHeight="1">
       <c r="B58" s="18" t="s">
         <v>846</v>
       </c>
@@ -35498,7 +35645,7 @@
       <c r="I58" s="23"/>
       <c r="J58" s="23"/>
     </row>
-    <row r="59" spans="2:10" ht="14.4" customHeight="1">
+    <row r="59" spans="2:10" ht="14.45" customHeight="1">
       <c r="B59" s="18" t="s">
         <v>847</v>
       </c>
@@ -35513,7 +35660,7 @@
       <c r="I59" s="23"/>
       <c r="J59" s="23"/>
     </row>
-    <row r="60" spans="2:10" ht="14.4" customHeight="1">
+    <row r="60" spans="2:10" ht="14.45" customHeight="1">
       <c r="D60" s="22" t="s">
         <v>1156</v>
       </c>
@@ -35524,7 +35671,7 @@
       <c r="I60" s="23"/>
       <c r="J60" s="23"/>
     </row>
-    <row r="61" spans="2:10" ht="14.4" customHeight="1">
+    <row r="61" spans="2:10" ht="14.45" customHeight="1">
       <c r="D61" s="22" t="s">
         <v>1157</v>
       </c>
@@ -35535,7 +35682,7 @@
       <c r="I61" s="23"/>
       <c r="J61" s="23"/>
     </row>
-    <row r="62" spans="2:10" ht="14.4" customHeight="1">
+    <row r="62" spans="2:10" ht="14.45" customHeight="1">
       <c r="D62" s="22" t="s">
         <v>1134</v>
       </c>
@@ -35546,7 +35693,7 @@
       <c r="I62" s="23"/>
       <c r="J62" s="23"/>
     </row>
-    <row r="63" spans="2:10" ht="14.4" customHeight="1">
+    <row r="63" spans="2:10" ht="14.45" customHeight="1">
       <c r="D63" s="22" t="s">
         <v>1128</v>
       </c>
@@ -35557,7 +35704,7 @@
       <c r="I63" s="23"/>
       <c r="J63" s="23"/>
     </row>
-    <row r="64" spans="2:10" ht="14.4" customHeight="1">
+    <row r="64" spans="2:10" ht="14.45" customHeight="1">
       <c r="D64" s="22" t="s">
         <v>1135</v>
       </c>
@@ -35568,7 +35715,7 @@
       <c r="I64" s="23"/>
       <c r="J64" s="23"/>
     </row>
-    <row r="65" spans="4:10" ht="14.4" customHeight="1">
+    <row r="65" spans="4:10" ht="14.45" customHeight="1">
       <c r="D65" s="22" t="s">
         <v>1126</v>
       </c>
@@ -35579,7 +35726,7 @@
       <c r="I65" s="23"/>
       <c r="J65" s="23"/>
     </row>
-    <row r="66" spans="4:10" ht="14.4" customHeight="1">
+    <row r="66" spans="4:10" ht="14.45" customHeight="1">
       <c r="D66" s="22" t="s">
         <v>1136</v>
       </c>
@@ -35590,7 +35737,7 @@
       <c r="I66" s="23"/>
       <c r="J66" s="23"/>
     </row>
-    <row r="67" spans="4:10" ht="14.4" customHeight="1">
+    <row r="67" spans="4:10" ht="14.45" customHeight="1">
       <c r="D67" s="22" t="s">
         <v>1158</v>
       </c>
@@ -35601,7 +35748,7 @@
       <c r="I67" s="23"/>
       <c r="J67" s="23"/>
     </row>
-    <row r="68" spans="4:10" ht="14.4" customHeight="1">
+    <row r="68" spans="4:10" ht="14.45" customHeight="1">
       <c r="D68" s="22" t="s">
         <v>1159</v>
       </c>
@@ -35612,7 +35759,7 @@
       <c r="I68" s="23"/>
       <c r="J68" s="23"/>
     </row>
-    <row r="69" spans="4:10" ht="14.4" customHeight="1">
+    <row r="69" spans="4:10" ht="14.45" customHeight="1">
       <c r="D69" s="22" t="s">
         <v>1160</v>
       </c>
@@ -35623,7 +35770,7 @@
       <c r="I69" s="23"/>
       <c r="J69" s="23"/>
     </row>
-    <row r="70" spans="4:10" ht="14.4" customHeight="1">
+    <row r="70" spans="4:10" ht="14.45" customHeight="1">
       <c r="D70" s="22" t="s">
         <v>1161</v>
       </c>
@@ -35634,7 +35781,7 @@
       <c r="I70" s="23"/>
       <c r="J70" s="23"/>
     </row>
-    <row r="71" spans="4:10" ht="14.4" customHeight="1">
+    <row r="71" spans="4:10" ht="14.45" customHeight="1">
       <c r="D71" s="22" t="s">
         <v>1162</v>
       </c>
@@ -35645,7 +35792,7 @@
       <c r="I71" s="23"/>
       <c r="J71" s="23"/>
     </row>
-    <row r="72" spans="4:10" ht="14.4" customHeight="1">
+    <row r="72" spans="4:10" ht="14.45" customHeight="1">
       <c r="E72" s="23"/>
       <c r="F72" s="23"/>
       <c r="G72" s="23"/>
@@ -35653,7 +35800,7 @@
       <c r="I72" s="23"/>
       <c r="J72" s="23"/>
     </row>
-    <row r="73" spans="4:10" ht="14.4">
+    <row r="73" spans="4:10" ht="15">
       <c r="E73" s="23"/>
       <c r="F73" s="23"/>
       <c r="G73" s="23"/>
@@ -35661,99 +35808,99 @@
       <c r="I73" s="23"/>
       <c r="J73" s="23"/>
     </row>
-    <row r="74" spans="4:10" ht="14.4"/>
-    <row r="75" spans="4:10" ht="14.4"/>
-    <row r="76" spans="4:10" ht="14.4"/>
-    <row r="77" spans="4:10" ht="14.4"/>
-    <row r="78" spans="4:10" ht="14.4"/>
-    <row r="79" spans="4:10" ht="14.4"/>
-    <row r="80" spans="4:10" ht="14.4"/>
-    <row r="81" ht="14.4"/>
-    <row r="82" ht="14.4"/>
-    <row r="83" ht="14.4"/>
-    <row r="84" ht="14.4"/>
-    <row r="85" ht="14.4"/>
-    <row r="86" ht="14.4"/>
-    <row r="87" ht="14.4"/>
-    <row r="88" ht="14.4"/>
-    <row r="89" ht="14.4"/>
-    <row r="90" ht="14.4"/>
-    <row r="91" ht="14.4"/>
-    <row r="92" ht="14.4"/>
-    <row r="93" ht="14.4"/>
-    <row r="94" ht="14.4"/>
-    <row r="95" ht="14.4"/>
-    <row r="96" ht="14.4"/>
-    <row r="97" ht="14.4"/>
-    <row r="98" ht="14.4"/>
-    <row r="99" ht="14.4"/>
-    <row r="100" ht="14.4"/>
-    <row r="101" ht="14.4"/>
-    <row r="102" ht="14.4"/>
-    <row r="103" ht="14.4"/>
-    <row r="104" ht="14.4"/>
-    <row r="105" ht="14.4"/>
-    <row r="106" ht="14.4"/>
-    <row r="107" ht="14.4"/>
-    <row r="108" ht="14.4"/>
-    <row r="109" ht="14.4"/>
-    <row r="110" ht="14.4"/>
-    <row r="111" ht="14.4"/>
-    <row r="112" ht="14.4"/>
-    <row r="113" ht="14.4"/>
-    <row r="114" ht="14.4"/>
-    <row r="115" ht="14.4"/>
-    <row r="116" ht="14.4"/>
-    <row r="117" ht="14.4"/>
-    <row r="118" ht="14.4"/>
-    <row r="119" ht="14.4"/>
-    <row r="120" ht="14.4"/>
-    <row r="121" ht="14.4"/>
-    <row r="122" ht="14.4"/>
-    <row r="123" ht="14.4"/>
-    <row r="124" ht="14.4"/>
-    <row r="125" ht="14.4"/>
-    <row r="126" ht="14.4"/>
-    <row r="127" ht="14.4"/>
-    <row r="128" ht="14.4"/>
-    <row r="129" ht="14.4"/>
-    <row r="130" ht="14.4"/>
-    <row r="131" ht="14.4"/>
-    <row r="132" ht="14.4"/>
-    <row r="133" ht="14.4"/>
-    <row r="134" ht="14.4"/>
-    <row r="135" ht="14.4"/>
-    <row r="136" ht="14.4"/>
-    <row r="137" ht="14.4"/>
-    <row r="138" ht="14.4"/>
-    <row r="139" ht="14.4"/>
-    <row r="140" ht="14.4"/>
-    <row r="141" ht="14.4"/>
-    <row r="142" ht="14.4"/>
-    <row r="143" ht="14.4"/>
-    <row r="144" ht="14.4"/>
-    <row r="145" ht="14.4"/>
-    <row r="146" ht="14.4"/>
-    <row r="147" ht="14.4"/>
-    <row r="148" ht="14.4"/>
-    <row r="149" ht="14.4"/>
-    <row r="150" ht="14.4"/>
-    <row r="151" ht="14.4"/>
-    <row r="152" ht="14.4"/>
-    <row r="153" ht="14.4"/>
-    <row r="154" ht="14.4"/>
-    <row r="155" ht="14.4"/>
-    <row r="156" ht="14.4"/>
-    <row r="157" ht="14.4"/>
-    <row r="158" ht="14.4"/>
-    <row r="159" ht="14.4"/>
-    <row r="160" ht="14.4"/>
-    <row r="161" ht="14.4"/>
-    <row r="162" ht="14.4"/>
-    <row r="163" ht="14.4"/>
-    <row r="164" ht="14.4"/>
-    <row r="165" ht="14.4"/>
-    <row r="166" ht="14.4"/>
+    <row r="74" spans="4:10" ht="15"/>
+    <row r="75" spans="4:10" ht="15"/>
+    <row r="76" spans="4:10" ht="15"/>
+    <row r="77" spans="4:10" ht="15"/>
+    <row r="78" spans="4:10" ht="15"/>
+    <row r="79" spans="4:10" ht="15"/>
+    <row r="80" spans="4:10" ht="15"/>
+    <row r="81" ht="15"/>
+    <row r="82" ht="15"/>
+    <row r="83" ht="15"/>
+    <row r="84" ht="15"/>
+    <row r="85" ht="15"/>
+    <row r="86" ht="15"/>
+    <row r="87" ht="15"/>
+    <row r="88" ht="15"/>
+    <row r="89" ht="15"/>
+    <row r="90" ht="15"/>
+    <row r="91" ht="15"/>
+    <row r="92" ht="15"/>
+    <row r="93" ht="15"/>
+    <row r="94" ht="15"/>
+    <row r="95" ht="15"/>
+    <row r="96" ht="15"/>
+    <row r="97" ht="15"/>
+    <row r="98" ht="15"/>
+    <row r="99" ht="15"/>
+    <row r="100" ht="15"/>
+    <row r="101" ht="15"/>
+    <row r="102" ht="15"/>
+    <row r="103" ht="15"/>
+    <row r="104" ht="15"/>
+    <row r="105" ht="15"/>
+    <row r="106" ht="15"/>
+    <row r="107" ht="15"/>
+    <row r="108" ht="15"/>
+    <row r="109" ht="15"/>
+    <row r="110" ht="15"/>
+    <row r="111" ht="15"/>
+    <row r="112" ht="15"/>
+    <row r="113" ht="15"/>
+    <row r="114" ht="15"/>
+    <row r="115" ht="15"/>
+    <row r="116" ht="15"/>
+    <row r="117" ht="15"/>
+    <row r="118" ht="15"/>
+    <row r="119" ht="15"/>
+    <row r="120" ht="15"/>
+    <row r="121" ht="15"/>
+    <row r="122" ht="15"/>
+    <row r="123" ht="15"/>
+    <row r="124" ht="15"/>
+    <row r="125" ht="15"/>
+    <row r="126" ht="15"/>
+    <row r="127" ht="15"/>
+    <row r="128" ht="15"/>
+    <row r="129" ht="15"/>
+    <row r="130" ht="15"/>
+    <row r="131" ht="15"/>
+    <row r="132" ht="15"/>
+    <row r="133" ht="15"/>
+    <row r="134" ht="15"/>
+    <row r="135" ht="15"/>
+    <row r="136" ht="15"/>
+    <row r="137" ht="15"/>
+    <row r="138" ht="15"/>
+    <row r="139" ht="15"/>
+    <row r="140" ht="15"/>
+    <row r="141" ht="15"/>
+    <row r="142" ht="15"/>
+    <row r="143" ht="15"/>
+    <row r="144" ht="15"/>
+    <row r="145" ht="15"/>
+    <row r="146" ht="15"/>
+    <row r="147" ht="15"/>
+    <row r="148" ht="15"/>
+    <row r="149" ht="15"/>
+    <row r="150" ht="15"/>
+    <row r="151" ht="15"/>
+    <row r="152" ht="15"/>
+    <row r="153" ht="15"/>
+    <row r="154" ht="15"/>
+    <row r="155" ht="15"/>
+    <row r="156" ht="15"/>
+    <row r="157" ht="15"/>
+    <row r="158" ht="15"/>
+    <row r="159" ht="15"/>
+    <row r="160" ht="15"/>
+    <row r="161" ht="15"/>
+    <row r="162" ht="15"/>
+    <row r="163" ht="15"/>
+    <row r="164" ht="15"/>
+    <row r="165" ht="15"/>
+    <row r="166" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35767,15 +35914,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="101.44140625" customWidth="1"/>
+    <col min="2" max="2" width="101.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" s="2"/>
     </row>
-    <row r="5" spans="2:2" ht="409.6">
+    <row r="5" spans="2:2" ht="409.5">
       <c r="B5" s="2" t="s">
         <v>769</v>
       </c>
@@ -35797,17 +35944,17 @@
       <selection pane="bottomLeft" activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="65"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="65"/>
     <col min="7" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.8" thickBot="1">
+    <row r="1" spans="1:12" ht="48" thickBot="1">
       <c r="A1" t="s">
         <v>760</v>
       </c>
@@ -36703,7 +36850,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15" thickBot="1">
+    <row r="42" spans="1:12" ht="15.75" thickBot="1">
       <c r="A42" s="49">
         <v>41</v>
       </c>
@@ -36726,7 +36873,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="16.2" thickBot="1">
+    <row r="43" spans="1:12" ht="16.5" thickBot="1">
       <c r="A43" s="49">
         <v>42</v>
       </c>
@@ -36749,7 +36896,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="16.2" thickBot="1">
+    <row r="44" spans="1:12" ht="16.5" thickBot="1">
       <c r="A44" s="49">
         <v>42</v>
       </c>
@@ -37435,7 +37582,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15" thickBot="1">
+    <row r="75" spans="1:12" ht="15.75" thickBot="1">
       <c r="A75" s="49">
         <v>71</v>
       </c>
@@ -37458,7 +37605,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="16.2" thickBot="1">
+    <row r="76" spans="1:12" ht="16.5" thickBot="1">
       <c r="A76" s="49">
         <v>72</v>
       </c>
@@ -37481,7 +37628,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="16.2" thickBot="1">
+    <row r="77" spans="1:12" ht="16.5" thickBot="1">
       <c r="A77" s="49">
         <v>73</v>
       </c>
@@ -37794,7 +37941,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15" thickBot="1">
+    <row r="94" spans="1:12" ht="15.75" thickBot="1">
       <c r="A94" s="49">
         <v>89</v>
       </c>
@@ -37817,7 +37964,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="16.2" thickBot="1">
+    <row r="95" spans="1:12" ht="16.5" thickBot="1">
       <c r="A95" s="49">
         <v>72</v>
       </c>
@@ -37880,7 +38027,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15" thickBot="1">
+    <row r="98" spans="1:12" ht="15.75" thickBot="1">
       <c r="A98" s="49"/>
       <c r="B98" s="22" t="s">
         <v>214</v>
@@ -37899,7 +38046,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="16.2" thickBot="1">
+    <row r="99" spans="1:12" ht="16.5" thickBot="1">
       <c r="A99" s="49">
         <v>92</v>
       </c>
@@ -37922,7 +38069,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="16.2" thickBot="1">
+    <row r="100" spans="1:12" ht="16.5" thickBot="1">
       <c r="A100" s="49">
         <v>92</v>
       </c>
@@ -37945,7 +38092,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="16.2" thickBot="1">
+    <row r="101" spans="1:12" ht="16.5" thickBot="1">
       <c r="A101" s="49">
         <v>92</v>
       </c>
@@ -37968,7 +38115,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="16.2" thickBot="1">
+    <row r="102" spans="1:12" ht="16.5" thickBot="1">
       <c r="A102" s="49">
         <v>92</v>
       </c>
@@ -37989,7 +38136,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15" thickBot="1">
+    <row r="103" spans="1:12" ht="15.75" thickBot="1">
       <c r="A103" s="49">
         <v>92</v>
       </c>
@@ -38007,7 +38154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15" thickBot="1">
+    <row r="104" spans="1:12" ht="15.75" thickBot="1">
       <c r="A104" s="49">
         <v>93</v>
       </c>
@@ -38331,7 +38478,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15" thickBot="1">
+    <row r="118" spans="1:12" ht="15.75" thickBot="1">
       <c r="A118" s="58">
         <v>616</v>
       </c>
@@ -38357,7 +38504,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15" thickBot="1">
+    <row r="119" spans="1:12" ht="15.75" thickBot="1">
       <c r="A119" s="49">
         <v>94</v>
       </c>
@@ -38378,7 +38525,7 @@
       <c r="J119" s="57"/>
       <c r="K119" s="57"/>
     </row>
-    <row r="120" spans="1:12" ht="15" thickBot="1">
+    <row r="120" spans="1:12" ht="15.75" thickBot="1">
       <c r="A120" s="49">
         <v>95</v>
       </c>
@@ -38406,7 +38553,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15" thickBot="1">
+    <row r="121" spans="1:12" ht="15.75" thickBot="1">
       <c r="A121" s="49">
         <v>96</v>
       </c>
@@ -38434,7 +38581,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="15" thickBot="1">
+    <row r="122" spans="1:12" ht="15.75" thickBot="1">
       <c r="A122" s="49">
         <v>97</v>
       </c>
@@ -38462,7 +38609,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15" thickBot="1">
+    <row r="123" spans="1:12" ht="15.75" thickBot="1">
       <c r="A123" s="58">
         <v>598</v>
       </c>
@@ -38485,7 +38632,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15" thickBot="1">
+    <row r="124" spans="1:12" ht="15.75" thickBot="1">
       <c r="A124" s="58">
         <v>599</v>
       </c>
@@ -38508,7 +38655,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="15" thickBot="1">
+    <row r="125" spans="1:12" ht="15.75" thickBot="1">
       <c r="A125" s="58">
         <v>600</v>
       </c>
@@ -38531,7 +38678,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15" thickBot="1">
+    <row r="126" spans="1:12" ht="15.75" thickBot="1">
       <c r="A126" s="58">
         <v>607</v>
       </c>
@@ -38554,7 +38701,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="15" thickBot="1">
+    <row r="127" spans="1:12" ht="15.75" thickBot="1">
       <c r="A127" s="49">
         <v>98</v>
       </c>
@@ -38582,7 +38729,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15" thickBot="1">
+    <row r="128" spans="1:12" ht="15.75" thickBot="1">
       <c r="A128" s="49">
         <v>99</v>
       </c>
@@ -38610,7 +38757,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="15" thickBot="1">
+    <row r="129" spans="1:12" ht="15.75" thickBot="1">
       <c r="A129" s="49">
         <v>100</v>
       </c>
@@ -38631,7 +38778,7 @@
       <c r="J129" s="57"/>
       <c r="K129" s="57"/>
     </row>
-    <row r="130" spans="1:12" ht="15" thickBot="1">
+    <row r="130" spans="1:12" ht="15.75" thickBot="1">
       <c r="A130" s="49">
         <v>101</v>
       </c>
@@ -38652,7 +38799,7 @@
       <c r="J130" s="57"/>
       <c r="K130" s="57"/>
     </row>
-    <row r="131" spans="1:12" ht="15" thickBot="1">
+    <row r="131" spans="1:12" ht="15.75" thickBot="1">
       <c r="A131" s="49">
         <v>102</v>
       </c>
@@ -38675,7 +38822,7 @@
       <c r="J131" s="57"/>
       <c r="K131" s="57"/>
     </row>
-    <row r="132" spans="1:12" ht="15" thickBot="1">
+    <row r="132" spans="1:12" ht="15.75" thickBot="1">
       <c r="A132" s="49">
         <v>106</v>
       </c>
@@ -38703,7 +38850,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15" thickBot="1">
+    <row r="133" spans="1:12" ht="15.75" thickBot="1">
       <c r="A133" s="49">
         <v>107</v>
       </c>
@@ -38731,7 +38878,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="15" thickBot="1">
+    <row r="134" spans="1:12" ht="15.75" thickBot="1">
       <c r="A134" s="49">
         <v>103</v>
       </c>
@@ -38759,7 +38906,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="15" thickBot="1">
+    <row r="135" spans="1:12" ht="15.75" thickBot="1">
       <c r="B135" s="55" t="s">
         <v>224</v>
       </c>
@@ -38779,7 +38926,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="15" thickBot="1">
+    <row r="136" spans="1:12" ht="15.75" thickBot="1">
       <c r="B136" s="64" t="s">
         <v>225</v>
       </c>
@@ -38797,7 +38944,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15" thickBot="1">
+    <row r="137" spans="1:12" ht="15.75" thickBot="1">
       <c r="A137" s="49">
         <v>108</v>
       </c>
@@ -38820,7 +38967,7 @@
       <c r="J137" s="57"/>
       <c r="K137" s="57"/>
     </row>
-    <row r="138" spans="1:12" ht="15" thickBot="1">
+    <row r="138" spans="1:12" ht="15.75" thickBot="1">
       <c r="A138" s="49">
         <v>109</v>
       </c>
@@ -38843,7 +38990,7 @@
       <c r="J138" s="57"/>
       <c r="K138" s="57"/>
     </row>
-    <row r="139" spans="1:12" ht="15" thickBot="1">
+    <row r="139" spans="1:12" ht="15.75" thickBot="1">
       <c r="A139" s="49">
         <v>110</v>
       </c>
@@ -38866,7 +39013,7 @@
       <c r="J139" s="57"/>
       <c r="K139" s="57"/>
     </row>
-    <row r="140" spans="1:12" ht="15" thickBot="1">
+    <row r="140" spans="1:12" ht="15.75" thickBot="1">
       <c r="A140" s="49">
         <v>111</v>
       </c>
@@ -38889,7 +39036,7 @@
       <c r="J140" s="57"/>
       <c r="K140" s="57"/>
     </row>
-    <row r="141" spans="1:12" ht="15" thickBot="1">
+    <row r="141" spans="1:12" ht="15.75" thickBot="1">
       <c r="A141" s="58">
         <v>569</v>
       </c>
@@ -38907,7 +39054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="15" thickBot="1">
+    <row r="142" spans="1:12" ht="15.75" thickBot="1">
       <c r="B142" s="55" t="s">
         <v>1568</v>
       </c>
@@ -39012,17 +39159,22 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E25" sqref="B25:E25"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -39048,7 +39200,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="55.2">
+    <row r="2" spans="1:7" ht="55.5">
       <c r="A2" s="38" t="s">
         <v>1191</v>
       </c>
@@ -39071,7 +39223,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.2">
+    <row r="3" spans="1:7" ht="45">
       <c r="A3" s="38" t="s">
         <v>1195</v>
       </c>
@@ -39094,7 +39246,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.2">
+    <row r="4" spans="1:7" ht="45">
       <c r="A4" s="38" t="s">
         <v>1199</v>
       </c>
@@ -39117,7 +39269,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.2">
+    <row r="5" spans="1:7" ht="45">
       <c r="A5" s="38" t="s">
         <v>1204</v>
       </c>
@@ -39140,7 +39292,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.2">
+    <row r="6" spans="1:7" ht="60">
       <c r="A6" s="38" t="s">
         <v>1208</v>
       </c>
@@ -39163,7 +39315,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="43.2">
+    <row r="7" spans="1:7" ht="45">
       <c r="A7" s="38" t="s">
         <v>1211</v>
       </c>
@@ -39186,7 +39338,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="43.2">
+    <row r="8" spans="1:7" ht="45">
       <c r="A8" s="38" t="s">
         <v>1216</v>
       </c>
@@ -39209,7 +39361,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="43.2">
+    <row r="9" spans="1:7" ht="45">
       <c r="A9" s="38" t="s">
         <v>1220</v>
       </c>
@@ -39232,7 +39384,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="57.6">
+    <row r="10" spans="1:7" ht="75">
       <c r="A10" s="38" t="s">
         <v>1223</v>
       </c>
@@ -39255,7 +39407,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="57.6">
+    <row r="11" spans="1:7" ht="60">
       <c r="A11" s="38" t="s">
         <v>1226</v>
       </c>
@@ -39278,7 +39430,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="57.6">
+    <row r="12" spans="1:7" ht="60">
       <c r="A12" s="38" t="s">
         <v>1230</v>
       </c>
@@ -39301,7 +39453,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="43.2">
+    <row r="13" spans="1:7" ht="45">
       <c r="A13" s="38" t="s">
         <v>1234</v>
       </c>
@@ -39324,7 +39476,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="57.6">
+    <row r="14" spans="1:7" ht="60">
       <c r="A14" s="38" t="s">
         <v>1238</v>
       </c>
@@ -39347,7 +39499,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="72">
+    <row r="15" spans="1:7" ht="75">
       <c r="A15" s="38" t="s">
         <v>1241</v>
       </c>
@@ -39370,7 +39522,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.8">
+    <row r="16" spans="1:7" ht="30">
       <c r="A16" s="38" t="s">
         <v>1244</v>
       </c>
@@ -39393,7 +39545,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="43.2">
+    <row r="17" spans="1:13" ht="45">
       <c r="A17" s="38" t="s">
         <v>1249</v>
       </c>
@@ -39416,7 +39568,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="57.6">
+    <row r="18" spans="1:13" ht="60">
       <c r="A18" s="38" t="s">
         <v>1252</v>
       </c>
@@ -39439,7 +39591,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.8">
+    <row r="19" spans="1:13" ht="30">
       <c r="A19" s="38" t="s">
         <v>1256</v>
       </c>
@@ -39462,7 +39614,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="27.6">
+    <row r="20" spans="1:13" ht="27.75">
       <c r="A20" s="38" t="s">
         <v>1260</v>
       </c>
@@ -39485,7 +39637,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="43.2">
+    <row r="21" spans="1:13" ht="45">
       <c r="A21" s="38" t="s">
         <v>1264</v>
       </c>
@@ -39508,7 +39660,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.8">
+    <row r="22" spans="1:13" ht="30">
       <c r="A22" s="38" t="s">
         <v>1267</v>
       </c>
@@ -39531,7 +39683,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="43.2">
+    <row r="23" spans="1:13" ht="45">
       <c r="A23" s="38" t="s">
         <v>1270</v>
       </c>
@@ -39554,7 +39706,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="43.2">
+    <row r="24" spans="1:13" ht="45">
       <c r="A24" s="38" t="s">
         <v>1273</v>
       </c>
@@ -39577,7 +39729,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="43.2">
+    <row r="25" spans="1:13" ht="60">
       <c r="A25" s="38" t="s">
         <v>1276</v>
       </c>
@@ -39596,8 +39748,11 @@
       <c r="F25" s="38" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="42">
+      <c r="G25" s="38" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="42.75">
       <c r="A26" s="38" t="s">
         <v>1279</v>
       </c>
@@ -39613,8 +39768,14 @@
       <c r="E26" s="38" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="28.8">
+      <c r="F26" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="30">
       <c r="A27" s="38" t="s">
         <v>1283</v>
       </c>
@@ -39630,8 +39791,14 @@
       <c r="E27" s="38" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="43.2">
+      <c r="F27" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="45">
       <c r="A28" s="38" t="s">
         <v>1287</v>
       </c>
@@ -39647,8 +39814,17 @@
       <c r="E28" s="38" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="43.2">
+      <c r="F28" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="H28" s="38" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="45">
       <c r="A29" s="38" t="s">
         <v>1290</v>
       </c>
@@ -39664,8 +39840,14 @@
       <c r="E29" s="38" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="43.2">
+      <c r="F29" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="60">
       <c r="A30" s="38" t="s">
         <v>1293</v>
       </c>
@@ -39681,8 +39863,29 @@
       <c r="E30" s="38" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="57.6">
+      <c r="F30" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>1651</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>1653</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>1654</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="60">
       <c r="A31" s="38" t="s">
         <v>1297</v>
       </c>
@@ -39698,8 +39901,17 @@
       <c r="E31" s="38" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="57.6">
+      <c r="F31" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="60">
       <c r="A32" s="38" t="s">
         <v>1301</v>
       </c>
@@ -39715,8 +39927,14 @@
       <c r="E32" s="38" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="43.2">
+      <c r="F32" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="45">
       <c r="A33" s="38" t="s">
         <v>1304</v>
       </c>
@@ -39733,7 +39951,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="43.2">
+    <row r="34" spans="1:5" ht="45">
       <c r="A34" s="38" t="s">
         <v>1308</v>
       </c>
@@ -39750,7 +39968,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="43.2">
+    <row r="35" spans="1:5" ht="45">
       <c r="A35" s="38" t="s">
         <v>1312</v>
       </c>
@@ -39767,7 +39985,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="28.8">
+    <row r="36" spans="1:5" ht="30">
       <c r="A36" s="38" t="s">
         <v>1315</v>
       </c>
@@ -39784,7 +40002,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="28.8">
+    <row r="37" spans="1:5" ht="30">
       <c r="A37" s="38" t="s">
         <v>1318</v>
       </c>
@@ -39801,7 +40019,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="28.8">
+    <row r="38" spans="1:5" ht="45">
       <c r="A38" s="38" t="s">
         <v>1322</v>
       </c>
@@ -39818,7 +40036,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="43.2">
+    <row r="39" spans="1:5" ht="45">
       <c r="A39" s="38" t="s">
         <v>1326</v>
       </c>
@@ -39835,7 +40053,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="43.2">
+    <row r="40" spans="1:5" ht="45">
       <c r="A40" s="38" t="s">
         <v>1330</v>
       </c>
@@ -39852,7 +40070,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="43.2">
+    <row r="41" spans="1:5" ht="45">
       <c r="A41" s="38" t="s">
         <v>1333</v>
       </c>
@@ -39869,7 +40087,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="28.8">
+    <row r="42" spans="1:5" ht="30">
       <c r="A42" s="38" t="s">
         <v>1336</v>
       </c>

--- a/tests/C2Pro_Test_Suites_Master.xlsx
+++ b/tests/C2Pro_Test_Suites_Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esus_\Documents\AI\ZTWQ\c2pro\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72E091C-0488-4CD6-A8F3-5226143CCA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6CCB49-8616-4C07-AF9D-87A7743B8679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12480" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5823" uniqueCount="1658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5850" uniqueCount="1660">
   <si>
     <t>Nº</t>
   </si>
@@ -12655,6 +12655,9 @@
   - test_i2_low_confidence_table_routes_to_human_review_conceptually</t>
   </si>
   <si>
+    <t>red</t>
+  </si>
+  <si>
     <t>detectado issue de seguridad</t>
   </si>
   <si>
@@ -12727,7 +12730,10 @@
     <t xml:space="preserve"> @frontend-tdd can then implement GREEN for those new failing tests.</t>
   </si>
   <si>
-    <t xml:space="preserve"> @qa-agent RED plan for S3-0</t>
+    <t>E2E pending</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @qa-agent RED plan for S3-</t>
   </si>
 </sst>
 </file>
@@ -12987,7 +12993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -13163,6 +13169,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18967,67 +18976,67 @@
     <row r="236" spans="2:2" hidden="1"/>
     <row r="243" spans="1:1">
       <c r="A243" s="16" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="16" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="16" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="16" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="16" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="16" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="16" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="16" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="16" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="16" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="16" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="16" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="16" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
   </sheetData>
@@ -39161,8 +39170,8 @@
   </sheetPr>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -39545,7 +39554,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="45">
+    <row r="17" spans="1:8" ht="45">
       <c r="A17" s="38" t="s">
         <v>1249</v>
       </c>
@@ -39568,7 +39577,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="60">
+    <row r="18" spans="1:8" ht="60">
       <c r="A18" s="38" t="s">
         <v>1252</v>
       </c>
@@ -39591,7 +39600,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="30">
+    <row r="19" spans="1:8" ht="30">
       <c r="A19" s="38" t="s">
         <v>1256</v>
       </c>
@@ -39614,7 +39623,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="27.75">
+    <row r="20" spans="1:8" ht="27.75">
       <c r="A20" s="38" t="s">
         <v>1260</v>
       </c>
@@ -39637,7 +39646,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="45">
+    <row r="21" spans="1:8" ht="45">
       <c r="A21" s="38" t="s">
         <v>1264</v>
       </c>
@@ -39660,7 +39669,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30">
+    <row r="22" spans="1:8" ht="30">
       <c r="A22" s="38" t="s">
         <v>1267</v>
       </c>
@@ -39683,7 +39692,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="45">
+    <row r="23" spans="1:8" ht="45">
       <c r="A23" s="38" t="s">
         <v>1270</v>
       </c>
@@ -39706,7 +39715,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="45">
+    <row r="24" spans="1:8" ht="45">
       <c r="A24" s="38" t="s">
         <v>1273</v>
       </c>
@@ -39729,7 +39738,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="60">
+    <row r="25" spans="1:8" ht="60">
       <c r="A25" s="38" t="s">
         <v>1276</v>
       </c>
@@ -39752,7 +39761,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="42.75">
+    <row r="26" spans="1:8" ht="42.75">
       <c r="A26" s="38" t="s">
         <v>1279</v>
       </c>
@@ -39775,7 +39784,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="30">
+    <row r="27" spans="1:8" ht="30">
       <c r="A27" s="38" t="s">
         <v>1283</v>
       </c>
@@ -39798,7 +39807,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="45">
+    <row r="28" spans="1:8" ht="45">
       <c r="A28" s="38" t="s">
         <v>1287</v>
       </c>
@@ -39821,10 +39830,10 @@
         <v>407</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="45">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="45">
       <c r="A29" s="38" t="s">
         <v>1290</v>
       </c>
@@ -39847,7 +39856,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="60">
+    <row r="30" spans="1:8" ht="60">
       <c r="A30" s="38" t="s">
         <v>1293</v>
       </c>
@@ -39869,23 +39878,11 @@
       <c r="G30" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="I30" s="16" t="s">
-        <v>1651</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>1653</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>1654</v>
-      </c>
-      <c r="L30" s="16" t="s">
-        <v>1652</v>
-      </c>
-      <c r="M30" s="16" t="s">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="60">
+      <c r="H30" s="67" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="60">
       <c r="A31" s="38" t="s">
         <v>1297</v>
       </c>
@@ -39907,11 +39904,11 @@
       <c r="G31" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="I31" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="60">
+      <c r="H31" s="67" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="60">
       <c r="A32" s="38" t="s">
         <v>1301</v>
       </c>
@@ -39930,11 +39927,14 @@
       <c r="F32" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="I32" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="45">
+      <c r="G32" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="H32" s="67" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="45">
       <c r="A33" s="38" t="s">
         <v>1304</v>
       </c>
@@ -39950,8 +39950,17 @@
       <c r="E33" s="38" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="45">
+      <c r="F33" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="H33" s="67" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="45">
       <c r="A34" s="38" t="s">
         <v>1308</v>
       </c>
@@ -39967,8 +39976,32 @@
       <c r="E34" s="38" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="45">
+      <c r="F34" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="H34" s="67" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>1654</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>1655</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>1653</v>
+      </c>
+      <c r="M34" s="16" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="45">
       <c r="A35" s="38" t="s">
         <v>1312</v>
       </c>
@@ -39984,8 +40017,17 @@
       <c r="E35" s="38" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="30">
+      <c r="F35" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="H35" s="67" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="30">
       <c r="A36" s="38" t="s">
         <v>1315</v>
       </c>
@@ -40001,8 +40043,17 @@
       <c r="E36" s="38" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="30">
+      <c r="F36" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="H36" s="67" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="30">
       <c r="A37" s="38" t="s">
         <v>1318</v>
       </c>
@@ -40018,8 +40069,17 @@
       <c r="E37" s="38" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="45">
+      <c r="F37" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="H37" s="67" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="45">
       <c r="A38" s="38" t="s">
         <v>1322</v>
       </c>
@@ -40035,8 +40095,20 @@
       <c r="E38" s="38" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="45">
+      <c r="F38" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="H38" s="67" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="45">
       <c r="A39" s="38" t="s">
         <v>1326</v>
       </c>
@@ -40052,8 +40124,20 @@
       <c r="E39" s="38" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="45">
+      <c r="F39" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="H39" s="67" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="45">
       <c r="A40" s="38" t="s">
         <v>1330</v>
       </c>
@@ -40069,8 +40153,14 @@
       <c r="E40" s="38" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="45">
+      <c r="F40" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="G40" s="38" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="45">
       <c r="A41" s="38" t="s">
         <v>1333</v>
       </c>
@@ -40087,7 +40177,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30">
+    <row r="42" spans="1:13" ht="30">
       <c r="A42" s="38" t="s">
         <v>1336</v>
       </c>

--- a/tests/C2Pro_Test_Suites_Master.xlsx
+++ b/tests/C2Pro_Test_Suites_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esus_\Documents\AI\ZTWQ\c2pro\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6CCB49-8616-4C07-AF9D-87A7743B8679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3538C1-7E4B-4633-9A8E-494FC07C2B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12480" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2070" windowWidth="23280" windowHeight="12480" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suite Test" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5850" uniqueCount="1660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5897" uniqueCount="1704">
   <si>
     <t>Nº</t>
   </si>
@@ -12655,9 +12655,6 @@
   - test_i2_low_confidence_table_routes_to_human_review_conceptually</t>
   </si>
   <si>
-    <t>red</t>
-  </si>
-  <si>
     <t>detectado issue de seguridad</t>
   </si>
   <si>
@@ -12734,6 +12731,141 @@
   </si>
   <si>
     <t xml:space="preserve"> @qa-agent RED plan for S3-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1. [S3-12-RED-UNIT-01] Landmark semantics on core shell                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Target: apps/web/src/tests/accessibility/S3-12-landmarks.a11y.test.tsx       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Fail condition: missing banner, navigation, main, or contentinfo roles.      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2. [S3-12-RED-UNIT-02] Heading hierarchy integrity                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Target: apps/web/src/tests/accessibility/S3-12-headings.a11y.test.tsx        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Fail condition: skipped levels or non-linear heading order.                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3. [S3-12-RED-UNIT-03] Control accessibility + focus-visible contract           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Target: apps/web/src/tests/accessibility/S3-12-controls.a11y.test.tsx        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Fail condition: actionable controls lack accessible name or focus-visible    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     marker.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4. [S3-12-RED-UNIT-04] WCAG AA contrast threshold for critical text             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Target: apps/web/src/tests/accessibility/S3-12-contrast.a11y.test.tsx        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Fail condition: contrast ratio for critical badge/text &lt; 4.5:1.              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5. [S3-12-RED-UNIT-05] Modal focus trap + return-focus behavior                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Target: apps/web/src/tests/accessibility/S3-12-dialog-focus.a11y.test.tsx    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Fail condition: focus escapes dialog or trigger focus is not restored on     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     close.                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6. [S3-12-RED-UNIT-06] Live region update discipline                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Target: apps/web/src/tests/accessibility/S3-12-live-regions.a11y.test.tsx    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Fail condition: status not announced or duplicate spam on single transition. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7. [S3-12-RED-INT-01] Axe critical violations gate (core shell)                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Target: apps/web/src/tests/integration/a11y/S3-12-axe-                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     critical.integration.test.tsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Fail condition: endpoint unavailable or criticalViolations !== 0.            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8. [S3-12-RED-INT-02] Keyboard traversal workflow integrity                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Target: apps/web/src/tests/integration/a11y/S3-12-keyboard-                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     flow.integration.test.tsx                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Fail condition: traps detected or workflow not completable by keyboard.      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9. [S3-12-RED-INT-03] Tablet layout clipping/overlap checks                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Target: apps/web/src/tests/integration/responsive/S3-12-tablet-              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     layout.integration.test.tsx                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Fail condition: clipped content or overlapping panels at 768x1024 and        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     820x1180.                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  10. [S3-12-RED-INT-04] Orientation-change state persistence                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Fail condition: active context/state lost after portrait↔landscape switch.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  11. [S3-12-RED-INT-05] Reduced-motion + 200% zoom operability                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Target: apps/web/src/tests/integration/a11y/S3-12-accessibility-             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     modes.integration.test.tsx                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Fail condition: mode toggles degrade readability/operability.                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  12. [S3-12-RED-E2E-01] Route-level a11y critical/blocker smoke                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Target: apps/web/src/tests/e2e/S3-12-a11y-tablet.spec.ts                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Fail condition: non-zero critical/blocker counters on dashboard route.       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  13. [S3-12-RED-E2E-02] Tablet portrait/landscape sanity on key flows            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Target: apps/web/src/tests/e2e/S3-12-a11y-tablet.spec.ts </t>
   </si>
 </sst>
 </file>
@@ -17593,8 +17725,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F264"/>
   <sheetViews>
-    <sheetView topLeftCell="A237" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A250" sqref="A250"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -18976,67 +19108,67 @@
     <row r="236" spans="2:2" hidden="1"/>
     <row r="243" spans="1:1">
       <c r="A243" s="16" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="16" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="16" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="16" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="16" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="16" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="16" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="16" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="16" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="16" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="16" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="16" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="16" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
   </sheetData>
@@ -39168,10 +39300,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -39179,7 +39311,7 @@
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="71.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.140625" bestFit="1" customWidth="1"/>
@@ -39830,7 +39962,7 @@
         <v>407</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="45">
@@ -39879,7 +40011,7 @@
         <v>407</v>
       </c>
       <c r="H30" s="67" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="60">
@@ -39905,7 +40037,7 @@
         <v>407</v>
       </c>
       <c r="H31" s="67" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="60">
@@ -39931,7 +40063,7 @@
         <v>407</v>
       </c>
       <c r="H32" s="67" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="45">
@@ -39957,7 +40089,7 @@
         <v>407</v>
       </c>
       <c r="H33" s="67" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="45">
@@ -39983,22 +40115,22 @@
         <v>407</v>
       </c>
       <c r="H34" s="67" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="I34" s="16" t="s">
+        <v>1651</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>1653</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>1654</v>
+      </c>
+      <c r="L34" s="16" t="s">
         <v>1652</v>
       </c>
-      <c r="J34" s="16" t="s">
-        <v>1654</v>
-      </c>
-      <c r="K34" s="16" t="s">
+      <c r="M34" s="16" t="s">
         <v>1655</v>
-      </c>
-      <c r="L34" s="16" t="s">
-        <v>1653</v>
-      </c>
-      <c r="M34" s="16" t="s">
-        <v>1656</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="45">
@@ -40024,7 +40156,7 @@
         <v>407</v>
       </c>
       <c r="H35" s="67" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="30">
@@ -40050,7 +40182,7 @@
         <v>407</v>
       </c>
       <c r="H36" s="67" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="30">
@@ -40076,7 +40208,7 @@
         <v>407</v>
       </c>
       <c r="H37" s="67" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="45">
@@ -40102,10 +40234,10 @@
         <v>407</v>
       </c>
       <c r="H38" s="67" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="I38" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="45">
@@ -40131,10 +40263,10 @@
         <v>407</v>
       </c>
       <c r="H39" s="67" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I39" t="s">
         <v>1658</v>
-      </c>
-      <c r="I39" t="s">
-        <v>1659</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="45">
@@ -40157,7 +40289,7 @@
         <v>404</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>1637</v>
+        <v>407</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="45">
@@ -40192,6 +40324,241 @@
       </c>
       <c r="E42" s="38" t="s">
         <v>1338</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="I44" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="I45" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="I46" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="I47" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="I48" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9">
+      <c r="I49" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9">
+      <c r="I50" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9">
+      <c r="I51" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9">
+      <c r="I52" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9">
+      <c r="I53" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9">
+      <c r="I54" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9">
+      <c r="I55" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9">
+      <c r="I56" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9">
+      <c r="I57" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9">
+      <c r="I58" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9">
+      <c r="I59" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9">
+      <c r="I60" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9">
+      <c r="I61" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="62" spans="9:9">
+      <c r="I62" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="63" spans="9:9">
+      <c r="I63" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="64" spans="9:9">
+      <c r="I64" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9">
+      <c r="I65" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9">
+      <c r="I66" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9">
+      <c r="I67" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9">
+      <c r="I68" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9">
+      <c r="I69" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9">
+      <c r="I70" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9">
+      <c r="I71" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9">
+      <c r="I72" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9">
+      <c r="I73" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9">
+      <c r="I74" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9">
+      <c r="I75" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9">
+      <c r="I76" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9">
+      <c r="I77" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="78" spans="9:9">
+      <c r="I78" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="79" spans="9:9">
+      <c r="I79" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="80" spans="9:9">
+      <c r="I80" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="81" spans="9:9">
+      <c r="I81" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="82" spans="9:9">
+      <c r="I82" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="83" spans="9:9">
+      <c r="I83" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="84" spans="9:9">
+      <c r="I84" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="85" spans="9:9">
+      <c r="I85" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="86" spans="9:9">
+      <c r="I86" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="87" spans="9:9">
+      <c r="I87" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="88" spans="9:9">
+      <c r="I88" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="89" spans="9:9">
+      <c r="I89" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="90" spans="9:9">
+      <c r="I90" t="s">
+        <v>1703</v>
       </c>
     </row>
   </sheetData>
